--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1103,7 +1103,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="5" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1189,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19991700024</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>115.8</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>115.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19971700025</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1267,16 +1267,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>72.59999999999999</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>72.59999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1284,24 +1284,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19961700026</v>
+        <v>19871400086</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>53.09999999999999</v>
+        <v>1795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.09999999999999</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="5">
@@ -1309,24 +1309,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19951700027</v>
+        <v>19861400087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>183.72</v>
+        <v>2746</v>
       </c>
       <c r="G5" t="n">
-        <v>183.72</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="6">
@@ -1334,24 +1334,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19941700028</v>
+        <v>20132800145</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F6" t="n">
-        <v>352.5</v>
+        <v>4734</v>
       </c>
       <c r="G6" t="n">
-        <v>352.5</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="7">
@@ -1359,24 +1359,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19931700029</v>
+        <v>20122800156</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F7" t="n">
-        <v>65.59999999999999</v>
+        <v>1597.7</v>
       </c>
       <c r="G7" t="n">
-        <v>65.59999999999999</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="8">
@@ -1384,24 +1384,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19921700030</v>
+        <v>20102900161</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F8" t="n">
-        <v>261.1</v>
+        <v>2780.3</v>
       </c>
       <c r="G8" t="n">
-        <v>261.1</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="9">
@@ -1409,24 +1409,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19911700031</v>
+        <v>20082900162</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F9" t="n">
-        <v>163</v>
+        <v>94.8</v>
       </c>
       <c r="G9" t="n">
-        <v>163</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="10">
@@ -1434,24 +1434,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19901700032</v>
+        <v>20072900163</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F10" t="n">
-        <v>97.07900000000001</v>
+        <v>648</v>
       </c>
       <c r="G10" t="n">
-        <v>97.07900000000001</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11">
@@ -1459,24 +1459,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19871700033</v>
+        <v>20062900164</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F11" t="n">
-        <v>120.4</v>
+        <v>628</v>
       </c>
       <c r="G11" t="n">
-        <v>120.4</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12">
@@ -1484,24 +1484,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19861700035</v>
+        <v>20002900165</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F12" t="n">
-        <v>60.491</v>
+        <v>967.22</v>
       </c>
       <c r="G12" t="n">
-        <v>60.491</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="13">
@@ -1509,24 +1509,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19851700036</v>
+        <v>19982900166</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F13" t="n">
-        <v>521</v>
+        <v>1732</v>
       </c>
       <c r="G13" t="n">
-        <v>521</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="14">
@@ -1534,24 +1534,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19821700037</v>
+        <v>20112800167</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F14" t="n">
-        <v>156.5</v>
+        <v>1909</v>
       </c>
       <c r="G14" t="n">
-        <v>156.5</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="15">
@@ -1559,24 +1559,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19771700038</v>
+        <v>19972900168</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F15" t="n">
-        <v>100.78</v>
+        <v>949</v>
       </c>
       <c r="G15" t="n">
-        <v>100.78</v>
+        <v>949</v>
       </c>
     </row>
     <row r="16">
@@ -1584,24 +1584,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19751700039</v>
+        <v>19962900169</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F16" t="n">
-        <v>619.4</v>
+        <v>750</v>
       </c>
       <c r="G16" t="n">
-        <v>619.4</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17">
@@ -1609,24 +1609,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19731700040</v>
+        <v>19952900170</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F17" t="n">
-        <v>639.7</v>
+        <v>750</v>
       </c>
       <c r="G17" t="n">
-        <v>639.7</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18">
@@ -1634,24 +1634,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19721700041</v>
+        <v>19942900171</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F18" t="n">
-        <v>77.7</v>
+        <v>2780</v>
       </c>
       <c r="G18" t="n">
-        <v>77.7</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="19">
@@ -1659,24 +1659,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19711700042</v>
+        <v>19922900172</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F19" t="n">
-        <v>183</v>
+        <v>496</v>
       </c>
       <c r="G19" t="n">
-        <v>183</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20">
@@ -1684,24 +1684,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19691700043</v>
+        <v>19912900173</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F20" t="n">
-        <v>173.2865</v>
+        <v>488.3</v>
       </c>
       <c r="G20" t="n">
-        <v>173.2865</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="21">
@@ -1709,24 +1709,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19591700044</v>
+        <v>19882900174</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F21" t="n">
-        <v>149</v>
+        <v>652.8</v>
       </c>
       <c r="G21" t="n">
-        <v>149</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="22">
@@ -1734,24 +1734,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19521700046</v>
+        <v>19872900175</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F22" t="n">
-        <v>94.59999999999999</v>
+        <v>498.5</v>
       </c>
       <c r="G22" t="n">
-        <v>94.59999999999999</v>
+        <v>498.5</v>
       </c>
     </row>
     <row r="23">
@@ -1759,24 +1759,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19461700047</v>
+        <v>19862900176</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5</v>
+        <v>232.8</v>
       </c>
       <c r="G23" t="n">
-        <v>135.5</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="24">
@@ -1784,24 +1784,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19871400086</v>
+        <v>19852900177</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="F24" t="n">
-        <v>1795</v>
+        <v>465</v>
       </c>
       <c r="G24" t="n">
-        <v>1795</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25">
@@ -1809,24 +1809,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19861400087</v>
+        <v>20102800178</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="F25" t="n">
-        <v>2746</v>
+        <v>433</v>
       </c>
       <c r="G25" t="n">
-        <v>2746</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26">
@@ -1834,24 +1834,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19841400088</v>
+        <v>20092800189</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="F26" t="n">
-        <v>1410</v>
+        <v>716</v>
       </c>
       <c r="G26" t="n">
-        <v>1410</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27">
@@ -1859,24 +1859,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19831400090</v>
+        <v>20093000194</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F27" t="n">
-        <v>1360</v>
+        <v>83.8</v>
       </c>
       <c r="G27" t="n">
-        <v>1360</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="28">
@@ -1884,24 +1884,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19821400091</v>
+        <v>20063000195</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1288</v>
+        <v>60</v>
       </c>
       <c r="G28" t="n">
-        <v>1288</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -1909,24 +1909,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20132800145</v>
+        <v>20023000196</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F29" t="n">
-        <v>4734</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>4734</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1934,24 +1934,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20122800156</v>
+        <v>19963000197</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F30" t="n">
-        <v>1597.7</v>
+        <v>212</v>
       </c>
       <c r="G30" t="n">
-        <v>1597.7</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31">
@@ -1959,24 +1959,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20102900161</v>
+        <v>19953000198</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F31" t="n">
-        <v>2780.3</v>
+        <v>97.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2780.3</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="32">
@@ -1984,24 +1984,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20082900162</v>
+        <v>20082800200</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F32" t="n">
-        <v>94.8</v>
+        <v>250</v>
       </c>
       <c r="G32" t="n">
-        <v>94.8</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
@@ -2009,24 +2009,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20072900163</v>
+        <v>20072800211</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F33" t="n">
-        <v>648</v>
+        <v>1572</v>
       </c>
       <c r="G33" t="n">
-        <v>648</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="34">
@@ -2034,24 +2034,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20062900164</v>
+        <v>20052800213</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F34" t="n">
-        <v>628</v>
+        <v>350</v>
       </c>
       <c r="G34" t="n">
-        <v>628</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
@@ -2059,24 +2059,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20002900165</v>
+        <v>20042800214</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F35" t="n">
-        <v>967.22</v>
+        <v>336</v>
       </c>
       <c r="G35" t="n">
-        <v>967.22</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36">
@@ -2084,24 +2084,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19982900166</v>
+        <v>20032800216</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F36" t="n">
-        <v>1732</v>
+        <v>822</v>
       </c>
       <c r="G36" t="n">
-        <v>1732</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37">
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20112800167</v>
+        <v>20012800217</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>0.44</v>
       </c>
       <c r="F37" t="n">
-        <v>1909</v>
+        <v>690</v>
       </c>
       <c r="G37" t="n">
-        <v>1909</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38">
@@ -2134,24 +2134,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19972900168</v>
+        <v>19982800218</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F38" t="n">
-        <v>949</v>
+        <v>123</v>
       </c>
       <c r="G38" t="n">
-        <v>949</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -2159,24 +2159,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19962900169</v>
+        <v>19922800219</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F39" t="n">
-        <v>750</v>
+        <v>1127.4</v>
       </c>
       <c r="G39" t="n">
-        <v>750</v>
+        <v>1127.4</v>
       </c>
     </row>
     <row r="40">
@@ -2184,24 +2184,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19952900170</v>
+        <v>19912800220</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F40" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="G40" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
     </row>
     <row r="41">
@@ -2209,24 +2209,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19942900171</v>
+        <v>19902800221</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F41" t="n">
-        <v>2780</v>
+        <v>561.7</v>
       </c>
       <c r="G41" t="n">
-        <v>2780</v>
+        <v>561.7</v>
       </c>
     </row>
     <row r="42">
@@ -2234,24 +2234,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19922900172</v>
+        <v>19892800222</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F42" t="n">
-        <v>496</v>
+        <v>332.7</v>
       </c>
       <c r="G42" t="n">
-        <v>496</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="43">
@@ -2259,24 +2259,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19912900173</v>
+        <v>19882800223</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F43" t="n">
-        <v>488.3</v>
+        <v>169.9</v>
       </c>
       <c r="G43" t="n">
-        <v>488.3</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="44">
@@ -2284,24 +2284,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19882900174</v>
+        <v>19872800224</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F44" t="n">
-        <v>652.8</v>
+        <v>762.5</v>
       </c>
       <c r="G44" t="n">
-        <v>652.8</v>
+        <v>762.5</v>
       </c>
     </row>
     <row r="45">
@@ -2309,24 +2309,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19872900175</v>
+        <v>19862800225</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F45" t="n">
-        <v>498.5</v>
+        <v>713.5</v>
       </c>
       <c r="G45" t="n">
-        <v>498.5</v>
+        <v>713.5</v>
       </c>
     </row>
     <row r="46">
@@ -2334,24 +2334,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19862900176</v>
+        <v>19852800227</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F46" t="n">
-        <v>232.8</v>
+        <v>1157</v>
       </c>
       <c r="G46" t="n">
-        <v>232.8</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="47">
@@ -2359,24 +2359,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19852900177</v>
+        <v>20180300241</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E47" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F47" t="n">
-        <v>465</v>
+        <v>140.5</v>
       </c>
       <c r="G47" t="n">
-        <v>465</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="48">
@@ -2384,24 +2384,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20102800178</v>
+        <v>20140300242</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E48" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F48" t="n">
-        <v>433</v>
+        <v>1117.5</v>
       </c>
       <c r="G48" t="n">
-        <v>433</v>
+        <v>1117.5</v>
       </c>
     </row>
     <row r="49">
@@ -2409,24 +2409,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19832900179</v>
+        <v>20130300243</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E49" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F49" t="n">
-        <v>361.3</v>
+        <v>296.3</v>
       </c>
       <c r="G49" t="n">
-        <v>361.3</v>
+        <v>296.3</v>
       </c>
     </row>
     <row r="50">
@@ -2434,24 +2434,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19772900180</v>
+        <v>20110300244</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E50" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F50" t="n">
-        <v>59.5</v>
+        <v>2110.5</v>
       </c>
       <c r="G50" t="n">
-        <v>59.5</v>
+        <v>2110.5</v>
       </c>
     </row>
     <row r="51">
@@ -2459,24 +2459,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19742900181</v>
+        <v>20100300245</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F51" t="n">
-        <v>604</v>
+        <v>3470</v>
       </c>
       <c r="G51" t="n">
-        <v>604</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="52">
@@ -2484,24 +2484,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19732900182</v>
+        <v>20090300246</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E52" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F52" t="n">
-        <v>1263</v>
+        <v>639</v>
       </c>
       <c r="G52" t="n">
-        <v>1263</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53">
@@ -2509,24 +2509,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19722900183</v>
+        <v>20080300247</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E53" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F53" t="n">
-        <v>663</v>
+        <v>4269.5</v>
       </c>
       <c r="G53" t="n">
-        <v>663</v>
+        <v>4269.5</v>
       </c>
     </row>
     <row r="54">
@@ -2534,24 +2534,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19712900184</v>
+        <v>20070300249</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E54" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F54" t="n">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="G54" t="n">
-        <v>292</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55">
@@ -2559,24 +2559,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19702900185</v>
+        <v>20060300250</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E55" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F55" t="n">
-        <v>588</v>
+        <v>1569</v>
       </c>
       <c r="G55" t="n">
-        <v>588</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="56">
@@ -2584,24 +2584,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19692900186</v>
+        <v>20050300251</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E56" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F56" t="n">
-        <v>299</v>
+        <v>1517</v>
       </c>
       <c r="G56" t="n">
-        <v>299</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="57">
@@ -2609,24 +2609,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19682900187</v>
+        <v>20030300252</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E57" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F57" t="n">
-        <v>295</v>
+        <v>1207.759</v>
       </c>
       <c r="G57" t="n">
-        <v>295</v>
+        <v>1207.759</v>
       </c>
     </row>
     <row r="58">
@@ -2634,24 +2634,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19662900188</v>
+        <v>20020300253</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E58" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F58" t="n">
-        <v>297</v>
+        <v>1375.4</v>
       </c>
       <c r="G58" t="n">
-        <v>297</v>
+        <v>1375.4</v>
       </c>
     </row>
     <row r="59">
@@ -2659,24 +2659,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20092800189</v>
+        <v>20010300254</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E59" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F59" t="n">
-        <v>716</v>
+        <v>245.46</v>
       </c>
       <c r="G59" t="n">
-        <v>716</v>
+        <v>245.46</v>
       </c>
     </row>
     <row r="60">
@@ -2684,24 +2684,24 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19652900190</v>
+        <v>20171700278</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E60" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F60" t="n">
-        <v>321</v>
+        <v>535.2</v>
       </c>
       <c r="G60" t="n">
-        <v>321</v>
+        <v>535.2</v>
       </c>
     </row>
     <row r="61">
@@ -2709,24 +2709,24 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19632900191</v>
+        <v>20161700279</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E61" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F61" t="n">
-        <v>643.5</v>
+        <v>167.451</v>
       </c>
       <c r="G61" t="n">
-        <v>643.5</v>
+        <v>167.451</v>
       </c>
     </row>
     <row r="62">
@@ -2734,24 +2734,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19342900192</v>
+        <v>20151700280</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E62" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F62" t="n">
-        <v>82</v>
+        <v>220.2</v>
       </c>
       <c r="G62" t="n">
-        <v>82</v>
+        <v>220.2</v>
       </c>
     </row>
     <row r="63">
@@ -2759,24 +2759,24 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19152900193</v>
+        <v>20141700282</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E63" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F63" t="n">
-        <v>98</v>
+        <v>574.3099999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>98</v>
+        <v>574.3099999999999</v>
       </c>
     </row>
     <row r="64">
@@ -2784,24 +2784,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20093000194</v>
+        <v>20121700283</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E64" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F64" t="n">
-        <v>83.8</v>
+        <v>141.6</v>
       </c>
       <c r="G64" t="n">
-        <v>83.8</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="65">
@@ -2809,24 +2809,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20063000195</v>
+        <v>20111700284</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E65" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F65" t="n">
-        <v>60</v>
+        <v>454.24</v>
       </c>
       <c r="G65" t="n">
-        <v>60</v>
+        <v>454.24</v>
       </c>
     </row>
     <row r="66">
@@ -2834,24 +2834,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20023000196</v>
+        <v>20101700285</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E66" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F66" t="n">
-        <v>97.09999999999999</v>
+        <v>275.78</v>
       </c>
       <c r="G66" t="n">
-        <v>97.09999999999999</v>
+        <v>275.78</v>
       </c>
     </row>
     <row r="67">
@@ -2859,24 +2859,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19963000197</v>
+        <v>20051700286</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E67" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F67" t="n">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="G67" t="n">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68">
@@ -2884,24 +2884,24 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19953000198</v>
+        <v>20041700287</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E68" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F68" t="n">
-        <v>97.3</v>
+        <v>746.015</v>
       </c>
       <c r="G68" t="n">
-        <v>97.3</v>
+        <v>746.015</v>
       </c>
     </row>
     <row r="69">
@@ -2909,24 +2909,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19933000199</v>
+        <v>20031700288</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E69" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F69" t="n">
-        <v>87.8</v>
+        <v>163.9</v>
       </c>
       <c r="G69" t="n">
-        <v>87.8</v>
+        <v>163.9</v>
       </c>
     </row>
     <row r="70">
@@ -2934,24 +2934,24 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20082800200</v>
+        <v>20021700289</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E70" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>126.7</v>
       </c>
       <c r="G70" t="n">
-        <v>250</v>
+        <v>126.7</v>
       </c>
     </row>
     <row r="71">
@@ -2959,24 +2959,24 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19923000201</v>
+        <v>20011700290</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E71" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F71" t="n">
-        <v>190.4</v>
+        <v>110.55</v>
       </c>
       <c r="G71" t="n">
-        <v>190.4</v>
+        <v>110.55</v>
       </c>
     </row>
     <row r="72">
@@ -2984,2073 +2984,23 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19803000202</v>
+        <v>20001700291</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E72" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F72" t="n">
-        <v>93.59999999999999</v>
+        <v>124.5</v>
       </c>
       <c r="G72" t="n">
-        <v>93.59999999999999</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>19793000203</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F73" t="n">
-        <v>136</v>
-      </c>
-      <c r="G73" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>19753000204</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F74" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="G74" t="n">
-        <v>205.9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>19743000205</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F75" t="n">
-        <v>50</v>
-      </c>
-      <c r="G75" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>19733000206</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F76" t="n">
-        <v>434.5</v>
-      </c>
-      <c r="G76" t="n">
-        <v>434.5</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>19723000207</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F77" t="n">
-        <v>870.9</v>
-      </c>
-      <c r="G77" t="n">
-        <v>870.9</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>19713000208</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F78" t="n">
-        <v>529</v>
-      </c>
-      <c r="G78" t="n">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>19703000209</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F79" t="n">
-        <v>303.2</v>
-      </c>
-      <c r="G79" t="n">
-        <v>303.2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>19693000210</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F80" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="G80" t="n">
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>20072800211</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1572</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>19603000212</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F82" t="n">
-        <v>90</v>
-      </c>
-      <c r="G82" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>20052800213</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F83" t="n">
-        <v>350</v>
-      </c>
-      <c r="G83" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>20042800214</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F84" t="n">
-        <v>336</v>
-      </c>
-      <c r="G84" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>20032800216</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F85" t="n">
-        <v>822</v>
-      </c>
-      <c r="G85" t="n">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>20012800217</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F86" t="n">
-        <v>690</v>
-      </c>
-      <c r="G86" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>19982800218</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F87" t="n">
-        <v>123</v>
-      </c>
-      <c r="G87" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>19922800219</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1127.4</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1127.4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>19912800220</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F89" t="n">
-        <v>889</v>
-      </c>
-      <c r="G89" t="n">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>19902800221</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F90" t="n">
-        <v>561.7</v>
-      </c>
-      <c r="G90" t="n">
-        <v>561.7</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>19892800222</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F91" t="n">
-        <v>332.7</v>
-      </c>
-      <c r="G91" t="n">
-        <v>332.7</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>19882800223</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F92" t="n">
-        <v>169.9</v>
-      </c>
-      <c r="G92" t="n">
-        <v>169.9</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>19872800224</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F93" t="n">
-        <v>762.5</v>
-      </c>
-      <c r="G93" t="n">
-        <v>762.5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>19862800225</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F94" t="n">
-        <v>713.5</v>
-      </c>
-      <c r="G94" t="n">
-        <v>713.5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>19852800227</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1157</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>19832800228</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F96" t="n">
-        <v>380</v>
-      </c>
-      <c r="G96" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>19822800229</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F97" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="G97" t="n">
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>19812800230</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F98" t="n">
-        <v>794.4</v>
-      </c>
-      <c r="G98" t="n">
-        <v>794.4</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>19802800231</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F99" t="n">
-        <v>666.4</v>
-      </c>
-      <c r="G99" t="n">
-        <v>666.4</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>19792800232</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F100" t="n">
-        <v>717</v>
-      </c>
-      <c r="G100" t="n">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>19772800233</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F101" t="n">
-        <v>303</v>
-      </c>
-      <c r="G101" t="n">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>19742800234</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1412.6</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1412.6</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>19692800235</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F103" t="n">
-        <v>190.35</v>
-      </c>
-      <c r="G103" t="n">
-        <v>190.35</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>19672800236</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F104" t="n">
-        <v>345</v>
-      </c>
-      <c r="G104" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>19662800238</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F105" t="n">
-        <v>385</v>
-      </c>
-      <c r="G105" t="n">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>19602800239</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F106" t="n">
-        <v>129</v>
-      </c>
-      <c r="G106" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>19382800240</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F107" t="n">
-        <v>188.32</v>
-      </c>
-      <c r="G107" t="n">
-        <v>188.32</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>20180300241</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F108" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="G108" t="n">
-        <v>140.5</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>20140300242</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1117.5</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1117.5</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>20130300243</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F110" t="n">
-        <v>296.3</v>
-      </c>
-      <c r="G110" t="n">
-        <v>296.3</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>20110300244</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2110.5</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2110.5</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>20100300245</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3470</v>
-      </c>
-      <c r="G112" t="n">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>20090300246</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F113" t="n">
-        <v>639</v>
-      </c>
-      <c r="G113" t="n">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>20080300247</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4269.5</v>
-      </c>
-      <c r="G114" t="n">
-        <v>4269.5</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>20070300249</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F115" t="n">
-        <v>196</v>
-      </c>
-      <c r="G115" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>20060300250</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1569</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>20050300251</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1517</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>20030300252</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1207.759</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1207.759</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="5" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>20020300253</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1375.4</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1375.4</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="5" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>20010300254</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F120" t="n">
-        <v>245.46</v>
-      </c>
-      <c r="G120" t="n">
-        <v>245.46</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="5" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>19990300255</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F121" t="n">
-        <v>135.8</v>
-      </c>
-      <c r="G121" t="n">
-        <v>135.8</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>19980300256</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1239.2</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1239.2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="5" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>19970300257</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F123" t="n">
-        <v>778.6</v>
-      </c>
-      <c r="G123" t="n">
-        <v>778.6</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="5" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>19960300258</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F124" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="G124" t="n">
-        <v>799.6</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>19950300260</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1597</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="5" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>19940300261</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1784</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="5" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>19930300262</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F127" t="n">
-        <v>834</v>
-      </c>
-      <c r="G127" t="n">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>19920300263</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F128" t="n">
-        <v>519</v>
-      </c>
-      <c r="G128" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>19910300264</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F129" t="n">
-        <v>84.51000000000001</v>
-      </c>
-      <c r="G129" t="n">
-        <v>84.51000000000001</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="5" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>19880300265</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F130" t="n">
-        <v>225</v>
-      </c>
-      <c r="G130" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="5" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>19850300266</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F131" t="n">
-        <v>169</v>
-      </c>
-      <c r="G131" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="5" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>19830300267</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F132" t="n">
-        <v>103</v>
-      </c>
-      <c r="G132" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="5" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>19810300268</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F133" t="n">
-        <v>50</v>
-      </c>
-      <c r="G133" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="5" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>19790300269</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F134" t="n">
-        <v>125</v>
-      </c>
-      <c r="G134" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="5" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>19780300271</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F135" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="G135" t="n">
-        <v>316.7</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="5" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>19760300272</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F136" t="n">
-        <v>695</v>
-      </c>
-      <c r="G136" t="n">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="5" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>19740300273</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1107</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="5" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>19730300274</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F138" t="n">
-        <v>332</v>
-      </c>
-      <c r="G138" t="n">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="5" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>19720300275</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F139" t="n">
-        <v>475</v>
-      </c>
-      <c r="G139" t="n">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="5" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>19710300276</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1698</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="5" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>18990300277</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F141" t="n">
-        <v>137</v>
-      </c>
-      <c r="G141" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="5" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>20171700278</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F142" t="n">
-        <v>535.2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>535.2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="5" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>20161700279</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F143" t="n">
-        <v>167.451</v>
-      </c>
-      <c r="G143" t="n">
-        <v>167.451</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="5" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>20151700280</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F144" t="n">
-        <v>220.2</v>
-      </c>
-      <c r="G144" t="n">
-        <v>220.2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="5" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>20141700282</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F145" t="n">
-        <v>574.3099999999999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>574.3099999999999</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="5" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>20121700283</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F146" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="G146" t="n">
-        <v>141.6</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="5" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>20111700284</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F147" t="n">
-        <v>454.24</v>
-      </c>
-      <c r="G147" t="n">
-        <v>454.24</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="5" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>20101700285</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F148" t="n">
-        <v>275.78</v>
-      </c>
-      <c r="G148" t="n">
-        <v>275.78</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="5" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20051700286</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F149" t="n">
-        <v>158</v>
-      </c>
-      <c r="G149" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="5" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>20041700287</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F150" t="n">
-        <v>746.015</v>
-      </c>
-      <c r="G150" t="n">
-        <v>746.015</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="5" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>20031700288</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F151" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="G151" t="n">
-        <v>163.9</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>20021700289</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F152" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="G152" t="n">
-        <v>126.7</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="5" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>20011700290</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F153" t="n">
-        <v>110.55</v>
-      </c>
-      <c r="G153" t="n">
-        <v>110.55</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="5" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>20001700291</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F154" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="G154" t="n">
         <v>124.5</v>
       </c>
     </row>
@@ -5065,7 +3015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5120,17 +3070,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20181200048</v>
+        <v>99991000001</v>
       </c>
       <c r="C2" t="n">
-        <v>105.3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5159,17 +3107,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20071200049</v>
+        <v>99992100002</v>
       </c>
       <c r="C3" t="n">
-        <v>691.6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5198,17 +3144,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20021200050</v>
+        <v>99992400003</v>
       </c>
       <c r="C4" t="n">
-        <v>1052</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5237,10 +3183,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20011200051</v>
+        <v>99991200005</v>
       </c>
       <c r="C5" t="n">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5276,17 +3222,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19901200052</v>
+        <v>99992300007</v>
       </c>
       <c r="C6" t="n">
-        <v>117.4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5315,10 +3261,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19871200053</v>
+        <v>20181200048</v>
       </c>
       <c r="C7" t="n">
-        <v>189.8</v>
+        <v>105.3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5354,10 +3300,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19821200054</v>
+        <v>20071200049</v>
       </c>
       <c r="C8" t="n">
-        <v>91.80000000000001</v>
+        <v>691.6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5393,10 +3339,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19811200055</v>
+        <v>20021200050</v>
       </c>
       <c r="C9" t="n">
-        <v>60.3</v>
+        <v>1052</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5432,10 +3378,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19801200057</v>
+        <v>20011200051</v>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5471,10 +3417,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19771200058</v>
+        <v>19901200052</v>
       </c>
       <c r="C11" t="n">
-        <v>1057.4</v>
+        <v>117.4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -5510,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19761200059</v>
+        <v>19871200053</v>
       </c>
       <c r="C12" t="n">
-        <v>179.4</v>
+        <v>189.8</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5549,10 +3495,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19731200060</v>
+        <v>19821200054</v>
       </c>
       <c r="C13" t="n">
-        <v>926.7</v>
+        <v>91.80000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -5588,10 +3534,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19721200061</v>
+        <v>19811200055</v>
       </c>
       <c r="C14" t="n">
-        <v>164</v>
+        <v>60.3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -5627,10 +3573,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19681200062</v>
+        <v>19801200057</v>
       </c>
       <c r="C15" t="n">
-        <v>121.1</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -5666,10 +3612,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19651200063</v>
+        <v>19771200058</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9</v>
+        <v>1057.4</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -5705,10 +3651,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19641200064</v>
+        <v>19761200059</v>
       </c>
       <c r="C17" t="n">
-        <v>441.7</v>
+        <v>179.4</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -5744,17 +3690,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19631200065</v>
+        <v>20202400092</v>
       </c>
       <c r="C18" t="n">
-        <v>465.7</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5783,17 +3729,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19621200066</v>
+        <v>20192400093</v>
       </c>
       <c r="C19" t="n">
-        <v>340</v>
+        <v>554.6</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5822,17 +3768,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19601200068</v>
+        <v>20182400094</v>
       </c>
       <c r="C20" t="n">
-        <v>62.8</v>
+        <v>577</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5861,17 +3807,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19581200069</v>
+        <v>20172400095</v>
       </c>
       <c r="C21" t="n">
-        <v>95.7</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5900,17 +3846,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19571200070</v>
+        <v>20162400096</v>
       </c>
       <c r="C22" t="n">
-        <v>70.3</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5939,17 +3885,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19561200071</v>
+        <v>20152400097</v>
       </c>
       <c r="C23" t="n">
-        <v>390.7</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5978,17 +3924,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19531200072</v>
+        <v>20142400098</v>
       </c>
       <c r="C24" t="n">
-        <v>339.2</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6017,17 +3963,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19521200073</v>
+        <v>20132400099</v>
       </c>
       <c r="C25" t="n">
-        <v>57.4</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6056,17 +4002,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19511200074</v>
+        <v>20122400101</v>
       </c>
       <c r="C26" t="n">
-        <v>111.5</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6095,17 +4041,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19491200075</v>
+        <v>20112400102</v>
       </c>
       <c r="C27" t="n">
-        <v>244.1</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6134,17 +4080,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19461200076</v>
+        <v>20102400103</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6173,17 +4119,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19421200077</v>
+        <v>20092400104</v>
       </c>
       <c r="C29" t="n">
-        <v>84</v>
+        <v>1734.347213999992</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6212,17 +4158,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19411200079</v>
+        <v>20082400105</v>
       </c>
       <c r="C30" t="n">
-        <v>220</v>
+        <v>1087.143895999995</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6251,17 +4197,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19401200080</v>
+        <v>20072400106</v>
       </c>
       <c r="C31" t="n">
-        <v>91.5</v>
+        <v>2049.836699999993</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -6290,17 +4236,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19361200081</v>
+        <v>20062400107</v>
       </c>
       <c r="C32" t="n">
-        <v>88.09999999999999</v>
+        <v>751.4120000000005</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6329,17 +4275,17 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19301200082</v>
+        <v>20052400108</v>
       </c>
       <c r="C33" t="n">
-        <v>104.8</v>
+        <v>1340.202199999995</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6368,17 +4314,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19251200083</v>
+        <v>20042400109</v>
       </c>
       <c r="C34" t="n">
-        <v>130</v>
+        <v>1659.914999999992</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6407,17 +4353,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19221200084</v>
+        <v>20032400110</v>
       </c>
       <c r="C35" t="n">
-        <v>164</v>
+        <v>1287.459599999997</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6446,17 +4392,17 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19201200085</v>
+        <v>20022400112</v>
       </c>
       <c r="C36" t="n">
-        <v>183.55</v>
+        <v>1434.670999999991</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6485,10 +4431,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20202400092</v>
+        <v>20012400113</v>
       </c>
       <c r="C37" t="n">
-        <v>400</v>
+        <v>1773.431999999988</v>
       </c>
       <c r="D37" t="n">
         <v>1.35</v>
@@ -6524,10 +4470,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20192400093</v>
+        <v>20002400114</v>
       </c>
       <c r="C38" t="n">
-        <v>554.6</v>
+        <v>1975.231089999979</v>
       </c>
       <c r="D38" t="n">
         <v>1.35</v>
@@ -6563,10 +4509,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20182400094</v>
+        <v>19992400115</v>
       </c>
       <c r="C39" t="n">
-        <v>577</v>
+        <v>1648.599299999983</v>
       </c>
       <c r="D39" t="n">
         <v>1.35</v>
@@ -6602,10 +4548,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20172400095</v>
+        <v>19982400116</v>
       </c>
       <c r="C40" t="n">
-        <v>888.5916000000008</v>
+        <v>853.3870000000011</v>
       </c>
       <c r="D40" t="n">
         <v>1.35</v>
@@ -6641,10 +4587,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20162400096</v>
+        <v>19972400117</v>
       </c>
       <c r="C41" t="n">
-        <v>4593.90489999998</v>
+        <v>564.2280000000012</v>
       </c>
       <c r="D41" t="n">
         <v>1.35</v>
@@ -6680,10 +4626,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20152400097</v>
+        <v>19962400118</v>
       </c>
       <c r="C42" t="n">
-        <v>5251.351200000026</v>
+        <v>251.9353999999998</v>
       </c>
       <c r="D42" t="n">
         <v>1.35</v>
@@ -6719,10 +4665,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20142400098</v>
+        <v>19952400119</v>
       </c>
       <c r="C43" t="n">
-        <v>3907.871117000042</v>
+        <v>170.8699999999997</v>
       </c>
       <c r="D43" t="n">
         <v>1.35</v>
@@ -6758,17 +4704,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20132400099</v>
+        <v>20192300124</v>
       </c>
       <c r="C44" t="n">
-        <v>3468.728360000041</v>
+        <v>1130.5</v>
       </c>
       <c r="D44" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6797,17 +4743,17 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20122400101</v>
+        <v>20182300125</v>
       </c>
       <c r="C45" t="n">
-        <v>3969.104243000032</v>
+        <v>952</v>
       </c>
       <c r="D45" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6836,17 +4782,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20112400102</v>
+        <v>20172300126</v>
       </c>
       <c r="C46" t="n">
-        <v>2785.43162000001</v>
+        <v>1455</v>
       </c>
       <c r="D46" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6875,17 +4821,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20102400103</v>
+        <v>20162300127</v>
       </c>
       <c r="C47" t="n">
-        <v>2104.219086999985</v>
+        <v>735</v>
       </c>
       <c r="D47" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6914,17 +4860,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20092400104</v>
+        <v>20152300128</v>
       </c>
       <c r="C48" t="n">
-        <v>1734.347213999992</v>
+        <v>1622</v>
       </c>
       <c r="D48" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6953,17 +4899,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20082400105</v>
+        <v>20142300129</v>
       </c>
       <c r="C49" t="n">
-        <v>1087.143895999995</v>
+        <v>726</v>
       </c>
       <c r="D49" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6992,17 +4938,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20072400106</v>
+        <v>20132300130</v>
       </c>
       <c r="C50" t="n">
-        <v>2049.836699999993</v>
+        <v>2502</v>
       </c>
       <c r="D50" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7031,17 +4977,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20062400107</v>
+        <v>20122300131</v>
       </c>
       <c r="C51" t="n">
-        <v>751.4120000000005</v>
+        <v>401</v>
       </c>
       <c r="D51" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7070,17 +5016,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20052400108</v>
+        <v>20112300132</v>
       </c>
       <c r="C52" t="n">
-        <v>1340.202199999995</v>
+        <v>400</v>
       </c>
       <c r="D52" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7109,17 +5055,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20042400109</v>
+        <v>20082300135</v>
       </c>
       <c r="C53" t="n">
-        <v>1659.914999999992</v>
+        <v>108.3</v>
       </c>
       <c r="D53" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7148,17 +5094,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20032400110</v>
+        <v>20062300136</v>
       </c>
       <c r="C54" t="n">
-        <v>1287.459599999997</v>
+        <v>240</v>
       </c>
       <c r="D54" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7187,17 +5133,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20022400112</v>
+        <v>20202100137</v>
       </c>
       <c r="C55" t="n">
-        <v>1434.670999999991</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.35</v>
-      </c>
+        <v>251.8</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7226,17 +5170,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20012400113</v>
+        <v>20192100138</v>
       </c>
       <c r="C56" t="n">
-        <v>1773.431999999988</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1.35</v>
-      </c>
+        <v>195.4</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7265,17 +5207,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20002400114</v>
+        <v>20182100139</v>
       </c>
       <c r="C57" t="n">
-        <v>1975.231089999979</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.35</v>
-      </c>
+        <v>414.723</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7304,17 +5244,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19992400115</v>
+        <v>20172100140</v>
       </c>
       <c r="C58" t="n">
-        <v>1648.599299999983</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.35</v>
-      </c>
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7343,17 +5281,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19982400116</v>
+        <v>20162100141</v>
       </c>
       <c r="C59" t="n">
-        <v>853.3870000000011</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.35</v>
-      </c>
+        <v>6222.270852000401</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7382,17 +5318,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19972400117</v>
+        <v>20152100142</v>
       </c>
       <c r="C60" t="n">
-        <v>564.2280000000012</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.35</v>
-      </c>
+        <v>1688.32281700176</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7421,17 +5355,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19962400118</v>
+        <v>20142100143</v>
       </c>
       <c r="C61" t="n">
-        <v>251.9353999999998</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.35</v>
-      </c>
+        <v>1467.604103002783</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7460,17 +5392,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19952400119</v>
+        <v>20132100144</v>
       </c>
       <c r="C62" t="n">
-        <v>170.8699999999997</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.35</v>
-      </c>
+        <v>1387.194197003628</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7499,17 +5429,15 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19942400120</v>
+        <v>20122100146</v>
       </c>
       <c r="C63" t="n">
-        <v>157.8950399999997</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.35</v>
-      </c>
+        <v>1732.597611001665</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7538,17 +5466,15 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19932400121</v>
+        <v>20112100147</v>
       </c>
       <c r="C64" t="n">
-        <v>172.6729999999995</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.35</v>
-      </c>
+        <v>3084.73933250188</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7577,17 +5503,15 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19922400123</v>
+        <v>20102100148</v>
       </c>
       <c r="C65" t="n">
-        <v>133.46792</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.35</v>
-      </c>
+        <v>6784.098386973769</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7616,17 +5540,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20192300124</v>
+        <v>20092100149</v>
       </c>
       <c r="C66" t="n">
-        <v>1130.5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2.7</v>
-      </c>
+        <v>9295.344562513454</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7655,17 +5577,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20182300125</v>
+        <v>20082100150</v>
       </c>
       <c r="C67" t="n">
-        <v>952</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2.7</v>
-      </c>
+        <v>7475.485288501332</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7694,17 +5614,15 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20172300126</v>
+        <v>20072100151</v>
       </c>
       <c r="C68" t="n">
-        <v>1455</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2.7</v>
-      </c>
+        <v>4341.280789791133</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7733,17 +5651,15 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20162300127</v>
+        <v>20062100152</v>
       </c>
       <c r="C69" t="n">
-        <v>735</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2.7</v>
-      </c>
+        <v>1924.091949500588</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7772,17 +5688,15 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20152300128</v>
+        <v>20052100153</v>
       </c>
       <c r="C70" t="n">
-        <v>1622</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2.7</v>
-      </c>
+        <v>1221.046400499492</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7811,17 +5725,15 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20142300129</v>
+        <v>20042100154</v>
       </c>
       <c r="C71" t="n">
-        <v>726</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2.7</v>
-      </c>
+        <v>829.7290730002117</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7850,17 +5762,15 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20132300130</v>
+        <v>20032100155</v>
       </c>
       <c r="C72" t="n">
-        <v>2502</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2.7</v>
-      </c>
+        <v>907.4490049999474</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7889,17 +5799,15 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20122300131</v>
+        <v>20022100157</v>
       </c>
       <c r="C73" t="n">
-        <v>401</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2.7</v>
-      </c>
+        <v>633.0435090000258</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7928,17 +5836,15 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20112300132</v>
+        <v>20012100158</v>
       </c>
       <c r="C74" t="n">
-        <v>400</v>
-      </c>
-      <c r="D74" t="n">
-        <v>2.7</v>
-      </c>
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7967,17 +5873,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20082300135</v>
+        <v>20002100159</v>
       </c>
       <c r="C75" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="D75" t="n">
-        <v>2.7</v>
-      </c>
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8006,17 +5910,15 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20062300136</v>
+        <v>19992100160</v>
       </c>
       <c r="C76" t="n">
-        <v>240</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.7</v>
-      </c>
+        <v>171.9239930052555</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8035,820 +5937,6 @@
         </is>
       </c>
       <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>20202100137</v>
-      </c>
-      <c r="C77" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>20192100138</v>
-      </c>
-      <c r="C78" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>20182100139</v>
-      </c>
-      <c r="C79" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>20172100140</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>20162100141</v>
-      </c>
-      <c r="C81" t="n">
-        <v>6222.270852000401</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>20152100142</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1688.32281700176</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>20142100143</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1467.604103002783</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>20132100144</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1387.194197003628</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>20122100146</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1732.597611001665</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>20112100147</v>
-      </c>
-      <c r="C86" t="n">
-        <v>3084.73933250188</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>20102100148</v>
-      </c>
-      <c r="C87" t="n">
-        <v>6784.098386973769</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>20092100149</v>
-      </c>
-      <c r="C88" t="n">
-        <v>9295.344562513454</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>20082100150</v>
-      </c>
-      <c r="C89" t="n">
-        <v>7475.485288501332</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>20072100151</v>
-      </c>
-      <c r="C90" t="n">
-        <v>4341.280789791133</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>20062100152</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1924.091949500588</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>20052100153</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1221.046400499492</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>20042100154</v>
-      </c>
-      <c r="C93" t="n">
-        <v>829.7290730002117</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>20032100155</v>
-      </c>
-      <c r="C94" t="n">
-        <v>907.4490049999474</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>20022100157</v>
-      </c>
-      <c r="C95" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>20012100158</v>
-      </c>
-      <c r="C96" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>20002100159</v>
-      </c>
-      <c r="C97" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>19992100160</v>
-      </c>
-      <c r="C98" t="n">
-        <v>171.9239930052555</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8865,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8908,6 +5996,34 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99992600009</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>STORAGE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8939,7 +6055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8994,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20140100021</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
-        <v>1125.6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -9033,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20130100022</v>
+        <v>20140100021</v>
       </c>
       <c r="C3" t="n">
-        <v>731</v>
+        <v>1125.6</v>
       </c>
       <c r="D3" t="n">
         <v>1.9</v>
@@ -9072,10 +6188,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20020100023</v>
+        <v>20130100022</v>
       </c>
       <c r="C4" t="n">
-        <v>256</v>
+        <v>731</v>
       </c>
       <c r="D4" t="n">
         <v>1.9</v>
@@ -9111,10 +6227,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20010100034</v>
+        <v>20020100023</v>
       </c>
       <c r="C5" t="n">
-        <v>169.3934</v>
+        <v>256</v>
       </c>
       <c r="D5" t="n">
         <v>1.9</v>
@@ -9150,10 +6266,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20000100045</v>
+        <v>20010100034</v>
       </c>
       <c r="C6" t="n">
-        <v>81.2</v>
+        <v>169.3934</v>
       </c>
       <c r="D6" t="n">
         <v>1.9</v>
@@ -9189,10 +6305,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19980100056</v>
+        <v>20000100045</v>
       </c>
       <c r="C7" t="n">
-        <v>90.80000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="D7" t="n">
         <v>1.9</v>
@@ -9228,10 +6344,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19970100067</v>
+        <v>20120100133</v>
       </c>
       <c r="C8" t="n">
-        <v>95.8</v>
+        <v>89.8</v>
       </c>
       <c r="D8" t="n">
         <v>1.9</v>
@@ -9267,10 +6383,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19960100078</v>
+        <v>20100100215</v>
       </c>
       <c r="C9" t="n">
-        <v>93.09999999999999</v>
+        <v>89.05</v>
       </c>
       <c r="D9" t="n">
         <v>1.9</v>
@@ -9306,10 +6422,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19950100089</v>
+        <v>20080100226</v>
       </c>
       <c r="C10" t="n">
-        <v>117.9</v>
+        <v>127.8</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -9345,10 +6461,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19890100100</v>
+        <v>20070100237</v>
       </c>
       <c r="C11" t="n">
-        <v>171</v>
+        <v>217.8</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -9384,10 +6500,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19820100111</v>
+        <v>20060100248</v>
       </c>
       <c r="C12" t="n">
-        <v>123.5</v>
+        <v>91.5</v>
       </c>
       <c r="D12" t="n">
         <v>1.9</v>
@@ -9423,10 +6539,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19800100122</v>
+        <v>20050100259</v>
       </c>
       <c r="C13" t="n">
-        <v>252.61</v>
+        <v>66.78</v>
       </c>
       <c r="D13" t="n">
         <v>1.9</v>
@@ -9462,10 +6578,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20120100133</v>
+        <v>20040100270</v>
       </c>
       <c r="C14" t="n">
-        <v>89.8</v>
+        <v>166.92</v>
       </c>
       <c r="D14" t="n">
         <v>1.9</v>
@@ -9501,10 +6617,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19710100134</v>
+        <v>20030100281</v>
       </c>
       <c r="C15" t="n">
-        <v>280.2</v>
+        <v>206.65</v>
       </c>
       <c r="D15" t="n">
         <v>1.9</v>
@@ -9530,279 +6646,6 @@
         </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>20100100215</v>
-      </c>
-      <c r="C16" t="n">
-        <v>89.05</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20080100226</v>
-      </c>
-      <c r="C17" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20070100237</v>
-      </c>
-      <c r="C18" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20060100248</v>
-      </c>
-      <c r="C19" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20050100259</v>
-      </c>
-      <c r="C20" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20040100270</v>
-      </c>
-      <c r="C21" t="n">
-        <v>166.92</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20030100281</v>
-      </c>
-      <c r="C22" t="n">
-        <v>206.65</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9839,7 +6682,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>43830.99861111111</v>
+        <v>45291.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -9849,7 +6692,7 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>44195.99861111111</v>
+        <v>45656.99861111111</v>
       </c>
     </row>
   </sheetData>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1103,7 +1103,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="5" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="3">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="5">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="6">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="7">
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="8">
@@ -1189,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>19991700024</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>115.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="3">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99990300008</v>
+        <v>19971700025</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1267,16 +1267,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1284,24 +1284,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19871400086</v>
+        <v>19961700026</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F4" t="n">
-        <v>1795</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1795</v>
+        <v>53.09999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1309,24 +1309,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19861400087</v>
+        <v>19951700027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F5" t="n">
-        <v>2746</v>
+        <v>183.72</v>
       </c>
       <c r="G5" t="n">
-        <v>2746</v>
+        <v>183.72</v>
       </c>
     </row>
     <row r="6">
@@ -1334,24 +1334,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20132800145</v>
+        <v>19941700028</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F6" t="n">
-        <v>4734</v>
+        <v>352.5</v>
       </c>
       <c r="G6" t="n">
-        <v>4734</v>
+        <v>352.5</v>
       </c>
     </row>
     <row r="7">
@@ -1359,24 +1359,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20122800156</v>
+        <v>19931700029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F7" t="n">
-        <v>1597.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>1597.7</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1384,24 +1384,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20102900161</v>
+        <v>19921700030</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F8" t="n">
-        <v>2780.3</v>
+        <v>261.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2780.3</v>
+        <v>261.1</v>
       </c>
     </row>
     <row r="9">
@@ -1409,24 +1409,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20082900162</v>
+        <v>19911700031</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F9" t="n">
-        <v>94.8</v>
+        <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>94.8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
@@ -1434,24 +1434,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20072900163</v>
+        <v>19901700032</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F10" t="n">
-        <v>648</v>
+        <v>97.07900000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>648</v>
+        <v>97.07900000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1459,24 +1459,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20062900164</v>
+        <v>19871700033</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F11" t="n">
-        <v>628</v>
+        <v>120.4</v>
       </c>
       <c r="G11" t="n">
-        <v>628</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="12">
@@ -1484,24 +1484,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20002900165</v>
+        <v>19861700035</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F12" t="n">
-        <v>967.22</v>
+        <v>60.491</v>
       </c>
       <c r="G12" t="n">
-        <v>967.22</v>
+        <v>60.491</v>
       </c>
     </row>
     <row r="13">
@@ -1509,24 +1509,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19982900166</v>
+        <v>19851700036</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F13" t="n">
-        <v>1732</v>
+        <v>521</v>
       </c>
       <c r="G13" t="n">
-        <v>1732</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14">
@@ -1534,24 +1534,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20112800167</v>
+        <v>19821700037</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F14" t="n">
-        <v>1909</v>
+        <v>156.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1909</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="15">
@@ -1559,24 +1559,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19972900168</v>
+        <v>19771700038</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F15" t="n">
-        <v>949</v>
+        <v>100.78</v>
       </c>
       <c r="G15" t="n">
-        <v>949</v>
+        <v>100.78</v>
       </c>
     </row>
     <row r="16">
@@ -1584,24 +1584,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19962900169</v>
+        <v>19751700039</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F16" t="n">
-        <v>750</v>
+        <v>619.4</v>
       </c>
       <c r="G16" t="n">
-        <v>750</v>
+        <v>619.4</v>
       </c>
     </row>
     <row r="17">
@@ -1609,24 +1609,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19952900170</v>
+        <v>19731700040</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F17" t="n">
-        <v>750</v>
+        <v>639.7</v>
       </c>
       <c r="G17" t="n">
-        <v>750</v>
+        <v>639.7</v>
       </c>
     </row>
     <row r="18">
@@ -1634,24 +1634,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19942900171</v>
+        <v>19721700041</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F18" t="n">
-        <v>2780</v>
+        <v>77.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2780</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="19">
@@ -1659,24 +1659,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19922900172</v>
+        <v>19711700042</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F19" t="n">
-        <v>496</v>
+        <v>183</v>
       </c>
       <c r="G19" t="n">
-        <v>496</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -1684,24 +1684,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19912900173</v>
+        <v>19691700043</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F20" t="n">
-        <v>488.3</v>
+        <v>173.2865</v>
       </c>
       <c r="G20" t="n">
-        <v>488.3</v>
+        <v>173.2865</v>
       </c>
     </row>
     <row r="21">
@@ -1709,24 +1709,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19882900174</v>
+        <v>19591700044</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F21" t="n">
-        <v>652.8</v>
+        <v>149</v>
       </c>
       <c r="G21" t="n">
-        <v>652.8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -1734,24 +1734,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19872900175</v>
+        <v>19521700046</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F22" t="n">
-        <v>498.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>498.5</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1759,24 +1759,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19862900176</v>
+        <v>19461700047</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F23" t="n">
-        <v>232.8</v>
+        <v>135.5</v>
       </c>
       <c r="G23" t="n">
-        <v>232.8</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="24">
@@ -1784,24 +1784,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19852900177</v>
+        <v>19871400086</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F24" t="n">
-        <v>465</v>
+        <v>1795</v>
       </c>
       <c r="G24" t="n">
-        <v>465</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="25">
@@ -1809,24 +1809,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20102800178</v>
+        <v>19861400087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F25" t="n">
-        <v>433</v>
+        <v>2746</v>
       </c>
       <c r="G25" t="n">
-        <v>433</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="26">
@@ -1834,24 +1834,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20092800189</v>
+        <v>19841400088</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F26" t="n">
-        <v>716</v>
+        <v>1410</v>
       </c>
       <c r="G26" t="n">
-        <v>716</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27">
@@ -1859,24 +1859,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20093000194</v>
+        <v>19831400090</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F27" t="n">
-        <v>83.8</v>
+        <v>1360</v>
       </c>
       <c r="G27" t="n">
-        <v>83.8</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="28">
@@ -1884,24 +1884,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20063000195</v>
+        <v>19821400091</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>1288</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="29">
@@ -1909,24 +1909,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20023000196</v>
+        <v>20132800146</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F29" t="n">
-        <v>97.09999999999999</v>
+        <v>4734</v>
       </c>
       <c r="G29" t="n">
-        <v>97.09999999999999</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="30">
@@ -1934,24 +1934,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19963000197</v>
+        <v>20122800157</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>212</v>
+        <v>1597.7</v>
       </c>
       <c r="G30" t="n">
-        <v>212</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="31">
@@ -1959,24 +1959,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19953000198</v>
+        <v>20102900162</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F31" t="n">
-        <v>97.3</v>
+        <v>2780.3</v>
       </c>
       <c r="G31" t="n">
-        <v>97.3</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="32">
@@ -1984,24 +1984,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20082800200</v>
+        <v>20082900163</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>94.8</v>
       </c>
       <c r="G32" t="n">
-        <v>250</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="33">
@@ -2009,24 +2009,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20072800211</v>
+        <v>20072900164</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F33" t="n">
-        <v>1572</v>
+        <v>648</v>
       </c>
       <c r="G33" t="n">
-        <v>1572</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34">
@@ -2034,24 +2034,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20052800213</v>
+        <v>20062900165</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F34" t="n">
-        <v>350</v>
+        <v>628</v>
       </c>
       <c r="G34" t="n">
-        <v>350</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35">
@@ -2059,24 +2059,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20042800214</v>
+        <v>20002900166</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F35" t="n">
-        <v>336</v>
+        <v>967.22</v>
       </c>
       <c r="G35" t="n">
-        <v>336</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="36">
@@ -2084,24 +2084,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20032800216</v>
+        <v>19982900167</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F36" t="n">
-        <v>822</v>
+        <v>1732</v>
       </c>
       <c r="G36" t="n">
-        <v>822</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="37">
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20012800217</v>
+        <v>20112800168</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>0.44</v>
       </c>
       <c r="F37" t="n">
-        <v>690</v>
+        <v>1909</v>
       </c>
       <c r="G37" t="n">
-        <v>690</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="38">
@@ -2134,24 +2134,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19982800218</v>
+        <v>19972900169</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F38" t="n">
-        <v>123</v>
+        <v>949</v>
       </c>
       <c r="G38" t="n">
-        <v>123</v>
+        <v>949</v>
       </c>
     </row>
     <row r="39">
@@ -2159,24 +2159,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19922800219</v>
+        <v>19962900170</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F39" t="n">
-        <v>1127.4</v>
+        <v>750</v>
       </c>
       <c r="G39" t="n">
-        <v>1127.4</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40">
@@ -2184,24 +2184,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19912800220</v>
+        <v>19952900171</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F40" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
       <c r="G40" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41">
@@ -2209,24 +2209,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19902800221</v>
+        <v>19942900172</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F41" t="n">
-        <v>561.7</v>
+        <v>2780</v>
       </c>
       <c r="G41" t="n">
-        <v>561.7</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="42">
@@ -2234,24 +2234,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19892800222</v>
+        <v>19922900173</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F42" t="n">
-        <v>332.7</v>
+        <v>496</v>
       </c>
       <c r="G42" t="n">
-        <v>332.7</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43">
@@ -2259,24 +2259,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19882800223</v>
+        <v>19912900174</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F43" t="n">
-        <v>169.9</v>
+        <v>488.3</v>
       </c>
       <c r="G43" t="n">
-        <v>169.9</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="44">
@@ -2284,24 +2284,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19872800224</v>
+        <v>19882900175</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F44" t="n">
-        <v>762.5</v>
+        <v>652.8</v>
       </c>
       <c r="G44" t="n">
-        <v>762.5</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="45">
@@ -2309,24 +2309,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19862800225</v>
+        <v>19872900176</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F45" t="n">
-        <v>713.5</v>
+        <v>498.5</v>
       </c>
       <c r="G45" t="n">
-        <v>713.5</v>
+        <v>498.5</v>
       </c>
     </row>
     <row r="46">
@@ -2334,24 +2334,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19852800227</v>
+        <v>19862900177</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F46" t="n">
-        <v>1157</v>
+        <v>232.8</v>
       </c>
       <c r="G46" t="n">
-        <v>1157</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="47">
@@ -2359,24 +2359,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20180300241</v>
+        <v>19852900178</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F47" t="n">
-        <v>140.5</v>
+        <v>465</v>
       </c>
       <c r="G47" t="n">
-        <v>140.5</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48">
@@ -2384,24 +2384,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20140300242</v>
+        <v>20102800179</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F48" t="n">
-        <v>1117.5</v>
+        <v>433</v>
       </c>
       <c r="G48" t="n">
-        <v>1117.5</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49">
@@ -2409,24 +2409,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20130300243</v>
+        <v>19832900180</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F49" t="n">
-        <v>296.3</v>
+        <v>361.3</v>
       </c>
       <c r="G49" t="n">
-        <v>296.3</v>
+        <v>361.3</v>
       </c>
     </row>
     <row r="50">
@@ -2434,24 +2434,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20110300244</v>
+        <v>19772900181</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F50" t="n">
-        <v>2110.5</v>
+        <v>59.5</v>
       </c>
       <c r="G50" t="n">
-        <v>2110.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="51">
@@ -2459,24 +2459,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20100300245</v>
+        <v>19742900182</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F51" t="n">
-        <v>3470</v>
+        <v>604</v>
       </c>
       <c r="G51" t="n">
-        <v>3470</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52">
@@ -2484,24 +2484,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20090300246</v>
+        <v>19732900183</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F52" t="n">
-        <v>639</v>
+        <v>1263</v>
       </c>
       <c r="G52" t="n">
-        <v>639</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="53">
@@ -2509,24 +2509,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20080300247</v>
+        <v>19722900184</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F53" t="n">
-        <v>4269.5</v>
+        <v>663</v>
       </c>
       <c r="G53" t="n">
-        <v>4269.5</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54">
@@ -2534,24 +2534,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20070300249</v>
+        <v>19712900185</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F54" t="n">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="G54" t="n">
-        <v>196</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55">
@@ -2559,24 +2559,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20060300250</v>
+        <v>19702900186</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F55" t="n">
-        <v>1569</v>
+        <v>588</v>
       </c>
       <c r="G55" t="n">
-        <v>1569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56">
@@ -2584,24 +2584,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20050300251</v>
+        <v>19692900187</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F56" t="n">
-        <v>1517</v>
+        <v>299</v>
       </c>
       <c r="G56" t="n">
-        <v>1517</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57">
@@ -2609,24 +2609,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20030300252</v>
+        <v>19682900188</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F57" t="n">
-        <v>1207.759</v>
+        <v>295</v>
       </c>
       <c r="G57" t="n">
-        <v>1207.759</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58">
@@ -2634,24 +2634,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20020300253</v>
+        <v>19662900189</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F58" t="n">
-        <v>1375.4</v>
+        <v>297</v>
       </c>
       <c r="G58" t="n">
-        <v>1375.4</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59">
@@ -2659,24 +2659,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20010300254</v>
+        <v>20092800190</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F59" t="n">
-        <v>245.46</v>
+        <v>716</v>
       </c>
       <c r="G59" t="n">
-        <v>245.46</v>
+        <v>716</v>
       </c>
     </row>
     <row r="60">
@@ -2684,24 +2684,24 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20171700278</v>
+        <v>19652900191</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F60" t="n">
-        <v>535.2</v>
+        <v>321</v>
       </c>
       <c r="G60" t="n">
-        <v>535.2</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61">
@@ -2709,24 +2709,24 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20161700279</v>
+        <v>19632900192</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F61" t="n">
-        <v>167.451</v>
+        <v>643.5</v>
       </c>
       <c r="G61" t="n">
-        <v>167.451</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="62">
@@ -2734,24 +2734,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20151700280</v>
+        <v>19342900193</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F62" t="n">
-        <v>220.2</v>
+        <v>82</v>
       </c>
       <c r="G62" t="n">
-        <v>220.2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -2759,24 +2759,24 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20141700282</v>
+        <v>19152900194</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F63" t="n">
-        <v>574.3099999999999</v>
+        <v>98</v>
       </c>
       <c r="G63" t="n">
-        <v>574.3099999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
@@ -2784,24 +2784,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20121700283</v>
+        <v>20093000195</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F64" t="n">
-        <v>141.6</v>
+        <v>83.8</v>
       </c>
       <c r="G64" t="n">
-        <v>141.6</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="65">
@@ -2809,24 +2809,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20111700284</v>
+        <v>20063000196</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F65" t="n">
-        <v>454.24</v>
+        <v>60</v>
       </c>
       <c r="G65" t="n">
-        <v>454.24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
@@ -2834,24 +2834,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20101700285</v>
+        <v>20023000197</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F66" t="n">
-        <v>275.78</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>275.78</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -2859,24 +2859,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20051700286</v>
+        <v>19963000198</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F67" t="n">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="G67" t="n">
-        <v>158</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
@@ -2884,24 +2884,24 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20041700287</v>
+        <v>19953000199</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F68" t="n">
-        <v>746.015</v>
+        <v>97.3</v>
       </c>
       <c r="G68" t="n">
-        <v>746.015</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="69">
@@ -2909,24 +2909,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20031700288</v>
+        <v>19933000200</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F69" t="n">
-        <v>163.9</v>
+        <v>87.8</v>
       </c>
       <c r="G69" t="n">
-        <v>163.9</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="70">
@@ -2934,24 +2934,24 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20021700289</v>
+        <v>20082800201</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F70" t="n">
-        <v>126.7</v>
+        <v>250</v>
       </c>
       <c r="G70" t="n">
-        <v>126.7</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71">
@@ -2959,24 +2959,24 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20011700290</v>
+        <v>19923000202</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F71" t="n">
-        <v>110.55</v>
+        <v>190.4</v>
       </c>
       <c r="G71" t="n">
-        <v>110.55</v>
+        <v>190.4</v>
       </c>
     </row>
     <row r="72">
@@ -2984,23 +2984,2073 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20001700291</v>
+        <v>19803000203</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F72" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>93.59999999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>19793000204</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F73" t="n">
+        <v>136</v>
+      </c>
+      <c r="G73" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>19753000205</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F74" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="G74" t="n">
+        <v>205.9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>19743000206</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F75" t="n">
+        <v>50</v>
+      </c>
+      <c r="G75" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>19733000207</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F76" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>19723000208</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F77" t="n">
+        <v>870.9</v>
+      </c>
+      <c r="G77" t="n">
+        <v>870.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19713000209</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F78" t="n">
+        <v>529</v>
+      </c>
+      <c r="G78" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>19703000210</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F79" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>303.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>19693000211</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F80" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="G80" t="n">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20072800212</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1572</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>19603000213</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F82" t="n">
+        <v>90</v>
+      </c>
+      <c r="G82" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20052800214</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F83" t="n">
+        <v>350</v>
+      </c>
+      <c r="G83" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20042800215</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F84" t="n">
+        <v>336</v>
+      </c>
+      <c r="G84" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20032800217</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F85" t="n">
+        <v>822</v>
+      </c>
+      <c r="G85" t="n">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20012800218</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F86" t="n">
+        <v>690</v>
+      </c>
+      <c r="G86" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>19982800219</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F87" t="n">
+        <v>123</v>
+      </c>
+      <c r="G87" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19922800220</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1127.4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1127.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19912800221</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F89" t="n">
+        <v>889</v>
+      </c>
+      <c r="G89" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>19902800222</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F90" t="n">
+        <v>561.7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>561.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19892800223</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F91" t="n">
+        <v>332.7</v>
+      </c>
+      <c r="G91" t="n">
+        <v>332.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>19882800224</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F92" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>19872800225</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F93" t="n">
+        <v>762.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>762.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19862800226</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F94" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>713.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>19852800228</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1157</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>19832800229</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F96" t="n">
+        <v>380</v>
+      </c>
+      <c r="G96" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>19822800230</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F97" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19812800231</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F98" t="n">
+        <v>794.4</v>
+      </c>
+      <c r="G98" t="n">
+        <v>794.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19802800232</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F99" t="n">
+        <v>666.4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>666.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19792800233</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F100" t="n">
+        <v>717</v>
+      </c>
+      <c r="G100" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>19772800234</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F101" t="n">
+        <v>303</v>
+      </c>
+      <c r="G101" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>19742800235</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1412.6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>19692800236</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F103" t="n">
+        <v>190.35</v>
+      </c>
+      <c r="G103" t="n">
+        <v>190.35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>19672800237</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F104" t="n">
+        <v>345</v>
+      </c>
+      <c r="G104" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>19662800239</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F105" t="n">
+        <v>385</v>
+      </c>
+      <c r="G105" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>19602800240</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F106" t="n">
+        <v>129</v>
+      </c>
+      <c r="G106" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>19382800241</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F107" t="n">
+        <v>188.32</v>
+      </c>
+      <c r="G107" t="n">
+        <v>188.32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20180300242</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D108" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F108" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20140300243</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1117.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1117.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20130300244</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F110" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>296.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20110300245</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2110.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2110.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20100300246</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3470</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20090300247</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F113" t="n">
+        <v>639</v>
+      </c>
+      <c r="G113" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20080300248</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4269.5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4269.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20070300250</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F115" t="n">
+        <v>196</v>
+      </c>
+      <c r="G115" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20060300251</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20050300252</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1517</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20030300253</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1207.759</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1207.759</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20020300254</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1375.4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20010300255</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F120" t="n">
+        <v>245.46</v>
+      </c>
+      <c r="G120" t="n">
+        <v>245.46</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>19990300256</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F121" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>19980300257</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1239.2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1239.2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>19970300258</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F123" t="n">
+        <v>778.6</v>
+      </c>
+      <c r="G123" t="n">
+        <v>778.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>19960300259</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F124" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="G124" t="n">
+        <v>799.6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>19950300261</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>19940300262</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>19930300263</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F127" t="n">
+        <v>834</v>
+      </c>
+      <c r="G127" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>19920300264</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F128" t="n">
+        <v>519</v>
+      </c>
+      <c r="G128" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>19910300265</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F129" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>84.51000000000001</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>19880300266</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F130" t="n">
+        <v>225</v>
+      </c>
+      <c r="G130" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>19850300267</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F131" t="n">
+        <v>169</v>
+      </c>
+      <c r="G131" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>19830300268</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F132" t="n">
+        <v>103</v>
+      </c>
+      <c r="G132" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>19810300269</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>19790300270</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F134" t="n">
+        <v>125</v>
+      </c>
+      <c r="G134" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>19780300272</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F135" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>316.7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>19760300273</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F136" t="n">
+        <v>695</v>
+      </c>
+      <c r="G136" t="n">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>19740300274</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>19730300275</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F138" t="n">
+        <v>332</v>
+      </c>
+      <c r="G138" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>19720300276</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F139" t="n">
+        <v>475</v>
+      </c>
+      <c r="G139" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>19710300277</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1698</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>18990300278</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F141" t="n">
+        <v>137</v>
+      </c>
+      <c r="G141" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>20171700279</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
         <v>4.5</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E142" t="n">
         <v>0.43</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F142" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>535.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>20161700280</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F143" t="n">
+        <v>167.451</v>
+      </c>
+      <c r="G143" t="n">
+        <v>167.451</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>20151700281</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F144" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>20141700283</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F145" t="n">
+        <v>574.3099999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>574.3099999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>20121700284</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F146" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="G146" t="n">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="5" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>20111700285</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F147" t="n">
+        <v>454.24</v>
+      </c>
+      <c r="G147" t="n">
+        <v>454.24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>20101700286</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F148" t="n">
+        <v>275.78</v>
+      </c>
+      <c r="G148" t="n">
+        <v>275.78</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20051700287</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F149" t="n">
+        <v>158</v>
+      </c>
+      <c r="G149" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>20041700288</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F150" t="n">
+        <v>746.015</v>
+      </c>
+      <c r="G150" t="n">
+        <v>746.015</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20031700289</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F151" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>20021700290</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F152" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="G152" t="n">
+        <v>126.7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>20011700291</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F153" t="n">
+        <v>110.55</v>
+      </c>
+      <c r="G153" t="n">
+        <v>110.55</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>20001700292</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F154" t="n">
         <v>124.5</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G154" t="n">
         <v>124.5</v>
       </c>
     </row>
@@ -3015,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3070,15 +5120,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991000001</v>
+        <v>20181200048</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>105.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3107,15 +5159,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992100002</v>
+        <v>20071200049</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>691.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3144,17 +5198,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99992400003</v>
+        <v>20021200050</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1052</v>
       </c>
       <c r="D4" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3183,10 +5237,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99991200005</v>
+        <v>20011200051</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3222,17 +5276,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99992300007</v>
+        <v>19901200052</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>117.4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3261,10 +5315,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20181200048</v>
+        <v>19871200053</v>
       </c>
       <c r="C7" t="n">
-        <v>105.3</v>
+        <v>189.8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3300,10 +5354,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20071200049</v>
+        <v>19821200054</v>
       </c>
       <c r="C8" t="n">
-        <v>691.6</v>
+        <v>91.80000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3339,10 +5393,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20021200050</v>
+        <v>19811200055</v>
       </c>
       <c r="C9" t="n">
-        <v>1052</v>
+        <v>60.3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3378,10 +5432,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20011200051</v>
+        <v>19801200057</v>
       </c>
       <c r="C10" t="n">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3417,10 +5471,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19901200052</v>
+        <v>19771200058</v>
       </c>
       <c r="C11" t="n">
-        <v>117.4</v>
+        <v>1057.4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3456,10 +5510,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19871200053</v>
+        <v>19761200059</v>
       </c>
       <c r="C12" t="n">
-        <v>189.8</v>
+        <v>179.4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3495,10 +5549,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19821200054</v>
+        <v>19731200060</v>
       </c>
       <c r="C13" t="n">
-        <v>91.80000000000001</v>
+        <v>926.7</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3534,10 +5588,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19811200055</v>
+        <v>19721200061</v>
       </c>
       <c r="C14" t="n">
-        <v>60.3</v>
+        <v>164</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3573,10 +5627,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19801200057</v>
+        <v>19681200062</v>
       </c>
       <c r="C15" t="n">
-        <v>70</v>
+        <v>121.1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3612,10 +5666,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19771200058</v>
+        <v>19651200063</v>
       </c>
       <c r="C16" t="n">
-        <v>1057.4</v>
+        <v>108.9</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3651,10 +5705,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19761200059</v>
+        <v>19641200064</v>
       </c>
       <c r="C17" t="n">
-        <v>179.4</v>
+        <v>441.7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3690,17 +5744,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20202400092</v>
+        <v>19631200065</v>
       </c>
       <c r="C18" t="n">
-        <v>400</v>
+        <v>465.7</v>
       </c>
       <c r="D18" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3729,17 +5783,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20192400093</v>
+        <v>19621200066</v>
       </c>
       <c r="C19" t="n">
-        <v>554.6</v>
+        <v>340</v>
       </c>
       <c r="D19" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3768,17 +5822,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20182400094</v>
+        <v>19601200068</v>
       </c>
       <c r="C20" t="n">
-        <v>577</v>
+        <v>62.8</v>
       </c>
       <c r="D20" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3807,17 +5861,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20172400095</v>
+        <v>19581200069</v>
       </c>
       <c r="C21" t="n">
-        <v>888.5916000000008</v>
+        <v>95.7</v>
       </c>
       <c r="D21" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3846,17 +5900,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20162400096</v>
+        <v>19571200070</v>
       </c>
       <c r="C22" t="n">
-        <v>4593.90489999998</v>
+        <v>70.3</v>
       </c>
       <c r="D22" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3885,17 +5939,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20152400097</v>
+        <v>19561200071</v>
       </c>
       <c r="C23" t="n">
-        <v>5251.351200000026</v>
+        <v>390.7</v>
       </c>
       <c r="D23" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3924,17 +5978,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20142400098</v>
+        <v>19531200072</v>
       </c>
       <c r="C24" t="n">
-        <v>3907.871117000042</v>
+        <v>339.2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3963,17 +6017,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20132400099</v>
+        <v>19521200073</v>
       </c>
       <c r="C25" t="n">
-        <v>3468.728360000041</v>
+        <v>57.4</v>
       </c>
       <c r="D25" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4002,17 +6056,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20122400101</v>
+        <v>19511200074</v>
       </c>
       <c r="C26" t="n">
-        <v>3969.104243000032</v>
+        <v>111.5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4041,17 +6095,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20112400102</v>
+        <v>19491200075</v>
       </c>
       <c r="C27" t="n">
-        <v>2785.43162000001</v>
+        <v>244.1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4080,17 +6134,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20102400103</v>
+        <v>19461200076</v>
       </c>
       <c r="C28" t="n">
-        <v>2104.219086999985</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4119,17 +6173,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20092400104</v>
+        <v>19421200077</v>
       </c>
       <c r="C29" t="n">
-        <v>1734.347213999992</v>
+        <v>84</v>
       </c>
       <c r="D29" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4158,17 +6212,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20082400105</v>
+        <v>19411200079</v>
       </c>
       <c r="C30" t="n">
-        <v>1087.143895999995</v>
+        <v>220</v>
       </c>
       <c r="D30" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4197,17 +6251,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20072400106</v>
+        <v>19401200080</v>
       </c>
       <c r="C31" t="n">
-        <v>2049.836699999993</v>
+        <v>91.5</v>
       </c>
       <c r="D31" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4236,17 +6290,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20062400107</v>
+        <v>19361200081</v>
       </c>
       <c r="C32" t="n">
-        <v>751.4120000000005</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4275,17 +6329,17 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20052400108</v>
+        <v>19301200082</v>
       </c>
       <c r="C33" t="n">
-        <v>1340.202199999995</v>
+        <v>104.8</v>
       </c>
       <c r="D33" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4314,17 +6368,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20042400109</v>
+        <v>19251200083</v>
       </c>
       <c r="C34" t="n">
-        <v>1659.914999999992</v>
+        <v>130</v>
       </c>
       <c r="D34" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4353,17 +6407,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20032400110</v>
+        <v>19221200084</v>
       </c>
       <c r="C35" t="n">
-        <v>1287.459599999997</v>
+        <v>164</v>
       </c>
       <c r="D35" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4392,17 +6446,17 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20022400112</v>
+        <v>19201200085</v>
       </c>
       <c r="C36" t="n">
-        <v>1434.670999999991</v>
+        <v>183.55</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4431,10 +6485,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20012400113</v>
+        <v>20202400092</v>
       </c>
       <c r="C37" t="n">
-        <v>1773.431999999988</v>
+        <v>400</v>
       </c>
       <c r="D37" t="n">
         <v>1.35</v>
@@ -4470,10 +6524,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20002400114</v>
+        <v>20192400093</v>
       </c>
       <c r="C38" t="n">
-        <v>1975.231089999979</v>
+        <v>554.6</v>
       </c>
       <c r="D38" t="n">
         <v>1.35</v>
@@ -4509,10 +6563,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19992400115</v>
+        <v>20182400094</v>
       </c>
       <c r="C39" t="n">
-        <v>1648.599299999983</v>
+        <v>577</v>
       </c>
       <c r="D39" t="n">
         <v>1.35</v>
@@ -4548,10 +6602,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19982400116</v>
+        <v>20172400095</v>
       </c>
       <c r="C40" t="n">
-        <v>853.3870000000011</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D40" t="n">
         <v>1.35</v>
@@ -4587,10 +6641,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19972400117</v>
+        <v>20162400096</v>
       </c>
       <c r="C41" t="n">
-        <v>564.2280000000012</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D41" t="n">
         <v>1.35</v>
@@ -4626,10 +6680,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19962400118</v>
+        <v>20152400097</v>
       </c>
       <c r="C42" t="n">
-        <v>251.9353999999998</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D42" t="n">
         <v>1.35</v>
@@ -4665,10 +6719,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19952400119</v>
+        <v>20142400098</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8699999999997</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D43" t="n">
         <v>1.35</v>
@@ -4704,17 +6758,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20192300124</v>
+        <v>20132400099</v>
       </c>
       <c r="C44" t="n">
-        <v>1130.5</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D44" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4743,17 +6797,17 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20182300125</v>
+        <v>20122400101</v>
       </c>
       <c r="C45" t="n">
-        <v>952</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D45" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4782,17 +6836,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20172300126</v>
+        <v>20112400102</v>
       </c>
       <c r="C46" t="n">
-        <v>1455</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D46" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4821,17 +6875,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20162300127</v>
+        <v>20102400103</v>
       </c>
       <c r="C47" t="n">
-        <v>735</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D47" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4860,17 +6914,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20152300128</v>
+        <v>20092400104</v>
       </c>
       <c r="C48" t="n">
-        <v>1622</v>
+        <v>1734.347213999992</v>
       </c>
       <c r="D48" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4899,17 +6953,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20142300129</v>
+        <v>20082400105</v>
       </c>
       <c r="C49" t="n">
-        <v>726</v>
+        <v>1087.143895999995</v>
       </c>
       <c r="D49" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4938,17 +6992,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20132300130</v>
+        <v>20072400106</v>
       </c>
       <c r="C50" t="n">
-        <v>2502</v>
+        <v>2049.836699999993</v>
       </c>
       <c r="D50" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4977,17 +7031,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20122300131</v>
+        <v>20062400107</v>
       </c>
       <c r="C51" t="n">
-        <v>401</v>
+        <v>751.4120000000005</v>
       </c>
       <c r="D51" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5016,17 +7070,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20112300132</v>
+        <v>20052400108</v>
       </c>
       <c r="C52" t="n">
-        <v>400</v>
+        <v>1340.202199999995</v>
       </c>
       <c r="D52" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5055,17 +7109,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20082300135</v>
+        <v>20042400109</v>
       </c>
       <c r="C53" t="n">
-        <v>108.3</v>
+        <v>1659.914999999992</v>
       </c>
       <c r="D53" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5094,17 +7148,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20062300136</v>
+        <v>20032400110</v>
       </c>
       <c r="C54" t="n">
-        <v>240</v>
+        <v>1287.459599999997</v>
       </c>
       <c r="D54" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5133,15 +7187,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20202100137</v>
+        <v>20022400112</v>
       </c>
       <c r="C55" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>1434.670999999991</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5170,15 +7226,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20192100138</v>
+        <v>20012400113</v>
       </c>
       <c r="C56" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>1773.431999999988</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5207,15 +7265,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20182100139</v>
+        <v>20002400114</v>
       </c>
       <c r="C57" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>1975.231089999979</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5244,15 +7304,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20172100140</v>
+        <v>19992400115</v>
       </c>
       <c r="C58" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>1648.599299999983</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5281,15 +7343,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20162100141</v>
+        <v>19982400116</v>
       </c>
       <c r="C59" t="n">
-        <v>6222.270852000401</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>853.3870000000011</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5318,15 +7382,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20152100142</v>
+        <v>19972400117</v>
       </c>
       <c r="C60" t="n">
-        <v>1688.32281700176</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>564.2280000000012</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5355,15 +7421,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20142100143</v>
+        <v>19962400118</v>
       </c>
       <c r="C61" t="n">
-        <v>1467.604103002783</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>251.9353999999998</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5392,15 +7460,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20132100144</v>
+        <v>19952400119</v>
       </c>
       <c r="C62" t="n">
-        <v>1387.194197003628</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>170.8699999999997</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5429,15 +7499,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20122100146</v>
+        <v>19942400120</v>
       </c>
       <c r="C63" t="n">
-        <v>1732.597611001665</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>157.8950399999997</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5466,15 +7538,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20112100147</v>
+        <v>19932400121</v>
       </c>
       <c r="C64" t="n">
-        <v>3084.73933250188</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>172.6729999999995</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5503,15 +7577,17 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20102100148</v>
+        <v>19922400123</v>
       </c>
       <c r="C65" t="n">
-        <v>6784.098386973769</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>133.46792</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5540,15 +7616,17 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20092100149</v>
+        <v>20192300124</v>
       </c>
       <c r="C66" t="n">
-        <v>9295.344562513454</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>1130.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5577,15 +7655,17 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20082100150</v>
+        <v>20182300125</v>
       </c>
       <c r="C67" t="n">
-        <v>7475.485288501332</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5614,15 +7694,17 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20072100151</v>
+        <v>20172300126</v>
       </c>
       <c r="C68" t="n">
-        <v>4341.280789791133</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>1455</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5651,15 +7733,17 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20062100152</v>
+        <v>20162300127</v>
       </c>
       <c r="C69" t="n">
-        <v>1924.091949500588</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5688,15 +7772,17 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20052100153</v>
+        <v>20152300128</v>
       </c>
       <c r="C70" t="n">
-        <v>1221.046400499492</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>1622</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5725,15 +7811,17 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20042100154</v>
+        <v>20142300129</v>
       </c>
       <c r="C71" t="n">
-        <v>829.7290730002117</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>726</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5762,15 +7850,17 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20032100155</v>
+        <v>20132300130</v>
       </c>
       <c r="C72" t="n">
-        <v>907.4490049999474</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>2502</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5799,15 +7889,17 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20022100157</v>
+        <v>20122300131</v>
       </c>
       <c r="C73" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5836,15 +7928,17 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20012100158</v>
+        <v>20112300132</v>
       </c>
       <c r="C74" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5873,15 +7967,17 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20002100159</v>
+        <v>20082300135</v>
       </c>
       <c r="C75" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>108.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5910,33 +8006,888 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19992100160</v>
+        <v>20062300136</v>
       </c>
       <c r="C76" t="n">
+        <v>240</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20202100137</v>
+      </c>
+      <c r="C77" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20271200138</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Undefined</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20192100139</v>
+      </c>
+      <c r="C79" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20182100140</v>
+      </c>
+      <c r="C80" t="n">
+        <v>414.723</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20172100141</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20162100142</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6222.270852000401</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20152100143</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1688.32281700176</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20142100144</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1467.604103002783</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20132100145</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1387.194197003628</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20122100147</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1732.597611001665</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20112100148</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3084.73933250188</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20102100149</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6784.098386973769</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20092100150</v>
+      </c>
+      <c r="C89" t="n">
+        <v>9295.344562513454</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20082100151</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7475.485288501332</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20072100152</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4341.280789791133</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20062100153</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1924.091949500588</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20052100154</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1221.046400499492</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20042100155</v>
+      </c>
+      <c r="C94" t="n">
+        <v>829.7290730002117</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20032100156</v>
+      </c>
+      <c r="C95" t="n">
+        <v>907.4490049999474</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20022100158</v>
+      </c>
+      <c r="C96" t="n">
+        <v>633.0435090000258</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20012100159</v>
+      </c>
+      <c r="C97" t="n">
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>20002100160</v>
+      </c>
+      <c r="C98" t="n">
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19992100161</v>
+      </c>
+      <c r="C99" t="n">
         <v>171.9239930052555</v>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>OtherPV</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5953,7 +8904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5996,34 +8947,6 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99992600009</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>STORAGE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6055,7 +8978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6110,10 +9033,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>20140100021</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1125.6</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -6149,10 +9072,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20140100021</v>
+        <v>20130100022</v>
       </c>
       <c r="C3" t="n">
-        <v>1125.6</v>
+        <v>731</v>
       </c>
       <c r="D3" t="n">
         <v>1.9</v>
@@ -6188,10 +9111,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20130100022</v>
+        <v>20020100023</v>
       </c>
       <c r="C4" t="n">
-        <v>731</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
         <v>1.9</v>
@@ -6227,10 +9150,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20020100023</v>
+        <v>20010100034</v>
       </c>
       <c r="C5" t="n">
-        <v>256</v>
+        <v>169.3934</v>
       </c>
       <c r="D5" t="n">
         <v>1.9</v>
@@ -6266,10 +9189,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20010100034</v>
+        <v>20000100045</v>
       </c>
       <c r="C6" t="n">
-        <v>169.3934</v>
+        <v>81.2</v>
       </c>
       <c r="D6" t="n">
         <v>1.9</v>
@@ -6305,10 +9228,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20000100045</v>
+        <v>19980100056</v>
       </c>
       <c r="C7" t="n">
-        <v>81.2</v>
+        <v>90.80000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>1.9</v>
@@ -6344,10 +9267,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20120100133</v>
+        <v>19970100067</v>
       </c>
       <c r="C8" t="n">
-        <v>89.8</v>
+        <v>95.8</v>
       </c>
       <c r="D8" t="n">
         <v>1.9</v>
@@ -6383,10 +9306,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20100100215</v>
+        <v>19960100078</v>
       </c>
       <c r="C9" t="n">
-        <v>89.05</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>1.9</v>
@@ -6422,10 +9345,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20080100226</v>
+        <v>19950100089</v>
       </c>
       <c r="C10" t="n">
-        <v>127.8</v>
+        <v>117.9</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -6461,10 +9384,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20070100237</v>
+        <v>19890100100</v>
       </c>
       <c r="C11" t="n">
-        <v>217.8</v>
+        <v>171</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -6500,10 +9423,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20060100248</v>
+        <v>19820100111</v>
       </c>
       <c r="C12" t="n">
-        <v>91.5</v>
+        <v>123.5</v>
       </c>
       <c r="D12" t="n">
         <v>1.9</v>
@@ -6539,10 +9462,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20050100259</v>
+        <v>19800100122</v>
       </c>
       <c r="C13" t="n">
-        <v>66.78</v>
+        <v>252.61</v>
       </c>
       <c r="D13" t="n">
         <v>1.9</v>
@@ -6578,10 +9501,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20040100270</v>
+        <v>20120100133</v>
       </c>
       <c r="C14" t="n">
-        <v>166.92</v>
+        <v>89.8</v>
       </c>
       <c r="D14" t="n">
         <v>1.9</v>
@@ -6617,10 +9540,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20030100281</v>
+        <v>19710100134</v>
       </c>
       <c r="C15" t="n">
-        <v>206.65</v>
+        <v>280.2</v>
       </c>
       <c r="D15" t="n">
         <v>1.9</v>
@@ -6646,6 +9569,279 @@
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20100100216</v>
+      </c>
+      <c r="C16" t="n">
+        <v>89.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20080100227</v>
+      </c>
+      <c r="C17" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20070100238</v>
+      </c>
+      <c r="C18" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20060100249</v>
+      </c>
+      <c r="C19" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20050100260</v>
+      </c>
+      <c r="C20" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20040100271</v>
+      </c>
+      <c r="C21" t="n">
+        <v>166.92</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20030100282</v>
+      </c>
+      <c r="C22" t="n">
+        <v>206.65</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6682,7 +9878,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45291.99861111111</v>
+        <v>43830.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -6692,7 +9888,7 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>45656.99861111111</v>
+        <v>44195.99861111111</v>
       </c>
     </row>
   </sheetData>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1103,7 +1103,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="5" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1189,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,24 +1234,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19991700024</v>
+        <v>19871400086</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F2" t="n">
-        <v>115.8</v>
+        <v>1795</v>
       </c>
       <c r="G2" t="n">
-        <v>115.8</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="3">
@@ -1259,24 +1259,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19971700025</v>
+        <v>19861400087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F3" t="n">
-        <v>72.59999999999999</v>
+        <v>2746</v>
       </c>
       <c r="G3" t="n">
-        <v>72.59999999999999</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="4">
@@ -1284,24 +1284,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19961700026</v>
+        <v>20132800145</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F4" t="n">
-        <v>53.09999999999999</v>
+        <v>4734</v>
       </c>
       <c r="G4" t="n">
-        <v>53.09999999999999</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="5">
@@ -1309,24 +1309,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19951700027</v>
+        <v>20122800156</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F5" t="n">
-        <v>183.72</v>
+        <v>1597.7</v>
       </c>
       <c r="G5" t="n">
-        <v>183.72</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="6">
@@ -1334,24 +1334,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19941700028</v>
+        <v>20102900161</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F6" t="n">
-        <v>352.5</v>
+        <v>2780.3</v>
       </c>
       <c r="G6" t="n">
-        <v>352.5</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="7">
@@ -1359,24 +1359,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19931700029</v>
+        <v>20082900162</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F7" t="n">
-        <v>65.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="G7" t="n">
-        <v>65.59999999999999</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="8">
@@ -1384,24 +1384,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19921700030</v>
+        <v>20072900163</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F8" t="n">
-        <v>261.1</v>
+        <v>648</v>
       </c>
       <c r="G8" t="n">
-        <v>261.1</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9">
@@ -1409,24 +1409,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19911700031</v>
+        <v>20062900164</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F9" t="n">
-        <v>163</v>
+        <v>628</v>
       </c>
       <c r="G9" t="n">
-        <v>163</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10">
@@ -1434,24 +1434,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19901700032</v>
+        <v>20002900165</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F10" t="n">
-        <v>97.07900000000001</v>
+        <v>967.22</v>
       </c>
       <c r="G10" t="n">
-        <v>97.07900000000001</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="11">
@@ -1459,24 +1459,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19871700033</v>
+        <v>19982900166</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F11" t="n">
-        <v>120.4</v>
+        <v>1732</v>
       </c>
       <c r="G11" t="n">
-        <v>120.4</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="12">
@@ -1484,24 +1484,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19861700035</v>
+        <v>20112800167</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F12" t="n">
-        <v>60.491</v>
+        <v>1909</v>
       </c>
       <c r="G12" t="n">
-        <v>60.491</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="13">
@@ -1509,24 +1509,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19851700036</v>
+        <v>19972900168</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F13" t="n">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="G13" t="n">
-        <v>521</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14">
@@ -1534,24 +1534,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19821700037</v>
+        <v>19962900169</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F14" t="n">
-        <v>156.5</v>
+        <v>750</v>
       </c>
       <c r="G14" t="n">
-        <v>156.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15">
@@ -1559,24 +1559,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19771700038</v>
+        <v>19952900170</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F15" t="n">
-        <v>100.78</v>
+        <v>750</v>
       </c>
       <c r="G15" t="n">
-        <v>100.78</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16">
@@ -1584,24 +1584,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19751700039</v>
+        <v>19942900171</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F16" t="n">
-        <v>619.4</v>
+        <v>2780</v>
       </c>
       <c r="G16" t="n">
-        <v>619.4</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="17">
@@ -1609,24 +1609,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19731700040</v>
+        <v>19922900172</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F17" t="n">
-        <v>639.7</v>
+        <v>496</v>
       </c>
       <c r="G17" t="n">
-        <v>639.7</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18">
@@ -1634,24 +1634,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19721700041</v>
+        <v>19912900173</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F18" t="n">
-        <v>77.7</v>
+        <v>488.3</v>
       </c>
       <c r="G18" t="n">
-        <v>77.7</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="19">
@@ -1659,24 +1659,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19711700042</v>
+        <v>19882900174</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F19" t="n">
-        <v>183</v>
+        <v>652.8</v>
       </c>
       <c r="G19" t="n">
-        <v>183</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="20">
@@ -1684,24 +1684,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19691700043</v>
+        <v>19872900175</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F20" t="n">
-        <v>173.2865</v>
+        <v>498.5</v>
       </c>
       <c r="G20" t="n">
-        <v>173.2865</v>
+        <v>498.5</v>
       </c>
     </row>
     <row r="21">
@@ -1709,24 +1709,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19591700044</v>
+        <v>19862900176</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F21" t="n">
-        <v>149</v>
+        <v>232.8</v>
       </c>
       <c r="G21" t="n">
-        <v>149</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="22">
@@ -1734,24 +1734,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19521700046</v>
+        <v>19852900177</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F22" t="n">
-        <v>94.59999999999999</v>
+        <v>465</v>
       </c>
       <c r="G22" t="n">
-        <v>94.59999999999999</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23">
@@ -1759,24 +1759,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19461700047</v>
+        <v>20102800178</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5</v>
+        <v>433</v>
       </c>
       <c r="G23" t="n">
-        <v>135.5</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24">
@@ -1784,24 +1784,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19871400086</v>
+        <v>20092800189</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="F24" t="n">
-        <v>1795</v>
+        <v>716</v>
       </c>
       <c r="G24" t="n">
-        <v>1795</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25">
@@ -1809,24 +1809,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19861400087</v>
+        <v>20093000194</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F25" t="n">
-        <v>2746</v>
+        <v>83.8</v>
       </c>
       <c r="G25" t="n">
-        <v>2746</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="26">
@@ -1834,24 +1834,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19841400088</v>
+        <v>20063000195</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F26" t="n">
-        <v>1410</v>
+        <v>60</v>
       </c>
       <c r="G26" t="n">
-        <v>1410</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -1859,24 +1859,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19831400090</v>
+        <v>20023000196</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F27" t="n">
-        <v>1360</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>1360</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1884,24 +1884,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19821400091</v>
+        <v>19963000197</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1288</v>
+        <v>212</v>
       </c>
       <c r="G28" t="n">
-        <v>1288</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1909,24 +1909,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20132800146</v>
+        <v>19953000198</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F29" t="n">
-        <v>4734</v>
+        <v>97.3</v>
       </c>
       <c r="G29" t="n">
-        <v>4734</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="30">
@@ -1934,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20122800157</v>
+        <v>20082800200</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1948,10 +1948,10 @@
         <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>1597.7</v>
+        <v>250</v>
       </c>
       <c r="G30" t="n">
-        <v>1597.7</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -1959,24 +1959,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20102900162</v>
+        <v>20072800211</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F31" t="n">
-        <v>2780.3</v>
+        <v>1572</v>
       </c>
       <c r="G31" t="n">
-        <v>2780.3</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="32">
@@ -1984,24 +1984,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20082900163</v>
+        <v>20052800213</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F32" t="n">
-        <v>94.8</v>
+        <v>350</v>
       </c>
       <c r="G32" t="n">
-        <v>94.8</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33">
@@ -2009,24 +2009,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20072900164</v>
+        <v>20042800214</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F33" t="n">
-        <v>648</v>
+        <v>336</v>
       </c>
       <c r="G33" t="n">
-        <v>648</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34">
@@ -2034,24 +2034,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20062900165</v>
+        <v>20032800216</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F34" t="n">
-        <v>628</v>
+        <v>822</v>
       </c>
       <c r="G34" t="n">
-        <v>628</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35">
@@ -2059,24 +2059,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20002900166</v>
+        <v>20012800217</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F35" t="n">
-        <v>967.22</v>
+        <v>690</v>
       </c>
       <c r="G35" t="n">
-        <v>967.22</v>
+        <v>690</v>
       </c>
     </row>
     <row r="36">
@@ -2084,24 +2084,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19982900167</v>
+        <v>19982800218</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F36" t="n">
-        <v>1732</v>
+        <v>123</v>
       </c>
       <c r="G36" t="n">
-        <v>1732</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20112800168</v>
+        <v>19922800219</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>0.44</v>
       </c>
       <c r="F37" t="n">
-        <v>1909</v>
+        <v>1127.4</v>
       </c>
       <c r="G37" t="n">
-        <v>1909</v>
+        <v>1127.4</v>
       </c>
     </row>
     <row r="38">
@@ -2134,24 +2134,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19972900169</v>
+        <v>19912800220</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F38" t="n">
-        <v>949</v>
+        <v>889</v>
       </c>
       <c r="G38" t="n">
-        <v>949</v>
+        <v>889</v>
       </c>
     </row>
     <row r="39">
@@ -2159,24 +2159,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19962900170</v>
+        <v>19902800221</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F39" t="n">
-        <v>750</v>
+        <v>561.7</v>
       </c>
       <c r="G39" t="n">
-        <v>750</v>
+        <v>561.7</v>
       </c>
     </row>
     <row r="40">
@@ -2184,24 +2184,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19952900171</v>
+        <v>19892800222</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F40" t="n">
-        <v>750</v>
+        <v>332.7</v>
       </c>
       <c r="G40" t="n">
-        <v>750</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="41">
@@ -2209,24 +2209,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19942900172</v>
+        <v>19882800223</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F41" t="n">
-        <v>2780</v>
+        <v>169.9</v>
       </c>
       <c r="G41" t="n">
-        <v>2780</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="42">
@@ -2234,24 +2234,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19922900173</v>
+        <v>19872800224</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F42" t="n">
-        <v>496</v>
+        <v>762.5</v>
       </c>
       <c r="G42" t="n">
-        <v>496</v>
+        <v>762.5</v>
       </c>
     </row>
     <row r="43">
@@ -2259,24 +2259,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19912900174</v>
+        <v>19862800225</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F43" t="n">
-        <v>488.3</v>
+        <v>713.5</v>
       </c>
       <c r="G43" t="n">
-        <v>488.3</v>
+        <v>713.5</v>
       </c>
     </row>
     <row r="44">
@@ -2284,24 +2284,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19882900175</v>
+        <v>19852800227</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F44" t="n">
-        <v>652.8</v>
+        <v>1157</v>
       </c>
       <c r="G44" t="n">
-        <v>652.8</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45">
@@ -2309,24 +2309,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19872900176</v>
+        <v>20180300241</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E45" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F45" t="n">
-        <v>498.5</v>
+        <v>140.5</v>
       </c>
       <c r="G45" t="n">
-        <v>498.5</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="46">
@@ -2334,24 +2334,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19862900177</v>
+        <v>20140300242</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E46" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F46" t="n">
-        <v>232.8</v>
+        <v>1117.5</v>
       </c>
       <c r="G46" t="n">
-        <v>232.8</v>
+        <v>1117.5</v>
       </c>
     </row>
     <row r="47">
@@ -2359,24 +2359,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19852900178</v>
+        <v>20130300243</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E47" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F47" t="n">
-        <v>465</v>
+        <v>296.3</v>
       </c>
       <c r="G47" t="n">
-        <v>465</v>
+        <v>296.3</v>
       </c>
     </row>
     <row r="48">
@@ -2384,24 +2384,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20102800179</v>
+        <v>20110300244</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E48" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F48" t="n">
-        <v>433</v>
+        <v>2110.5</v>
       </c>
       <c r="G48" t="n">
-        <v>433</v>
+        <v>2110.5</v>
       </c>
     </row>
     <row r="49">
@@ -2409,24 +2409,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19832900180</v>
+        <v>20100300245</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E49" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F49" t="n">
-        <v>361.3</v>
+        <v>3470</v>
       </c>
       <c r="G49" t="n">
-        <v>361.3</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="50">
@@ -2434,24 +2434,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19772900181</v>
+        <v>20090300246</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E50" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F50" t="n">
-        <v>59.5</v>
+        <v>639</v>
       </c>
       <c r="G50" t="n">
-        <v>59.5</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51">
@@ -2459,24 +2459,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19742900182</v>
+        <v>20080300247</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F51" t="n">
-        <v>604</v>
+        <v>4269.5</v>
       </c>
       <c r="G51" t="n">
-        <v>604</v>
+        <v>4269.5</v>
       </c>
     </row>
     <row r="52">
@@ -2484,24 +2484,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19732900183</v>
+        <v>20070300249</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E52" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F52" t="n">
-        <v>1263</v>
+        <v>196</v>
       </c>
       <c r="G52" t="n">
-        <v>1263</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53">
@@ -2509,24 +2509,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19722900184</v>
+        <v>20060300250</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E53" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F53" t="n">
-        <v>663</v>
+        <v>1569</v>
       </c>
       <c r="G53" t="n">
-        <v>663</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="54">
@@ -2534,24 +2534,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19712900185</v>
+        <v>20050300251</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E54" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F54" t="n">
-        <v>292</v>
+        <v>1517</v>
       </c>
       <c r="G54" t="n">
-        <v>292</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="55">
@@ -2559,24 +2559,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19702900186</v>
+        <v>20030300252</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E55" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F55" t="n">
-        <v>588</v>
+        <v>1207.759</v>
       </c>
       <c r="G55" t="n">
-        <v>588</v>
+        <v>1207.759</v>
       </c>
     </row>
     <row r="56">
@@ -2584,24 +2584,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19692900187</v>
+        <v>20020300253</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E56" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F56" t="n">
-        <v>299</v>
+        <v>1375.4</v>
       </c>
       <c r="G56" t="n">
-        <v>299</v>
+        <v>1375.4</v>
       </c>
     </row>
     <row r="57">
@@ -2609,24 +2609,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19682900188</v>
+        <v>20010300254</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E57" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F57" t="n">
-        <v>295</v>
+        <v>245.46</v>
       </c>
       <c r="G57" t="n">
-        <v>295</v>
+        <v>245.46</v>
       </c>
     </row>
     <row r="58">
@@ -2634,24 +2634,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19662900189</v>
+        <v>20171700278</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E58" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F58" t="n">
-        <v>297</v>
+        <v>535.2</v>
       </c>
       <c r="G58" t="n">
-        <v>297</v>
+        <v>535.2</v>
       </c>
     </row>
     <row r="59">
@@ -2659,24 +2659,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20092800190</v>
+        <v>20161700279</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E59" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F59" t="n">
-        <v>716</v>
+        <v>167.451</v>
       </c>
       <c r="G59" t="n">
-        <v>716</v>
+        <v>167.451</v>
       </c>
     </row>
     <row r="60">
@@ -2684,24 +2684,24 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19652900191</v>
+        <v>20151700280</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E60" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F60" t="n">
-        <v>321</v>
+        <v>220.2</v>
       </c>
       <c r="G60" t="n">
-        <v>321</v>
+        <v>220.2</v>
       </c>
     </row>
     <row r="61">
@@ -2709,24 +2709,24 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19632900192</v>
+        <v>20141700282</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E61" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F61" t="n">
-        <v>643.5</v>
+        <v>574.3099999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>643.5</v>
+        <v>574.3099999999999</v>
       </c>
     </row>
     <row r="62">
@@ -2734,24 +2734,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19342900193</v>
+        <v>20121700283</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E62" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F62" t="n">
-        <v>82</v>
+        <v>141.6</v>
       </c>
       <c r="G62" t="n">
-        <v>82</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="63">
@@ -2759,24 +2759,24 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19152900194</v>
+        <v>20111700284</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E63" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F63" t="n">
-        <v>98</v>
+        <v>454.24</v>
       </c>
       <c r="G63" t="n">
-        <v>98</v>
+        <v>454.24</v>
       </c>
     </row>
     <row r="64">
@@ -2784,24 +2784,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20093000195</v>
+        <v>20101700285</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E64" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F64" t="n">
-        <v>83.8</v>
+        <v>275.78</v>
       </c>
       <c r="G64" t="n">
-        <v>83.8</v>
+        <v>275.78</v>
       </c>
     </row>
     <row r="65">
@@ -2809,24 +2809,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20063000196</v>
+        <v>20051700286</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E65" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F65" t="n">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="G65" t="n">
-        <v>60</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66">
@@ -2834,24 +2834,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20023000197</v>
+        <v>20041700287</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E66" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F66" t="n">
-        <v>97.09999999999999</v>
+        <v>746.015</v>
       </c>
       <c r="G66" t="n">
-        <v>97.09999999999999</v>
+        <v>746.015</v>
       </c>
     </row>
     <row r="67">
@@ -2859,24 +2859,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19963000198</v>
+        <v>20031700288</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E67" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F67" t="n">
-        <v>212</v>
+        <v>163.9</v>
       </c>
       <c r="G67" t="n">
-        <v>212</v>
+        <v>163.9</v>
       </c>
     </row>
     <row r="68">
@@ -2884,24 +2884,24 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19953000199</v>
+        <v>20021700289</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E68" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F68" t="n">
-        <v>97.3</v>
+        <v>126.7</v>
       </c>
       <c r="G68" t="n">
-        <v>97.3</v>
+        <v>126.7</v>
       </c>
     </row>
     <row r="69">
@@ -2909,24 +2909,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19933000200</v>
+        <v>20011700290</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E69" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F69" t="n">
-        <v>87.8</v>
+        <v>110.55</v>
       </c>
       <c r="G69" t="n">
-        <v>87.8</v>
+        <v>110.55</v>
       </c>
     </row>
     <row r="70">
@@ -2934,2123 +2934,23 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20082800201</v>
+        <v>20001700291</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E70" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>124.5</v>
       </c>
       <c r="G70" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>19923000202</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F71" t="n">
-        <v>190.4</v>
-      </c>
-      <c r="G71" t="n">
-        <v>190.4</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>19803000203</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F72" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="G72" t="n">
-        <v>93.59999999999999</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>19793000204</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F73" t="n">
-        <v>136</v>
-      </c>
-      <c r="G73" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>19753000205</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F74" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="G74" t="n">
-        <v>205.9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>19743000206</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F75" t="n">
-        <v>50</v>
-      </c>
-      <c r="G75" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>19733000207</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F76" t="n">
-        <v>434.5</v>
-      </c>
-      <c r="G76" t="n">
-        <v>434.5</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>19723000208</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F77" t="n">
-        <v>870.9</v>
-      </c>
-      <c r="G77" t="n">
-        <v>870.9</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>19713000209</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F78" t="n">
-        <v>529</v>
-      </c>
-      <c r="G78" t="n">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>19703000210</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F79" t="n">
-        <v>303.2</v>
-      </c>
-      <c r="G79" t="n">
-        <v>303.2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>19693000211</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F80" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="G80" t="n">
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>20072800212</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1572</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>19603000213</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F82" t="n">
-        <v>90</v>
-      </c>
-      <c r="G82" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>20052800214</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F83" t="n">
-        <v>350</v>
-      </c>
-      <c r="G83" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>20042800215</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F84" t="n">
-        <v>336</v>
-      </c>
-      <c r="G84" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>20032800217</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F85" t="n">
-        <v>822</v>
-      </c>
-      <c r="G85" t="n">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>20012800218</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F86" t="n">
-        <v>690</v>
-      </c>
-      <c r="G86" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>19982800219</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F87" t="n">
-        <v>123</v>
-      </c>
-      <c r="G87" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>19922800220</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1127.4</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1127.4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>19912800221</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F89" t="n">
-        <v>889</v>
-      </c>
-      <c r="G89" t="n">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>19902800222</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F90" t="n">
-        <v>561.7</v>
-      </c>
-      <c r="G90" t="n">
-        <v>561.7</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>19892800223</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F91" t="n">
-        <v>332.7</v>
-      </c>
-      <c r="G91" t="n">
-        <v>332.7</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>19882800224</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F92" t="n">
-        <v>169.9</v>
-      </c>
-      <c r="G92" t="n">
-        <v>169.9</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>19872800225</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F93" t="n">
-        <v>762.5</v>
-      </c>
-      <c r="G93" t="n">
-        <v>762.5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>19862800226</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F94" t="n">
-        <v>713.5</v>
-      </c>
-      <c r="G94" t="n">
-        <v>713.5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>19852800228</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1157</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>19832800229</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F96" t="n">
-        <v>380</v>
-      </c>
-      <c r="G96" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>19822800230</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F97" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="G97" t="n">
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>19812800231</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F98" t="n">
-        <v>794.4</v>
-      </c>
-      <c r="G98" t="n">
-        <v>794.4</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>19802800232</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F99" t="n">
-        <v>666.4</v>
-      </c>
-      <c r="G99" t="n">
-        <v>666.4</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>19792800233</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F100" t="n">
-        <v>717</v>
-      </c>
-      <c r="G100" t="n">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>19772800234</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F101" t="n">
-        <v>303</v>
-      </c>
-      <c r="G101" t="n">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>19742800235</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1412.6</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1412.6</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>19692800236</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F103" t="n">
-        <v>190.35</v>
-      </c>
-      <c r="G103" t="n">
-        <v>190.35</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>19672800237</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F104" t="n">
-        <v>345</v>
-      </c>
-      <c r="G104" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>19662800239</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F105" t="n">
-        <v>385</v>
-      </c>
-      <c r="G105" t="n">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>19602800240</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F106" t="n">
-        <v>129</v>
-      </c>
-      <c r="G106" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>19382800241</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F107" t="n">
-        <v>188.32</v>
-      </c>
-      <c r="G107" t="n">
-        <v>188.32</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>20180300242</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F108" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="G108" t="n">
-        <v>140.5</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>20140300243</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1117.5</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1117.5</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>20130300244</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F110" t="n">
-        <v>296.3</v>
-      </c>
-      <c r="G110" t="n">
-        <v>296.3</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>20110300245</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2110.5</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2110.5</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>20100300246</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3470</v>
-      </c>
-      <c r="G112" t="n">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>20090300247</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F113" t="n">
-        <v>639</v>
-      </c>
-      <c r="G113" t="n">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>20080300248</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4269.5</v>
-      </c>
-      <c r="G114" t="n">
-        <v>4269.5</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>20070300250</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F115" t="n">
-        <v>196</v>
-      </c>
-      <c r="G115" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>20060300251</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1569</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>20050300252</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1517</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>20030300253</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1207.759</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1207.759</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="5" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>20020300254</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1375.4</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1375.4</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="5" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>20010300255</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F120" t="n">
-        <v>245.46</v>
-      </c>
-      <c r="G120" t="n">
-        <v>245.46</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="5" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>19990300256</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F121" t="n">
-        <v>135.8</v>
-      </c>
-      <c r="G121" t="n">
-        <v>135.8</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>19980300257</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1239.2</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1239.2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="5" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>19970300258</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F123" t="n">
-        <v>778.6</v>
-      </c>
-      <c r="G123" t="n">
-        <v>778.6</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="5" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>19960300259</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F124" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="G124" t="n">
-        <v>799.6</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>19950300261</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1597</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="5" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>19940300262</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1784</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="5" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>19930300263</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F127" t="n">
-        <v>834</v>
-      </c>
-      <c r="G127" t="n">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>19920300264</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F128" t="n">
-        <v>519</v>
-      </c>
-      <c r="G128" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>19910300265</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F129" t="n">
-        <v>84.51000000000001</v>
-      </c>
-      <c r="G129" t="n">
-        <v>84.51000000000001</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="5" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>19880300266</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F130" t="n">
-        <v>225</v>
-      </c>
-      <c r="G130" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="5" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>19850300267</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F131" t="n">
-        <v>169</v>
-      </c>
-      <c r="G131" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="5" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>19830300268</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F132" t="n">
-        <v>103</v>
-      </c>
-      <c r="G132" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="5" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>19810300269</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F133" t="n">
-        <v>50</v>
-      </c>
-      <c r="G133" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="5" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>19790300270</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F134" t="n">
-        <v>125</v>
-      </c>
-      <c r="G134" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="5" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>19780300272</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F135" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="G135" t="n">
-        <v>316.7</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="5" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>19760300273</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F136" t="n">
-        <v>695</v>
-      </c>
-      <c r="G136" t="n">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="5" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>19740300274</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1107</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="5" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>19730300275</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F138" t="n">
-        <v>332</v>
-      </c>
-      <c r="G138" t="n">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="5" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>19720300276</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F139" t="n">
-        <v>475</v>
-      </c>
-      <c r="G139" t="n">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="5" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>19710300277</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1698</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="5" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>18990300278</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F141" t="n">
-        <v>137</v>
-      </c>
-      <c r="G141" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="5" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>20171700279</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F142" t="n">
-        <v>535.2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>535.2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="5" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>20161700280</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F143" t="n">
-        <v>167.451</v>
-      </c>
-      <c r="G143" t="n">
-        <v>167.451</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="5" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>20151700281</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F144" t="n">
-        <v>220.2</v>
-      </c>
-      <c r="G144" t="n">
-        <v>220.2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="5" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>20141700283</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F145" t="n">
-        <v>574.3099999999999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>574.3099999999999</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="5" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>20121700284</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F146" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="G146" t="n">
-        <v>141.6</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="5" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>20111700285</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F147" t="n">
-        <v>454.24</v>
-      </c>
-      <c r="G147" t="n">
-        <v>454.24</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="5" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>20101700286</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F148" t="n">
-        <v>275.78</v>
-      </c>
-      <c r="G148" t="n">
-        <v>275.78</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="5" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20051700287</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F149" t="n">
-        <v>158</v>
-      </c>
-      <c r="G149" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="5" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>20041700288</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F150" t="n">
-        <v>746.015</v>
-      </c>
-      <c r="G150" t="n">
-        <v>746.015</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="5" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>20031700289</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F151" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="G151" t="n">
-        <v>163.9</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>20021700290</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F152" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="G152" t="n">
-        <v>126.7</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="5" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>20011700291</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F153" t="n">
-        <v>110.55</v>
-      </c>
-      <c r="G153" t="n">
-        <v>110.55</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="5" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>20001700292</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F154" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="G154" t="n">
         <v>124.5</v>
       </c>
     </row>
@@ -5065,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5120,17 +3020,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20181200048</v>
+        <v>99992400003</v>
       </c>
       <c r="C2" t="n">
-        <v>105.3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5159,10 +3059,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20071200049</v>
+        <v>99991200005</v>
       </c>
       <c r="C3" t="n">
-        <v>691.6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -5198,10 +3098,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20021200050</v>
+        <v>20181200048</v>
       </c>
       <c r="C4" t="n">
-        <v>1052</v>
+        <v>105.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5237,10 +3137,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20011200051</v>
+        <v>20071200049</v>
       </c>
       <c r="C5" t="n">
-        <v>138</v>
+        <v>691.6</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5276,10 +3176,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19901200052</v>
+        <v>20021200050</v>
       </c>
       <c r="C6" t="n">
-        <v>117.4</v>
+        <v>1052</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5315,10 +3215,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19871200053</v>
+        <v>20011200051</v>
       </c>
       <c r="C7" t="n">
-        <v>189.8</v>
+        <v>138</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5354,10 +3254,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19821200054</v>
+        <v>19901200052</v>
       </c>
       <c r="C8" t="n">
-        <v>91.80000000000001</v>
+        <v>117.4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5393,10 +3293,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19811200055</v>
+        <v>19871200053</v>
       </c>
       <c r="C9" t="n">
-        <v>60.3</v>
+        <v>189.8</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5432,10 +3332,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19801200057</v>
+        <v>19821200054</v>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>91.80000000000001</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5471,10 +3371,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19771200058</v>
+        <v>19811200055</v>
       </c>
       <c r="C11" t="n">
-        <v>1057.4</v>
+        <v>60.3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -5510,10 +3410,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19761200059</v>
+        <v>19801200057</v>
       </c>
       <c r="C12" t="n">
-        <v>179.4</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5549,10 +3449,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19731200060</v>
+        <v>19771200058</v>
       </c>
       <c r="C13" t="n">
-        <v>926.7</v>
+        <v>1057.4</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -5588,10 +3488,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19721200061</v>
+        <v>19761200059</v>
       </c>
       <c r="C14" t="n">
-        <v>164</v>
+        <v>179.4</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -5627,17 +3527,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19681200062</v>
+        <v>20202400092</v>
       </c>
       <c r="C15" t="n">
-        <v>121.1</v>
+        <v>400</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5666,17 +3566,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19651200063</v>
+        <v>20192400093</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9</v>
+        <v>554.6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5705,17 +3605,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19641200064</v>
+        <v>20182400094</v>
       </c>
       <c r="C17" t="n">
-        <v>441.7</v>
+        <v>577</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -5744,17 +3644,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19631200065</v>
+        <v>20172400095</v>
       </c>
       <c r="C18" t="n">
-        <v>465.7</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5783,17 +3683,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19621200066</v>
+        <v>20162400096</v>
       </c>
       <c r="C19" t="n">
-        <v>340</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5822,17 +3722,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19601200068</v>
+        <v>20152400097</v>
       </c>
       <c r="C20" t="n">
-        <v>62.8</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5861,17 +3761,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19581200069</v>
+        <v>20142400098</v>
       </c>
       <c r="C21" t="n">
-        <v>95.7</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5900,17 +3800,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19571200070</v>
+        <v>20132400099</v>
       </c>
       <c r="C22" t="n">
-        <v>70.3</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5939,17 +3839,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19561200071</v>
+        <v>20122400101</v>
       </c>
       <c r="C23" t="n">
-        <v>390.7</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5978,17 +3878,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19531200072</v>
+        <v>20112400102</v>
       </c>
       <c r="C24" t="n">
-        <v>339.2</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6017,17 +3917,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19521200073</v>
+        <v>20102400103</v>
       </c>
       <c r="C25" t="n">
-        <v>57.4</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6056,17 +3956,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19511200074</v>
+        <v>20092400104</v>
       </c>
       <c r="C26" t="n">
-        <v>111.5</v>
+        <v>1734.347213999992</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6095,17 +3995,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19491200075</v>
+        <v>20082400105</v>
       </c>
       <c r="C27" t="n">
-        <v>244.1</v>
+        <v>1087.143895999995</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6134,17 +4034,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19461200076</v>
+        <v>20072400106</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>2049.836699999993</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6173,17 +4073,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19421200077</v>
+        <v>20062400107</v>
       </c>
       <c r="C29" t="n">
-        <v>84</v>
+        <v>751.4120000000005</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6212,17 +4112,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19411200079</v>
+        <v>20052400108</v>
       </c>
       <c r="C30" t="n">
-        <v>220</v>
+        <v>1340.202199999995</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6251,17 +4151,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19401200080</v>
+        <v>20042400109</v>
       </c>
       <c r="C31" t="n">
-        <v>91.5</v>
+        <v>1659.914999999992</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -6290,17 +4190,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19361200081</v>
+        <v>20032400110</v>
       </c>
       <c r="C32" t="n">
-        <v>88.09999999999999</v>
+        <v>1287.459599999997</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6329,17 +4229,17 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19301200082</v>
+        <v>20022400112</v>
       </c>
       <c r="C33" t="n">
-        <v>104.8</v>
+        <v>1434.670999999991</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6368,17 +4268,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19251200083</v>
+        <v>20012400113</v>
       </c>
       <c r="C34" t="n">
-        <v>130</v>
+        <v>1773.431999999988</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6407,17 +4307,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19221200084</v>
+        <v>20002400114</v>
       </c>
       <c r="C35" t="n">
-        <v>164</v>
+        <v>1975.231089999979</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6446,17 +4346,17 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19201200085</v>
+        <v>19992400115</v>
       </c>
       <c r="C36" t="n">
-        <v>183.55</v>
+        <v>1648.599299999983</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6485,10 +4385,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20202400092</v>
+        <v>19982400116</v>
       </c>
       <c r="C37" t="n">
-        <v>400</v>
+        <v>853.3870000000011</v>
       </c>
       <c r="D37" t="n">
         <v>1.35</v>
@@ -6524,10 +4424,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20192400093</v>
+        <v>19972400117</v>
       </c>
       <c r="C38" t="n">
-        <v>554.6</v>
+        <v>564.2280000000012</v>
       </c>
       <c r="D38" t="n">
         <v>1.35</v>
@@ -6563,10 +4463,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20182400094</v>
+        <v>19962400118</v>
       </c>
       <c r="C39" t="n">
-        <v>577</v>
+        <v>251.9353999999998</v>
       </c>
       <c r="D39" t="n">
         <v>1.35</v>
@@ -6602,10 +4502,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20172400095</v>
+        <v>19952400119</v>
       </c>
       <c r="C40" t="n">
-        <v>888.5916000000008</v>
+        <v>170.8699999999997</v>
       </c>
       <c r="D40" t="n">
         <v>1.35</v>
@@ -6641,17 +4541,17 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20162400096</v>
+        <v>20192300124</v>
       </c>
       <c r="C41" t="n">
-        <v>4593.90489999998</v>
+        <v>1130.5</v>
       </c>
       <c r="D41" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6680,17 +4580,17 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20152400097</v>
+        <v>20182300125</v>
       </c>
       <c r="C42" t="n">
-        <v>5251.351200000026</v>
+        <v>952</v>
       </c>
       <c r="D42" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6719,17 +4619,17 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20142400098</v>
+        <v>20172300126</v>
       </c>
       <c r="C43" t="n">
-        <v>3907.871117000042</v>
+        <v>1455</v>
       </c>
       <c r="D43" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6758,17 +4658,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20132400099</v>
+        <v>20162300127</v>
       </c>
       <c r="C44" t="n">
-        <v>3468.728360000041</v>
+        <v>735</v>
       </c>
       <c r="D44" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6797,17 +4697,17 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20122400101</v>
+        <v>20152300128</v>
       </c>
       <c r="C45" t="n">
-        <v>3969.104243000032</v>
+        <v>1622</v>
       </c>
       <c r="D45" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6836,17 +4736,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20112400102</v>
+        <v>20142300129</v>
       </c>
       <c r="C46" t="n">
-        <v>2785.43162000001</v>
+        <v>726</v>
       </c>
       <c r="D46" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6875,17 +4775,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20102400103</v>
+        <v>20132300130</v>
       </c>
       <c r="C47" t="n">
-        <v>2104.219086999985</v>
+        <v>2502</v>
       </c>
       <c r="D47" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6914,17 +4814,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20092400104</v>
+        <v>20122300131</v>
       </c>
       <c r="C48" t="n">
-        <v>1734.347213999992</v>
+        <v>401</v>
       </c>
       <c r="D48" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6953,17 +4853,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20082400105</v>
+        <v>20112300132</v>
       </c>
       <c r="C49" t="n">
-        <v>1087.143895999995</v>
+        <v>400</v>
       </c>
       <c r="D49" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6992,17 +4892,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20072400106</v>
+        <v>20082300135</v>
       </c>
       <c r="C50" t="n">
-        <v>2049.836699999993</v>
+        <v>108.3</v>
       </c>
       <c r="D50" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7031,17 +4931,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20062400107</v>
+        <v>20062300136</v>
       </c>
       <c r="C51" t="n">
-        <v>751.4120000000005</v>
+        <v>240</v>
       </c>
       <c r="D51" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7070,17 +4970,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20052400108</v>
+        <v>20202100137</v>
       </c>
       <c r="C52" t="n">
-        <v>1340.202199999995</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.35</v>
-      </c>
+        <v>251.8</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7109,17 +5007,15 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20042400109</v>
+        <v>20192100138</v>
       </c>
       <c r="C53" t="n">
-        <v>1659.914999999992</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.35</v>
-      </c>
+        <v>195.4</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7148,17 +5044,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20032400110</v>
+        <v>20182100139</v>
       </c>
       <c r="C54" t="n">
-        <v>1287.459599999997</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.35</v>
-      </c>
+        <v>414.723</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7187,17 +5081,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20022400112</v>
+        <v>20172100140</v>
       </c>
       <c r="C55" t="n">
-        <v>1434.670999999991</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.35</v>
-      </c>
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7226,17 +5118,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20012400113</v>
+        <v>20162100141</v>
       </c>
       <c r="C56" t="n">
-        <v>1773.431999999988</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1.35</v>
-      </c>
+        <v>6222.270852000401</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7265,17 +5155,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20002400114</v>
+        <v>20152100142</v>
       </c>
       <c r="C57" t="n">
-        <v>1975.231089999979</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.35</v>
-      </c>
+        <v>1688.32281700176</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7304,17 +5192,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19992400115</v>
+        <v>20142100143</v>
       </c>
       <c r="C58" t="n">
-        <v>1648.599299999983</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.35</v>
-      </c>
+        <v>1467.604103002783</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7343,17 +5229,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19982400116</v>
+        <v>20132100144</v>
       </c>
       <c r="C59" t="n">
-        <v>853.3870000000011</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.35</v>
-      </c>
+        <v>1387.194197003628</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7382,17 +5266,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19972400117</v>
+        <v>20122100146</v>
       </c>
       <c r="C60" t="n">
-        <v>564.2280000000012</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.35</v>
-      </c>
+        <v>1732.597611001665</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7421,17 +5303,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19962400118</v>
+        <v>20112100147</v>
       </c>
       <c r="C61" t="n">
-        <v>251.9353999999998</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.35</v>
-      </c>
+        <v>3084.73933250188</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7460,17 +5340,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19952400119</v>
+        <v>20102100148</v>
       </c>
       <c r="C62" t="n">
-        <v>170.8699999999997</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.35</v>
-      </c>
+        <v>6784.098386973769</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7499,17 +5377,15 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19942400120</v>
+        <v>20092100149</v>
       </c>
       <c r="C63" t="n">
-        <v>157.8950399999997</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.35</v>
-      </c>
+        <v>9295.344562513454</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7538,17 +5414,15 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19932400121</v>
+        <v>20082100150</v>
       </c>
       <c r="C64" t="n">
-        <v>172.6729999999995</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.35</v>
-      </c>
+        <v>7475.485288501332</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7577,17 +5451,15 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19922400123</v>
+        <v>20072100151</v>
       </c>
       <c r="C65" t="n">
-        <v>133.46792</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.35</v>
-      </c>
+        <v>4341.280789791133</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7616,17 +5488,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20192300124</v>
+        <v>20062100152</v>
       </c>
       <c r="C66" t="n">
-        <v>1130.5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2.7</v>
-      </c>
+        <v>1924.091949500588</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7655,17 +5525,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20182300125</v>
+        <v>20052100153</v>
       </c>
       <c r="C67" t="n">
-        <v>952</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2.7</v>
-      </c>
+        <v>1221.046400499492</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7694,17 +5562,15 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20172300126</v>
+        <v>20042100154</v>
       </c>
       <c r="C68" t="n">
-        <v>1455</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2.7</v>
-      </c>
+        <v>829.7290730002117</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7733,17 +5599,15 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20162300127</v>
+        <v>20032100155</v>
       </c>
       <c r="C69" t="n">
-        <v>735</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2.7</v>
-      </c>
+        <v>907.4490049999474</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7772,17 +5636,15 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20152300128</v>
+        <v>20022100157</v>
       </c>
       <c r="C70" t="n">
-        <v>1622</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2.7</v>
-      </c>
+        <v>633.0435090000258</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7811,17 +5673,15 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20142300129</v>
+        <v>20012100158</v>
       </c>
       <c r="C71" t="n">
-        <v>726</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2.7</v>
-      </c>
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7850,17 +5710,15 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20132300130</v>
+        <v>20002100159</v>
       </c>
       <c r="C72" t="n">
-        <v>2502</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2.7</v>
-      </c>
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7889,17 +5747,15 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20122300131</v>
+        <v>19992100160</v>
       </c>
       <c r="C73" t="n">
-        <v>401</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2.7</v>
-      </c>
+        <v>171.9239930052555</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7918,976 +5774,6 @@
         </is>
       </c>
       <c r="I73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>20112300132</v>
-      </c>
-      <c r="C74" t="n">
-        <v>400</v>
-      </c>
-      <c r="D74" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>20082300135</v>
-      </c>
-      <c r="C75" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="D75" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>20062300136</v>
-      </c>
-      <c r="C76" t="n">
-        <v>240</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>20202100137</v>
-      </c>
-      <c r="C77" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>20271200138</v>
-      </c>
-      <c r="C78" t="n">
-        <v>100</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>20192100139</v>
-      </c>
-      <c r="C79" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>20182100140</v>
-      </c>
-      <c r="C80" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>20172100141</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>20162100142</v>
-      </c>
-      <c r="C82" t="n">
-        <v>6222.270852000401</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>20152100143</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1688.32281700176</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>20142100144</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1467.604103002783</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>20132100145</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1387.194197003628</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>20122100147</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1732.597611001665</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>20112100148</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3084.73933250188</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>20102100149</v>
-      </c>
-      <c r="C88" t="n">
-        <v>6784.098386973769</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>20092100150</v>
-      </c>
-      <c r="C89" t="n">
-        <v>9295.344562513454</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>20082100151</v>
-      </c>
-      <c r="C90" t="n">
-        <v>7475.485288501332</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>20072100152</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4341.280789791133</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>20062100153</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1924.091949500588</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>20052100154</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1221.046400499492</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>20042100155</v>
-      </c>
-      <c r="C94" t="n">
-        <v>829.7290730002117</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>20032100156</v>
-      </c>
-      <c r="C95" t="n">
-        <v>907.4490049999474</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>20022100158</v>
-      </c>
-      <c r="C96" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>20012100159</v>
-      </c>
-      <c r="C97" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>20002100160</v>
-      </c>
-      <c r="C98" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>19992100161</v>
-      </c>
-      <c r="C99" t="n">
-        <v>171.9239930052555</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8978,7 +5864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9033,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20140100021</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
-        <v>1125.6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -9072,10 +5958,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20130100022</v>
+        <v>20140100021</v>
       </c>
       <c r="C3" t="n">
-        <v>731</v>
+        <v>1125.6</v>
       </c>
       <c r="D3" t="n">
         <v>1.9</v>
@@ -9111,10 +5997,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20020100023</v>
+        <v>20130100022</v>
       </c>
       <c r="C4" t="n">
-        <v>256</v>
+        <v>731</v>
       </c>
       <c r="D4" t="n">
         <v>1.9</v>
@@ -9150,10 +6036,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20010100034</v>
+        <v>20020100023</v>
       </c>
       <c r="C5" t="n">
-        <v>169.3934</v>
+        <v>256</v>
       </c>
       <c r="D5" t="n">
         <v>1.9</v>
@@ -9189,10 +6075,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20000100045</v>
+        <v>20010100034</v>
       </c>
       <c r="C6" t="n">
-        <v>81.2</v>
+        <v>169.3934</v>
       </c>
       <c r="D6" t="n">
         <v>1.9</v>
@@ -9228,10 +6114,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19980100056</v>
+        <v>20000100045</v>
       </c>
       <c r="C7" t="n">
-        <v>90.80000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="D7" t="n">
         <v>1.9</v>
@@ -9267,10 +6153,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19970100067</v>
+        <v>20120100133</v>
       </c>
       <c r="C8" t="n">
-        <v>95.8</v>
+        <v>89.8</v>
       </c>
       <c r="D8" t="n">
         <v>1.9</v>
@@ -9306,10 +6192,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19960100078</v>
+        <v>20100100215</v>
       </c>
       <c r="C9" t="n">
-        <v>93.09999999999999</v>
+        <v>89.05</v>
       </c>
       <c r="D9" t="n">
         <v>1.9</v>
@@ -9345,10 +6231,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19950100089</v>
+        <v>20080100226</v>
       </c>
       <c r="C10" t="n">
-        <v>117.9</v>
+        <v>127.8</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -9384,10 +6270,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19890100100</v>
+        <v>20070100237</v>
       </c>
       <c r="C11" t="n">
-        <v>171</v>
+        <v>217.8</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -9423,10 +6309,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19820100111</v>
+        <v>20060100248</v>
       </c>
       <c r="C12" t="n">
-        <v>123.5</v>
+        <v>91.5</v>
       </c>
       <c r="D12" t="n">
         <v>1.9</v>
@@ -9462,10 +6348,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19800100122</v>
+        <v>20050100259</v>
       </c>
       <c r="C13" t="n">
-        <v>252.61</v>
+        <v>66.78</v>
       </c>
       <c r="D13" t="n">
         <v>1.9</v>
@@ -9501,10 +6387,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20120100133</v>
+        <v>20040100270</v>
       </c>
       <c r="C14" t="n">
-        <v>89.8</v>
+        <v>166.92</v>
       </c>
       <c r="D14" t="n">
         <v>1.9</v>
@@ -9540,10 +6426,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19710100134</v>
+        <v>20030100281</v>
       </c>
       <c r="C15" t="n">
-        <v>280.2</v>
+        <v>206.65</v>
       </c>
       <c r="D15" t="n">
         <v>1.9</v>
@@ -9569,279 +6455,6 @@
         </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>20100100216</v>
-      </c>
-      <c r="C16" t="n">
-        <v>89.05</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20080100227</v>
-      </c>
-      <c r="C17" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20070100238</v>
-      </c>
-      <c r="C18" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20060100249</v>
-      </c>
-      <c r="C19" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20050100260</v>
-      </c>
-      <c r="C20" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20040100271</v>
-      </c>
-      <c r="C21" t="n">
-        <v>166.92</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20030100282</v>
-      </c>
-      <c r="C22" t="n">
-        <v>206.65</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9878,7 +6491,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>43830.99861111111</v>
+        <v>45291.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -9888,7 +6501,7 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>44195.99861111111</v>
+        <v>45656.99861111111</v>
       </c>
     </row>
   </sheetData>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1103,7 +1103,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="5" t="n">
-        <v>2024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2">
@@ -1189,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,24 +1234,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19871400086</v>
+        <v>20132800145</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="F2" t="n">
-        <v>1795</v>
+        <v>4734</v>
       </c>
       <c r="G2" t="n">
-        <v>1795</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="3">
@@ -1259,24 +1259,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19861400087</v>
+        <v>20122800156</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="F3" t="n">
-        <v>2746</v>
+        <v>1597.7</v>
       </c>
       <c r="G3" t="n">
-        <v>2746</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="4">
@@ -1284,24 +1284,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20132800145</v>
+        <v>20102900161</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F4" t="n">
-        <v>4734</v>
+        <v>2780.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4734</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="5">
@@ -1309,24 +1309,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20122800156</v>
+        <v>20082900162</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F5" t="n">
-        <v>1597.7</v>
+        <v>94.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1597.7</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="6">
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20102900161</v>
+        <v>20072900163</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1348,10 +1348,10 @@
         <v>0.45</v>
       </c>
       <c r="F6" t="n">
-        <v>2780.3</v>
+        <v>648</v>
       </c>
       <c r="G6" t="n">
-        <v>2780.3</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7">
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20082900162</v>
+        <v>20062900164</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1373,10 +1373,10 @@
         <v>0.45</v>
       </c>
       <c r="F7" t="n">
-        <v>94.8</v>
+        <v>628</v>
       </c>
       <c r="G7" t="n">
-        <v>94.8</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8">
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20072900163</v>
+        <v>20002900165</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>0.45</v>
       </c>
       <c r="F8" t="n">
-        <v>648</v>
+        <v>967.22</v>
       </c>
       <c r="G8" t="n">
-        <v>648</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="9">
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20062900164</v>
+        <v>19982900166</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1423,10 +1423,10 @@
         <v>0.45</v>
       </c>
       <c r="F9" t="n">
-        <v>628</v>
+        <v>1732</v>
       </c>
       <c r="G9" t="n">
-        <v>628</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="10">
@@ -1434,24 +1434,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20002900165</v>
+        <v>20112800167</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F10" t="n">
-        <v>967.22</v>
+        <v>1909</v>
       </c>
       <c r="G10" t="n">
-        <v>967.22</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="11">
@@ -1459,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19982900166</v>
+        <v>19972900168</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>0.45</v>
       </c>
       <c r="F11" t="n">
-        <v>1732</v>
+        <v>949</v>
       </c>
       <c r="G11" t="n">
-        <v>1732</v>
+        <v>949</v>
       </c>
     </row>
     <row r="12">
@@ -1484,24 +1484,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20112800167</v>
+        <v>19962900169</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F12" t="n">
-        <v>1909</v>
+        <v>750</v>
       </c>
       <c r="G12" t="n">
-        <v>1909</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13">
@@ -1509,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19972900168</v>
+        <v>19952900170</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1523,10 +1523,10 @@
         <v>0.45</v>
       </c>
       <c r="F13" t="n">
-        <v>949</v>
+        <v>750</v>
       </c>
       <c r="G13" t="n">
-        <v>949</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14">
@@ -1534,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19962900169</v>
+        <v>19942900171</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>0.45</v>
       </c>
       <c r="F14" t="n">
-        <v>750</v>
+        <v>2780</v>
       </c>
       <c r="G14" t="n">
-        <v>750</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="15">
@@ -1559,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19952900170</v>
+        <v>19922900172</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1573,10 +1573,10 @@
         <v>0.45</v>
       </c>
       <c r="F15" t="n">
-        <v>750</v>
+        <v>496</v>
       </c>
       <c r="G15" t="n">
-        <v>750</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16">
@@ -1584,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19942900171</v>
+        <v>19912900173</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         <v>0.45</v>
       </c>
       <c r="F16" t="n">
-        <v>2780</v>
+        <v>488.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2780</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="17">
@@ -1609,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19922900172</v>
+        <v>19882900174</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1623,10 +1623,10 @@
         <v>0.45</v>
       </c>
       <c r="F17" t="n">
-        <v>496</v>
+        <v>652.8</v>
       </c>
       <c r="G17" t="n">
-        <v>496</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="18">
@@ -1634,24 +1634,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19912900173</v>
+        <v>20102800178</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F18" t="n">
-        <v>488.3</v>
+        <v>433</v>
       </c>
       <c r="G18" t="n">
-        <v>488.3</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19">
@@ -1659,24 +1659,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19882900174</v>
+        <v>20092800189</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F19" t="n">
-        <v>652.8</v>
+        <v>716</v>
       </c>
       <c r="G19" t="n">
-        <v>652.8</v>
+        <v>716</v>
       </c>
     </row>
     <row r="20">
@@ -1684,24 +1684,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19872900175</v>
+        <v>20093000194</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F20" t="n">
-        <v>498.5</v>
+        <v>83.8</v>
       </c>
       <c r="G20" t="n">
-        <v>498.5</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="21">
@@ -1709,24 +1709,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19862900176</v>
+        <v>20063000195</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F21" t="n">
-        <v>232.8</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>232.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -1734,24 +1734,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19852900177</v>
+        <v>20023000196</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F22" t="n">
-        <v>465</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>465</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1759,7 +1759,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20102800178</v>
+        <v>20082800200</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1773,10 +1773,10 @@
         <v>0.44</v>
       </c>
       <c r="F23" t="n">
-        <v>433</v>
+        <v>250</v>
       </c>
       <c r="G23" t="n">
-        <v>433</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
@@ -1784,7 +1784,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20092800189</v>
+        <v>20072800211</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
         <v>0.44</v>
       </c>
       <c r="F24" t="n">
-        <v>716</v>
+        <v>1572</v>
       </c>
       <c r="G24" t="n">
-        <v>716</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="25">
@@ -1809,24 +1809,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20093000194</v>
+        <v>20052800213</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F25" t="n">
-        <v>83.8</v>
+        <v>350</v>
       </c>
       <c r="G25" t="n">
-        <v>83.8</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
@@ -1834,24 +1834,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20063000195</v>
+        <v>20042800214</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>336</v>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27">
@@ -1859,24 +1859,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20023000196</v>
+        <v>20032800216</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F27" t="n">
-        <v>97.09999999999999</v>
+        <v>822</v>
       </c>
       <c r="G27" t="n">
-        <v>97.09999999999999</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28">
@@ -1884,24 +1884,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19963000197</v>
+        <v>20012800217</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F28" t="n">
-        <v>212</v>
+        <v>690</v>
       </c>
       <c r="G28" t="n">
-        <v>212</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29">
@@ -1909,24 +1909,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19953000198</v>
+        <v>19982800218</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F29" t="n">
-        <v>97.3</v>
+        <v>123</v>
       </c>
       <c r="G29" t="n">
-        <v>97.3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1934,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20082800200</v>
+        <v>19922800219</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1948,10 +1948,10 @@
         <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>1127.4</v>
       </c>
       <c r="G30" t="n">
-        <v>250</v>
+        <v>1127.4</v>
       </c>
     </row>
     <row r="31">
@@ -1959,7 +1959,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20072800211</v>
+        <v>19912800220</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1973,10 +1973,10 @@
         <v>0.44</v>
       </c>
       <c r="F31" t="n">
-        <v>1572</v>
+        <v>889</v>
       </c>
       <c r="G31" t="n">
-        <v>1572</v>
+        <v>889</v>
       </c>
     </row>
     <row r="32">
@@ -1984,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20052800213</v>
+        <v>19902800221</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1998,10 +1998,10 @@
         <v>0.44</v>
       </c>
       <c r="F32" t="n">
-        <v>350</v>
+        <v>561.7</v>
       </c>
       <c r="G32" t="n">
-        <v>350</v>
+        <v>561.7</v>
       </c>
     </row>
     <row r="33">
@@ -2009,7 +2009,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20042800214</v>
+        <v>19892800222</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2023,10 +2023,10 @@
         <v>0.44</v>
       </c>
       <c r="F33" t="n">
-        <v>336</v>
+        <v>332.7</v>
       </c>
       <c r="G33" t="n">
-        <v>336</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="34">
@@ -2034,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20032800216</v>
+        <v>19882800223</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2048,10 +2048,10 @@
         <v>0.44</v>
       </c>
       <c r="F34" t="n">
-        <v>822</v>
+        <v>169.9</v>
       </c>
       <c r="G34" t="n">
-        <v>822</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="35">
@@ -2059,24 +2059,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20012800217</v>
+        <v>20180300241</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E35" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F35" t="n">
-        <v>690</v>
+        <v>140.5</v>
       </c>
       <c r="G35" t="n">
-        <v>690</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="36">
@@ -2084,24 +2084,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19982800218</v>
+        <v>20140300242</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E36" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F36" t="n">
-        <v>123</v>
+        <v>1117.5</v>
       </c>
       <c r="G36" t="n">
-        <v>123</v>
+        <v>1117.5</v>
       </c>
     </row>
     <row r="37">
@@ -2109,24 +2109,24 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19922800219</v>
+        <v>20130300243</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E37" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F37" t="n">
-        <v>1127.4</v>
+        <v>296.3</v>
       </c>
       <c r="G37" t="n">
-        <v>1127.4</v>
+        <v>296.3</v>
       </c>
     </row>
     <row r="38">
@@ -2134,24 +2134,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19912800220</v>
+        <v>20110300244</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E38" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F38" t="n">
-        <v>889</v>
+        <v>2110.5</v>
       </c>
       <c r="G38" t="n">
-        <v>889</v>
+        <v>2110.5</v>
       </c>
     </row>
     <row r="39">
@@ -2159,24 +2159,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19902800221</v>
+        <v>20100300245</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E39" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F39" t="n">
-        <v>561.7</v>
+        <v>3470</v>
       </c>
       <c r="G39" t="n">
-        <v>561.7</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="40">
@@ -2184,24 +2184,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19892800222</v>
+        <v>20090300246</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E40" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F40" t="n">
-        <v>332.7</v>
+        <v>639</v>
       </c>
       <c r="G40" t="n">
-        <v>332.7</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41">
@@ -2209,24 +2209,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19882800223</v>
+        <v>20080300247</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E41" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F41" t="n">
-        <v>169.9</v>
+        <v>4269.5</v>
       </c>
       <c r="G41" t="n">
-        <v>169.9</v>
+        <v>4269.5</v>
       </c>
     </row>
     <row r="42">
@@ -2234,24 +2234,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19872800224</v>
+        <v>20070300249</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F42" t="n">
-        <v>762.5</v>
+        <v>196</v>
       </c>
       <c r="G42" t="n">
-        <v>762.5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43">
@@ -2259,24 +2259,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19862800225</v>
+        <v>20060300250</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F43" t="n">
-        <v>713.5</v>
+        <v>1569</v>
       </c>
       <c r="G43" t="n">
-        <v>713.5</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="44">
@@ -2284,24 +2284,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19852800227</v>
+        <v>20050300251</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F44" t="n">
-        <v>1157</v>
+        <v>1517</v>
       </c>
       <c r="G44" t="n">
-        <v>1157</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="45">
@@ -2309,7 +2309,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20180300241</v>
+        <v>20030300252</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2323,10 +2323,10 @@
         <v>0.61</v>
       </c>
       <c r="F45" t="n">
-        <v>140.5</v>
+        <v>1207.759</v>
       </c>
       <c r="G45" t="n">
-        <v>140.5</v>
+        <v>1207.759</v>
       </c>
     </row>
     <row r="46">
@@ -2334,7 +2334,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20140300242</v>
+        <v>20171700278</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2342,16 +2342,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F46" t="n">
-        <v>1117.5</v>
+        <v>535.2</v>
       </c>
       <c r="G46" t="n">
-        <v>1117.5</v>
+        <v>535.2</v>
       </c>
     </row>
     <row r="47">
@@ -2359,7 +2359,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20130300243</v>
+        <v>20161700279</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F47" t="n">
-        <v>296.3</v>
+        <v>167.451</v>
       </c>
       <c r="G47" t="n">
-        <v>296.3</v>
+        <v>167.451</v>
       </c>
     </row>
     <row r="48">
@@ -2384,7 +2384,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20110300244</v>
+        <v>20151700280</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2392,16 +2392,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F48" t="n">
-        <v>2110.5</v>
+        <v>220.2</v>
       </c>
       <c r="G48" t="n">
-        <v>2110.5</v>
+        <v>220.2</v>
       </c>
     </row>
     <row r="49">
@@ -2409,7 +2409,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20100300245</v>
+        <v>20141700282</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2417,16 +2417,16 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E49" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F49" t="n">
-        <v>3470</v>
+        <v>574.3099999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>3470</v>
+        <v>574.3099999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2434,7 +2434,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20090300246</v>
+        <v>20121700283</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2442,16 +2442,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F50" t="n">
-        <v>639</v>
+        <v>141.6</v>
       </c>
       <c r="G50" t="n">
-        <v>639</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="51">
@@ -2459,7 +2459,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20080300247</v>
+        <v>20111700284</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F51" t="n">
-        <v>4269.5</v>
+        <v>454.24</v>
       </c>
       <c r="G51" t="n">
-        <v>4269.5</v>
+        <v>454.24</v>
       </c>
     </row>
     <row r="52">
@@ -2484,7 +2484,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20070300249</v>
+        <v>20101700285</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F52" t="n">
-        <v>196</v>
+        <v>275.78</v>
       </c>
       <c r="G52" t="n">
-        <v>196</v>
+        <v>275.78</v>
       </c>
     </row>
     <row r="53">
@@ -2509,7 +2509,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20060300250</v>
+        <v>20051700286</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F53" t="n">
-        <v>1569</v>
+        <v>158</v>
       </c>
       <c r="G53" t="n">
-        <v>1569</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54">
@@ -2534,7 +2534,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20050300251</v>
+        <v>20041700287</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2542,16 +2542,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F54" t="n">
-        <v>1517</v>
+        <v>746.015</v>
       </c>
       <c r="G54" t="n">
-        <v>1517</v>
+        <v>746.015</v>
       </c>
     </row>
     <row r="55">
@@ -2559,7 +2559,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20030300252</v>
+        <v>20031700288</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2567,391 +2567,16 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F55" t="n">
-        <v>1207.759</v>
+        <v>163.9</v>
       </c>
       <c r="G55" t="n">
-        <v>1207.759</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>20020300253</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1375.4</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1375.4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>20010300254</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F57" t="n">
-        <v>245.46</v>
-      </c>
-      <c r="G57" t="n">
-        <v>245.46</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>20171700278</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F58" t="n">
-        <v>535.2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>535.2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>20161700279</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F59" t="n">
-        <v>167.451</v>
-      </c>
-      <c r="G59" t="n">
-        <v>167.451</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>20151700280</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F60" t="n">
-        <v>220.2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>220.2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>20141700282</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F61" t="n">
-        <v>574.3099999999999</v>
-      </c>
-      <c r="G61" t="n">
-        <v>574.3099999999999</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>20121700283</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F62" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="G62" t="n">
-        <v>141.6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>20111700284</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F63" t="n">
-        <v>454.24</v>
-      </c>
-      <c r="G63" t="n">
-        <v>454.24</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>20101700285</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F64" t="n">
-        <v>275.78</v>
-      </c>
-      <c r="G64" t="n">
-        <v>275.78</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>20051700286</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F65" t="n">
-        <v>158</v>
-      </c>
-      <c r="G65" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>20041700287</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F66" t="n">
-        <v>746.015</v>
-      </c>
-      <c r="G66" t="n">
-        <v>746.015</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>20031700288</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F67" t="n">
         <v>163.9</v>
-      </c>
-      <c r="G67" t="n">
-        <v>163.9</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>20021700289</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F68" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="G68" t="n">
-        <v>126.7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>20011700290</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F69" t="n">
-        <v>110.55</v>
-      </c>
-      <c r="G69" t="n">
-        <v>110.55</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>20001700291</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F70" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="G70" t="n">
-        <v>124.5</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3449,17 +3074,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19771200058</v>
+        <v>20202400092</v>
       </c>
       <c r="C13" t="n">
-        <v>1057.4</v>
+        <v>400</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3488,17 +3113,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19761200059</v>
+        <v>20192400093</v>
       </c>
       <c r="C14" t="n">
-        <v>179.4</v>
+        <v>554.6</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3527,10 +3152,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20202400092</v>
+        <v>20182400094</v>
       </c>
       <c r="C15" t="n">
-        <v>400</v>
+        <v>577</v>
       </c>
       <c r="D15" t="n">
         <v>1.35</v>
@@ -3566,10 +3191,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20192400093</v>
+        <v>20172400095</v>
       </c>
       <c r="C16" t="n">
-        <v>554.6</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D16" t="n">
         <v>1.35</v>
@@ -3605,10 +3230,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20182400094</v>
+        <v>20162400096</v>
       </c>
       <c r="C17" t="n">
-        <v>577</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D17" t="n">
         <v>1.35</v>
@@ -3644,10 +3269,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20172400095</v>
+        <v>20152400097</v>
       </c>
       <c r="C18" t="n">
-        <v>888.5916000000008</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D18" t="n">
         <v>1.35</v>
@@ -3683,10 +3308,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20162400096</v>
+        <v>20142400098</v>
       </c>
       <c r="C19" t="n">
-        <v>4593.90489999998</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D19" t="n">
         <v>1.35</v>
@@ -3722,10 +3347,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20152400097</v>
+        <v>20132400099</v>
       </c>
       <c r="C20" t="n">
-        <v>5251.351200000026</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D20" t="n">
         <v>1.35</v>
@@ -3761,10 +3386,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20142400098</v>
+        <v>20122400101</v>
       </c>
       <c r="C21" t="n">
-        <v>3907.871117000042</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D21" t="n">
         <v>1.35</v>
@@ -3800,10 +3425,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20132400099</v>
+        <v>20112400102</v>
       </c>
       <c r="C22" t="n">
-        <v>3468.728360000041</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D22" t="n">
         <v>1.35</v>
@@ -3839,10 +3464,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20122400101</v>
+        <v>20102400103</v>
       </c>
       <c r="C23" t="n">
-        <v>3969.104243000032</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D23" t="n">
         <v>1.35</v>
@@ -3878,10 +3503,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20112400102</v>
+        <v>20092400104</v>
       </c>
       <c r="C24" t="n">
-        <v>2785.43162000001</v>
+        <v>1734.347213999992</v>
       </c>
       <c r="D24" t="n">
         <v>1.35</v>
@@ -3917,10 +3542,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20102400103</v>
+        <v>20082400105</v>
       </c>
       <c r="C25" t="n">
-        <v>2104.219086999985</v>
+        <v>1087.143895999995</v>
       </c>
       <c r="D25" t="n">
         <v>1.35</v>
@@ -3956,10 +3581,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20092400104</v>
+        <v>20072400106</v>
       </c>
       <c r="C26" t="n">
-        <v>1734.347213999992</v>
+        <v>2049.836699999993</v>
       </c>
       <c r="D26" t="n">
         <v>1.35</v>
@@ -3995,10 +3620,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20082400105</v>
+        <v>20062400107</v>
       </c>
       <c r="C27" t="n">
-        <v>1087.143895999995</v>
+        <v>751.4120000000005</v>
       </c>
       <c r="D27" t="n">
         <v>1.35</v>
@@ -4034,10 +3659,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20072400106</v>
+        <v>20052400108</v>
       </c>
       <c r="C28" t="n">
-        <v>2049.836699999993</v>
+        <v>1340.202199999995</v>
       </c>
       <c r="D28" t="n">
         <v>1.35</v>
@@ -4073,10 +3698,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20062400107</v>
+        <v>20042400109</v>
       </c>
       <c r="C29" t="n">
-        <v>751.4120000000005</v>
+        <v>1659.914999999992</v>
       </c>
       <c r="D29" t="n">
         <v>1.35</v>
@@ -4112,10 +3737,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20052400108</v>
+        <v>20032400110</v>
       </c>
       <c r="C30" t="n">
-        <v>1340.202199999995</v>
+        <v>1287.459599999997</v>
       </c>
       <c r="D30" t="n">
         <v>1.35</v>
@@ -4151,10 +3776,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20042400109</v>
+        <v>20022400112</v>
       </c>
       <c r="C31" t="n">
-        <v>1659.914999999992</v>
+        <v>1434.670999999991</v>
       </c>
       <c r="D31" t="n">
         <v>1.35</v>
@@ -4190,10 +3815,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20032400110</v>
+        <v>20012400113</v>
       </c>
       <c r="C32" t="n">
-        <v>1287.459599999997</v>
+        <v>1773.431999999988</v>
       </c>
       <c r="D32" t="n">
         <v>1.35</v>
@@ -4229,10 +3854,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20022400112</v>
+        <v>20002400114</v>
       </c>
       <c r="C33" t="n">
-        <v>1434.670999999991</v>
+        <v>1975.231089999979</v>
       </c>
       <c r="D33" t="n">
         <v>1.35</v>
@@ -4268,10 +3893,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20012400113</v>
+        <v>19992400115</v>
       </c>
       <c r="C34" t="n">
-        <v>1773.431999999988</v>
+        <v>1648.599299999983</v>
       </c>
       <c r="D34" t="n">
         <v>1.35</v>
@@ -4307,10 +3932,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20002400114</v>
+        <v>19982400116</v>
       </c>
       <c r="C35" t="n">
-        <v>1975.231089999979</v>
+        <v>853.3870000000011</v>
       </c>
       <c r="D35" t="n">
         <v>1.35</v>
@@ -4346,17 +3971,17 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19992400115</v>
+        <v>20192300124</v>
       </c>
       <c r="C36" t="n">
-        <v>1648.599299999983</v>
+        <v>1130.5</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4385,17 +4010,17 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19982400116</v>
+        <v>20182300125</v>
       </c>
       <c r="C37" t="n">
-        <v>853.3870000000011</v>
+        <v>952</v>
       </c>
       <c r="D37" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4424,17 +4049,17 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19972400117</v>
+        <v>20172300126</v>
       </c>
       <c r="C38" t="n">
-        <v>564.2280000000012</v>
+        <v>1455</v>
       </c>
       <c r="D38" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4463,17 +4088,17 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19962400118</v>
+        <v>20162300127</v>
       </c>
       <c r="C39" t="n">
-        <v>251.9353999999998</v>
+        <v>735</v>
       </c>
       <c r="D39" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4502,17 +4127,17 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19952400119</v>
+        <v>20152300128</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8699999999997</v>
+        <v>1622</v>
       </c>
       <c r="D40" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4541,10 +4166,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20192300124</v>
+        <v>20142300129</v>
       </c>
       <c r="C41" t="n">
-        <v>1130.5</v>
+        <v>726</v>
       </c>
       <c r="D41" t="n">
         <v>2.7</v>
@@ -4580,10 +4205,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20182300125</v>
+        <v>20132300130</v>
       </c>
       <c r="C42" t="n">
-        <v>952</v>
+        <v>2502</v>
       </c>
       <c r="D42" t="n">
         <v>2.7</v>
@@ -4619,10 +4244,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20172300126</v>
+        <v>20122300131</v>
       </c>
       <c r="C43" t="n">
-        <v>1455</v>
+        <v>401</v>
       </c>
       <c r="D43" t="n">
         <v>2.7</v>
@@ -4658,10 +4283,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20162300127</v>
+        <v>20112300132</v>
       </c>
       <c r="C44" t="n">
-        <v>735</v>
+        <v>400</v>
       </c>
       <c r="D44" t="n">
         <v>2.7</v>
@@ -4697,10 +4322,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20152300128</v>
+        <v>20082300135</v>
       </c>
       <c r="C45" t="n">
-        <v>1622</v>
+        <v>108.3</v>
       </c>
       <c r="D45" t="n">
         <v>2.7</v>
@@ -4736,10 +4361,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20142300129</v>
+        <v>20062300136</v>
       </c>
       <c r="C46" t="n">
-        <v>726</v>
+        <v>240</v>
       </c>
       <c r="D46" t="n">
         <v>2.7</v>
@@ -4775,17 +4400,15 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20132300130</v>
+        <v>20202100137</v>
       </c>
       <c r="C47" t="n">
-        <v>2502</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.7</v>
-      </c>
+        <v>251.8</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4814,17 +4437,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20122300131</v>
+        <v>20271200291</v>
       </c>
       <c r="C48" t="n">
-        <v>401</v>
+        <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4853,17 +4476,15 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20112300132</v>
+        <v>20192100138</v>
       </c>
       <c r="C49" t="n">
-        <v>400</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2.7</v>
-      </c>
+        <v>195.4</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4892,17 +4513,15 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20082300135</v>
+        <v>20182100139</v>
       </c>
       <c r="C50" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2.7</v>
-      </c>
+        <v>414.723</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4931,17 +4550,15 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20062300136</v>
+        <v>20172100140</v>
       </c>
       <c r="C51" t="n">
-        <v>240</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2.7</v>
-      </c>
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4970,10 +4587,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20202100137</v>
+        <v>20162100141</v>
       </c>
       <c r="C52" t="n">
-        <v>251.8</v>
+        <v>6222.270852000401</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -5007,10 +4624,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20192100138</v>
+        <v>20152100142</v>
       </c>
       <c r="C53" t="n">
-        <v>195.4</v>
+        <v>1688.32281700176</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -5044,10 +4661,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20182100139</v>
+        <v>20142100143</v>
       </c>
       <c r="C54" t="n">
-        <v>414.723</v>
+        <v>1467.604103002783</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -5081,10 +4698,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20172100140</v>
+        <v>20132100144</v>
       </c>
       <c r="C55" t="n">
-        <v>3311.82512350009</v>
+        <v>1387.194197003628</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -5118,10 +4735,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20162100141</v>
+        <v>20122100146</v>
       </c>
       <c r="C56" t="n">
-        <v>6222.270852000401</v>
+        <v>1732.597611001665</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -5155,10 +4772,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20152100142</v>
+        <v>20112100147</v>
       </c>
       <c r="C57" t="n">
-        <v>1688.32281700176</v>
+        <v>3084.73933250188</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -5192,10 +4809,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20142100143</v>
+        <v>20102100148</v>
       </c>
       <c r="C58" t="n">
-        <v>1467.604103002783</v>
+        <v>6784.098386973769</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -5229,10 +4846,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20132100144</v>
+        <v>20092100149</v>
       </c>
       <c r="C59" t="n">
-        <v>1387.194197003628</v>
+        <v>9295.344562513454</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -5266,10 +4883,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20122100146</v>
+        <v>20082100150</v>
       </c>
       <c r="C60" t="n">
-        <v>1732.597611001665</v>
+        <v>7475.485288501332</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -5303,10 +4920,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20112100147</v>
+        <v>20072100151</v>
       </c>
       <c r="C61" t="n">
-        <v>3084.73933250188</v>
+        <v>4341.280789791133</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -5340,10 +4957,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20102100148</v>
+        <v>20062100152</v>
       </c>
       <c r="C62" t="n">
-        <v>6784.098386973769</v>
+        <v>1924.091949500588</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -5377,10 +4994,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20092100149</v>
+        <v>20052100153</v>
       </c>
       <c r="C63" t="n">
-        <v>9295.344562513454</v>
+        <v>1221.046400499492</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -5414,10 +5031,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20082100150</v>
+        <v>20042100154</v>
       </c>
       <c r="C64" t="n">
-        <v>7475.485288501332</v>
+        <v>829.7290730002117</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -5451,10 +5068,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20072100151</v>
+        <v>20032100155</v>
       </c>
       <c r="C65" t="n">
-        <v>4341.280789791133</v>
+        <v>907.4490049999474</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -5488,10 +5105,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20062100152</v>
+        <v>20022100157</v>
       </c>
       <c r="C66" t="n">
-        <v>1924.091949500588</v>
+        <v>633.0435090000258</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -5525,10 +5142,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20052100153</v>
+        <v>20012100158</v>
       </c>
       <c r="C67" t="n">
-        <v>1221.046400499492</v>
+        <v>122.1209029997136</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -5562,10 +5179,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20042100154</v>
+        <v>20002100159</v>
       </c>
       <c r="C68" t="n">
-        <v>829.7290730002117</v>
+        <v>93.42517899995289</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
@@ -5599,10 +5216,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20032100155</v>
+        <v>19992100160</v>
       </c>
       <c r="C69" t="n">
-        <v>907.4490049999474</v>
+        <v>171.9239930052555</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -5626,154 +5243,6 @@
         </is>
       </c>
       <c r="I69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>20022100157</v>
-      </c>
-      <c r="C70" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>20012100158</v>
-      </c>
-      <c r="C71" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>20002100159</v>
-      </c>
-      <c r="C72" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>19992100160</v>
-      </c>
-      <c r="C73" t="n">
-        <v>171.9239930052555</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5864,7 +5333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6036,10 +5505,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20020100023</v>
+        <v>20120100133</v>
       </c>
       <c r="C5" t="n">
-        <v>256</v>
+        <v>89.8</v>
       </c>
       <c r="D5" t="n">
         <v>1.9</v>
@@ -6075,10 +5544,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20010100034</v>
+        <v>20100100215</v>
       </c>
       <c r="C6" t="n">
-        <v>169.3934</v>
+        <v>89.05</v>
       </c>
       <c r="D6" t="n">
         <v>1.9</v>
@@ -6114,10 +5583,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20000100045</v>
+        <v>20080100226</v>
       </c>
       <c r="C7" t="n">
-        <v>81.2</v>
+        <v>127.8</v>
       </c>
       <c r="D7" t="n">
         <v>1.9</v>
@@ -6153,10 +5622,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20120100133</v>
+        <v>20070100237</v>
       </c>
       <c r="C8" t="n">
-        <v>89.8</v>
+        <v>217.8</v>
       </c>
       <c r="D8" t="n">
         <v>1.9</v>
@@ -6192,10 +5661,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20100100215</v>
+        <v>20060100248</v>
       </c>
       <c r="C9" t="n">
-        <v>89.05</v>
+        <v>91.5</v>
       </c>
       <c r="D9" t="n">
         <v>1.9</v>
@@ -6231,10 +5700,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20080100226</v>
+        <v>20050100259</v>
       </c>
       <c r="C10" t="n">
-        <v>127.8</v>
+        <v>66.78</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -6270,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20070100237</v>
+        <v>20040100270</v>
       </c>
       <c r="C11" t="n">
-        <v>217.8</v>
+        <v>166.92</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -6309,10 +5778,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20060100248</v>
+        <v>20030100281</v>
       </c>
       <c r="C12" t="n">
-        <v>91.5</v>
+        <v>206.65</v>
       </c>
       <c r="D12" t="n">
         <v>1.9</v>
@@ -6338,123 +5807,6 @@
         </is>
       </c>
       <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20050100259</v>
-      </c>
-      <c r="C13" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20040100270</v>
-      </c>
-      <c r="C14" t="n">
-        <v>166.92</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20030100281</v>
-      </c>
-      <c r="C15" t="n">
-        <v>206.65</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6491,7 +5843,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45291.99861111111</v>
+        <v>46387.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -6501,7 +5853,7 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>45656.99861111111</v>
+        <v>46751.99861111111</v>
       </c>
     </row>
   </sheetData>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20132800145</v>
+        <v>2800145</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20122800156</v>
+        <v>2800156</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20102900161</v>
+        <v>2900161</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20082900162</v>
+        <v>2900162</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20072900163</v>
+        <v>2900163</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20062900164</v>
+        <v>2900164</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20002900165</v>
+        <v>2900165</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19982900166</v>
+        <v>2900166</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20112800167</v>
+        <v>2800167</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19972900168</v>
+        <v>2900168</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19962900169</v>
+        <v>2900169</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19952900170</v>
+        <v>2900170</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19942900171</v>
+        <v>2900171</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19922900172</v>
+        <v>2900172</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19912900173</v>
+        <v>2900173</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19882900174</v>
+        <v>2900174</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20102800178</v>
+        <v>2800178</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20092800189</v>
+        <v>2800189</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20093000194</v>
+        <v>3000194</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20063000195</v>
+        <v>3000195</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20023000196</v>
+        <v>3000196</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20082800200</v>
+        <v>2800200</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20072800211</v>
+        <v>2800211</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20052800213</v>
+        <v>2800213</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20042800214</v>
+        <v>2800214</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20032800216</v>
+        <v>2800216</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20012800217</v>
+        <v>2800217</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19982800218</v>
+        <v>2800218</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19922800219</v>
+        <v>2800219</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19912800220</v>
+        <v>2800220</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19902800221</v>
+        <v>2800221</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19892800222</v>
+        <v>2800222</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19882800223</v>
+        <v>2800223</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20180300241</v>
+        <v>300241</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20140300242</v>
+        <v>300242</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20130300243</v>
+        <v>300243</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20110300244</v>
+        <v>300244</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20100300245</v>
+        <v>300245</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20090300246</v>
+        <v>300246</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20080300247</v>
+        <v>300247</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20070300249</v>
+        <v>300249</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20060300250</v>
+        <v>300250</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20050300251</v>
+        <v>300251</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20030300252</v>
+        <v>300252</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20171700278</v>
+        <v>1700278</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20161700279</v>
+        <v>1700279</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20151700280</v>
+        <v>1700280</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20141700282</v>
+        <v>1700282</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20121700283</v>
+        <v>1700283</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20111700284</v>
+        <v>1700284</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20101700285</v>
+        <v>1700285</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20051700286</v>
+        <v>1700286</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20041700287</v>
+        <v>1700287</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20031700288</v>
+        <v>1700288</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2723,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20181200048</v>
+        <v>1200048</v>
       </c>
       <c r="C4" t="n">
         <v>105.3</v>
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20071200049</v>
+        <v>1200049</v>
       </c>
       <c r="C5" t="n">
         <v>691.6</v>
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20021200050</v>
+        <v>1200050</v>
       </c>
       <c r="C6" t="n">
         <v>1052</v>
@@ -2840,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20011200051</v>
+        <v>1200051</v>
       </c>
       <c r="C7" t="n">
         <v>138</v>
@@ -2879,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19901200052</v>
+        <v>1200052</v>
       </c>
       <c r="C8" t="n">
         <v>117.4</v>
@@ -2918,7 +2918,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19871200053</v>
+        <v>1200053</v>
       </c>
       <c r="C9" t="n">
         <v>189.8</v>
@@ -2957,7 +2957,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19821200054</v>
+        <v>1200054</v>
       </c>
       <c r="C10" t="n">
         <v>91.80000000000001</v>
@@ -2996,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19811200055</v>
+        <v>1200055</v>
       </c>
       <c r="C11" t="n">
         <v>60.3</v>
@@ -3035,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19801200057</v>
+        <v>1200057</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
@@ -3074,7 +3074,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20202400092</v>
+        <v>2400092</v>
       </c>
       <c r="C13" t="n">
         <v>400</v>
@@ -3113,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20192400093</v>
+        <v>2400093</v>
       </c>
       <c r="C14" t="n">
         <v>554.6</v>
@@ -3152,7 +3152,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20182400094</v>
+        <v>2400094</v>
       </c>
       <c r="C15" t="n">
         <v>577</v>
@@ -3191,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20172400095</v>
+        <v>2400095</v>
       </c>
       <c r="C16" t="n">
         <v>888.5916000000008</v>
@@ -3230,7 +3230,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20162400096</v>
+        <v>2400096</v>
       </c>
       <c r="C17" t="n">
         <v>4593.90489999998</v>
@@ -3269,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20152400097</v>
+        <v>2400097</v>
       </c>
       <c r="C18" t="n">
         <v>5251.351200000026</v>
@@ -3308,7 +3308,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20142400098</v>
+        <v>2400098</v>
       </c>
       <c r="C19" t="n">
         <v>3907.871117000042</v>
@@ -3347,7 +3347,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20132400099</v>
+        <v>2400099</v>
       </c>
       <c r="C20" t="n">
         <v>3468.728360000041</v>
@@ -3386,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20122400101</v>
+        <v>2400101</v>
       </c>
       <c r="C21" t="n">
         <v>3969.104243000032</v>
@@ -3425,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20112400102</v>
+        <v>2400102</v>
       </c>
       <c r="C22" t="n">
         <v>2785.43162000001</v>
@@ -3464,7 +3464,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20102400103</v>
+        <v>2400103</v>
       </c>
       <c r="C23" t="n">
         <v>2104.219086999985</v>
@@ -3503,7 +3503,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20092400104</v>
+        <v>2400104</v>
       </c>
       <c r="C24" t="n">
         <v>1734.347213999992</v>
@@ -3542,7 +3542,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20082400105</v>
+        <v>2400105</v>
       </c>
       <c r="C25" t="n">
         <v>1087.143895999995</v>
@@ -3581,7 +3581,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20072400106</v>
+        <v>2400106</v>
       </c>
       <c r="C26" t="n">
         <v>2049.836699999993</v>
@@ -3620,7 +3620,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20062400107</v>
+        <v>2400107</v>
       </c>
       <c r="C27" t="n">
         <v>751.4120000000005</v>
@@ -3659,7 +3659,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20052400108</v>
+        <v>2400108</v>
       </c>
       <c r="C28" t="n">
         <v>1340.202199999995</v>
@@ -3698,7 +3698,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20042400109</v>
+        <v>2400109</v>
       </c>
       <c r="C29" t="n">
         <v>1659.914999999992</v>
@@ -3737,7 +3737,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20032400110</v>
+        <v>2400110</v>
       </c>
       <c r="C30" t="n">
         <v>1287.459599999997</v>
@@ -3776,7 +3776,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20022400112</v>
+        <v>2400112</v>
       </c>
       <c r="C31" t="n">
         <v>1434.670999999991</v>
@@ -3815,7 +3815,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20012400113</v>
+        <v>2400113</v>
       </c>
       <c r="C32" t="n">
         <v>1773.431999999988</v>
@@ -3854,7 +3854,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20002400114</v>
+        <v>2400114</v>
       </c>
       <c r="C33" t="n">
         <v>1975.231089999979</v>
@@ -3893,7 +3893,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19992400115</v>
+        <v>2400115</v>
       </c>
       <c r="C34" t="n">
         <v>1648.599299999983</v>
@@ -3932,7 +3932,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19982400116</v>
+        <v>2400116</v>
       </c>
       <c r="C35" t="n">
         <v>853.3870000000011</v>
@@ -3971,7 +3971,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20192300124</v>
+        <v>2300124</v>
       </c>
       <c r="C36" t="n">
         <v>1130.5</v>
@@ -4010,7 +4010,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20182300125</v>
+        <v>2300125</v>
       </c>
       <c r="C37" t="n">
         <v>952</v>
@@ -4049,7 +4049,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20172300126</v>
+        <v>2300126</v>
       </c>
       <c r="C38" t="n">
         <v>1455</v>
@@ -4088,7 +4088,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20162300127</v>
+        <v>2300127</v>
       </c>
       <c r="C39" t="n">
         <v>735</v>
@@ -4127,7 +4127,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20152300128</v>
+        <v>2300128</v>
       </c>
       <c r="C40" t="n">
         <v>1622</v>
@@ -4166,7 +4166,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20142300129</v>
+        <v>2300129</v>
       </c>
       <c r="C41" t="n">
         <v>726</v>
@@ -4205,7 +4205,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20132300130</v>
+        <v>2300130</v>
       </c>
       <c r="C42" t="n">
         <v>2502</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20122300131</v>
+        <v>2300131</v>
       </c>
       <c r="C43" t="n">
         <v>401</v>
@@ -4283,7 +4283,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20112300132</v>
+        <v>2300132</v>
       </c>
       <c r="C44" t="n">
         <v>400</v>
@@ -4322,7 +4322,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20082300135</v>
+        <v>2300135</v>
       </c>
       <c r="C45" t="n">
         <v>108.3</v>
@@ -4361,7 +4361,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20062300136</v>
+        <v>2300136</v>
       </c>
       <c r="C46" t="n">
         <v>240</v>
@@ -4400,7 +4400,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20202100137</v>
+        <v>2100137</v>
       </c>
       <c r="C47" t="n">
         <v>251.8</v>
@@ -4476,15 +4476,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20192100138</v>
+        <v>20271200292</v>
       </c>
       <c r="C49" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4513,15 +4515,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20182100139</v>
+        <v>20271200294</v>
       </c>
       <c r="C50" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4550,15 +4554,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20172100140</v>
+        <v>20271200297</v>
       </c>
       <c r="C51" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4587,10 +4593,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20162100141</v>
+        <v>2100138</v>
       </c>
       <c r="C52" t="n">
-        <v>6222.270852000401</v>
+        <v>195.4</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -4624,10 +4630,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20152100142</v>
+        <v>2100139</v>
       </c>
       <c r="C53" t="n">
-        <v>1688.32281700176</v>
+        <v>414.723</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -4661,10 +4667,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20142100143</v>
+        <v>2100140</v>
       </c>
       <c r="C54" t="n">
-        <v>1467.604103002783</v>
+        <v>3311.82512350009</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -4698,10 +4704,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20132100144</v>
+        <v>2100141</v>
       </c>
       <c r="C55" t="n">
-        <v>1387.194197003628</v>
+        <v>6222.270852000401</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -4735,10 +4741,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20122100146</v>
+        <v>2100142</v>
       </c>
       <c r="C56" t="n">
-        <v>1732.597611001665</v>
+        <v>1688.32281700176</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -4772,10 +4778,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20112100147</v>
+        <v>2100143</v>
       </c>
       <c r="C57" t="n">
-        <v>3084.73933250188</v>
+        <v>1467.604103002783</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -4809,10 +4815,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20102100148</v>
+        <v>2100144</v>
       </c>
       <c r="C58" t="n">
-        <v>6784.098386973769</v>
+        <v>1387.194197003628</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -4846,10 +4852,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20092100149</v>
+        <v>2100146</v>
       </c>
       <c r="C59" t="n">
-        <v>9295.344562513454</v>
+        <v>1732.597611001665</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -4883,10 +4889,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20082100150</v>
+        <v>2100147</v>
       </c>
       <c r="C60" t="n">
-        <v>7475.485288501332</v>
+        <v>3084.73933250188</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -4920,10 +4926,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20072100151</v>
+        <v>2100148</v>
       </c>
       <c r="C61" t="n">
-        <v>4341.280789791133</v>
+        <v>6784.098386973769</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -4957,10 +4963,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20062100152</v>
+        <v>2100149</v>
       </c>
       <c r="C62" t="n">
-        <v>1924.091949500588</v>
+        <v>9295.344562513454</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -4994,10 +5000,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20052100153</v>
+        <v>2100150</v>
       </c>
       <c r="C63" t="n">
-        <v>1221.046400499492</v>
+        <v>7475.485288501332</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -5031,10 +5037,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20042100154</v>
+        <v>2100151</v>
       </c>
       <c r="C64" t="n">
-        <v>829.7290730002117</v>
+        <v>4341.280789791133</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -5068,10 +5074,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20032100155</v>
+        <v>2100152</v>
       </c>
       <c r="C65" t="n">
-        <v>907.4490049999474</v>
+        <v>1924.091949500588</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -5105,10 +5111,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20022100157</v>
+        <v>2100153</v>
       </c>
       <c r="C66" t="n">
-        <v>633.0435090000258</v>
+        <v>1221.046400499492</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -5142,10 +5148,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20012100158</v>
+        <v>2100154</v>
       </c>
       <c r="C67" t="n">
-        <v>122.1209029997136</v>
+        <v>829.7290730002117</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -5179,10 +5185,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20002100159</v>
+        <v>2100155</v>
       </c>
       <c r="C68" t="n">
-        <v>93.42517899995289</v>
+        <v>907.4490049999474</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
@@ -5216,10 +5222,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19992100160</v>
+        <v>2100157</v>
       </c>
       <c r="C69" t="n">
-        <v>171.9239930052555</v>
+        <v>633.0435090000258</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -5243,6 +5249,117 @@
         </is>
       </c>
       <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2100158</v>
+      </c>
+      <c r="C70" t="n">
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2100159</v>
+      </c>
+      <c r="C71" t="n">
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2100160</v>
+      </c>
+      <c r="C72" t="n">
+        <v>171.9239930052555</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5427,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20140100021</v>
+        <v>100021</v>
       </c>
       <c r="C3" t="n">
         <v>1125.6</v>
@@ -5466,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20130100022</v>
+        <v>100022</v>
       </c>
       <c r="C4" t="n">
         <v>731</v>
@@ -5505,7 +5622,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20120100133</v>
+        <v>100133</v>
       </c>
       <c r="C5" t="n">
         <v>89.8</v>
@@ -5544,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20100100215</v>
+        <v>100215</v>
       </c>
       <c r="C6" t="n">
         <v>89.05</v>
@@ -5583,7 +5700,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20080100226</v>
+        <v>100226</v>
       </c>
       <c r="C7" t="n">
         <v>127.8</v>
@@ -5622,7 +5739,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20070100237</v>
+        <v>100237</v>
       </c>
       <c r="C8" t="n">
         <v>217.8</v>
@@ -5661,7 +5778,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20060100248</v>
+        <v>100248</v>
       </c>
       <c r="C9" t="n">
         <v>91.5</v>
@@ -5700,7 +5817,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20050100259</v>
+        <v>100259</v>
       </c>
       <c r="C10" t="n">
         <v>66.78</v>
@@ -5739,7 +5856,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20040100270</v>
+        <v>100270</v>
       </c>
       <c r="C11" t="n">
         <v>166.92</v>
@@ -5778,7 +5895,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20030100281</v>
+        <v>100281</v>
       </c>
       <c r="C12" t="n">
         <v>206.65</v>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -2590,7 +2590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99991200005</v>
+        <v>1200048</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>105.3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2723,10 +2723,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1200048</v>
+        <v>1200049</v>
       </c>
       <c r="C4" t="n">
-        <v>105.3</v>
+        <v>691.6</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2762,10 +2762,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1200049</v>
+        <v>1200050</v>
       </c>
       <c r="C5" t="n">
-        <v>691.6</v>
+        <v>1052</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1200050</v>
+        <v>1200051</v>
       </c>
       <c r="C6" t="n">
-        <v>1052</v>
+        <v>138</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1200051</v>
+        <v>1200052</v>
       </c>
       <c r="C7" t="n">
-        <v>138</v>
+        <v>117.4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1200052</v>
+        <v>1200053</v>
       </c>
       <c r="C8" t="n">
-        <v>117.4</v>
+        <v>189.8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1200053</v>
+        <v>1200054</v>
       </c>
       <c r="C9" t="n">
-        <v>189.8</v>
+        <v>91.80000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2957,10 +2957,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1200054</v>
+        <v>1200055</v>
       </c>
       <c r="C10" t="n">
-        <v>91.80000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2996,10 +2996,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1200055</v>
+        <v>1200057</v>
       </c>
       <c r="C11" t="n">
-        <v>60.3</v>
+        <v>70</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3035,17 +3035,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1200057</v>
+        <v>2400092</v>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3074,10 +3074,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2400092</v>
+        <v>2400093</v>
       </c>
       <c r="C13" t="n">
-        <v>400</v>
+        <v>554.6</v>
       </c>
       <c r="D13" t="n">
         <v>1.35</v>
@@ -3113,10 +3113,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2400093</v>
+        <v>2400094</v>
       </c>
       <c r="C14" t="n">
-        <v>554.6</v>
+        <v>577</v>
       </c>
       <c r="D14" t="n">
         <v>1.35</v>
@@ -3152,10 +3152,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2400094</v>
+        <v>2400095</v>
       </c>
       <c r="C15" t="n">
-        <v>577</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D15" t="n">
         <v>1.35</v>
@@ -3191,10 +3191,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2400095</v>
+        <v>2400096</v>
       </c>
       <c r="C16" t="n">
-        <v>888.5916000000008</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D16" t="n">
         <v>1.35</v>
@@ -3230,10 +3230,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2400096</v>
+        <v>2400097</v>
       </c>
       <c r="C17" t="n">
-        <v>4593.90489999998</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D17" t="n">
         <v>1.35</v>
@@ -3269,10 +3269,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2400097</v>
+        <v>2400098</v>
       </c>
       <c r="C18" t="n">
-        <v>5251.351200000026</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D18" t="n">
         <v>1.35</v>
@@ -3308,10 +3308,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2400098</v>
+        <v>2400099</v>
       </c>
       <c r="C19" t="n">
-        <v>3907.871117000042</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D19" t="n">
         <v>1.35</v>
@@ -3347,10 +3347,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2400099</v>
+        <v>2400101</v>
       </c>
       <c r="C20" t="n">
-        <v>3468.728360000041</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D20" t="n">
         <v>1.35</v>
@@ -3386,10 +3386,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2400101</v>
+        <v>2400102</v>
       </c>
       <c r="C21" t="n">
-        <v>3969.104243000032</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D21" t="n">
         <v>1.35</v>
@@ -3425,10 +3425,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2400102</v>
+        <v>2400103</v>
       </c>
       <c r="C22" t="n">
-        <v>2785.43162000001</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D22" t="n">
         <v>1.35</v>
@@ -3464,10 +3464,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2400103</v>
+        <v>2400104</v>
       </c>
       <c r="C23" t="n">
-        <v>2104.219086999985</v>
+        <v>1734.347213999992</v>
       </c>
       <c r="D23" t="n">
         <v>1.35</v>
@@ -3503,10 +3503,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2400104</v>
+        <v>2400105</v>
       </c>
       <c r="C24" t="n">
-        <v>1734.347213999992</v>
+        <v>1087.143895999995</v>
       </c>
       <c r="D24" t="n">
         <v>1.35</v>
@@ -3542,10 +3542,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2400105</v>
+        <v>2400106</v>
       </c>
       <c r="C25" t="n">
-        <v>1087.143895999995</v>
+        <v>2049.836699999993</v>
       </c>
       <c r="D25" t="n">
         <v>1.35</v>
@@ -3581,10 +3581,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2400106</v>
+        <v>2400107</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.836699999993</v>
+        <v>751.4120000000005</v>
       </c>
       <c r="D26" t="n">
         <v>1.35</v>
@@ -3620,10 +3620,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2400107</v>
+        <v>2400108</v>
       </c>
       <c r="C27" t="n">
-        <v>751.4120000000005</v>
+        <v>1340.202199999995</v>
       </c>
       <c r="D27" t="n">
         <v>1.35</v>
@@ -3659,10 +3659,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2400108</v>
+        <v>2400109</v>
       </c>
       <c r="C28" t="n">
-        <v>1340.202199999995</v>
+        <v>1659.914999999992</v>
       </c>
       <c r="D28" t="n">
         <v>1.35</v>
@@ -3698,10 +3698,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2400109</v>
+        <v>2400110</v>
       </c>
       <c r="C29" t="n">
-        <v>1659.914999999992</v>
+        <v>1287.459599999997</v>
       </c>
       <c r="D29" t="n">
         <v>1.35</v>
@@ -3737,10 +3737,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2400110</v>
+        <v>2400112</v>
       </c>
       <c r="C30" t="n">
-        <v>1287.459599999997</v>
+        <v>1434.670999999991</v>
       </c>
       <c r="D30" t="n">
         <v>1.35</v>
@@ -3776,10 +3776,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2400112</v>
+        <v>2400113</v>
       </c>
       <c r="C31" t="n">
-        <v>1434.670999999991</v>
+        <v>1773.431999999988</v>
       </c>
       <c r="D31" t="n">
         <v>1.35</v>
@@ -3815,10 +3815,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2400113</v>
+        <v>2400114</v>
       </c>
       <c r="C32" t="n">
-        <v>1773.431999999988</v>
+        <v>1975.231089999979</v>
       </c>
       <c r="D32" t="n">
         <v>1.35</v>
@@ -3854,10 +3854,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2400114</v>
+        <v>2400115</v>
       </c>
       <c r="C33" t="n">
-        <v>1975.231089999979</v>
+        <v>1648.599299999983</v>
       </c>
       <c r="D33" t="n">
         <v>1.35</v>
@@ -3893,10 +3893,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2400115</v>
+        <v>2400116</v>
       </c>
       <c r="C34" t="n">
-        <v>1648.599299999983</v>
+        <v>853.3870000000011</v>
       </c>
       <c r="D34" t="n">
         <v>1.35</v>
@@ -3932,17 +3932,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2400116</v>
+        <v>2300124</v>
       </c>
       <c r="C35" t="n">
-        <v>853.3870000000011</v>
+        <v>1130.5</v>
       </c>
       <c r="D35" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3971,10 +3971,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2300124</v>
+        <v>2300125</v>
       </c>
       <c r="C36" t="n">
-        <v>1130.5</v>
+        <v>952</v>
       </c>
       <c r="D36" t="n">
         <v>2.7</v>
@@ -4010,10 +4010,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2300125</v>
+        <v>2300126</v>
       </c>
       <c r="C37" t="n">
-        <v>952</v>
+        <v>1455</v>
       </c>
       <c r="D37" t="n">
         <v>2.7</v>
@@ -4049,10 +4049,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2300126</v>
+        <v>2300127</v>
       </c>
       <c r="C38" t="n">
-        <v>1455</v>
+        <v>735</v>
       </c>
       <c r="D38" t="n">
         <v>2.7</v>
@@ -4088,10 +4088,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2300127</v>
+        <v>2300128</v>
       </c>
       <c r="C39" t="n">
-        <v>735</v>
+        <v>1622</v>
       </c>
       <c r="D39" t="n">
         <v>2.7</v>
@@ -4127,10 +4127,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2300128</v>
+        <v>2300129</v>
       </c>
       <c r="C40" t="n">
-        <v>1622</v>
+        <v>726</v>
       </c>
       <c r="D40" t="n">
         <v>2.7</v>
@@ -4166,10 +4166,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2300129</v>
+        <v>2300130</v>
       </c>
       <c r="C41" t="n">
-        <v>726</v>
+        <v>2502</v>
       </c>
       <c r="D41" t="n">
         <v>2.7</v>
@@ -4205,10 +4205,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2300130</v>
+        <v>2300131</v>
       </c>
       <c r="C42" t="n">
-        <v>2502</v>
+        <v>401</v>
       </c>
       <c r="D42" t="n">
         <v>2.7</v>
@@ -4244,10 +4244,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2300131</v>
+        <v>2300132</v>
       </c>
       <c r="C43" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D43" t="n">
         <v>2.7</v>
@@ -4283,10 +4283,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2300132</v>
+        <v>2300135</v>
       </c>
       <c r="C44" t="n">
-        <v>400</v>
+        <v>108.3</v>
       </c>
       <c r="D44" t="n">
         <v>2.7</v>
@@ -4322,10 +4322,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2300135</v>
+        <v>2300136</v>
       </c>
       <c r="C45" t="n">
-        <v>108.3</v>
+        <v>240</v>
       </c>
       <c r="D45" t="n">
         <v>2.7</v>
@@ -4361,17 +4361,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2300136</v>
+        <v>2100137</v>
       </c>
       <c r="C46" t="n">
-        <v>240</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.7</v>
-      </c>
+        <v>251.8</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4400,10 +4398,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2100137</v>
+        <v>2100138</v>
       </c>
       <c r="C47" t="n">
-        <v>251.8</v>
+        <v>195.4</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -4437,17 +4435,15 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20271200291</v>
+        <v>2100139</v>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
+        <v>414.723</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4476,17 +4472,15 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20271200292</v>
+        <v>2100140</v>
       </c>
       <c r="C49" t="n">
-        <v>100</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4515,17 +4509,15 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20271200294</v>
+        <v>2100141</v>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
+        <v>6222.270852000401</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4554,17 +4546,15 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20271200297</v>
+        <v>2100142</v>
       </c>
       <c r="C51" t="n">
-        <v>100</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
+        <v>1688.32281700176</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4593,10 +4583,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2100138</v>
+        <v>2100143</v>
       </c>
       <c r="C52" t="n">
-        <v>195.4</v>
+        <v>1467.604103002783</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -4630,10 +4620,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2100139</v>
+        <v>2100144</v>
       </c>
       <c r="C53" t="n">
-        <v>414.723</v>
+        <v>1387.194197003628</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -4667,10 +4657,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2100140</v>
+        <v>2100146</v>
       </c>
       <c r="C54" t="n">
-        <v>3311.82512350009</v>
+        <v>1732.597611001665</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -4704,10 +4694,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2100141</v>
+        <v>2100147</v>
       </c>
       <c r="C55" t="n">
-        <v>6222.270852000401</v>
+        <v>3084.73933250188</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -4741,10 +4731,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2100142</v>
+        <v>2100148</v>
       </c>
       <c r="C56" t="n">
-        <v>1688.32281700176</v>
+        <v>6784.098386973769</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -4778,10 +4768,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2100143</v>
+        <v>2100149</v>
       </c>
       <c r="C57" t="n">
-        <v>1467.604103002783</v>
+        <v>9295.344562513454</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -4815,10 +4805,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2100144</v>
+        <v>2100150</v>
       </c>
       <c r="C58" t="n">
-        <v>1387.194197003628</v>
+        <v>7475.485288501332</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -4852,10 +4842,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2100146</v>
+        <v>2100151</v>
       </c>
       <c r="C59" t="n">
-        <v>1732.597611001665</v>
+        <v>4341.280789791133</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -4889,10 +4879,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2100147</v>
+        <v>2100152</v>
       </c>
       <c r="C60" t="n">
-        <v>3084.73933250188</v>
+        <v>1924.091949500588</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -4926,10 +4916,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2100148</v>
+        <v>2100153</v>
       </c>
       <c r="C61" t="n">
-        <v>6784.098386973769</v>
+        <v>1221.046400499492</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -4963,10 +4953,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2100149</v>
+        <v>2100154</v>
       </c>
       <c r="C62" t="n">
-        <v>9295.344562513454</v>
+        <v>829.7290730002117</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -5000,10 +4990,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2100150</v>
+        <v>2100155</v>
       </c>
       <c r="C63" t="n">
-        <v>7475.485288501332</v>
+        <v>907.4490049999474</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -5037,10 +5027,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2100151</v>
+        <v>2100157</v>
       </c>
       <c r="C64" t="n">
-        <v>4341.280789791133</v>
+        <v>633.0435090000258</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -5074,10 +5064,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2100152</v>
+        <v>2100158</v>
       </c>
       <c r="C65" t="n">
-        <v>1924.091949500588</v>
+        <v>122.1209029997136</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -5111,10 +5101,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2100153</v>
+        <v>2100159</v>
       </c>
       <c r="C66" t="n">
-        <v>1221.046400499492</v>
+        <v>93.42517899995289</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -5148,10 +5138,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2100154</v>
+        <v>2100160</v>
       </c>
       <c r="C67" t="n">
-        <v>829.7290730002117</v>
+        <v>171.9239930052555</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -5175,191 +5165,6 @@
         </is>
       </c>
       <c r="I67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2100155</v>
-      </c>
-      <c r="C68" t="n">
-        <v>907.4490049999474</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2100157</v>
-      </c>
-      <c r="C69" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2100158</v>
-      </c>
-      <c r="C70" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2100159</v>
-      </c>
-      <c r="C71" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2100160</v>
-      </c>
-      <c r="C72" t="n">
-        <v>171.9239930052555</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5450,7 +5255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5661,10 +5466,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100215</v>
+        <v>20240100291</v>
       </c>
       <c r="C6" t="n">
-        <v>89.05</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>1.9</v>
@@ -5700,10 +5505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100226</v>
+        <v>20240100292</v>
       </c>
       <c r="C7" t="n">
-        <v>127.8</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>1.9</v>
@@ -5739,10 +5544,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100237</v>
+        <v>20240100294</v>
       </c>
       <c r="C8" t="n">
-        <v>217.8</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>1.9</v>
@@ -5778,10 +5583,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100248</v>
+        <v>20240100297</v>
       </c>
       <c r="C9" t="n">
-        <v>91.5</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>1.9</v>
@@ -5817,10 +5622,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100259</v>
+        <v>20240100301</v>
       </c>
       <c r="C10" t="n">
-        <v>66.78</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -5856,10 +5661,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100270</v>
+        <v>20240100306</v>
       </c>
       <c r="C11" t="n">
-        <v>166.92</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -5895,35 +5700,6002 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>20240100312</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20240100319</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20240100327</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20240100336</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20240100346</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20240100357</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20240100369</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20240100382</v>
+      </c>
+      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20240100396</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20240100411</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20240100427</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20240100444</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20240100462</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20240100481</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20240100501</v>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20240100522</v>
+      </c>
+      <c r="C27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20240100544</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20240100567</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20240100591</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20240100616</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20240100642</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20240100669</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20240100697</v>
+      </c>
+      <c r="C34" t="n">
+        <v>50</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20240100726</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20240100756</v>
+      </c>
+      <c r="C36" t="n">
+        <v>50</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20240100787</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20240100819</v>
+      </c>
+      <c r="C38" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20240100852</v>
+      </c>
+      <c r="C39" t="n">
+        <v>50</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20240100886</v>
+      </c>
+      <c r="C40" t="n">
+        <v>50</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20240100921</v>
+      </c>
+      <c r="C41" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20240100957</v>
+      </c>
+      <c r="C42" t="n">
+        <v>50</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20240100994</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20240101032</v>
+      </c>
+      <c r="C44" t="n">
+        <v>50</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20240101071</v>
+      </c>
+      <c r="C45" t="n">
+        <v>50</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20240101111</v>
+      </c>
+      <c r="C46" t="n">
+        <v>50</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20240101152</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20240101194</v>
+      </c>
+      <c r="C48" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20240101237</v>
+      </c>
+      <c r="C49" t="n">
+        <v>50</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20240101281</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20240101326</v>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20240101372</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20240101419</v>
+      </c>
+      <c r="C53" t="n">
+        <v>50</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20240101467</v>
+      </c>
+      <c r="C54" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20240101516</v>
+      </c>
+      <c r="C55" t="n">
+        <v>50</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20240101566</v>
+      </c>
+      <c r="C56" t="n">
+        <v>50</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20240101617</v>
+      </c>
+      <c r="C57" t="n">
+        <v>50</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20240101669</v>
+      </c>
+      <c r="C58" t="n">
+        <v>50</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20240101722</v>
+      </c>
+      <c r="C59" t="n">
+        <v>50</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20240101776</v>
+      </c>
+      <c r="C60" t="n">
+        <v>50</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20240101831</v>
+      </c>
+      <c r="C61" t="n">
+        <v>50</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20240101887</v>
+      </c>
+      <c r="C62" t="n">
+        <v>50</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20240101944</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20240102002</v>
+      </c>
+      <c r="C64" t="n">
+        <v>50</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20240102061</v>
+      </c>
+      <c r="C65" t="n">
+        <v>50</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20240102121</v>
+      </c>
+      <c r="C66" t="n">
+        <v>50</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20240102182</v>
+      </c>
+      <c r="C67" t="n">
+        <v>50</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20240102244</v>
+      </c>
+      <c r="C68" t="n">
+        <v>50</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20240102307</v>
+      </c>
+      <c r="C69" t="n">
+        <v>50</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20240102371</v>
+      </c>
+      <c r="C70" t="n">
+        <v>50</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20240102436</v>
+      </c>
+      <c r="C71" t="n">
+        <v>50</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20240102502</v>
+      </c>
+      <c r="C72" t="n">
+        <v>50</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20240102569</v>
+      </c>
+      <c r="C73" t="n">
+        <v>50</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20240102637</v>
+      </c>
+      <c r="C74" t="n">
+        <v>50</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20240102706</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20240102776</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20240102847</v>
+      </c>
+      <c r="C77" t="n">
+        <v>50</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20240102919</v>
+      </c>
+      <c r="C78" t="n">
+        <v>50</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20240102992</v>
+      </c>
+      <c r="C79" t="n">
+        <v>50</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20240103066</v>
+      </c>
+      <c r="C80" t="n">
+        <v>50</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20240103141</v>
+      </c>
+      <c r="C81" t="n">
+        <v>50</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20240103217</v>
+      </c>
+      <c r="C82" t="n">
+        <v>50</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20240103294</v>
+      </c>
+      <c r="C83" t="n">
+        <v>50</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20240103372</v>
+      </c>
+      <c r="C84" t="n">
+        <v>50</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20240103451</v>
+      </c>
+      <c r="C85" t="n">
+        <v>50</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20240103531</v>
+      </c>
+      <c r="C86" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20240103612</v>
+      </c>
+      <c r="C87" t="n">
+        <v>50</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20240103694</v>
+      </c>
+      <c r="C88" t="n">
+        <v>50</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20240103777</v>
+      </c>
+      <c r="C89" t="n">
+        <v>50</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20240103861</v>
+      </c>
+      <c r="C90" t="n">
+        <v>50</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20240103946</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20240104032</v>
+      </c>
+      <c r="C92" t="n">
+        <v>50</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20240104119</v>
+      </c>
+      <c r="C93" t="n">
+        <v>50</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20240104207</v>
+      </c>
+      <c r="C94" t="n">
+        <v>50</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20240104296</v>
+      </c>
+      <c r="C95" t="n">
+        <v>50</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20240104386</v>
+      </c>
+      <c r="C96" t="n">
+        <v>50</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20240104477</v>
+      </c>
+      <c r="C97" t="n">
+        <v>50</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>20240104569</v>
+      </c>
+      <c r="C98" t="n">
+        <v>50</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20240104662</v>
+      </c>
+      <c r="C99" t="n">
+        <v>50</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20240104756</v>
+      </c>
+      <c r="C100" t="n">
+        <v>50</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>20240104851</v>
+      </c>
+      <c r="C101" t="n">
+        <v>50</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20240104947</v>
+      </c>
+      <c r="C102" t="n">
+        <v>50</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>20240105044</v>
+      </c>
+      <c r="C103" t="n">
+        <v>50</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20240105142</v>
+      </c>
+      <c r="C104" t="n">
+        <v>50</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20240105241</v>
+      </c>
+      <c r="C105" t="n">
+        <v>50</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20240105341</v>
+      </c>
+      <c r="C106" t="n">
+        <v>50</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>20240105442</v>
+      </c>
+      <c r="C107" t="n">
+        <v>50</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20240105544</v>
+      </c>
+      <c r="C108" t="n">
+        <v>50</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20240105647</v>
+      </c>
+      <c r="C109" t="n">
+        <v>50</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20240105751</v>
+      </c>
+      <c r="C110" t="n">
+        <v>50</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20240105856</v>
+      </c>
+      <c r="C111" t="n">
+        <v>50</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20240105962</v>
+      </c>
+      <c r="C112" t="n">
+        <v>50</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20240106069</v>
+      </c>
+      <c r="C113" t="n">
+        <v>50</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20240106177</v>
+      </c>
+      <c r="C114" t="n">
+        <v>50</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20240106286</v>
+      </c>
+      <c r="C115" t="n">
+        <v>50</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20240106396</v>
+      </c>
+      <c r="C116" t="n">
+        <v>50</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20240106507</v>
+      </c>
+      <c r="C117" t="n">
+        <v>50</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20240106619</v>
+      </c>
+      <c r="C118" t="n">
+        <v>50</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20240106732</v>
+      </c>
+      <c r="C119" t="n">
+        <v>50</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20240106846</v>
+      </c>
+      <c r="C120" t="n">
+        <v>50</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>20240106961</v>
+      </c>
+      <c r="C121" t="n">
+        <v>50</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20240107077</v>
+      </c>
+      <c r="C122" t="n">
+        <v>50</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>20240107194</v>
+      </c>
+      <c r="C123" t="n">
+        <v>50</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>20240107312</v>
+      </c>
+      <c r="C124" t="n">
+        <v>50</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>20240107431</v>
+      </c>
+      <c r="C125" t="n">
+        <v>50</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20240107551</v>
+      </c>
+      <c r="C126" t="n">
+        <v>50</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>20240107672</v>
+      </c>
+      <c r="C127" t="n">
+        <v>50</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>20240107794</v>
+      </c>
+      <c r="C128" t="n">
+        <v>50</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20240107917</v>
+      </c>
+      <c r="C129" t="n">
+        <v>50</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20240108041</v>
+      </c>
+      <c r="C130" t="n">
+        <v>50</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20240108166</v>
+      </c>
+      <c r="C131" t="n">
+        <v>50</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20240108292</v>
+      </c>
+      <c r="C132" t="n">
+        <v>50</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20240108419</v>
+      </c>
+      <c r="C133" t="n">
+        <v>50</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>20240108547</v>
+      </c>
+      <c r="C134" t="n">
+        <v>50</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>20240108676</v>
+      </c>
+      <c r="C135" t="n">
+        <v>50</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>20240108806</v>
+      </c>
+      <c r="C136" t="n">
+        <v>50</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>20240108937</v>
+      </c>
+      <c r="C137" t="n">
+        <v>50</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>20240109069</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20240109202</v>
+      </c>
+      <c r="C139" t="n">
+        <v>50</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>20240109336</v>
+      </c>
+      <c r="C140" t="n">
+        <v>50</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>20240109471</v>
+      </c>
+      <c r="C141" t="n">
+        <v>50</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>20240109607</v>
+      </c>
+      <c r="C142" t="n">
+        <v>50</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>20240109744</v>
+      </c>
+      <c r="C143" t="n">
+        <v>50</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>20240109882</v>
+      </c>
+      <c r="C144" t="n">
+        <v>50</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>20240110021</v>
+      </c>
+      <c r="C145" t="n">
+        <v>50</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>20240110022</v>
+      </c>
+      <c r="C146" t="n">
+        <v>50</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="5" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>20240110023</v>
+      </c>
+      <c r="C147" t="n">
+        <v>50</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>20240110024</v>
+      </c>
+      <c r="C148" t="n">
+        <v>50</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20240110025</v>
+      </c>
+      <c r="C149" t="n">
+        <v>50</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>20240110026</v>
+      </c>
+      <c r="C150" t="n">
+        <v>50</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20240110027</v>
+      </c>
+      <c r="C151" t="n">
+        <v>50</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>20240110028</v>
+      </c>
+      <c r="C152" t="n">
+        <v>50</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>20240110029</v>
+      </c>
+      <c r="C153" t="n">
+        <v>50</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>20240110030</v>
+      </c>
+      <c r="C154" t="n">
+        <v>50</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>20240110031</v>
+      </c>
+      <c r="C155" t="n">
+        <v>50</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>20240110032</v>
+      </c>
+      <c r="C156" t="n">
+        <v>50</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>20240110033</v>
+      </c>
+      <c r="C157" t="n">
+        <v>50</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>20240110034</v>
+      </c>
+      <c r="C158" t="n">
+        <v>50</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>100215</v>
+      </c>
+      <c r="C159" t="n">
+        <v>89.05</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="5" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>100226</v>
+      </c>
+      <c r="C160" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>100237</v>
+      </c>
+      <c r="C161" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>100248</v>
+      </c>
+      <c r="C162" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>100259</v>
+      </c>
+      <c r="C163" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>100270</v>
+      </c>
+      <c r="C164" t="n">
+        <v>166.92</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>100281</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C165" t="n">
         <v>206.65</v>
       </c>
-      <c r="D12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="D165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -5255,7 +5255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11433,10 +11433,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>100215</v>
+        <v>20240110035</v>
       </c>
       <c r="C159" t="n">
-        <v>89.05</v>
+        <v>50</v>
       </c>
       <c r="D159" t="n">
         <v>1.9</v>
@@ -11472,10 +11472,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>100226</v>
+        <v>20240110036</v>
       </c>
       <c r="C160" t="n">
-        <v>127.8</v>
+        <v>50</v>
       </c>
       <c r="D160" t="n">
         <v>1.9</v>
@@ -11511,10 +11511,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>100237</v>
+        <v>20240110037</v>
       </c>
       <c r="C161" t="n">
-        <v>217.8</v>
+        <v>50</v>
       </c>
       <c r="D161" t="n">
         <v>1.9</v>
@@ -11550,10 +11550,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>100248</v>
+        <v>20240110038</v>
       </c>
       <c r="C162" t="n">
-        <v>91.5</v>
+        <v>50</v>
       </c>
       <c r="D162" t="n">
         <v>1.9</v>
@@ -11589,10 +11589,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>100259</v>
+        <v>20240110039</v>
       </c>
       <c r="C163" t="n">
-        <v>66.78</v>
+        <v>50</v>
       </c>
       <c r="D163" t="n">
         <v>1.9</v>
@@ -11628,10 +11628,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>100270</v>
+        <v>20240110040</v>
       </c>
       <c r="C164" t="n">
-        <v>166.92</v>
+        <v>50</v>
       </c>
       <c r="D164" t="n">
         <v>1.9</v>
@@ -11667,35 +11667,542 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>20240110041</v>
+      </c>
+      <c r="C165" t="n">
+        <v>50</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>20240110042</v>
+      </c>
+      <c r="C166" t="n">
+        <v>50</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>20240110043</v>
+      </c>
+      <c r="C167" t="n">
+        <v>50</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>20240110044</v>
+      </c>
+      <c r="C168" t="n">
+        <v>50</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>20240110045</v>
+      </c>
+      <c r="C169" t="n">
+        <v>50</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="5" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>20240110046</v>
+      </c>
+      <c r="C170" t="n">
+        <v>50</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>20240110047</v>
+      </c>
+      <c r="C171" t="n">
+        <v>50</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>100215</v>
+      </c>
+      <c r="C172" t="n">
+        <v>89.05</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>100226</v>
+      </c>
+      <c r="C173" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>100237</v>
+      </c>
+      <c r="C174" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="5" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>100248</v>
+      </c>
+      <c r="C175" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="5" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>100259</v>
+      </c>
+      <c r="C176" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>100270</v>
+      </c>
+      <c r="C177" t="n">
+        <v>166.92</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="5" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
         <v>100281</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C178" t="n">
         <v>206.65</v>
       </c>
-      <c r="D165" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
+      <c r="D178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -5255,7 +5255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8001,10 +8001,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20240102436</v>
+        <v>100215</v>
       </c>
       <c r="C71" t="n">
-        <v>50</v>
+        <v>89.05</v>
       </c>
       <c r="D71" t="n">
         <v>1.9</v>
@@ -8040,10 +8040,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20240102502</v>
+        <v>100226</v>
       </c>
       <c r="C72" t="n">
-        <v>50</v>
+        <v>127.8</v>
       </c>
       <c r="D72" t="n">
         <v>1.9</v>
@@ -8079,10 +8079,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20240102569</v>
+        <v>100237</v>
       </c>
       <c r="C73" t="n">
-        <v>50</v>
+        <v>217.8</v>
       </c>
       <c r="D73" t="n">
         <v>1.9</v>
@@ -8118,10 +8118,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20240102637</v>
+        <v>100248</v>
       </c>
       <c r="C74" t="n">
-        <v>50</v>
+        <v>91.5</v>
       </c>
       <c r="D74" t="n">
         <v>1.9</v>
@@ -8157,10 +8157,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20240102706</v>
+        <v>100259</v>
       </c>
       <c r="C75" t="n">
-        <v>50</v>
+        <v>66.78</v>
       </c>
       <c r="D75" t="n">
         <v>1.9</v>
@@ -8196,10 +8196,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20240102776</v>
+        <v>100270</v>
       </c>
       <c r="C76" t="n">
-        <v>50</v>
+        <v>166.92</v>
       </c>
       <c r="D76" t="n">
         <v>1.9</v>
@@ -8235,10 +8235,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20240102847</v>
+        <v>100281</v>
       </c>
       <c r="C77" t="n">
-        <v>50</v>
+        <v>206.65</v>
       </c>
       <c r="D77" t="n">
         <v>1.9</v>
@@ -8264,3945 +8264,6 @@
         </is>
       </c>
       <c r="I77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>20240102919</v>
-      </c>
-      <c r="C78" t="n">
-        <v>50</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>20240102992</v>
-      </c>
-      <c r="C79" t="n">
-        <v>50</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>20240103066</v>
-      </c>
-      <c r="C80" t="n">
-        <v>50</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>20240103141</v>
-      </c>
-      <c r="C81" t="n">
-        <v>50</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>20240103217</v>
-      </c>
-      <c r="C82" t="n">
-        <v>50</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>20240103294</v>
-      </c>
-      <c r="C83" t="n">
-        <v>50</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>20240103372</v>
-      </c>
-      <c r="C84" t="n">
-        <v>50</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>20240103451</v>
-      </c>
-      <c r="C85" t="n">
-        <v>50</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>20240103531</v>
-      </c>
-      <c r="C86" t="n">
-        <v>50</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>20240103612</v>
-      </c>
-      <c r="C87" t="n">
-        <v>50</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>20240103694</v>
-      </c>
-      <c r="C88" t="n">
-        <v>50</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>20240103777</v>
-      </c>
-      <c r="C89" t="n">
-        <v>50</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>20240103861</v>
-      </c>
-      <c r="C90" t="n">
-        <v>50</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>20240103946</v>
-      </c>
-      <c r="C91" t="n">
-        <v>50</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>20240104032</v>
-      </c>
-      <c r="C92" t="n">
-        <v>50</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>20240104119</v>
-      </c>
-      <c r="C93" t="n">
-        <v>50</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>20240104207</v>
-      </c>
-      <c r="C94" t="n">
-        <v>50</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>20240104296</v>
-      </c>
-      <c r="C95" t="n">
-        <v>50</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>20240104386</v>
-      </c>
-      <c r="C96" t="n">
-        <v>50</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>20240104477</v>
-      </c>
-      <c r="C97" t="n">
-        <v>50</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>20240104569</v>
-      </c>
-      <c r="C98" t="n">
-        <v>50</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>20240104662</v>
-      </c>
-      <c r="C99" t="n">
-        <v>50</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>20240104756</v>
-      </c>
-      <c r="C100" t="n">
-        <v>50</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>20240104851</v>
-      </c>
-      <c r="C101" t="n">
-        <v>50</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>20240104947</v>
-      </c>
-      <c r="C102" t="n">
-        <v>50</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>20240105044</v>
-      </c>
-      <c r="C103" t="n">
-        <v>50</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>20240105142</v>
-      </c>
-      <c r="C104" t="n">
-        <v>50</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>20240105241</v>
-      </c>
-      <c r="C105" t="n">
-        <v>50</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>20240105341</v>
-      </c>
-      <c r="C106" t="n">
-        <v>50</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>20240105442</v>
-      </c>
-      <c r="C107" t="n">
-        <v>50</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>20240105544</v>
-      </c>
-      <c r="C108" t="n">
-        <v>50</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>20240105647</v>
-      </c>
-      <c r="C109" t="n">
-        <v>50</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>20240105751</v>
-      </c>
-      <c r="C110" t="n">
-        <v>50</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>20240105856</v>
-      </c>
-      <c r="C111" t="n">
-        <v>50</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>20240105962</v>
-      </c>
-      <c r="C112" t="n">
-        <v>50</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>20240106069</v>
-      </c>
-      <c r="C113" t="n">
-        <v>50</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>20240106177</v>
-      </c>
-      <c r="C114" t="n">
-        <v>50</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>20240106286</v>
-      </c>
-      <c r="C115" t="n">
-        <v>50</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>20240106396</v>
-      </c>
-      <c r="C116" t="n">
-        <v>50</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>20240106507</v>
-      </c>
-      <c r="C117" t="n">
-        <v>50</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>20240106619</v>
-      </c>
-      <c r="C118" t="n">
-        <v>50</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="5" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>20240106732</v>
-      </c>
-      <c r="C119" t="n">
-        <v>50</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="5" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>20240106846</v>
-      </c>
-      <c r="C120" t="n">
-        <v>50</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="5" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>20240106961</v>
-      </c>
-      <c r="C121" t="n">
-        <v>50</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>20240107077</v>
-      </c>
-      <c r="C122" t="n">
-        <v>50</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="5" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>20240107194</v>
-      </c>
-      <c r="C123" t="n">
-        <v>50</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="5" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>20240107312</v>
-      </c>
-      <c r="C124" t="n">
-        <v>50</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>20240107431</v>
-      </c>
-      <c r="C125" t="n">
-        <v>50</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="5" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>20240107551</v>
-      </c>
-      <c r="C126" t="n">
-        <v>50</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="5" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>20240107672</v>
-      </c>
-      <c r="C127" t="n">
-        <v>50</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>20240107794</v>
-      </c>
-      <c r="C128" t="n">
-        <v>50</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>20240107917</v>
-      </c>
-      <c r="C129" t="n">
-        <v>50</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="5" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>20240108041</v>
-      </c>
-      <c r="C130" t="n">
-        <v>50</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="5" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>20240108166</v>
-      </c>
-      <c r="C131" t="n">
-        <v>50</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="5" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>20240108292</v>
-      </c>
-      <c r="C132" t="n">
-        <v>50</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="5" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>20240108419</v>
-      </c>
-      <c r="C133" t="n">
-        <v>50</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="5" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>20240108547</v>
-      </c>
-      <c r="C134" t="n">
-        <v>50</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="5" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>20240108676</v>
-      </c>
-      <c r="C135" t="n">
-        <v>50</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="5" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>20240108806</v>
-      </c>
-      <c r="C136" t="n">
-        <v>50</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="5" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>20240108937</v>
-      </c>
-      <c r="C137" t="n">
-        <v>50</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="5" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>20240109069</v>
-      </c>
-      <c r="C138" t="n">
-        <v>50</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="5" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>20240109202</v>
-      </c>
-      <c r="C139" t="n">
-        <v>50</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="5" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>20240109336</v>
-      </c>
-      <c r="C140" t="n">
-        <v>50</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="5" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>20240109471</v>
-      </c>
-      <c r="C141" t="n">
-        <v>50</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="5" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>20240109607</v>
-      </c>
-      <c r="C142" t="n">
-        <v>50</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="5" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>20240109744</v>
-      </c>
-      <c r="C143" t="n">
-        <v>50</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="5" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>20240109882</v>
-      </c>
-      <c r="C144" t="n">
-        <v>50</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="5" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>20240110021</v>
-      </c>
-      <c r="C145" t="n">
-        <v>50</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="5" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>20240110022</v>
-      </c>
-      <c r="C146" t="n">
-        <v>50</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="5" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>20240110023</v>
-      </c>
-      <c r="C147" t="n">
-        <v>50</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="5" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>20240110024</v>
-      </c>
-      <c r="C148" t="n">
-        <v>50</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="5" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20240110025</v>
-      </c>
-      <c r="C149" t="n">
-        <v>50</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="5" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>20240110026</v>
-      </c>
-      <c r="C150" t="n">
-        <v>50</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="5" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>20240110027</v>
-      </c>
-      <c r="C151" t="n">
-        <v>50</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>20240110028</v>
-      </c>
-      <c r="C152" t="n">
-        <v>50</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="5" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>20240110029</v>
-      </c>
-      <c r="C153" t="n">
-        <v>50</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="5" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>20240110030</v>
-      </c>
-      <c r="C154" t="n">
-        <v>50</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="5" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>20240110031</v>
-      </c>
-      <c r="C155" t="n">
-        <v>50</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="5" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>20240110032</v>
-      </c>
-      <c r="C156" t="n">
-        <v>50</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="5" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>20240110033</v>
-      </c>
-      <c r="C157" t="n">
-        <v>50</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="5" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>20240110034</v>
-      </c>
-      <c r="C158" t="n">
-        <v>50</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="5" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>20240110035</v>
-      </c>
-      <c r="C159" t="n">
-        <v>50</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="5" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>20240110036</v>
-      </c>
-      <c r="C160" t="n">
-        <v>50</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="5" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>20240110037</v>
-      </c>
-      <c r="C161" t="n">
-        <v>50</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="5" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>20240110038</v>
-      </c>
-      <c r="C162" t="n">
-        <v>50</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="5" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>20240110039</v>
-      </c>
-      <c r="C163" t="n">
-        <v>50</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="5" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>20240110040</v>
-      </c>
-      <c r="C164" t="n">
-        <v>50</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="5" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>20240110041</v>
-      </c>
-      <c r="C165" t="n">
-        <v>50</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="5" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>20240110042</v>
-      </c>
-      <c r="C166" t="n">
-        <v>50</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="5" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>20240110043</v>
-      </c>
-      <c r="C167" t="n">
-        <v>50</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="5" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>20240110044</v>
-      </c>
-      <c r="C168" t="n">
-        <v>50</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="5" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>20240110045</v>
-      </c>
-      <c r="C169" t="n">
-        <v>50</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>20240110046</v>
-      </c>
-      <c r="C170" t="n">
-        <v>50</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="5" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>20240110047</v>
-      </c>
-      <c r="C171" t="n">
-        <v>50</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="5" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>100215</v>
-      </c>
-      <c r="C172" t="n">
-        <v>89.05</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="5" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>100226</v>
-      </c>
-      <c r="C173" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="5" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>100237</v>
-      </c>
-      <c r="C174" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="5" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>100248</v>
-      </c>
-      <c r="C175" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="5" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>100259</v>
-      </c>
-      <c r="C176" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="5" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>100270</v>
-      </c>
-      <c r="C177" t="n">
-        <v>166.92</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="5" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>100281</v>
-      </c>
-      <c r="C178" t="n">
-        <v>206.65</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -26,8 +26,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -109,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -121,7 +121,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1015,8 @@
           <t>StartTime</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>46387.99861111111</v>
+      <c r="B2" s="8" t="n">
+        <v>43830.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1024,8 +1025,8 @@
           <t>StopTime</t>
         </is>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>46751.99861111111</v>
+      <c r="B3" s="8" t="n">
+        <v>44195.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2027</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2">
@@ -1168,7 +1169,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="3">
@@ -1178,7 +1179,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -1188,7 +1189,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="5">
@@ -1198,7 +1199,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="6">
@@ -1208,7 +1209,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="7">
@@ -1218,7 +1219,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="8">
@@ -1244,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,24 +1290,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1400086</v>
+        <v>1700024</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>1795</v>
+        <v>115.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1795</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="3">
@@ -1314,24 +1315,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2800145</v>
+        <v>1700025</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F3" t="n">
-        <v>4734</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>4734</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1339,24 +1340,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2800156</v>
+        <v>1700026</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F4" t="n">
-        <v>1597.7</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1597.7</v>
+        <v>53.09999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1364,24 +1365,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2900161</v>
+        <v>1700027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F5" t="n">
-        <v>2780.3</v>
+        <v>183.72</v>
       </c>
       <c r="G5" t="n">
-        <v>2780.3</v>
+        <v>183.72</v>
       </c>
     </row>
     <row r="6">
@@ -1389,24 +1390,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2900162</v>
+        <v>1700028</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F6" t="n">
-        <v>94.8</v>
+        <v>352.5</v>
       </c>
       <c r="G6" t="n">
-        <v>94.8</v>
+        <v>352.5</v>
       </c>
     </row>
     <row r="7">
@@ -1414,24 +1415,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2900163</v>
+        <v>1700029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F7" t="n">
-        <v>648</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>648</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1439,24 +1440,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2900164</v>
+        <v>1700030</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F8" t="n">
-        <v>628</v>
+        <v>261.1</v>
       </c>
       <c r="G8" t="n">
-        <v>628</v>
+        <v>261.1</v>
       </c>
     </row>
     <row r="9">
@@ -1464,24 +1465,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2900165</v>
+        <v>1700031</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F9" t="n">
-        <v>967.22</v>
+        <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>967.22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
@@ -1489,24 +1490,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2900166</v>
+        <v>1700032</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F10" t="n">
-        <v>1732</v>
+        <v>97.07900000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>1732</v>
+        <v>97.07900000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1514,24 +1515,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2800167</v>
+        <v>1700033</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F11" t="n">
-        <v>1909</v>
+        <v>120.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1909</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="12">
@@ -1539,24 +1540,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2900168</v>
+        <v>1700035</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F12" t="n">
-        <v>949</v>
+        <v>60.491</v>
       </c>
       <c r="G12" t="n">
-        <v>949</v>
+        <v>60.491</v>
       </c>
     </row>
     <row r="13">
@@ -1564,24 +1565,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2900169</v>
+        <v>1700036</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F13" t="n">
-        <v>750</v>
+        <v>521</v>
       </c>
       <c r="G13" t="n">
-        <v>750</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14">
@@ -1589,24 +1590,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2900170</v>
+        <v>1700037</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F14" t="n">
-        <v>750</v>
+        <v>156.5</v>
       </c>
       <c r="G14" t="n">
-        <v>750</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="15">
@@ -1614,24 +1615,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2900171</v>
+        <v>1700038</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F15" t="n">
-        <v>2780</v>
+        <v>100.78</v>
       </c>
       <c r="G15" t="n">
-        <v>2780</v>
+        <v>100.78</v>
       </c>
     </row>
     <row r="16">
@@ -1639,24 +1640,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2900172</v>
+        <v>1700039</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F16" t="n">
-        <v>496</v>
+        <v>619.4</v>
       </c>
       <c r="G16" t="n">
-        <v>496</v>
+        <v>619.4</v>
       </c>
     </row>
     <row r="17">
@@ -1664,24 +1665,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2900173</v>
+        <v>1700040</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F17" t="n">
-        <v>488.3</v>
+        <v>639.7</v>
       </c>
       <c r="G17" t="n">
-        <v>488.3</v>
+        <v>639.7</v>
       </c>
     </row>
     <row r="18">
@@ -1689,24 +1690,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2900174</v>
+        <v>1700041</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F18" t="n">
-        <v>652.8</v>
+        <v>77.7</v>
       </c>
       <c r="G18" t="n">
-        <v>652.8</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="19">
@@ -1714,24 +1715,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2900175</v>
+        <v>1700042</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F19" t="n">
-        <v>498.5</v>
+        <v>183</v>
       </c>
       <c r="G19" t="n">
-        <v>498.5</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -1739,24 +1740,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2800178</v>
+        <v>1700043</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F20" t="n">
-        <v>433</v>
+        <v>173.2865</v>
       </c>
       <c r="G20" t="n">
-        <v>433</v>
+        <v>173.2865</v>
       </c>
     </row>
     <row r="21">
@@ -1764,24 +1765,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2800189</v>
+        <v>1700044</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F21" t="n">
-        <v>716</v>
+        <v>149</v>
       </c>
       <c r="G21" t="n">
-        <v>716</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -1789,24 +1790,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3000194</v>
+        <v>1700046</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F22" t="n">
-        <v>83.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>83.8</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1814,24 +1815,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3000195</v>
+        <v>1700047</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>135.5</v>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="24">
@@ -1839,24 +1840,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3000196</v>
+        <v>1400086</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F24" t="n">
-        <v>97.09999999999999</v>
+        <v>1795</v>
       </c>
       <c r="G24" t="n">
-        <v>97.09999999999999</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="25">
@@ -1864,24 +1865,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2800200</v>
+        <v>1400087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>2746</v>
       </c>
       <c r="G25" t="n">
-        <v>250</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="26">
@@ -1889,24 +1890,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2800211</v>
+        <v>1400088</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F26" t="n">
-        <v>1572</v>
+        <v>1410</v>
       </c>
       <c r="G26" t="n">
-        <v>1572</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27">
@@ -1914,24 +1915,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2800213</v>
+        <v>1400090</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F27" t="n">
-        <v>350</v>
+        <v>1360</v>
       </c>
       <c r="G27" t="n">
-        <v>350</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="28">
@@ -1939,24 +1940,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2800214</v>
+        <v>1400091</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F28" t="n">
-        <v>336</v>
+        <v>1288</v>
       </c>
       <c r="G28" t="n">
-        <v>336</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="29">
@@ -1964,7 +1965,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2800216</v>
+        <v>2800146</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1978,10 +1979,10 @@
         <v>0.44</v>
       </c>
       <c r="F29" t="n">
-        <v>822</v>
+        <v>4734</v>
       </c>
       <c r="G29" t="n">
-        <v>822</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="30">
@@ -1989,7 +1990,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2800217</v>
+        <v>2800157</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2003,10 +2004,10 @@
         <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>690</v>
+        <v>1597.7</v>
       </c>
       <c r="G30" t="n">
-        <v>690</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="31">
@@ -2014,24 +2015,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2800218</v>
+        <v>2900162</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F31" t="n">
-        <v>123</v>
+        <v>2780.3</v>
       </c>
       <c r="G31" t="n">
-        <v>123</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="32">
@@ -2039,24 +2040,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2800219</v>
+        <v>2900163</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F32" t="n">
-        <v>1127.4</v>
+        <v>94.8</v>
       </c>
       <c r="G32" t="n">
-        <v>1127.4</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="33">
@@ -2064,24 +2065,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2800220</v>
+        <v>2900164</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F33" t="n">
-        <v>889</v>
+        <v>648</v>
       </c>
       <c r="G33" t="n">
-        <v>889</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34">
@@ -2089,24 +2090,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2800221</v>
+        <v>2900165</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F34" t="n">
-        <v>561.7</v>
+        <v>628</v>
       </c>
       <c r="G34" t="n">
-        <v>561.7</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35">
@@ -2114,24 +2115,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2800222</v>
+        <v>2900166</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F35" t="n">
-        <v>332.7</v>
+        <v>967.22</v>
       </c>
       <c r="G35" t="n">
-        <v>332.7</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="36">
@@ -2139,24 +2140,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2800223</v>
+        <v>2900167</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F36" t="n">
-        <v>169.9</v>
+        <v>1732</v>
       </c>
       <c r="G36" t="n">
-        <v>169.9</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="37">
@@ -2164,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2800224</v>
+        <v>2800168</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2178,10 +2179,10 @@
         <v>0.44</v>
       </c>
       <c r="F37" t="n">
-        <v>762.5</v>
+        <v>1909</v>
       </c>
       <c r="G37" t="n">
-        <v>762.5</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="38">
@@ -2189,24 +2190,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>300241</v>
+        <v>2900169</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F38" t="n">
-        <v>140.5</v>
+        <v>949</v>
       </c>
       <c r="G38" t="n">
-        <v>140.5</v>
+        <v>949</v>
       </c>
     </row>
     <row r="39">
@@ -2214,24 +2215,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>300242</v>
+        <v>2900170</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F39" t="n">
-        <v>1117.5</v>
+        <v>750</v>
       </c>
       <c r="G39" t="n">
-        <v>1117.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40">
@@ -2239,24 +2240,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>300243</v>
+        <v>2900171</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F40" t="n">
-        <v>296.3</v>
+        <v>750</v>
       </c>
       <c r="G40" t="n">
-        <v>296.3</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41">
@@ -2264,24 +2265,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>300244</v>
+        <v>2900172</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F41" t="n">
-        <v>2110.5</v>
+        <v>2780</v>
       </c>
       <c r="G41" t="n">
-        <v>2110.5</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="42">
@@ -2289,24 +2290,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>300245</v>
+        <v>2900173</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F42" t="n">
-        <v>3470</v>
+        <v>496</v>
       </c>
       <c r="G42" t="n">
-        <v>3470</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43">
@@ -2314,24 +2315,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>300246</v>
+        <v>2900174</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F43" t="n">
-        <v>639</v>
+        <v>488.3</v>
       </c>
       <c r="G43" t="n">
-        <v>639</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="44">
@@ -2339,24 +2340,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>300247</v>
+        <v>2900175</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F44" t="n">
-        <v>4269.5</v>
+        <v>652.8</v>
       </c>
       <c r="G44" t="n">
-        <v>4269.5</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="45">
@@ -2364,24 +2365,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>300249</v>
+        <v>2900176</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F45" t="n">
-        <v>196</v>
+        <v>498.5</v>
       </c>
       <c r="G45" t="n">
-        <v>196</v>
+        <v>498.5</v>
       </c>
     </row>
     <row r="46">
@@ -2389,24 +2390,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>300250</v>
+        <v>2900177</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F46" t="n">
-        <v>1569</v>
+        <v>232.8</v>
       </c>
       <c r="G46" t="n">
-        <v>1569</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="47">
@@ -2414,24 +2415,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>300251</v>
+        <v>2900178</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F47" t="n">
-        <v>1517</v>
+        <v>465</v>
       </c>
       <c r="G47" t="n">
-        <v>1517</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48">
@@ -2439,24 +2440,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>300252</v>
+        <v>2800179</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F48" t="n">
-        <v>1207.759</v>
+        <v>433</v>
       </c>
       <c r="G48" t="n">
-        <v>1207.759</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49">
@@ -2464,24 +2465,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>300253</v>
+        <v>2900180</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F49" t="n">
-        <v>1375.4</v>
+        <v>361.3</v>
       </c>
       <c r="G49" t="n">
-        <v>1375.4</v>
+        <v>361.3</v>
       </c>
     </row>
     <row r="50">
@@ -2489,24 +2490,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1700278</v>
+        <v>2900181</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F50" t="n">
-        <v>535.2</v>
+        <v>59.5</v>
       </c>
       <c r="G50" t="n">
-        <v>535.2</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="51">
@@ -2514,24 +2515,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1700279</v>
+        <v>2900182</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F51" t="n">
-        <v>167.451</v>
+        <v>604</v>
       </c>
       <c r="G51" t="n">
-        <v>167.451</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52">
@@ -2539,24 +2540,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1700280</v>
+        <v>2900183</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F52" t="n">
-        <v>220.2</v>
+        <v>1263</v>
       </c>
       <c r="G52" t="n">
-        <v>220.2</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="53">
@@ -2564,24 +2565,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1700282</v>
+        <v>2900184</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F53" t="n">
-        <v>574.3099999999999</v>
+        <v>663</v>
       </c>
       <c r="G53" t="n">
-        <v>574.3099999999999</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54">
@@ -2589,24 +2590,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1700283</v>
+        <v>2900185</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F54" t="n">
-        <v>141.6</v>
+        <v>292</v>
       </c>
       <c r="G54" t="n">
-        <v>141.6</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55">
@@ -2614,24 +2615,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1700284</v>
+        <v>2900186</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F55" t="n">
-        <v>454.24</v>
+        <v>588</v>
       </c>
       <c r="G55" t="n">
-        <v>454.24</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56">
@@ -2639,24 +2640,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1700285</v>
+        <v>2900187</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F56" t="n">
-        <v>275.78</v>
+        <v>299</v>
       </c>
       <c r="G56" t="n">
-        <v>275.78</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57">
@@ -2664,24 +2665,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1700286</v>
+        <v>2900188</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F57" t="n">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="G57" t="n">
-        <v>158</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58">
@@ -2689,24 +2690,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1700287</v>
+        <v>2900189</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F58" t="n">
-        <v>746.015</v>
+        <v>297</v>
       </c>
       <c r="G58" t="n">
-        <v>746.015</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59">
@@ -2714,24 +2715,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1700288</v>
+        <v>2800190</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F59" t="n">
-        <v>163.9</v>
+        <v>716</v>
       </c>
       <c r="G59" t="n">
-        <v>163.9</v>
+        <v>716</v>
       </c>
     </row>
     <row r="60">
@@ -2739,24 +2740,2374 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>2900191</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>LIGNITE</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F60" t="n">
+        <v>321</v>
+      </c>
+      <c r="G60" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2900192</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>LIGNITE</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F61" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>643.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2900193</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>LIGNITE</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F62" t="n">
+        <v>82</v>
+      </c>
+      <c r="G62" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2900194</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>LIGNITE</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F63" t="n">
+        <v>98</v>
+      </c>
+      <c r="G63" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3000195</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F64" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="G64" t="n">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3000196</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F65" t="n">
+        <v>60</v>
+      </c>
+      <c r="G65" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3000197</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F66" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3000198</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F67" t="n">
+        <v>212</v>
+      </c>
+      <c r="G67" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3000199</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F68" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3000200</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F69" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="G69" t="n">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2800201</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F70" t="n">
+        <v>250</v>
+      </c>
+      <c r="G70" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3000202</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F71" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="G71" t="n">
+        <v>190.4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3000203</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F72" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>93.59999999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3000204</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F73" t="n">
+        <v>136</v>
+      </c>
+      <c r="G73" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3000205</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F74" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="G74" t="n">
+        <v>205.9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3000206</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F75" t="n">
+        <v>50</v>
+      </c>
+      <c r="G75" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3000207</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F76" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3000208</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F77" t="n">
+        <v>870.9</v>
+      </c>
+      <c r="G77" t="n">
+        <v>870.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3000209</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F78" t="n">
+        <v>529</v>
+      </c>
+      <c r="G78" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3000210</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F79" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>303.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3000211</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F80" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="G80" t="n">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2800212</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1572</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3000213</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F82" t="n">
+        <v>90</v>
+      </c>
+      <c r="G82" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2800214</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F83" t="n">
+        <v>350</v>
+      </c>
+      <c r="G83" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2800215</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F84" t="n">
+        <v>336</v>
+      </c>
+      <c r="G84" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2800217</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F85" t="n">
+        <v>822</v>
+      </c>
+      <c r="G85" t="n">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2800218</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F86" t="n">
+        <v>690</v>
+      </c>
+      <c r="G86" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2800219</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F87" t="n">
+        <v>123</v>
+      </c>
+      <c r="G87" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2800220</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1127.4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1127.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2800221</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F89" t="n">
+        <v>889</v>
+      </c>
+      <c r="G89" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2800222</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F90" t="n">
+        <v>561.7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>561.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2800223</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F91" t="n">
+        <v>332.7</v>
+      </c>
+      <c r="G91" t="n">
+        <v>332.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2800224</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F92" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2800225</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F93" t="n">
+        <v>762.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>762.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2800226</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F94" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>713.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2800228</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1157</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2800229</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F96" t="n">
+        <v>380</v>
+      </c>
+      <c r="G96" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2800230</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F97" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2800231</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F98" t="n">
+        <v>794.4</v>
+      </c>
+      <c r="G98" t="n">
+        <v>794.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2800232</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F99" t="n">
+        <v>666.4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>666.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2800233</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F100" t="n">
+        <v>717</v>
+      </c>
+      <c r="G100" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2800234</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F101" t="n">
+        <v>303</v>
+      </c>
+      <c r="G101" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2800235</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1412.6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2800236</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F103" t="n">
+        <v>190.35</v>
+      </c>
+      <c r="G103" t="n">
+        <v>190.35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2800237</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F104" t="n">
+        <v>345</v>
+      </c>
+      <c r="G104" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2800239</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F105" t="n">
+        <v>385</v>
+      </c>
+      <c r="G105" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2800240</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F106" t="n">
+        <v>129</v>
+      </c>
+      <c r="G106" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2800241</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F107" t="n">
+        <v>188.32</v>
+      </c>
+      <c r="G107" t="n">
+        <v>188.32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>300242</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F108" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>300243</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1117.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1117.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>300244</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F110" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>296.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>300245</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2110.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2110.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>300246</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3470</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>300247</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F113" t="n">
+        <v>639</v>
+      </c>
+      <c r="G113" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>300248</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4269.5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4269.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>300250</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F115" t="n">
+        <v>196</v>
+      </c>
+      <c r="G115" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>300251</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>300252</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1517</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>300253</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1207.759</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1207.759</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>300254</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1375.4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>300255</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F120" t="n">
+        <v>245.46</v>
+      </c>
+      <c r="G120" t="n">
+        <v>245.46</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>300256</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F121" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>300257</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1239.2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1239.2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>300258</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F123" t="n">
+        <v>778.6</v>
+      </c>
+      <c r="G123" t="n">
+        <v>778.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>300259</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F124" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="G124" t="n">
+        <v>799.6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>300261</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>300262</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>300263</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F127" t="n">
+        <v>834</v>
+      </c>
+      <c r="G127" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>300264</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F128" t="n">
+        <v>519</v>
+      </c>
+      <c r="G128" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>300265</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F129" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>84.51000000000001</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>300266</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F130" t="n">
+        <v>225</v>
+      </c>
+      <c r="G130" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>300267</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F131" t="n">
+        <v>169</v>
+      </c>
+      <c r="G131" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>300268</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F132" t="n">
+        <v>103</v>
+      </c>
+      <c r="G132" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>300269</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>300270</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F134" t="n">
+        <v>125</v>
+      </c>
+      <c r="G134" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>300272</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F135" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>316.7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>300273</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F136" t="n">
+        <v>695</v>
+      </c>
+      <c r="G136" t="n">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>300274</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>300275</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F138" t="n">
+        <v>332</v>
+      </c>
+      <c r="G138" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>300276</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F139" t="n">
+        <v>475</v>
+      </c>
+      <c r="G139" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>300277</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1698</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>300278</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F141" t="n">
+        <v>137</v>
+      </c>
+      <c r="G141" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1700279</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F142" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>535.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1700280</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F143" t="n">
+        <v>167.451</v>
+      </c>
+      <c r="G143" t="n">
+        <v>167.451</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1700281</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F144" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1700283</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F145" t="n">
+        <v>574.3099999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>574.3099999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1700284</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F146" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="G146" t="n">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1700285</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F147" t="n">
+        <v>454.24</v>
+      </c>
+      <c r="G147" t="n">
+        <v>454.24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1700286</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F148" t="n">
+        <v>275.78</v>
+      </c>
+      <c r="G148" t="n">
+        <v>275.78</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1700287</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F149" t="n">
+        <v>158</v>
+      </c>
+      <c r="G149" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1700288</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F150" t="n">
+        <v>746.015</v>
+      </c>
+      <c r="G150" t="n">
+        <v>746.015</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>1700289</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D151" t="n">
         <v>4.5</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E151" t="n">
         <v>0.43</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F151" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1700290</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F152" t="n">
         <v>126.7</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G152" t="n">
         <v>126.7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1700291</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F153" t="n">
+        <v>110.55</v>
+      </c>
+      <c r="G153" t="n">
+        <v>110.55</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1700292</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F154" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="G154" t="n">
+        <v>124.5</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +5158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2862,17 +5213,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992400003</v>
+        <v>1200048</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>105.3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2901,10 +5252,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1200048</v>
+        <v>1200049</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3</v>
+        <v>691.6</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2940,10 +5291,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1200049</v>
+        <v>1200050</v>
       </c>
       <c r="C4" t="n">
-        <v>691.6</v>
+        <v>1052</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2979,10 +5330,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1200050</v>
+        <v>1200051</v>
       </c>
       <c r="C5" t="n">
-        <v>1052</v>
+        <v>138</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3018,10 +5369,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1200051</v>
+        <v>1200052</v>
       </c>
       <c r="C6" t="n">
-        <v>138</v>
+        <v>117.4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3057,10 +5408,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1200052</v>
+        <v>1200053</v>
       </c>
       <c r="C7" t="n">
-        <v>117.4</v>
+        <v>189.8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3096,10 +5447,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1200053</v>
+        <v>1200054</v>
       </c>
       <c r="C8" t="n">
-        <v>189.8</v>
+        <v>91.80000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3135,10 +5486,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1200054</v>
+        <v>1200055</v>
       </c>
       <c r="C9" t="n">
-        <v>91.80000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3174,10 +5525,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1200055</v>
+        <v>1200057</v>
       </c>
       <c r="C10" t="n">
-        <v>60.3</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3213,10 +5564,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1200057</v>
+        <v>1200058</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>1057.4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3252,10 +5603,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1200058</v>
+        <v>1200059</v>
       </c>
       <c r="C12" t="n">
-        <v>1057.4</v>
+        <v>179.4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3291,17 +5642,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2400092</v>
+        <v>1200060</v>
       </c>
       <c r="C13" t="n">
-        <v>400</v>
+        <v>926.7</v>
       </c>
       <c r="D13" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3330,17 +5681,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2400093</v>
+        <v>1200061</v>
       </c>
       <c r="C14" t="n">
-        <v>554.6</v>
+        <v>164</v>
       </c>
       <c r="D14" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3369,17 +5720,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2400094</v>
+        <v>1200062</v>
       </c>
       <c r="C15" t="n">
-        <v>577</v>
+        <v>121.1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3408,17 +5759,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2400095</v>
+        <v>1200063</v>
       </c>
       <c r="C16" t="n">
-        <v>888.5916000000008</v>
+        <v>108.9</v>
       </c>
       <c r="D16" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3447,17 +5798,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2400096</v>
+        <v>1200064</v>
       </c>
       <c r="C17" t="n">
-        <v>4593.90489999998</v>
+        <v>441.7</v>
       </c>
       <c r="D17" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3486,17 +5837,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2400097</v>
+        <v>1200065</v>
       </c>
       <c r="C18" t="n">
-        <v>5251.351200000026</v>
+        <v>465.7</v>
       </c>
       <c r="D18" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3525,17 +5876,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2400098</v>
+        <v>1200066</v>
       </c>
       <c r="C19" t="n">
-        <v>3907.871117000042</v>
+        <v>340</v>
       </c>
       <c r="D19" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3564,17 +5915,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2400099</v>
+        <v>1200068</v>
       </c>
       <c r="C20" t="n">
-        <v>3468.728360000041</v>
+        <v>62.8</v>
       </c>
       <c r="D20" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3603,17 +5954,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2400101</v>
+        <v>1200069</v>
       </c>
       <c r="C21" t="n">
-        <v>3969.104243000032</v>
+        <v>95.7</v>
       </c>
       <c r="D21" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3642,17 +5993,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2400102</v>
+        <v>1200070</v>
       </c>
       <c r="C22" t="n">
-        <v>2785.43162000001</v>
+        <v>70.3</v>
       </c>
       <c r="D22" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3681,17 +6032,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2400103</v>
+        <v>1200071</v>
       </c>
       <c r="C23" t="n">
-        <v>2104.219086999985</v>
+        <v>390.7</v>
       </c>
       <c r="D23" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3720,17 +6071,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2400104</v>
+        <v>1200072</v>
       </c>
       <c r="C24" t="n">
-        <v>1734.347213999992</v>
+        <v>339.2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3759,17 +6110,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2400105</v>
+        <v>1200073</v>
       </c>
       <c r="C25" t="n">
-        <v>1087.143895999995</v>
+        <v>57.4</v>
       </c>
       <c r="D25" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3798,17 +6149,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2400106</v>
+        <v>1200074</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.836699999993</v>
+        <v>111.5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3837,17 +6188,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2400107</v>
+        <v>1200075</v>
       </c>
       <c r="C27" t="n">
-        <v>751.4120000000005</v>
+        <v>244.1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3876,17 +6227,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2400108</v>
+        <v>1200076</v>
       </c>
       <c r="C28" t="n">
-        <v>1340.202199999995</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3915,17 +6266,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2400109</v>
+        <v>1200077</v>
       </c>
       <c r="C29" t="n">
-        <v>1659.914999999992</v>
+        <v>84</v>
       </c>
       <c r="D29" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3954,17 +6305,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2400110</v>
+        <v>1200079</v>
       </c>
       <c r="C30" t="n">
-        <v>1287.459599999997</v>
+        <v>220</v>
       </c>
       <c r="D30" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3993,17 +6344,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2400112</v>
+        <v>1200080</v>
       </c>
       <c r="C31" t="n">
-        <v>1434.670999999991</v>
+        <v>91.5</v>
       </c>
       <c r="D31" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4032,17 +6383,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2400113</v>
+        <v>1200081</v>
       </c>
       <c r="C32" t="n">
-        <v>1773.431999999988</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4071,17 +6422,17 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2400114</v>
+        <v>1200082</v>
       </c>
       <c r="C33" t="n">
-        <v>1975.231089999979</v>
+        <v>104.8</v>
       </c>
       <c r="D33" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4110,17 +6461,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2400115</v>
+        <v>1200083</v>
       </c>
       <c r="C34" t="n">
-        <v>1648.599299999983</v>
+        <v>130</v>
       </c>
       <c r="D34" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4149,17 +6500,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2400116</v>
+        <v>1200084</v>
       </c>
       <c r="C35" t="n">
-        <v>853.3870000000011</v>
+        <v>164</v>
       </c>
       <c r="D35" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4188,17 +6539,17 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2400117</v>
+        <v>1200085</v>
       </c>
       <c r="C36" t="n">
-        <v>564.2280000000012</v>
+        <v>183.55</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4227,17 +6578,17 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2300124</v>
+        <v>2400092</v>
       </c>
       <c r="C37" t="n">
-        <v>1130.5</v>
+        <v>400</v>
       </c>
       <c r="D37" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4266,17 +6617,17 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2300125</v>
+        <v>2400093</v>
       </c>
       <c r="C38" t="n">
-        <v>952</v>
+        <v>554.6</v>
       </c>
       <c r="D38" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4305,17 +6656,17 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2300126</v>
+        <v>2400094</v>
       </c>
       <c r="C39" t="n">
-        <v>1455</v>
+        <v>577</v>
       </c>
       <c r="D39" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4344,17 +6695,17 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2300127</v>
+        <v>2400095</v>
       </c>
       <c r="C40" t="n">
-        <v>735</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D40" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4383,17 +6734,17 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2300128</v>
+        <v>2400096</v>
       </c>
       <c r="C41" t="n">
-        <v>1622</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D41" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4422,17 +6773,17 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2300129</v>
+        <v>2400097</v>
       </c>
       <c r="C42" t="n">
-        <v>726</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D42" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4461,17 +6812,17 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2300130</v>
+        <v>2400098</v>
       </c>
       <c r="C43" t="n">
-        <v>2502</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D43" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4500,17 +6851,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2300131</v>
+        <v>2400099</v>
       </c>
       <c r="C44" t="n">
-        <v>401</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D44" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4539,17 +6890,17 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2300132</v>
+        <v>2400101</v>
       </c>
       <c r="C45" t="n">
-        <v>400</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D45" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4578,17 +6929,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2300135</v>
+        <v>2400102</v>
       </c>
       <c r="C46" t="n">
-        <v>108.3</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D46" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4617,17 +6968,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2300136</v>
+        <v>2400103</v>
       </c>
       <c r="C47" t="n">
-        <v>240</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D47" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4656,15 +7007,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2100137</v>
+        <v>2400104</v>
       </c>
       <c r="C48" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>1734.347213999992</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4693,15 +7046,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2100138</v>
+        <v>2400105</v>
       </c>
       <c r="C49" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>1087.143895999995</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4730,15 +7085,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2100139</v>
+        <v>2400106</v>
       </c>
       <c r="C50" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>2049.836699999993</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4767,15 +7124,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2100140</v>
+        <v>2400107</v>
       </c>
       <c r="C51" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>751.4120000000005</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4804,15 +7163,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2100141</v>
+        <v>2400108</v>
       </c>
       <c r="C52" t="n">
-        <v>6222.270852000401</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>1340.202199999995</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4841,15 +7202,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2100142</v>
+        <v>2400109</v>
       </c>
       <c r="C53" t="n">
-        <v>1688.32281700176</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>1659.914999999992</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4878,15 +7241,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2100143</v>
+        <v>2400110</v>
       </c>
       <c r="C54" t="n">
-        <v>1467.604103002783</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>1287.459599999997</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4915,15 +7280,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2100144</v>
+        <v>2400112</v>
       </c>
       <c r="C55" t="n">
-        <v>1387.194197003628</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>1434.670999999991</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4952,15 +7319,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2100146</v>
+        <v>2400113</v>
       </c>
       <c r="C56" t="n">
-        <v>1732.597611001665</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>1773.431999999988</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4989,15 +7358,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2100147</v>
+        <v>2400114</v>
       </c>
       <c r="C57" t="n">
-        <v>3084.73933250188</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>1975.231089999979</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5026,15 +7397,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2100148</v>
+        <v>2400115</v>
       </c>
       <c r="C58" t="n">
-        <v>6784.098386973769</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>1648.599299999983</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5063,15 +7436,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2100149</v>
+        <v>2400116</v>
       </c>
       <c r="C59" t="n">
-        <v>9295.344562513454</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>853.3870000000011</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5100,15 +7475,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2100150</v>
+        <v>2400117</v>
       </c>
       <c r="C60" t="n">
-        <v>7475.485288501332</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>564.2280000000012</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5137,15 +7514,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2100151</v>
+        <v>2400118</v>
       </c>
       <c r="C61" t="n">
-        <v>4341.280789791133</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>251.9353999999998</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5174,15 +7553,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2100152</v>
+        <v>2400119</v>
       </c>
       <c r="C62" t="n">
-        <v>1924.091949500588</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>170.8699999999997</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5211,15 +7592,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2100153</v>
+        <v>2400120</v>
       </c>
       <c r="C63" t="n">
-        <v>1221.046400499492</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>157.8950399999997</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5248,15 +7631,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2100154</v>
+        <v>2400121</v>
       </c>
       <c r="C64" t="n">
-        <v>829.7290730002117</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>172.6729999999995</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5285,15 +7670,17 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2100155</v>
+        <v>2400123</v>
       </c>
       <c r="C65" t="n">
-        <v>907.4490049999474</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>133.46792</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5322,15 +7709,17 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2100157</v>
+        <v>2300124</v>
       </c>
       <c r="C66" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>1130.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5359,15 +7748,17 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2100158</v>
+        <v>2300125</v>
       </c>
       <c r="C67" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5396,15 +7787,17 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2100159</v>
+        <v>2300126</v>
       </c>
       <c r="C68" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>1455</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5433,33 +7826,1122 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>2300127</v>
+      </c>
+      <c r="C69" t="n">
+        <v>735</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2300128</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1622</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2300129</v>
+      </c>
+      <c r="C71" t="n">
+        <v>726</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2300130</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2502</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2300131</v>
+      </c>
+      <c r="C73" t="n">
+        <v>401</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2300132</v>
+      </c>
+      <c r="C74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2300135</v>
+      </c>
+      <c r="C75" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2300136</v>
+      </c>
+      <c r="C76" t="n">
+        <v>240</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2100137</v>
+      </c>
+      <c r="C77" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2100139</v>
+      </c>
+      <c r="C78" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2100140</v>
+      </c>
+      <c r="C79" t="n">
+        <v>414.723</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2100141</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2100142</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6222.270852000401</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2100143</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1688.32281700176</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2100144</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1467.604103002783</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2100145</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1387.194197003628</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2100147</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1732.597611001665</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2100148</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3084.73933250188</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2100149</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6784.098386973769</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2100150</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9295.344562513454</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2100151</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7475.485288501332</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2100152</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4341.280789791133</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2100153</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1924.091949500588</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2100154</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1221.046400499492</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2100155</v>
+      </c>
+      <c r="C93" t="n">
+        <v>829.7290730002117</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2100156</v>
+      </c>
+      <c r="C94" t="n">
+        <v>907.4490049999474</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2100158</v>
+      </c>
+      <c r="C95" t="n">
+        <v>633.0435090000258</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2100159</v>
+      </c>
+      <c r="C96" t="n">
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
         <v>2100160</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C97" t="n">
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2100161</v>
+      </c>
+      <c r="C98" t="n">
         <v>171.9239930052555</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>OtherPV</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5550,7 +9032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5605,10 +9087,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>100021</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1125.6</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -5644,10 +9126,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>100021</v>
+        <v>100022</v>
       </c>
       <c r="C3" t="n">
-        <v>1125.6</v>
+        <v>731</v>
       </c>
       <c r="D3" t="n">
         <v>1.9</v>
@@ -5683,10 +9165,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100022</v>
+        <v>100023</v>
       </c>
       <c r="C4" t="n">
-        <v>731</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
         <v>1.9</v>
@@ -5722,10 +9204,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100023</v>
+        <v>100034</v>
       </c>
       <c r="C5" t="n">
-        <v>256</v>
+        <v>169.3934</v>
       </c>
       <c r="D5" t="n">
         <v>1.9</v>
@@ -5761,10 +9243,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100133</v>
+        <v>100045</v>
       </c>
       <c r="C6" t="n">
-        <v>89.8</v>
+        <v>81.2</v>
       </c>
       <c r="D6" t="n">
         <v>1.9</v>
@@ -5800,10 +9282,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20240100291</v>
+        <v>100056</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>90.80000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>1.9</v>
@@ -5839,10 +9321,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100215</v>
+        <v>100067</v>
       </c>
       <c r="C8" t="n">
-        <v>89.05</v>
+        <v>95.8</v>
       </c>
       <c r="D8" t="n">
         <v>1.9</v>
@@ -5878,10 +9360,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100226</v>
+        <v>100078</v>
       </c>
       <c r="C9" t="n">
-        <v>127.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>1.9</v>
@@ -5917,10 +9399,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100237</v>
+        <v>100089</v>
       </c>
       <c r="C10" t="n">
-        <v>217.8</v>
+        <v>117.9</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -5956,10 +9438,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100248</v>
+        <v>100100</v>
       </c>
       <c r="C11" t="n">
-        <v>91.5</v>
+        <v>171</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -5995,10 +9477,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100259</v>
+        <v>100111</v>
       </c>
       <c r="C12" t="n">
-        <v>66.78</v>
+        <v>123.5</v>
       </c>
       <c r="D12" t="n">
         <v>1.9</v>
@@ -6034,10 +9516,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100270</v>
+        <v>100122</v>
       </c>
       <c r="C13" t="n">
-        <v>166.92</v>
+        <v>252.61</v>
       </c>
       <c r="D13" t="n">
         <v>1.9</v>
@@ -6073,10 +9555,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100281</v>
+        <v>100133</v>
       </c>
       <c r="C14" t="n">
-        <v>206.65</v>
+        <v>89.8</v>
       </c>
       <c r="D14" t="n">
         <v>1.9</v>
@@ -6102,6 +9584,318 @@
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100134</v>
+      </c>
+      <c r="C15" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>100216</v>
+      </c>
+      <c r="C16" t="n">
+        <v>89.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100227</v>
+      </c>
+      <c r="C17" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100238</v>
+      </c>
+      <c r="C18" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>100249</v>
+      </c>
+      <c r="C19" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100260</v>
+      </c>
+      <c r="C20" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100271</v>
+      </c>
+      <c r="C21" t="n">
+        <v>166.92</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>100282</v>
+      </c>
+      <c r="C22" t="n">
+        <v>206.65</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1245,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,24 +1665,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19882900174</v>
+        <v>20102800178</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F17" t="n">
-        <v>652.8</v>
+        <v>433</v>
       </c>
       <c r="G17" t="n">
-        <v>652.8</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18">
@@ -1690,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20102800178</v>
+        <v>20092800189</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1704,10 +1704,10 @@
         <v>0.44</v>
       </c>
       <c r="F18" t="n">
-        <v>433</v>
+        <v>716</v>
       </c>
       <c r="G18" t="n">
-        <v>433</v>
+        <v>716</v>
       </c>
     </row>
     <row r="19">
@@ -1715,24 +1715,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20092800189</v>
+        <v>20093000194</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F19" t="n">
-        <v>716</v>
+        <v>83.8</v>
       </c>
       <c r="G19" t="n">
-        <v>716</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="20">
@@ -1740,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20093000194</v>
+        <v>20063000195</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1754,10 +1754,10 @@
         <v>0.35</v>
       </c>
       <c r="F20" t="n">
-        <v>83.8</v>
+        <v>60</v>
       </c>
       <c r="G20" t="n">
-        <v>83.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -1765,7 +1765,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20063000195</v>
+        <v>20023000196</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1779,10 +1779,10 @@
         <v>0.35</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>60</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1790,24 +1790,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20023000196</v>
+        <v>20082800200</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F22" t="n">
-        <v>97.09999999999999</v>
+        <v>250</v>
       </c>
       <c r="G22" t="n">
-        <v>97.09999999999999</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
@@ -1815,7 +1815,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20082800200</v>
+        <v>20072800211</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1829,10 +1829,10 @@
         <v>0.44</v>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>1572</v>
       </c>
       <c r="G23" t="n">
-        <v>250</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="24">
@@ -1840,7 +1840,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20072800211</v>
+        <v>20052800213</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1854,10 +1854,10 @@
         <v>0.44</v>
       </c>
       <c r="F24" t="n">
-        <v>1572</v>
+        <v>350</v>
       </c>
       <c r="G24" t="n">
-        <v>1572</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25">
@@ -1865,7 +1865,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20052800213</v>
+        <v>20042800214</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1879,10 +1879,10 @@
         <v>0.44</v>
       </c>
       <c r="F25" t="n">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G25" t="n">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26">
@@ -1890,7 +1890,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20042800214</v>
+        <v>20032800216</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
         <v>0.44</v>
       </c>
       <c r="F26" t="n">
-        <v>336</v>
+        <v>822</v>
       </c>
       <c r="G26" t="n">
-        <v>336</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27">
@@ -1915,7 +1915,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20032800216</v>
+        <v>20012800217</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         <v>0.44</v>
       </c>
       <c r="F27" t="n">
-        <v>822</v>
+        <v>690</v>
       </c>
       <c r="G27" t="n">
-        <v>822</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28">
@@ -1940,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20012800217</v>
+        <v>19982800218</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1954,10 +1954,10 @@
         <v>0.44</v>
       </c>
       <c r="F28" t="n">
-        <v>690</v>
+        <v>123</v>
       </c>
       <c r="G28" t="n">
-        <v>690</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
@@ -1965,7 +1965,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19982800218</v>
+        <v>19922800219</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1979,10 +1979,10 @@
         <v>0.44</v>
       </c>
       <c r="F29" t="n">
-        <v>123</v>
+        <v>1127.4</v>
       </c>
       <c r="G29" t="n">
-        <v>123</v>
+        <v>1127.4</v>
       </c>
     </row>
     <row r="30">
@@ -1990,7 +1990,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19922800219</v>
+        <v>19912800220</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
         <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>1127.4</v>
+        <v>889</v>
       </c>
       <c r="G30" t="n">
-        <v>1127.4</v>
+        <v>889</v>
       </c>
     </row>
     <row r="31">
@@ -2015,7 +2015,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19912800220</v>
+        <v>19902800221</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2029,10 +2029,10 @@
         <v>0.44</v>
       </c>
       <c r="F31" t="n">
-        <v>889</v>
+        <v>561.7</v>
       </c>
       <c r="G31" t="n">
-        <v>889</v>
+        <v>561.7</v>
       </c>
     </row>
     <row r="32">
@@ -2040,7 +2040,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19902800221</v>
+        <v>19892800222</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         <v>0.44</v>
       </c>
       <c r="F32" t="n">
-        <v>561.7</v>
+        <v>332.7</v>
       </c>
       <c r="G32" t="n">
-        <v>561.7</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="33">
@@ -2065,24 +2065,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19892800222</v>
+        <v>20180300241</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F33" t="n">
-        <v>332.7</v>
+        <v>140.5</v>
       </c>
       <c r="G33" t="n">
-        <v>332.7</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="34">
@@ -2090,24 +2090,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19882800223</v>
+        <v>20140300242</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F34" t="n">
-        <v>169.9</v>
+        <v>1117.5</v>
       </c>
       <c r="G34" t="n">
-        <v>169.9</v>
+        <v>1117.5</v>
       </c>
     </row>
     <row r="35">
@@ -2115,7 +2115,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20180300241</v>
+        <v>20130300243</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>0.61</v>
       </c>
       <c r="F35" t="n">
-        <v>140.5</v>
+        <v>296.3</v>
       </c>
       <c r="G35" t="n">
-        <v>140.5</v>
+        <v>296.3</v>
       </c>
     </row>
     <row r="36">
@@ -2140,7 +2140,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20140300242</v>
+        <v>20110300244</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>0.61</v>
       </c>
       <c r="F36" t="n">
-        <v>1117.5</v>
+        <v>2110.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1117.5</v>
+        <v>2110.5</v>
       </c>
     </row>
     <row r="37">
@@ -2165,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20130300243</v>
+        <v>20100300245</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2179,10 +2179,10 @@
         <v>0.61</v>
       </c>
       <c r="F37" t="n">
-        <v>296.3</v>
+        <v>3470</v>
       </c>
       <c r="G37" t="n">
-        <v>296.3</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="38">
@@ -2190,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20110300244</v>
+        <v>20090300246</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2204,10 +2204,10 @@
         <v>0.61</v>
       </c>
       <c r="F38" t="n">
-        <v>2110.5</v>
+        <v>639</v>
       </c>
       <c r="G38" t="n">
-        <v>2110.5</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39">
@@ -2215,7 +2215,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20100300245</v>
+        <v>20080300247</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2229,10 +2229,10 @@
         <v>0.61</v>
       </c>
       <c r="F39" t="n">
-        <v>3470</v>
+        <v>4269.5</v>
       </c>
       <c r="G39" t="n">
-        <v>3470</v>
+        <v>4269.5</v>
       </c>
     </row>
     <row r="40">
@@ -2240,7 +2240,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20090300246</v>
+        <v>20070300249</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         <v>0.61</v>
       </c>
       <c r="F40" t="n">
-        <v>639</v>
+        <v>196</v>
       </c>
       <c r="G40" t="n">
-        <v>639</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41">
@@ -2265,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20080300247</v>
+        <v>20060300250</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2279,10 +2279,10 @@
         <v>0.61</v>
       </c>
       <c r="F41" t="n">
-        <v>4269.5</v>
+        <v>1569</v>
       </c>
       <c r="G41" t="n">
-        <v>4269.5</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="42">
@@ -2290,7 +2290,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20070300249</v>
+        <v>20050300251</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2304,10 +2304,10 @@
         <v>0.61</v>
       </c>
       <c r="F42" t="n">
-        <v>196</v>
+        <v>1517</v>
       </c>
       <c r="G42" t="n">
-        <v>196</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="43">
@@ -2315,7 +2315,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20060300250</v>
+        <v>20171700278</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2323,16 +2323,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F43" t="n">
-        <v>1569</v>
+        <v>535.2</v>
       </c>
       <c r="G43" t="n">
-        <v>1569</v>
+        <v>535.2</v>
       </c>
     </row>
     <row r="44">
@@ -2340,7 +2340,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20050300251</v>
+        <v>20161700279</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E44" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F44" t="n">
-        <v>1517</v>
+        <v>167.451</v>
       </c>
       <c r="G44" t="n">
-        <v>1517</v>
+        <v>167.451</v>
       </c>
     </row>
     <row r="45">
@@ -2365,7 +2365,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20030300252</v>
+        <v>20151700280</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F45" t="n">
-        <v>1207.759</v>
+        <v>220.2</v>
       </c>
       <c r="G45" t="n">
-        <v>1207.759</v>
+        <v>220.2</v>
       </c>
     </row>
     <row r="46">
@@ -2390,7 +2390,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20171700278</v>
+        <v>20141700282</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2404,10 +2404,10 @@
         <v>0.43</v>
       </c>
       <c r="F46" t="n">
-        <v>535.2</v>
+        <v>574.3099999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>535.2</v>
+        <v>574.3099999999999</v>
       </c>
     </row>
     <row r="47">
@@ -2415,7 +2415,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20161700279</v>
+        <v>20121700283</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2429,10 +2429,10 @@
         <v>0.43</v>
       </c>
       <c r="F47" t="n">
-        <v>167.451</v>
+        <v>141.6</v>
       </c>
       <c r="G47" t="n">
-        <v>167.451</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="48">
@@ -2440,7 +2440,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20151700280</v>
+        <v>20111700284</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2454,10 +2454,10 @@
         <v>0.43</v>
       </c>
       <c r="F48" t="n">
-        <v>220.2</v>
+        <v>454.24</v>
       </c>
       <c r="G48" t="n">
-        <v>220.2</v>
+        <v>454.24</v>
       </c>
     </row>
     <row r="49">
@@ -2465,7 +2465,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20141700282</v>
+        <v>20101700285</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2479,10 +2479,10 @@
         <v>0.43</v>
       </c>
       <c r="F49" t="n">
-        <v>574.3099999999999</v>
+        <v>275.78</v>
       </c>
       <c r="G49" t="n">
-        <v>574.3099999999999</v>
+        <v>275.78</v>
       </c>
     </row>
     <row r="50">
@@ -2490,7 +2490,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20121700283</v>
+        <v>20051700286</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2504,10 +2504,10 @@
         <v>0.43</v>
       </c>
       <c r="F50" t="n">
-        <v>141.6</v>
+        <v>158</v>
       </c>
       <c r="G50" t="n">
-        <v>141.6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
@@ -2515,7 +2515,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20111700284</v>
+        <v>20041700287</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2529,110 +2529,10 @@
         <v>0.43</v>
       </c>
       <c r="F51" t="n">
-        <v>454.24</v>
+        <v>746.015</v>
       </c>
       <c r="G51" t="n">
-        <v>454.24</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>20101700285</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F52" t="n">
-        <v>275.78</v>
-      </c>
-      <c r="G52" t="n">
-        <v>275.78</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>20051700286</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F53" t="n">
-        <v>158</v>
-      </c>
-      <c r="G53" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>20041700287</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F54" t="n">
         <v>746.015</v>
-      </c>
-      <c r="G54" t="n">
-        <v>746.015</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>20031700288</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F55" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="G55" t="n">
-        <v>163.9</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4025,17 +3925,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19982400116</v>
+        <v>20192300124</v>
       </c>
       <c r="C35" t="n">
-        <v>853.3870000000011</v>
+        <v>1130.5</v>
       </c>
       <c r="D35" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4064,10 +3964,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20192300124</v>
+        <v>20182300125</v>
       </c>
       <c r="C36" t="n">
-        <v>1130.5</v>
+        <v>952</v>
       </c>
       <c r="D36" t="n">
         <v>2.7</v>
@@ -4103,10 +4003,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20182300125</v>
+        <v>20172300126</v>
       </c>
       <c r="C37" t="n">
-        <v>952</v>
+        <v>1455</v>
       </c>
       <c r="D37" t="n">
         <v>2.7</v>
@@ -4142,10 +4042,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20172300126</v>
+        <v>20162300127</v>
       </c>
       <c r="C38" t="n">
-        <v>1455</v>
+        <v>735</v>
       </c>
       <c r="D38" t="n">
         <v>2.7</v>
@@ -4181,10 +4081,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20162300127</v>
+        <v>20152300128</v>
       </c>
       <c r="C39" t="n">
-        <v>735</v>
+        <v>1622</v>
       </c>
       <c r="D39" t="n">
         <v>2.7</v>
@@ -4220,10 +4120,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20152300128</v>
+        <v>20142300129</v>
       </c>
       <c r="C40" t="n">
-        <v>1622</v>
+        <v>726</v>
       </c>
       <c r="D40" t="n">
         <v>2.7</v>
@@ -4259,10 +4159,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20142300129</v>
+        <v>20132300130</v>
       </c>
       <c r="C41" t="n">
-        <v>726</v>
+        <v>2502</v>
       </c>
       <c r="D41" t="n">
         <v>2.7</v>
@@ -4298,10 +4198,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20132300130</v>
+        <v>20122300131</v>
       </c>
       <c r="C42" t="n">
-        <v>2502</v>
+        <v>401</v>
       </c>
       <c r="D42" t="n">
         <v>2.7</v>
@@ -4337,10 +4237,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20122300131</v>
+        <v>20112300132</v>
       </c>
       <c r="C43" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D43" t="n">
         <v>2.7</v>
@@ -4376,10 +4276,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20112300132</v>
+        <v>20082300135</v>
       </c>
       <c r="C44" t="n">
-        <v>400</v>
+        <v>108.3</v>
       </c>
       <c r="D44" t="n">
         <v>2.7</v>
@@ -4415,10 +4315,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20082300135</v>
+        <v>20062300136</v>
       </c>
       <c r="C45" t="n">
-        <v>108.3</v>
+        <v>240</v>
       </c>
       <c r="D45" t="n">
         <v>2.7</v>
@@ -4454,17 +4354,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20062300136</v>
+        <v>20202100137</v>
       </c>
       <c r="C46" t="n">
-        <v>240</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.7</v>
-      </c>
+        <v>251.8</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4493,15 +4391,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20202100137</v>
+        <v>20222410061</v>
       </c>
       <c r="C47" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4530,17 +4430,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20232300291</v>
+        <v>20222410062</v>
       </c>
       <c r="C48" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D48" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4569,17 +4469,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20232300292</v>
+        <v>20222410063</v>
       </c>
       <c r="C49" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D49" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4608,17 +4508,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20232300294</v>
+        <v>20222410064</v>
       </c>
       <c r="C50" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D50" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4647,17 +4547,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20232300297</v>
+        <v>20222410065</v>
       </c>
       <c r="C51" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D51" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4686,17 +4586,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20232300301</v>
+        <v>20222410066</v>
       </c>
       <c r="C52" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D52" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4725,17 +4625,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20232300306</v>
+        <v>20222410067</v>
       </c>
       <c r="C53" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D53" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4764,17 +4664,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20232300312</v>
+        <v>20222410068</v>
       </c>
       <c r="C54" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D54" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4803,17 +4703,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20232300319</v>
+        <v>20222410069</v>
       </c>
       <c r="C55" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D55" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4842,17 +4742,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20232300327</v>
+        <v>20222410070</v>
       </c>
       <c r="C56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D56" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4881,17 +4781,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20232300336</v>
+        <v>20222410071</v>
       </c>
       <c r="C57" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D57" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4920,17 +4820,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20232300346</v>
+        <v>20222410072</v>
       </c>
       <c r="C58" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D58" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4959,17 +4859,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20232300357</v>
+        <v>20222410073</v>
       </c>
       <c r="C59" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D59" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4998,17 +4898,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20232300369</v>
+        <v>20222410074</v>
       </c>
       <c r="C60" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D60" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5037,17 +4937,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20232300382</v>
+        <v>20222410075</v>
       </c>
       <c r="C61" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D61" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5076,17 +4976,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20232300396</v>
+        <v>20222410076</v>
       </c>
       <c r="C62" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D62" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5115,7 +5015,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20232300411</v>
+        <v>20232300291</v>
       </c>
       <c r="C63" t="n">
         <v>200</v>
@@ -5154,7 +5054,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20232300427</v>
+        <v>20232300292</v>
       </c>
       <c r="C64" t="n">
         <v>200</v>
@@ -5193,7 +5093,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20232300444</v>
+        <v>20232300294</v>
       </c>
       <c r="C65" t="n">
         <v>200</v>
@@ -5232,7 +5132,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20232300462</v>
+        <v>20232300297</v>
       </c>
       <c r="C66" t="n">
         <v>200</v>
@@ -5271,7 +5171,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20232300481</v>
+        <v>20232300301</v>
       </c>
       <c r="C67" t="n">
         <v>200</v>
@@ -5310,7 +5210,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20232300501</v>
+        <v>20232300306</v>
       </c>
       <c r="C68" t="n">
         <v>200</v>
@@ -5349,7 +5249,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20232300522</v>
+        <v>20232300312</v>
       </c>
       <c r="C69" t="n">
         <v>200</v>
@@ -5388,7 +5288,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20232300544</v>
+        <v>20232300319</v>
       </c>
       <c r="C70" t="n">
         <v>200</v>
@@ -5427,7 +5327,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20232300567</v>
+        <v>20232300327</v>
       </c>
       <c r="C71" t="n">
         <v>200</v>
@@ -5466,7 +5366,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20232300591</v>
+        <v>20232300336</v>
       </c>
       <c r="C72" t="n">
         <v>200</v>
@@ -5505,7 +5405,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20232300616</v>
+        <v>20232300346</v>
       </c>
       <c r="C73" t="n">
         <v>200</v>
@@ -5544,7 +5444,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20232300642</v>
+        <v>20232300357</v>
       </c>
       <c r="C74" t="n">
         <v>200</v>
@@ -5583,7 +5483,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20232300669</v>
+        <v>20232300369</v>
       </c>
       <c r="C75" t="n">
         <v>200</v>
@@ -5622,7 +5522,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20232300697</v>
+        <v>20232300382</v>
       </c>
       <c r="C76" t="n">
         <v>200</v>
@@ -5661,7 +5561,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20232300726</v>
+        <v>20232300396</v>
       </c>
       <c r="C77" t="n">
         <v>200</v>
@@ -5700,7 +5600,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20232300756</v>
+        <v>20232300411</v>
       </c>
       <c r="C78" t="n">
         <v>200</v>
@@ -5739,7 +5639,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20232300787</v>
+        <v>20232300427</v>
       </c>
       <c r="C79" t="n">
         <v>200</v>
@@ -5778,7 +5678,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20232300819</v>
+        <v>20232300444</v>
       </c>
       <c r="C80" t="n">
         <v>200</v>
@@ -5817,7 +5717,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20232300852</v>
+        <v>20232300462</v>
       </c>
       <c r="C81" t="n">
         <v>200</v>
@@ -5856,7 +5756,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20232300886</v>
+        <v>20232300481</v>
       </c>
       <c r="C82" t="n">
         <v>200</v>
@@ -5895,7 +5795,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20232300921</v>
+        <v>20232300501</v>
       </c>
       <c r="C83" t="n">
         <v>200</v>
@@ -5934,7 +5834,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20232300957</v>
+        <v>20232300522</v>
       </c>
       <c r="C84" t="n">
         <v>200</v>
@@ -5973,7 +5873,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20232300994</v>
+        <v>20232300544</v>
       </c>
       <c r="C85" t="n">
         <v>200</v>
@@ -6012,7 +5912,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20232301032</v>
+        <v>20232300567</v>
       </c>
       <c r="C86" t="n">
         <v>200</v>
@@ -6051,7 +5951,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20232301071</v>
+        <v>20232300591</v>
       </c>
       <c r="C87" t="n">
         <v>200</v>
@@ -6090,7 +5990,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20232301111</v>
+        <v>20232300616</v>
       </c>
       <c r="C88" t="n">
         <v>200</v>
@@ -6129,7 +6029,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20232301152</v>
+        <v>20232300642</v>
       </c>
       <c r="C89" t="n">
         <v>200</v>
@@ -6168,7 +6068,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20232301194</v>
+        <v>20232300669</v>
       </c>
       <c r="C90" t="n">
         <v>200</v>
@@ -6207,7 +6107,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20232301237</v>
+        <v>20232300697</v>
       </c>
       <c r="C91" t="n">
         <v>200</v>
@@ -6246,7 +6146,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20232301281</v>
+        <v>20232300726</v>
       </c>
       <c r="C92" t="n">
         <v>200</v>
@@ -6285,7 +6185,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20232301326</v>
+        <v>20232300756</v>
       </c>
       <c r="C93" t="n">
         <v>200</v>
@@ -6324,7 +6224,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20232301372</v>
+        <v>20232300787</v>
       </c>
       <c r="C94" t="n">
         <v>200</v>
@@ -6363,7 +6263,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20232301419</v>
+        <v>20232300819</v>
       </c>
       <c r="C95" t="n">
         <v>200</v>
@@ -6402,7 +6302,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20232301467</v>
+        <v>20232300852</v>
       </c>
       <c r="C96" t="n">
         <v>200</v>
@@ -6441,7 +6341,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20232301516</v>
+        <v>20232300886</v>
       </c>
       <c r="C97" t="n">
         <v>200</v>
@@ -6480,7 +6380,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20232301566</v>
+        <v>20232300921</v>
       </c>
       <c r="C98" t="n">
         <v>200</v>
@@ -6519,7 +6419,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20232301617</v>
+        <v>20232300957</v>
       </c>
       <c r="C99" t="n">
         <v>200</v>
@@ -6558,7 +6458,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20232301669</v>
+        <v>20232300994</v>
       </c>
       <c r="C100" t="n">
         <v>200</v>
@@ -6597,7 +6497,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20232301722</v>
+        <v>20232301032</v>
       </c>
       <c r="C101" t="n">
         <v>200</v>
@@ -6636,7 +6536,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20232301776</v>
+        <v>20232301071</v>
       </c>
       <c r="C102" t="n">
         <v>200</v>
@@ -6675,7 +6575,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20232301831</v>
+        <v>20232301111</v>
       </c>
       <c r="C103" t="n">
         <v>200</v>
@@ -6714,7 +6614,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>20232301887</v>
+        <v>20232301152</v>
       </c>
       <c r="C104" t="n">
         <v>200</v>
@@ -6753,7 +6653,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>20232301944</v>
+        <v>20232301194</v>
       </c>
       <c r="C105" t="n">
         <v>200</v>
@@ -6792,7 +6692,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20232302002</v>
+        <v>20232301237</v>
       </c>
       <c r="C106" t="n">
         <v>200</v>
@@ -6831,7 +6731,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>20232302061</v>
+        <v>20232301281</v>
       </c>
       <c r="C107" t="n">
         <v>200</v>
@@ -6870,7 +6770,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>20232302121</v>
+        <v>20232301326</v>
       </c>
       <c r="C108" t="n">
         <v>200</v>
@@ -6909,7 +6809,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>20232302182</v>
+        <v>20232301372</v>
       </c>
       <c r="C109" t="n">
         <v>200</v>
@@ -6948,7 +6848,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20232302244</v>
+        <v>20232301419</v>
       </c>
       <c r="C110" t="n">
         <v>200</v>
@@ -6987,7 +6887,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20232302307</v>
+        <v>20232301467</v>
       </c>
       <c r="C111" t="n">
         <v>200</v>
@@ -7026,7 +6926,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20232302371</v>
+        <v>20232301516</v>
       </c>
       <c r="C112" t="n">
         <v>200</v>
@@ -7065,7 +6965,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20232302436</v>
+        <v>20232301566</v>
       </c>
       <c r="C113" t="n">
         <v>200</v>
@@ -7104,7 +7004,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20232302502</v>
+        <v>20232301617</v>
       </c>
       <c r="C114" t="n">
         <v>200</v>
@@ -7143,7 +7043,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>20232302569</v>
+        <v>20232301669</v>
       </c>
       <c r="C115" t="n">
         <v>200</v>
@@ -7182,7 +7082,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20232302637</v>
+        <v>20232301722</v>
       </c>
       <c r="C116" t="n">
         <v>200</v>
@@ -7221,7 +7121,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>20232302706</v>
+        <v>20232301776</v>
       </c>
       <c r="C117" t="n">
         <v>200</v>
@@ -7260,7 +7160,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20232302776</v>
+        <v>20232301831</v>
       </c>
       <c r="C118" t="n">
         <v>200</v>
@@ -7299,7 +7199,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20232302847</v>
+        <v>20232301887</v>
       </c>
       <c r="C119" t="n">
         <v>200</v>
@@ -7338,7 +7238,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20232302919</v>
+        <v>20232301944</v>
       </c>
       <c r="C120" t="n">
         <v>200</v>
@@ -7377,7 +7277,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20232302992</v>
+        <v>20232302002</v>
       </c>
       <c r="C121" t="n">
         <v>200</v>
@@ -7416,7 +7316,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20232303066</v>
+        <v>20232302061</v>
       </c>
       <c r="C122" t="n">
         <v>200</v>
@@ -7455,7 +7355,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20232303141</v>
+        <v>20232302121</v>
       </c>
       <c r="C123" t="n">
         <v>200</v>
@@ -7494,7 +7394,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20232303217</v>
+        <v>20232302182</v>
       </c>
       <c r="C124" t="n">
         <v>200</v>
@@ -7533,7 +7433,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20232303294</v>
+        <v>20232302244</v>
       </c>
       <c r="C125" t="n">
         <v>200</v>
@@ -7572,7 +7472,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20232303372</v>
+        <v>20232302307</v>
       </c>
       <c r="C126" t="n">
         <v>200</v>
@@ -7611,7 +7511,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20232303451</v>
+        <v>20232302371</v>
       </c>
       <c r="C127" t="n">
         <v>200</v>
@@ -7650,7 +7550,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20232303531</v>
+        <v>20232302436</v>
       </c>
       <c r="C128" t="n">
         <v>200</v>
@@ -7689,7 +7589,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20232303612</v>
+        <v>20232302502</v>
       </c>
       <c r="C129" t="n">
         <v>200</v>
@@ -7728,7 +7628,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>20232303694</v>
+        <v>20232302569</v>
       </c>
       <c r="C130" t="n">
         <v>200</v>
@@ -7767,7 +7667,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20232303777</v>
+        <v>20232302637</v>
       </c>
       <c r="C131" t="n">
         <v>200</v>
@@ -7806,7 +7706,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20232303861</v>
+        <v>20232302706</v>
       </c>
       <c r="C132" t="n">
         <v>200</v>
@@ -7845,7 +7745,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>20232303946</v>
+        <v>20232302776</v>
       </c>
       <c r="C133" t="n">
         <v>200</v>
@@ -7884,7 +7784,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>20232304032</v>
+        <v>20232302847</v>
       </c>
       <c r="C134" t="n">
         <v>200</v>
@@ -7923,7 +7823,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>20232304119</v>
+        <v>20232302919</v>
       </c>
       <c r="C135" t="n">
         <v>200</v>
@@ -7962,7 +7862,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>20232304207</v>
+        <v>20232302992</v>
       </c>
       <c r="C136" t="n">
         <v>200</v>
@@ -8001,7 +7901,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>20232304296</v>
+        <v>20232303066</v>
       </c>
       <c r="C137" t="n">
         <v>200</v>
@@ -8040,7 +7940,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>20232304386</v>
+        <v>20232303141</v>
       </c>
       <c r="C138" t="n">
         <v>200</v>
@@ -8079,7 +7979,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>20232304477</v>
+        <v>20232303217</v>
       </c>
       <c r="C139" t="n">
         <v>200</v>
@@ -8118,7 +8018,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>20232304569</v>
+        <v>20232303294</v>
       </c>
       <c r="C140" t="n">
         <v>200</v>
@@ -8157,7 +8057,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>20232304662</v>
+        <v>20232303372</v>
       </c>
       <c r="C141" t="n">
         <v>200</v>
@@ -8196,7 +8096,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>20232304756</v>
+        <v>20232303451</v>
       </c>
       <c r="C142" t="n">
         <v>200</v>
@@ -8235,7 +8135,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>20232304851</v>
+        <v>20232303531</v>
       </c>
       <c r="C143" t="n">
         <v>200</v>
@@ -8274,7 +8174,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>20232304947</v>
+        <v>20232303612</v>
       </c>
       <c r="C144" t="n">
         <v>200</v>
@@ -8313,7 +8213,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>20232305044</v>
+        <v>20232303694</v>
       </c>
       <c r="C145" t="n">
         <v>200</v>
@@ -8352,7 +8252,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>20232305142</v>
+        <v>20232303777</v>
       </c>
       <c r="C146" t="n">
         <v>200</v>
@@ -8391,7 +8291,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>20232305241</v>
+        <v>20232303861</v>
       </c>
       <c r="C147" t="n">
         <v>200</v>
@@ -8430,7 +8330,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>20232305341</v>
+        <v>20232303946</v>
       </c>
       <c r="C148" t="n">
         <v>200</v>
@@ -8469,7 +8369,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>20232305442</v>
+        <v>20232304032</v>
       </c>
       <c r="C149" t="n">
         <v>200</v>
@@ -8508,7 +8408,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>20232305544</v>
+        <v>20232304119</v>
       </c>
       <c r="C150" t="n">
         <v>200</v>
@@ -8547,7 +8447,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>20232305647</v>
+        <v>20232304207</v>
       </c>
       <c r="C151" t="n">
         <v>200</v>
@@ -8586,7 +8486,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>20232305751</v>
+        <v>20232304296</v>
       </c>
       <c r="C152" t="n">
         <v>200</v>
@@ -8625,7 +8525,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>20232305856</v>
+        <v>20232304386</v>
       </c>
       <c r="C153" t="n">
         <v>200</v>
@@ -8664,7 +8564,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>20232305962</v>
+        <v>20232304477</v>
       </c>
       <c r="C154" t="n">
         <v>200</v>
@@ -8703,7 +8603,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>20232306069</v>
+        <v>20232304569</v>
       </c>
       <c r="C155" t="n">
         <v>200</v>
@@ -8742,7 +8642,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>20232306177</v>
+        <v>20232304662</v>
       </c>
       <c r="C156" t="n">
         <v>200</v>
@@ -8781,7 +8681,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>20232306286</v>
+        <v>20232304756</v>
       </c>
       <c r="C157" t="n">
         <v>200</v>
@@ -8820,7 +8720,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>20232306396</v>
+        <v>20232304851</v>
       </c>
       <c r="C158" t="n">
         <v>200</v>
@@ -8859,7 +8759,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>20232306507</v>
+        <v>20232304947</v>
       </c>
       <c r="C159" t="n">
         <v>200</v>
@@ -8898,7 +8798,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>20232306619</v>
+        <v>20232305044</v>
       </c>
       <c r="C160" t="n">
         <v>200</v>
@@ -8937,7 +8837,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>20232306732</v>
+        <v>20232305142</v>
       </c>
       <c r="C161" t="n">
         <v>200</v>
@@ -8976,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>20232306846</v>
+        <v>20232305241</v>
       </c>
       <c r="C162" t="n">
         <v>200</v>
@@ -9015,7 +8915,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>20232306961</v>
+        <v>20232305341</v>
       </c>
       <c r="C163" t="n">
         <v>200</v>
@@ -9054,7 +8954,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>20232307077</v>
+        <v>20232305442</v>
       </c>
       <c r="C164" t="n">
         <v>200</v>
@@ -9093,7 +8993,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>20232307194</v>
+        <v>20232305544</v>
       </c>
       <c r="C165" t="n">
         <v>200</v>
@@ -9132,7 +9032,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>20232307312</v>
+        <v>20232305647</v>
       </c>
       <c r="C166" t="n">
         <v>200</v>
@@ -9171,7 +9071,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>20232307431</v>
+        <v>20232305751</v>
       </c>
       <c r="C167" t="n">
         <v>200</v>
@@ -9210,7 +9110,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>20232307551</v>
+        <v>20232305856</v>
       </c>
       <c r="C168" t="n">
         <v>200</v>
@@ -9249,7 +9149,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>20232307672</v>
+        <v>20232305962</v>
       </c>
       <c r="C169" t="n">
         <v>200</v>
@@ -9288,7 +9188,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>20232307794</v>
+        <v>20232306069</v>
       </c>
       <c r="C170" t="n">
         <v>200</v>
@@ -9327,7 +9227,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>20232307917</v>
+        <v>20232306177</v>
       </c>
       <c r="C171" t="n">
         <v>200</v>
@@ -9366,7 +9266,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>20232308041</v>
+        <v>20232306286</v>
       </c>
       <c r="C172" t="n">
         <v>200</v>
@@ -9405,7 +9305,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>20232308166</v>
+        <v>20232306396</v>
       </c>
       <c r="C173" t="n">
         <v>200</v>
@@ -9444,7 +9344,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>20232308292</v>
+        <v>20232306507</v>
       </c>
       <c r="C174" t="n">
         <v>200</v>
@@ -9483,7 +9383,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>20232308419</v>
+        <v>20232306619</v>
       </c>
       <c r="C175" t="n">
         <v>200</v>
@@ -9522,7 +9422,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>20232308547</v>
+        <v>20232306732</v>
       </c>
       <c r="C176" t="n">
         <v>200</v>
@@ -9561,7 +9461,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>20232308676</v>
+        <v>20232306846</v>
       </c>
       <c r="C177" t="n">
         <v>200</v>
@@ -9600,7 +9500,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>20232308806</v>
+        <v>20232306961</v>
       </c>
       <c r="C178" t="n">
         <v>200</v>
@@ -9639,7 +9539,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>20232308937</v>
+        <v>20232307077</v>
       </c>
       <c r="C179" t="n">
         <v>200</v>
@@ -9678,7 +9578,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>20232309069</v>
+        <v>20232307194</v>
       </c>
       <c r="C180" t="n">
         <v>200</v>
@@ -9717,7 +9617,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>20232309202</v>
+        <v>20232307312</v>
       </c>
       <c r="C181" t="n">
         <v>200</v>
@@ -9756,7 +9656,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>20232309336</v>
+        <v>20232307431</v>
       </c>
       <c r="C182" t="n">
         <v>200</v>
@@ -9795,7 +9695,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>20232309471</v>
+        <v>20232307551</v>
       </c>
       <c r="C183" t="n">
         <v>200</v>
@@ -9834,7 +9734,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>20232309607</v>
+        <v>20232307672</v>
       </c>
       <c r="C184" t="n">
         <v>200</v>
@@ -9873,7 +9773,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>20232309744</v>
+        <v>20232307794</v>
       </c>
       <c r="C185" t="n">
         <v>200</v>
@@ -9912,7 +9812,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>20232309882</v>
+        <v>20232307917</v>
       </c>
       <c r="C186" t="n">
         <v>200</v>
@@ -9951,7 +9851,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>20232310021</v>
+        <v>20232308041</v>
       </c>
       <c r="C187" t="n">
         <v>200</v>
@@ -9990,7 +9890,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>20232310022</v>
+        <v>20232308166</v>
       </c>
       <c r="C188" t="n">
         <v>200</v>
@@ -10029,7 +9929,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>20232310023</v>
+        <v>20232308292</v>
       </c>
       <c r="C189" t="n">
         <v>200</v>
@@ -10068,7 +9968,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>20232310024</v>
+        <v>20232308419</v>
       </c>
       <c r="C190" t="n">
         <v>200</v>
@@ -10107,7 +10007,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>20232310025</v>
+        <v>20232308547</v>
       </c>
       <c r="C191" t="n">
         <v>200</v>
@@ -10146,7 +10046,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>20232310026</v>
+        <v>20232308676</v>
       </c>
       <c r="C192" t="n">
         <v>200</v>
@@ -10185,7 +10085,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>20232310027</v>
+        <v>20232308806</v>
       </c>
       <c r="C193" t="n">
         <v>200</v>
@@ -10224,7 +10124,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>20232310028</v>
+        <v>20232308937</v>
       </c>
       <c r="C194" t="n">
         <v>200</v>
@@ -10263,7 +10163,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>20232310029</v>
+        <v>20232309069</v>
       </c>
       <c r="C195" t="n">
         <v>200</v>
@@ -10302,7 +10202,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>20232310030</v>
+        <v>20232309202</v>
       </c>
       <c r="C196" t="n">
         <v>200</v>
@@ -10341,7 +10241,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>20232310031</v>
+        <v>20232309336</v>
       </c>
       <c r="C197" t="n">
         <v>200</v>
@@ -10380,7 +10280,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>20232310032</v>
+        <v>20232309471</v>
       </c>
       <c r="C198" t="n">
         <v>200</v>
@@ -10419,7 +10319,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>20232310033</v>
+        <v>20232309607</v>
       </c>
       <c r="C199" t="n">
         <v>200</v>
@@ -10458,7 +10358,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>20232310034</v>
+        <v>20232309744</v>
       </c>
       <c r="C200" t="n">
         <v>200</v>
@@ -10497,7 +10397,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>20232310035</v>
+        <v>20232309882</v>
       </c>
       <c r="C201" t="n">
         <v>200</v>
@@ -10536,7 +10436,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>20232310036</v>
+        <v>20232310021</v>
       </c>
       <c r="C202" t="n">
         <v>200</v>
@@ -10575,7 +10475,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>20232310037</v>
+        <v>20232310022</v>
       </c>
       <c r="C203" t="n">
         <v>200</v>
@@ -10614,7 +10514,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>20232310038</v>
+        <v>20232310023</v>
       </c>
       <c r="C204" t="n">
         <v>200</v>
@@ -10653,7 +10553,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>20232310039</v>
+        <v>20232310024</v>
       </c>
       <c r="C205" t="n">
         <v>200</v>
@@ -10692,7 +10592,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>20232310040</v>
+        <v>20232310025</v>
       </c>
       <c r="C206" t="n">
         <v>200</v>
@@ -10731,7 +10631,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>20232310041</v>
+        <v>20232310026</v>
       </c>
       <c r="C207" t="n">
         <v>200</v>
@@ -10770,7 +10670,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>20232310042</v>
+        <v>20232310027</v>
       </c>
       <c r="C208" t="n">
         <v>200</v>
@@ -10809,7 +10709,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>20232310043</v>
+        <v>20232310028</v>
       </c>
       <c r="C209" t="n">
         <v>200</v>
@@ -10848,7 +10748,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>20232310044</v>
+        <v>20232310029</v>
       </c>
       <c r="C210" t="n">
         <v>200</v>
@@ -10887,7 +10787,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>20232310045</v>
+        <v>20232310030</v>
       </c>
       <c r="C211" t="n">
         <v>200</v>
@@ -10926,7 +10826,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>20232310046</v>
+        <v>20232310031</v>
       </c>
       <c r="C212" t="n">
         <v>200</v>
@@ -10965,7 +10865,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>20232310047</v>
+        <v>20232310032</v>
       </c>
       <c r="C213" t="n">
         <v>200</v>
@@ -11004,7 +10904,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>20232310048</v>
+        <v>20232310033</v>
       </c>
       <c r="C214" t="n">
         <v>200</v>
@@ -11043,7 +10943,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>20232310049</v>
+        <v>20232310034</v>
       </c>
       <c r="C215" t="n">
         <v>200</v>
@@ -11082,7 +10982,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>20232310050</v>
+        <v>20232310035</v>
       </c>
       <c r="C216" t="n">
         <v>200</v>
@@ -11121,7 +11021,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>20232310051</v>
+        <v>20232310036</v>
       </c>
       <c r="C217" t="n">
         <v>200</v>
@@ -11160,7 +11060,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>20232310052</v>
+        <v>20232310037</v>
       </c>
       <c r="C218" t="n">
         <v>200</v>
@@ -11199,7 +11099,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>20232310053</v>
+        <v>20232310038</v>
       </c>
       <c r="C219" t="n">
         <v>200</v>
@@ -11238,7 +11138,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>20232310054</v>
+        <v>20232310039</v>
       </c>
       <c r="C220" t="n">
         <v>200</v>
@@ -11277,7 +11177,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>20232310055</v>
+        <v>20232310040</v>
       </c>
       <c r="C221" t="n">
         <v>200</v>
@@ -11316,7 +11216,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>20232310056</v>
+        <v>20232310041</v>
       </c>
       <c r="C222" t="n">
         <v>200</v>
@@ -11355,7 +11255,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>20232310057</v>
+        <v>20232310042</v>
       </c>
       <c r="C223" t="n">
         <v>200</v>
@@ -11394,7 +11294,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>20232310058</v>
+        <v>20232310043</v>
       </c>
       <c r="C224" t="n">
         <v>200</v>
@@ -11433,7 +11333,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>20232310059</v>
+        <v>20232310044</v>
       </c>
       <c r="C225" t="n">
         <v>200</v>
@@ -11472,7 +11372,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>20232310060</v>
+        <v>20232310045</v>
       </c>
       <c r="C226" t="n">
         <v>200</v>
@@ -11511,15 +11411,17 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>20192100138</v>
+        <v>20232310046</v>
       </c>
       <c r="C227" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D227" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11548,15 +11450,17 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>20182100139</v>
+        <v>20232310047</v>
       </c>
       <c r="C228" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D228" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11585,15 +11489,17 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>20172100140</v>
+        <v>20232310048</v>
       </c>
       <c r="C229" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D229" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11622,15 +11528,17 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>20162100141</v>
+        <v>20232310049</v>
       </c>
       <c r="C230" t="n">
-        <v>6222.270852000401</v>
-      </c>
-      <c r="D230" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11659,15 +11567,17 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>20152100142</v>
+        <v>20232310050</v>
       </c>
       <c r="C231" t="n">
-        <v>1688.32281700176</v>
-      </c>
-      <c r="D231" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -11696,15 +11606,17 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>20142100143</v>
+        <v>20232310051</v>
       </c>
       <c r="C232" t="n">
-        <v>1467.604103002783</v>
-      </c>
-      <c r="D232" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11733,15 +11645,17 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>20132100144</v>
+        <v>20232310052</v>
       </c>
       <c r="C233" t="n">
-        <v>1387.194197003628</v>
-      </c>
-      <c r="D233" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -11770,15 +11684,17 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>20122100146</v>
+        <v>20232310053</v>
       </c>
       <c r="C234" t="n">
-        <v>1732.597611001665</v>
-      </c>
-      <c r="D234" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -11807,15 +11723,17 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>20112100147</v>
+        <v>20232310054</v>
       </c>
       <c r="C235" t="n">
-        <v>3084.73933250188</v>
-      </c>
-      <c r="D235" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11844,15 +11762,17 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>20102100148</v>
+        <v>20232310055</v>
       </c>
       <c r="C236" t="n">
-        <v>6784.098386973769</v>
-      </c>
-      <c r="D236" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11881,15 +11801,17 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>20092100149</v>
+        <v>20232310056</v>
       </c>
       <c r="C237" t="n">
-        <v>9295.344562513454</v>
-      </c>
-      <c r="D237" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11918,15 +11840,17 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>20082100150</v>
+        <v>20232310057</v>
       </c>
       <c r="C238" t="n">
-        <v>7475.485288501332</v>
-      </c>
-      <c r="D238" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11955,15 +11879,17 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>20072100151</v>
+        <v>20232310058</v>
       </c>
       <c r="C239" t="n">
-        <v>4341.280789791133</v>
-      </c>
-      <c r="D239" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11992,15 +11918,17 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>20062100152</v>
+        <v>20232310059</v>
       </c>
       <c r="C240" t="n">
-        <v>1924.091949500588</v>
-      </c>
-      <c r="D240" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -12029,15 +11957,17 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>20052100153</v>
+        <v>20232310060</v>
       </c>
       <c r="C241" t="n">
-        <v>1221.046400499492</v>
-      </c>
-      <c r="D241" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12066,10 +11996,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>20042100154</v>
+        <v>20192100138</v>
       </c>
       <c r="C242" t="n">
-        <v>829.7290730002117</v>
+        <v>195.4</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
@@ -12103,10 +12033,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>20032100155</v>
+        <v>20182100139</v>
       </c>
       <c r="C243" t="n">
-        <v>907.4490049999474</v>
+        <v>414.723</v>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
@@ -12140,10 +12070,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>20022100157</v>
+        <v>20172100140</v>
       </c>
       <c r="C244" t="n">
-        <v>633.0435090000258</v>
+        <v>3311.82512350009</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
@@ -12177,10 +12107,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>20012100158</v>
+        <v>20162100141</v>
       </c>
       <c r="C245" t="n">
-        <v>122.1209029997136</v>
+        <v>6222.270852000401</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
@@ -12214,10 +12144,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>20002100159</v>
+        <v>20152100142</v>
       </c>
       <c r="C246" t="n">
-        <v>93.42517899995289</v>
+        <v>1688.32281700176</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
@@ -12251,10 +12181,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>19992100160</v>
+        <v>20142100143</v>
       </c>
       <c r="C247" t="n">
-        <v>171.9239930052555</v>
+        <v>1467.604103002783</v>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
@@ -12278,6 +12208,561 @@
         </is>
       </c>
       <c r="I247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="6" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>20132100144</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1387.194197003628</v>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>20122100146</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1732.597611001665</v>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="6" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>20112100147</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3084.73933250188</v>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>20102100148</v>
+      </c>
+      <c r="C251" t="n">
+        <v>6784.098386973769</v>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>20092100149</v>
+      </c>
+      <c r="C252" t="n">
+        <v>9295.344562513454</v>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>20082100150</v>
+      </c>
+      <c r="C253" t="n">
+        <v>7475.485288501332</v>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="6" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>20072100151</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4341.280789791133</v>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>20062100152</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1924.091949500588</v>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="6" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>20052100153</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1221.046400499492</v>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>20042100154</v>
+      </c>
+      <c r="C257" t="n">
+        <v>829.7290730002117</v>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="6" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>20032100155</v>
+      </c>
+      <c r="C258" t="n">
+        <v>907.4490049999474</v>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>20022100157</v>
+      </c>
+      <c r="C259" t="n">
+        <v>633.0435090000258</v>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="6" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>20012100158</v>
+      </c>
+      <c r="C260" t="n">
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>20002100159</v>
+      </c>
+      <c r="C261" t="n">
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>19992100160</v>
+      </c>
+      <c r="C262" t="n">
+        <v>171.9239930052555</v>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12368,7 +12853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12769,45 +13254,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20030100281</v>
-      </c>
-      <c r="C11" t="n">
-        <v>206.65</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>46752.99861111111</v>
+        <v>44196.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>47117.99861111111</v>
+        <v>44560.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1159,10 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="C1" s="6" t="n">
-        <v>2028</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.23999999999999</v>
+        <v>24.38</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.432</v>
+        <v>11.504</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.624</v>
+        <v>20.468</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.832</v>
+        <v>48.114</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1259,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>19991700024</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1315,13 +1315,13 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>115.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="3">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99990300008</v>
+        <v>19971700025</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1354,24 +1354,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20132800145</v>
+        <v>19871400086</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>4734</v>
+        <v>1795</v>
       </c>
       <c r="G4" t="n">
-        <v>4734</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="5">
@@ -1379,24 +1379,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20122800156</v>
+        <v>19861400087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>1597.7</v>
+        <v>2746</v>
       </c>
       <c r="G5" t="n">
-        <v>1597.7</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="6">
@@ -1404,24 +1404,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20102900161</v>
+        <v>19841400088</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F6" t="n">
-        <v>2780.3</v>
+        <v>1410</v>
       </c>
       <c r="G6" t="n">
-        <v>2780.3</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="7">
@@ -1429,24 +1429,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20082900162</v>
+        <v>19831400090</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F7" t="n">
-        <v>94.8</v>
+        <v>1360</v>
       </c>
       <c r="G7" t="n">
-        <v>94.8</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8">
@@ -1454,24 +1454,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20072900163</v>
+        <v>19821400091</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F8" t="n">
-        <v>648</v>
+        <v>1288</v>
       </c>
       <c r="G8" t="n">
-        <v>648</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="9">
@@ -1479,24 +1479,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20062900164</v>
+        <v>20132800145</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F9" t="n">
-        <v>628</v>
+        <v>4734</v>
       </c>
       <c r="G9" t="n">
-        <v>628</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="10">
@@ -1504,24 +1504,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20002900165</v>
+        <v>20122800156</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F10" t="n">
-        <v>967.22</v>
+        <v>1597.7</v>
       </c>
       <c r="G10" t="n">
-        <v>967.22</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="11">
@@ -1529,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19982900166</v>
+        <v>20102900161</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1543,10 +1543,10 @@
         <v>0.45</v>
       </c>
       <c r="F11" t="n">
-        <v>1732</v>
+        <v>2780.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1732</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="12">
@@ -1554,24 +1554,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20112800167</v>
+        <v>20082900162</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F12" t="n">
-        <v>1909</v>
+        <v>94.8</v>
       </c>
       <c r="G12" t="n">
-        <v>1909</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="13">
@@ -1579,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19972900168</v>
+        <v>20072900163</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
         <v>0.45</v>
       </c>
       <c r="F13" t="n">
-        <v>949</v>
+        <v>648</v>
       </c>
       <c r="G13" t="n">
-        <v>949</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19962900169</v>
+        <v>20062900164</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1618,10 +1618,10 @@
         <v>0.45</v>
       </c>
       <c r="F14" t="n">
-        <v>750</v>
+        <v>628</v>
       </c>
       <c r="G14" t="n">
-        <v>750</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15">
@@ -1629,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19952900170</v>
+        <v>20002900165</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1643,10 +1643,10 @@
         <v>0.45</v>
       </c>
       <c r="F15" t="n">
-        <v>750</v>
+        <v>967.22</v>
       </c>
       <c r="G15" t="n">
-        <v>750</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="16">
@@ -1654,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19942900171</v>
+        <v>19982900166</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1668,10 +1668,10 @@
         <v>0.45</v>
       </c>
       <c r="F16" t="n">
-        <v>2780</v>
+        <v>1732</v>
       </c>
       <c r="G16" t="n">
-        <v>2780</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="17">
@@ -1679,24 +1679,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19922900172</v>
+        <v>20112800167</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F17" t="n">
-        <v>496</v>
+        <v>1909</v>
       </c>
       <c r="G17" t="n">
-        <v>496</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="18">
@@ -1704,7 +1704,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19912900173</v>
+        <v>19972900168</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1718,10 +1718,10 @@
         <v>0.45</v>
       </c>
       <c r="F18" t="n">
-        <v>488.3</v>
+        <v>949</v>
       </c>
       <c r="G18" t="n">
-        <v>488.3</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19">
@@ -1729,24 +1729,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20102800178</v>
+        <v>19962900169</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F19" t="n">
-        <v>433</v>
+        <v>750</v>
       </c>
       <c r="G19" t="n">
-        <v>433</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20">
@@ -1754,24 +1754,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20092800189</v>
+        <v>19952900170</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F20" t="n">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="G20" t="n">
-        <v>716</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21">
@@ -1779,24 +1779,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20093000194</v>
+        <v>19942900171</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F21" t="n">
-        <v>83.8</v>
+        <v>2780</v>
       </c>
       <c r="G21" t="n">
-        <v>83.8</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="22">
@@ -1804,24 +1804,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20063000195</v>
+        <v>19922900172</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>496</v>
       </c>
       <c r="G22" t="n">
-        <v>60</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23">
@@ -1829,24 +1829,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20023000196</v>
+        <v>19912900173</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F23" t="n">
-        <v>97.09999999999999</v>
+        <v>488.3</v>
       </c>
       <c r="G23" t="n">
-        <v>97.09999999999999</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="24">
@@ -1854,24 +1854,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20082800200</v>
+        <v>19882900174</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>652.8</v>
       </c>
       <c r="G24" t="n">
-        <v>250</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="25">
@@ -1879,24 +1879,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20072800211</v>
+        <v>19872900175</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F25" t="n">
-        <v>1572</v>
+        <v>498.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1572</v>
+        <v>498.5</v>
       </c>
     </row>
     <row r="26">
@@ -1904,24 +1904,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20052800213</v>
+        <v>19862900176</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F26" t="n">
-        <v>350</v>
+        <v>232.8</v>
       </c>
       <c r="G26" t="n">
-        <v>350</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="27">
@@ -1929,24 +1929,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20042800214</v>
+        <v>19852900177</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F27" t="n">
-        <v>336</v>
+        <v>465</v>
       </c>
       <c r="G27" t="n">
-        <v>336</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28">
@@ -1954,7 +1954,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20032800216</v>
+        <v>20102800178</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1968,10 +1968,10 @@
         <v>0.44</v>
       </c>
       <c r="F28" t="n">
-        <v>822</v>
+        <v>433</v>
       </c>
       <c r="G28" t="n">
-        <v>822</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29">
@@ -1979,24 +1979,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20012800217</v>
+        <v>19832900179</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F29" t="n">
-        <v>690</v>
+        <v>361.3</v>
       </c>
       <c r="G29" t="n">
-        <v>690</v>
+        <v>361.3</v>
       </c>
     </row>
     <row r="30">
@@ -2004,7 +2004,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19982800218</v>
+        <v>20092800189</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2018,10 +2018,10 @@
         <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>123</v>
+        <v>716</v>
       </c>
       <c r="G30" t="n">
-        <v>123</v>
+        <v>716</v>
       </c>
     </row>
     <row r="31">
@@ -2029,24 +2029,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19922800219</v>
+        <v>20093000194</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F31" t="n">
-        <v>1127.4</v>
+        <v>83.8</v>
       </c>
       <c r="G31" t="n">
-        <v>1127.4</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="32">
@@ -2054,24 +2054,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19912800220</v>
+        <v>20063000195</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F32" t="n">
-        <v>889</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
-        <v>889</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -2079,24 +2079,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19902800221</v>
+        <v>20023000196</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F33" t="n">
-        <v>561.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>561.7</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -2104,24 +2104,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19892800222</v>
+        <v>19963000197</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F34" t="n">
-        <v>332.7</v>
+        <v>212</v>
       </c>
       <c r="G34" t="n">
-        <v>332.7</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
@@ -2129,24 +2129,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20180300241</v>
+        <v>19953000198</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F35" t="n">
-        <v>140.5</v>
+        <v>97.3</v>
       </c>
       <c r="G35" t="n">
-        <v>140.5</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="36">
@@ -2154,24 +2154,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20140300242</v>
+        <v>19933000199</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F36" t="n">
-        <v>1117.5</v>
+        <v>87.8</v>
       </c>
       <c r="G36" t="n">
-        <v>1117.5</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="37">
@@ -2179,24 +2179,24 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20130300243</v>
+        <v>20082800200</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F37" t="n">
-        <v>296.3</v>
+        <v>250</v>
       </c>
       <c r="G37" t="n">
-        <v>296.3</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
@@ -2204,24 +2204,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20110300244</v>
+        <v>19923000201</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F38" t="n">
-        <v>2110.5</v>
+        <v>190.4</v>
       </c>
       <c r="G38" t="n">
-        <v>2110.5</v>
+        <v>190.4</v>
       </c>
     </row>
     <row r="39">
@@ -2229,24 +2229,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20100300245</v>
+        <v>20072800211</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F39" t="n">
-        <v>3470</v>
+        <v>1572</v>
       </c>
       <c r="G39" t="n">
-        <v>3470</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="40">
@@ -2254,24 +2254,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20090300246</v>
+        <v>20052800213</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F40" t="n">
-        <v>639</v>
+        <v>350</v>
       </c>
       <c r="G40" t="n">
-        <v>639</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
@@ -2279,24 +2279,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20080300247</v>
+        <v>20042800214</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F41" t="n">
-        <v>4269.5</v>
+        <v>336</v>
       </c>
       <c r="G41" t="n">
-        <v>4269.5</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
@@ -2304,24 +2304,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20070300249</v>
+        <v>20032800216</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F42" t="n">
-        <v>196</v>
+        <v>822</v>
       </c>
       <c r="G42" t="n">
-        <v>196</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43">
@@ -2329,24 +2329,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20060300250</v>
+        <v>20012800217</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F43" t="n">
-        <v>1569</v>
+        <v>690</v>
       </c>
       <c r="G43" t="n">
-        <v>1569</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44">
@@ -2354,24 +2354,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20050300251</v>
+        <v>19982800218</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F44" t="n">
-        <v>1517</v>
+        <v>123</v>
       </c>
       <c r="G44" t="n">
-        <v>1517</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -2379,24 +2379,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20171700278</v>
+        <v>19922800219</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F45" t="n">
-        <v>535.2</v>
+        <v>1127.4</v>
       </c>
       <c r="G45" t="n">
-        <v>535.2</v>
+        <v>1127.4</v>
       </c>
     </row>
     <row r="46">
@@ -2404,24 +2404,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20161700279</v>
+        <v>19912800220</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F46" t="n">
-        <v>167.451</v>
+        <v>889</v>
       </c>
       <c r="G46" t="n">
-        <v>167.451</v>
+        <v>889</v>
       </c>
     </row>
     <row r="47">
@@ -2429,24 +2429,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20151700280</v>
+        <v>19902800221</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F47" t="n">
-        <v>220.2</v>
+        <v>561.7</v>
       </c>
       <c r="G47" t="n">
-        <v>220.2</v>
+        <v>561.7</v>
       </c>
     </row>
     <row r="48">
@@ -2454,24 +2454,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20141700282</v>
+        <v>19892800222</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F48" t="n">
-        <v>574.3099999999999</v>
+        <v>332.7</v>
       </c>
       <c r="G48" t="n">
-        <v>574.3099999999999</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="49">
@@ -2479,24 +2479,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20121700283</v>
+        <v>19882800223</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F49" t="n">
-        <v>141.6</v>
+        <v>169.9</v>
       </c>
       <c r="G49" t="n">
-        <v>141.6</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="50">
@@ -2504,24 +2504,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20111700284</v>
+        <v>19872800224</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F50" t="n">
-        <v>454.24</v>
+        <v>762.5</v>
       </c>
       <c r="G50" t="n">
-        <v>454.24</v>
+        <v>762.5</v>
       </c>
     </row>
     <row r="51">
@@ -2529,24 +2529,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20101700285</v>
+        <v>19862800225</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F51" t="n">
-        <v>275.78</v>
+        <v>713.5</v>
       </c>
       <c r="G51" t="n">
-        <v>275.78</v>
+        <v>713.5</v>
       </c>
     </row>
     <row r="52">
@@ -2554,24 +2554,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20051700286</v>
+        <v>19852800227</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F52" t="n">
-        <v>158</v>
+        <v>1157</v>
       </c>
       <c r="G52" t="n">
-        <v>158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="53">
@@ -2579,24 +2579,774 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>19832800228</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F53" t="n">
+        <v>380</v>
+      </c>
+      <c r="G53" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>19822800229</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F54" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20180300241</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F55" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20140300242</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1117.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1117.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20130300243</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F57" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>296.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20110300244</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2110.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2110.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20100300245</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3470</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20090300246</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F60" t="n">
+        <v>639</v>
+      </c>
+      <c r="G60" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20080300247</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4269.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4269.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20070300249</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F62" t="n">
+        <v>196</v>
+      </c>
+      <c r="G62" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20060300250</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20050300251</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1517</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20030300252</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1207.759</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1207.759</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20020300253</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1375.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20010300254</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F67" t="n">
+        <v>245.46</v>
+      </c>
+      <c r="G67" t="n">
+        <v>245.46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>19990300255</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F68" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19980300256</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1239.2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1239.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>19970300257</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F70" t="n">
+        <v>778.6</v>
+      </c>
+      <c r="G70" t="n">
+        <v>778.6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20171700278</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F71" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>535.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20161700279</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F72" t="n">
+        <v>167.451</v>
+      </c>
+      <c r="G72" t="n">
+        <v>167.451</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20151700280</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F73" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20141700282</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F74" t="n">
+        <v>574.3099999999999</v>
+      </c>
+      <c r="G74" t="n">
+        <v>574.3099999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20121700283</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F75" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="G75" t="n">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20111700284</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F76" t="n">
+        <v>454.24</v>
+      </c>
+      <c r="G76" t="n">
+        <v>454.24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20101700285</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F77" t="n">
+        <v>275.78</v>
+      </c>
+      <c r="G77" t="n">
+        <v>275.78</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20051700286</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F78" t="n">
+        <v>158</v>
+      </c>
+      <c r="G78" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>20041700287</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D79" t="n">
         <v>4.5</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E79" t="n">
         <v>0.43</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F79" t="n">
         <v>746.015</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G79" t="n">
         <v>746.015</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20031700288</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F80" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="G80" t="n">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20021700289</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F81" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="G81" t="n">
+        <v>126.7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20011700290</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F82" t="n">
+        <v>110.55</v>
+      </c>
+      <c r="G82" t="n">
+        <v>110.55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20001700291</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F83" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>124.5</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +3397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2702,12 +3452,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991000001</v>
+        <v>20181200048</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>105.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>RunOfRiver</t>
@@ -2739,15 +3491,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992100002</v>
+        <v>20071200049</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>691.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2776,17 +3530,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99992400003</v>
+        <v>20021200050</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1052</v>
       </c>
       <c r="D4" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2815,17 +3569,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99992300007</v>
+        <v>20011200051</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="D5" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2854,10 +3608,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20181200048</v>
+        <v>19901200052</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3</v>
+        <v>117.4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2893,10 +3647,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20071200049</v>
+        <v>19871200053</v>
       </c>
       <c r="C7" t="n">
-        <v>691.6</v>
+        <v>189.8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2932,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20021200050</v>
+        <v>19821200054</v>
       </c>
       <c r="C8" t="n">
-        <v>1052</v>
+        <v>91.80000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2971,10 +3725,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20011200051</v>
+        <v>19811200055</v>
       </c>
       <c r="C9" t="n">
-        <v>138</v>
+        <v>60.3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3010,10 +3764,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19901200052</v>
+        <v>19801200057</v>
       </c>
       <c r="C10" t="n">
-        <v>117.4</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3049,10 +3803,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19871200053</v>
+        <v>19771200058</v>
       </c>
       <c r="C11" t="n">
-        <v>189.8</v>
+        <v>1057.4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3088,10 +3842,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19821200054</v>
+        <v>19761200059</v>
       </c>
       <c r="C12" t="n">
-        <v>91.80000000000001</v>
+        <v>179.4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3127,10 +3881,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19811200055</v>
+        <v>19731200060</v>
       </c>
       <c r="C13" t="n">
-        <v>60.3</v>
+        <v>926.7</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3166,10 +3920,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19801200057</v>
+        <v>19721200061</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4063,17 +4817,17 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20192300124</v>
+        <v>19982400116</v>
       </c>
       <c r="C37" t="n">
-        <v>1130.5</v>
+        <v>853.3870000000011</v>
       </c>
       <c r="D37" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4102,17 +4856,17 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20182300125</v>
+        <v>19972400117</v>
       </c>
       <c r="C38" t="n">
-        <v>952</v>
+        <v>564.2280000000012</v>
       </c>
       <c r="D38" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4141,17 +4895,17 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20172300126</v>
+        <v>19962400118</v>
       </c>
       <c r="C39" t="n">
-        <v>1455</v>
+        <v>251.9353999999998</v>
       </c>
       <c r="D39" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4180,17 +4934,17 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20162300127</v>
+        <v>19952400119</v>
       </c>
       <c r="C40" t="n">
-        <v>735</v>
+        <v>170.8699999999997</v>
       </c>
       <c r="D40" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4219,17 +4973,17 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20152300128</v>
+        <v>19942400120</v>
       </c>
       <c r="C41" t="n">
-        <v>1622</v>
+        <v>157.8950399999997</v>
       </c>
       <c r="D41" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4258,17 +5012,17 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20142300129</v>
+        <v>19932400121</v>
       </c>
       <c r="C42" t="n">
-        <v>726</v>
+        <v>172.6729999999995</v>
       </c>
       <c r="D42" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4297,17 +5051,17 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20132300130</v>
+        <v>19922400123</v>
       </c>
       <c r="C43" t="n">
-        <v>2502</v>
+        <v>133.46792</v>
       </c>
       <c r="D43" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4336,10 +5090,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20122300131</v>
+        <v>20192300124</v>
       </c>
       <c r="C44" t="n">
-        <v>401</v>
+        <v>1130.5</v>
       </c>
       <c r="D44" t="n">
         <v>2.7</v>
@@ -4375,10 +5129,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20112300132</v>
+        <v>20182300125</v>
       </c>
       <c r="C45" t="n">
-        <v>400</v>
+        <v>952</v>
       </c>
       <c r="D45" t="n">
         <v>2.7</v>
@@ -4414,10 +5168,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20082300135</v>
+        <v>20172300126</v>
       </c>
       <c r="C46" t="n">
-        <v>108.3</v>
+        <v>1455</v>
       </c>
       <c r="D46" t="n">
         <v>2.7</v>
@@ -4453,10 +5207,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20062300136</v>
+        <v>20162300127</v>
       </c>
       <c r="C47" t="n">
-        <v>240</v>
+        <v>735</v>
       </c>
       <c r="D47" t="n">
         <v>2.7</v>
@@ -4492,15 +5246,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20202100137</v>
+        <v>20152300128</v>
       </c>
       <c r="C48" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>1622</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4529,17 +5285,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20222400346</v>
+        <v>20142300129</v>
       </c>
       <c r="C49" t="n">
-        <v>1000</v>
+        <v>726</v>
       </c>
       <c r="D49" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4568,17 +5324,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20222400357</v>
+        <v>20132300130</v>
       </c>
       <c r="C50" t="n">
-        <v>1000</v>
+        <v>2502</v>
       </c>
       <c r="D50" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4607,17 +5363,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20222400369</v>
+        <v>20122300131</v>
       </c>
       <c r="C51" t="n">
-        <v>1000</v>
+        <v>401</v>
       </c>
       <c r="D51" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4646,17 +5402,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20222400382</v>
+        <v>20112300132</v>
       </c>
       <c r="C52" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="D52" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4685,17 +5441,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20222400396</v>
+        <v>20082300135</v>
       </c>
       <c r="C53" t="n">
-        <v>1000</v>
+        <v>108.3</v>
       </c>
       <c r="D53" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4724,17 +5480,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20222400411</v>
+        <v>20062300136</v>
       </c>
       <c r="C54" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="D54" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4763,17 +5519,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20222400427</v>
+        <v>20202100137</v>
       </c>
       <c r="C55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.35</v>
-      </c>
+        <v>251.8</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4802,17 +5556,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20222400444</v>
+        <v>20192100138</v>
       </c>
       <c r="C56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1.35</v>
-      </c>
+        <v>195.4</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4841,17 +5593,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20222400462</v>
+        <v>20182100139</v>
       </c>
       <c r="C57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.35</v>
-      </c>
+        <v>414.723</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4880,17 +5630,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20222400481</v>
+        <v>20172100140</v>
       </c>
       <c r="C58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.35</v>
-      </c>
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4919,10 +5667,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20192100138</v>
+        <v>20162100141</v>
       </c>
       <c r="C59" t="n">
-        <v>195.4</v>
+        <v>6222.270852000401</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -4956,10 +5704,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20182100139</v>
+        <v>20152100142</v>
       </c>
       <c r="C60" t="n">
-        <v>414.723</v>
+        <v>1688.32281700176</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -4993,10 +5741,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20172100140</v>
+        <v>20142100143</v>
       </c>
       <c r="C61" t="n">
-        <v>3311.82512350009</v>
+        <v>1467.604103002783</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -5030,10 +5778,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20162100141</v>
+        <v>20132100144</v>
       </c>
       <c r="C62" t="n">
-        <v>6222.270852000401</v>
+        <v>1387.194197003628</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -5067,10 +5815,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20152100142</v>
+        <v>20122100146</v>
       </c>
       <c r="C63" t="n">
-        <v>1688.32281700176</v>
+        <v>1732.597611001665</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -5104,10 +5852,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20142100143</v>
+        <v>20112100147</v>
       </c>
       <c r="C64" t="n">
-        <v>1467.604103002783</v>
+        <v>3084.73933250188</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -5141,10 +5889,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20132100144</v>
+        <v>20102100148</v>
       </c>
       <c r="C65" t="n">
-        <v>1387.194197003628</v>
+        <v>6784.098386973769</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -5178,10 +5926,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20122100146</v>
+        <v>20092100149</v>
       </c>
       <c r="C66" t="n">
-        <v>1732.597611001665</v>
+        <v>9295.344562513454</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -5215,10 +5963,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20112100147</v>
+        <v>20082100150</v>
       </c>
       <c r="C67" t="n">
-        <v>3084.73933250188</v>
+        <v>7475.485288501332</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -5252,10 +6000,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20102100148</v>
+        <v>20072100151</v>
       </c>
       <c r="C68" t="n">
-        <v>6784.098386973769</v>
+        <v>4341.280789791133</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
@@ -5289,10 +6037,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20092100149</v>
+        <v>20062100152</v>
       </c>
       <c r="C69" t="n">
-        <v>9295.344562513454</v>
+        <v>1924.091949500588</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -5326,10 +6074,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20082100150</v>
+        <v>20052100153</v>
       </c>
       <c r="C70" t="n">
-        <v>7475.485288501332</v>
+        <v>1221.046400499492</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -5363,10 +6111,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20072100151</v>
+        <v>20042100154</v>
       </c>
       <c r="C71" t="n">
-        <v>4341.280789791133</v>
+        <v>829.7290730002117</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
@@ -5400,10 +6148,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20062100152</v>
+        <v>20032100155</v>
       </c>
       <c r="C72" t="n">
-        <v>1924.091949500588</v>
+        <v>907.4490049999474</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -5437,10 +6185,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20052100153</v>
+        <v>20022100157</v>
       </c>
       <c r="C73" t="n">
-        <v>1221.046400499492</v>
+        <v>633.0435090000258</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -5474,10 +6222,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20042100154</v>
+        <v>20012100158</v>
       </c>
       <c r="C74" t="n">
-        <v>829.7290730002117</v>
+        <v>122.1209029997136</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -5511,10 +6259,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20032100155</v>
+        <v>20002100159</v>
       </c>
       <c r="C75" t="n">
-        <v>907.4490049999474</v>
+        <v>93.42517899995289</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -5548,10 +6296,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20022100157</v>
+        <v>19992100160</v>
       </c>
       <c r="C76" t="n">
-        <v>633.0435090000258</v>
+        <v>171.9239930052555</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
@@ -5575,117 +6323,6 @@
         </is>
       </c>
       <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>20012100158</v>
-      </c>
-      <c r="C77" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>20002100159</v>
-      </c>
-      <c r="C78" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>19992100160</v>
-      </c>
-      <c r="C79" t="n">
-        <v>171.9239930052555</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5702,7 +6339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5745,34 +6382,6 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99992600009</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>STORAGE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5804,7 +6413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5859,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>20140100021</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1125.6</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -5898,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20140100021</v>
+        <v>20130100022</v>
       </c>
       <c r="C3" t="n">
-        <v>1125.6</v>
+        <v>731</v>
       </c>
       <c r="D3" t="n">
         <v>1.9</v>
@@ -5937,10 +6546,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20130100022</v>
+        <v>20020100023</v>
       </c>
       <c r="C4" t="n">
-        <v>731</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
         <v>1.9</v>
@@ -5976,10 +6585,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20120100133</v>
+        <v>20010100034</v>
       </c>
       <c r="C5" t="n">
-        <v>89.8</v>
+        <v>169.3934</v>
       </c>
       <c r="D5" t="n">
         <v>1.9</v>
@@ -6015,10 +6624,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20240100291</v>
+        <v>20000100045</v>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>81.2</v>
       </c>
       <c r="D6" t="n">
         <v>1.9</v>
@@ -6054,10 +6663,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20240100292</v>
+        <v>19980100056</v>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>90.80000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>1.9</v>
@@ -6093,10 +6702,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20240100294</v>
+        <v>19970100067</v>
       </c>
       <c r="C8" t="n">
-        <v>1000</v>
+        <v>95.8</v>
       </c>
       <c r="D8" t="n">
         <v>1.9</v>
@@ -6132,10 +6741,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20240100297</v>
+        <v>20120100133</v>
       </c>
       <c r="C9" t="n">
-        <v>1000</v>
+        <v>89.8</v>
       </c>
       <c r="D9" t="n">
         <v>1.9</v>
@@ -6171,10 +6780,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20240100301</v>
+        <v>20100100215</v>
       </c>
       <c r="C10" t="n">
-        <v>1000</v>
+        <v>89.05</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -6210,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20240100306</v>
+        <v>20080100226</v>
       </c>
       <c r="C11" t="n">
-        <v>1000</v>
+        <v>127.8</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -6249,10 +6858,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20240100312</v>
+        <v>20070100237</v>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>217.8</v>
       </c>
       <c r="D12" t="n">
         <v>1.9</v>
@@ -6288,10 +6897,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20240100319</v>
+        <v>20060100248</v>
       </c>
       <c r="C13" t="n">
-        <v>1000</v>
+        <v>91.5</v>
       </c>
       <c r="D13" t="n">
         <v>1.9</v>
@@ -6327,10 +6936,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20240100327</v>
+        <v>20050100259</v>
       </c>
       <c r="C14" t="n">
-        <v>1000</v>
+        <v>66.78</v>
       </c>
       <c r="D14" t="n">
         <v>1.9</v>
@@ -6366,10 +6975,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20240100336</v>
+        <v>20040100270</v>
       </c>
       <c r="C15" t="n">
-        <v>1000</v>
+        <v>166.92</v>
       </c>
       <c r="D15" t="n">
         <v>1.9</v>
@@ -6405,10 +7014,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20100100215</v>
+        <v>20030100281</v>
       </c>
       <c r="C16" t="n">
-        <v>89.05</v>
+        <v>206.65</v>
       </c>
       <c r="D16" t="n">
         <v>1.9</v>
@@ -6434,201 +7043,6 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20080100226</v>
-      </c>
-      <c r="C17" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20070100237</v>
-      </c>
-      <c r="C18" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20060100248</v>
-      </c>
-      <c r="C19" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20050100259</v>
-      </c>
-      <c r="C20" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20040100270</v>
-      </c>
-      <c r="C21" t="n">
-        <v>166.92</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>44196.99861111111</v>
+        <v>44561.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44560.99861111111</v>
+        <v>44925.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,6 +1164,9 @@
       <c r="C1" s="6" t="n">
         <v>2021</v>
       </c>
+      <c r="D1" s="6" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1172,9 +1175,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.38</v>
+        <v>28.36</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1183,9 +1187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.69</v>
+        <v>1.72005544141844</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1194,9 +1199,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.96</v>
+        <v>3.992378573732889</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1205,9 +1211,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.504</v>
+        <v>10.22465034587424</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1216,9 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.468</v>
+        <v>19.7241289622243</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1227,9 +1235,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.114</v>
+        <v>47.52482993942063</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1243,6 +1252,11 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1259,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,24 +1368,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19871400086</v>
+        <v>19961700026</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F4" t="n">
-        <v>1795</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1795</v>
+        <v>53.09999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1379,24 +1393,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19861400087</v>
+        <v>19951700027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F5" t="n">
-        <v>2746</v>
+        <v>183.72</v>
       </c>
       <c r="G5" t="n">
-        <v>2746</v>
+        <v>183.72</v>
       </c>
     </row>
     <row r="6">
@@ -1404,24 +1418,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19841400088</v>
+        <v>19941700028</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F6" t="n">
-        <v>1410</v>
+        <v>352.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1410</v>
+        <v>352.5</v>
       </c>
     </row>
     <row r="7">
@@ -1429,24 +1443,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19831400090</v>
+        <v>19931700029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F7" t="n">
-        <v>1360</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>1360</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1454,24 +1468,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19821400091</v>
+        <v>19921700030</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F8" t="n">
-        <v>1288</v>
+        <v>261.1</v>
       </c>
       <c r="G8" t="n">
-        <v>1288</v>
+        <v>261.1</v>
       </c>
     </row>
     <row r="9">
@@ -1479,24 +1493,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20132800145</v>
+        <v>19911700031</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F9" t="n">
-        <v>4734</v>
+        <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>4734</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
@@ -1504,24 +1518,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20122800156</v>
+        <v>19901700032</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F10" t="n">
-        <v>1597.7</v>
+        <v>97.07900000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>1597.7</v>
+        <v>97.07900000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1529,24 +1543,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20102900161</v>
+        <v>19871700033</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F11" t="n">
-        <v>2780.3</v>
+        <v>120.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2780.3</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="12">
@@ -1554,24 +1568,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20082900162</v>
+        <v>19861700035</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F12" t="n">
-        <v>94.8</v>
+        <v>60.491</v>
       </c>
       <c r="G12" t="n">
-        <v>94.8</v>
+        <v>60.491</v>
       </c>
     </row>
     <row r="13">
@@ -1579,24 +1593,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20072900163</v>
+        <v>19851700036</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F13" t="n">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="G13" t="n">
-        <v>648</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14">
@@ -1604,24 +1618,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20062900164</v>
+        <v>19821700037</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F14" t="n">
-        <v>628</v>
+        <v>156.5</v>
       </c>
       <c r="G14" t="n">
-        <v>628</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="15">
@@ -1629,24 +1643,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20002900165</v>
+        <v>19771700038</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F15" t="n">
-        <v>967.22</v>
+        <v>100.78</v>
       </c>
       <c r="G15" t="n">
-        <v>967.22</v>
+        <v>100.78</v>
       </c>
     </row>
     <row r="16">
@@ -1654,24 +1668,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19982900166</v>
+        <v>19751700039</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F16" t="n">
-        <v>1732</v>
+        <v>619.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1732</v>
+        <v>619.4</v>
       </c>
     </row>
     <row r="17">
@@ -1679,24 +1693,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20112800167</v>
+        <v>19731700040</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F17" t="n">
-        <v>1909</v>
+        <v>639.7</v>
       </c>
       <c r="G17" t="n">
-        <v>1909</v>
+        <v>639.7</v>
       </c>
     </row>
     <row r="18">
@@ -1704,24 +1718,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19972900168</v>
+        <v>19721700041</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F18" t="n">
-        <v>949</v>
+        <v>77.7</v>
       </c>
       <c r="G18" t="n">
-        <v>949</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="19">
@@ -1729,24 +1743,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19962900169</v>
+        <v>19711700042</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F19" t="n">
-        <v>750</v>
+        <v>183</v>
       </c>
       <c r="G19" t="n">
-        <v>750</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -1754,24 +1768,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19952900170</v>
+        <v>19691700043</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F20" t="n">
-        <v>750</v>
+        <v>173.2865</v>
       </c>
       <c r="G20" t="n">
-        <v>750</v>
+        <v>173.2865</v>
       </c>
     </row>
     <row r="21">
@@ -1779,24 +1793,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19942900171</v>
+        <v>19591700044</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F21" t="n">
-        <v>2780</v>
+        <v>149</v>
       </c>
       <c r="G21" t="n">
-        <v>2780</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -1804,24 +1818,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19922900172</v>
+        <v>19521700046</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F22" t="n">
-        <v>496</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>496</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1829,24 +1843,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19912900173</v>
+        <v>19461700047</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F23" t="n">
-        <v>488.3</v>
+        <v>135.5</v>
       </c>
       <c r="G23" t="n">
-        <v>488.3</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="24">
@@ -1854,24 +1868,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19882900174</v>
+        <v>19871400086</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F24" t="n">
-        <v>652.8</v>
+        <v>1795</v>
       </c>
       <c r="G24" t="n">
-        <v>652.8</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="25">
@@ -1879,24 +1893,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19872900175</v>
+        <v>19861400087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F25" t="n">
-        <v>498.5</v>
+        <v>2746</v>
       </c>
       <c r="G25" t="n">
-        <v>498.5</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="26">
@@ -1904,24 +1918,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19862900176</v>
+        <v>19841400088</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F26" t="n">
-        <v>232.8</v>
+        <v>1410</v>
       </c>
       <c r="G26" t="n">
-        <v>232.8</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27">
@@ -1929,24 +1943,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19852900177</v>
+        <v>19831400090</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F27" t="n">
-        <v>465</v>
+        <v>1360</v>
       </c>
       <c r="G27" t="n">
-        <v>465</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="28">
@@ -1954,24 +1968,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20102800178</v>
+        <v>19821400091</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F28" t="n">
-        <v>433</v>
+        <v>1288</v>
       </c>
       <c r="G28" t="n">
-        <v>433</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="29">
@@ -1979,24 +1993,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19832900179</v>
+        <v>20132800145</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F29" t="n">
-        <v>361.3</v>
+        <v>4734</v>
       </c>
       <c r="G29" t="n">
-        <v>361.3</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="30">
@@ -2004,7 +2018,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20092800189</v>
+        <v>20122800156</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2018,10 +2032,10 @@
         <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>716</v>
+        <v>1597.7</v>
       </c>
       <c r="G30" t="n">
-        <v>716</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="31">
@@ -2029,24 +2043,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20093000194</v>
+        <v>20102900161</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F31" t="n">
-        <v>83.8</v>
+        <v>2780.3</v>
       </c>
       <c r="G31" t="n">
-        <v>83.8</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="32">
@@ -2054,24 +2068,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20063000195</v>
+        <v>20082900162</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>94.8</v>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="33">
@@ -2079,24 +2093,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20023000196</v>
+        <v>20072900163</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F33" t="n">
-        <v>97.09999999999999</v>
+        <v>648</v>
       </c>
       <c r="G33" t="n">
-        <v>97.09999999999999</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34">
@@ -2104,24 +2118,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19963000197</v>
+        <v>20062900164</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F34" t="n">
-        <v>212</v>
+        <v>628</v>
       </c>
       <c r="G34" t="n">
-        <v>212</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35">
@@ -2129,24 +2143,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19953000198</v>
+        <v>20002900165</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F35" t="n">
-        <v>97.3</v>
+        <v>967.22</v>
       </c>
       <c r="G35" t="n">
-        <v>97.3</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="36">
@@ -2154,24 +2168,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19933000199</v>
+        <v>19982900166</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F36" t="n">
-        <v>87.8</v>
+        <v>1732</v>
       </c>
       <c r="G36" t="n">
-        <v>87.8</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="37">
@@ -2179,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20082800200</v>
+        <v>20112800167</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2193,10 +2207,10 @@
         <v>0.44</v>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>1909</v>
       </c>
       <c r="G37" t="n">
-        <v>250</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="38">
@@ -2204,24 +2218,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19923000201</v>
+        <v>19972900168</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="F38" t="n">
-        <v>190.4</v>
+        <v>949</v>
       </c>
       <c r="G38" t="n">
-        <v>190.4</v>
+        <v>949</v>
       </c>
     </row>
     <row r="39">
@@ -2229,24 +2243,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20072800211</v>
+        <v>19962900169</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F39" t="n">
-        <v>1572</v>
+        <v>750</v>
       </c>
       <c r="G39" t="n">
-        <v>1572</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40">
@@ -2254,24 +2268,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20052800213</v>
+        <v>19952900170</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F40" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="G40" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41">
@@ -2279,24 +2293,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20042800214</v>
+        <v>19942900171</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F41" t="n">
-        <v>336</v>
+        <v>2780</v>
       </c>
       <c r="G41" t="n">
-        <v>336</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="42">
@@ -2304,24 +2318,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20032800216</v>
+        <v>19922900172</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F42" t="n">
-        <v>822</v>
+        <v>496</v>
       </c>
       <c r="G42" t="n">
-        <v>822</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43">
@@ -2329,24 +2343,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20012800217</v>
+        <v>19912900173</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F43" t="n">
-        <v>690</v>
+        <v>488.3</v>
       </c>
       <c r="G43" t="n">
-        <v>690</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="44">
@@ -2354,24 +2368,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19982800218</v>
+        <v>19882900174</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F44" t="n">
-        <v>123</v>
+        <v>652.8</v>
       </c>
       <c r="G44" t="n">
-        <v>123</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="45">
@@ -2379,24 +2393,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19922800219</v>
+        <v>19872900175</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F45" t="n">
-        <v>1127.4</v>
+        <v>498.5</v>
       </c>
       <c r="G45" t="n">
-        <v>1127.4</v>
+        <v>498.5</v>
       </c>
     </row>
     <row r="46">
@@ -2404,24 +2418,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19912800220</v>
+        <v>19862900176</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F46" t="n">
-        <v>889</v>
+        <v>232.8</v>
       </c>
       <c r="G46" t="n">
-        <v>889</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="47">
@@ -2429,24 +2443,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19902800221</v>
+        <v>19852900177</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F47" t="n">
-        <v>561.7</v>
+        <v>465</v>
       </c>
       <c r="G47" t="n">
-        <v>561.7</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48">
@@ -2454,7 +2468,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19892800222</v>
+        <v>20102800178</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2468,10 +2482,10 @@
         <v>0.44</v>
       </c>
       <c r="F48" t="n">
-        <v>332.7</v>
+        <v>433</v>
       </c>
       <c r="G48" t="n">
-        <v>332.7</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49">
@@ -2479,24 +2493,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19882800223</v>
+        <v>19832900179</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F49" t="n">
-        <v>169.9</v>
+        <v>361.3</v>
       </c>
       <c r="G49" t="n">
-        <v>169.9</v>
+        <v>361.3</v>
       </c>
     </row>
     <row r="50">
@@ -2504,24 +2518,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19872800224</v>
+        <v>19772900180</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F50" t="n">
-        <v>762.5</v>
+        <v>59.5</v>
       </c>
       <c r="G50" t="n">
-        <v>762.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="51">
@@ -2529,24 +2543,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19862800225</v>
+        <v>19742900181</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F51" t="n">
-        <v>713.5</v>
+        <v>604</v>
       </c>
       <c r="G51" t="n">
-        <v>713.5</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52">
@@ -2554,24 +2568,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19852800227</v>
+        <v>19732900182</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F52" t="n">
-        <v>1157</v>
+        <v>1263</v>
       </c>
       <c r="G52" t="n">
-        <v>1157</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="53">
@@ -2579,24 +2593,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19832800228</v>
+        <v>19722900183</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F53" t="n">
-        <v>380</v>
+        <v>663</v>
       </c>
       <c r="G53" t="n">
-        <v>380</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54">
@@ -2604,24 +2618,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19822800229</v>
+        <v>19712900184</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F54" t="n">
-        <v>88.3</v>
+        <v>292</v>
       </c>
       <c r="G54" t="n">
-        <v>88.3</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55">
@@ -2629,24 +2643,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20180300241</v>
+        <v>19702900185</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F55" t="n">
-        <v>140.5</v>
+        <v>588</v>
       </c>
       <c r="G55" t="n">
-        <v>140.5</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56">
@@ -2654,24 +2668,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20140300242</v>
+        <v>19692900186</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F56" t="n">
-        <v>1117.5</v>
+        <v>299</v>
       </c>
       <c r="G56" t="n">
-        <v>1117.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57">
@@ -2679,24 +2693,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20130300243</v>
+        <v>19682900187</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F57" t="n">
-        <v>296.3</v>
+        <v>295</v>
       </c>
       <c r="G57" t="n">
-        <v>296.3</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58">
@@ -2704,24 +2718,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20110300244</v>
+        <v>19662900188</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F58" t="n">
-        <v>2110.5</v>
+        <v>297</v>
       </c>
       <c r="G58" t="n">
-        <v>2110.5</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59">
@@ -2729,24 +2743,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20100300245</v>
+        <v>20092800189</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F59" t="n">
-        <v>3470</v>
+        <v>716</v>
       </c>
       <c r="G59" t="n">
-        <v>3470</v>
+        <v>716</v>
       </c>
     </row>
     <row r="60">
@@ -2754,24 +2768,24 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20090300246</v>
+        <v>19652900190</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F60" t="n">
-        <v>639</v>
+        <v>321</v>
       </c>
       <c r="G60" t="n">
-        <v>639</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61">
@@ -2779,24 +2793,24 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20080300247</v>
+        <v>19632900191</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F61" t="n">
-        <v>4269.5</v>
+        <v>643.5</v>
       </c>
       <c r="G61" t="n">
-        <v>4269.5</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="62">
@@ -2804,24 +2818,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20070300249</v>
+        <v>19342900192</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F62" t="n">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="G62" t="n">
-        <v>196</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -2829,24 +2843,24 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20060300250</v>
+        <v>19152900193</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F63" t="n">
-        <v>1569</v>
+        <v>98</v>
       </c>
       <c r="G63" t="n">
-        <v>1569</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
@@ -2854,24 +2868,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20050300251</v>
+        <v>20093000194</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F64" t="n">
-        <v>1517</v>
+        <v>83.8</v>
       </c>
       <c r="G64" t="n">
-        <v>1517</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="65">
@@ -2879,24 +2893,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20030300252</v>
+        <v>20063000195</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F65" t="n">
-        <v>1207.759</v>
+        <v>60</v>
       </c>
       <c r="G65" t="n">
-        <v>1207.759</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
@@ -2904,24 +2918,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20020300253</v>
+        <v>20023000196</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F66" t="n">
-        <v>1375.4</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>1375.4</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -2929,24 +2943,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20010300254</v>
+        <v>19963000197</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F67" t="n">
-        <v>245.46</v>
+        <v>212</v>
       </c>
       <c r="G67" t="n">
-        <v>245.46</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
@@ -2954,24 +2968,24 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19990300255</v>
+        <v>19953000198</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F68" t="n">
-        <v>135.8</v>
+        <v>97.3</v>
       </c>
       <c r="G68" t="n">
-        <v>135.8</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="69">
@@ -2979,24 +2993,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19980300256</v>
+        <v>19933000199</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F69" t="n">
-        <v>1239.2</v>
+        <v>87.8</v>
       </c>
       <c r="G69" t="n">
-        <v>1239.2</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="70">
@@ -3004,24 +3018,24 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19970300257</v>
+        <v>20082800200</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F70" t="n">
-        <v>778.6</v>
+        <v>250</v>
       </c>
       <c r="G70" t="n">
-        <v>778.6</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71">
@@ -3029,24 +3043,24 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20171700278</v>
+        <v>19923000201</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F71" t="n">
-        <v>535.2</v>
+        <v>190.4</v>
       </c>
       <c r="G71" t="n">
-        <v>535.2</v>
+        <v>190.4</v>
       </c>
     </row>
     <row r="72">
@@ -3054,24 +3068,24 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20161700279</v>
+        <v>19803000202</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F72" t="n">
-        <v>167.451</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>167.451</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -3079,24 +3093,24 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20151700280</v>
+        <v>19793000203</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F73" t="n">
-        <v>220.2</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
-        <v>220.2</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
@@ -3104,24 +3118,24 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20141700282</v>
+        <v>19753000204</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F74" t="n">
-        <v>574.3099999999999</v>
+        <v>205.9</v>
       </c>
       <c r="G74" t="n">
-        <v>574.3099999999999</v>
+        <v>205.9</v>
       </c>
     </row>
     <row r="75">
@@ -3129,24 +3143,24 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20121700283</v>
+        <v>19743000205</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F75" t="n">
-        <v>141.6</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>141.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -3154,24 +3168,24 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20111700284</v>
+        <v>19733000206</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F76" t="n">
-        <v>454.24</v>
+        <v>434.5</v>
       </c>
       <c r="G76" t="n">
-        <v>454.24</v>
+        <v>434.5</v>
       </c>
     </row>
     <row r="77">
@@ -3179,24 +3193,24 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20101700285</v>
+        <v>19723000207</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F77" t="n">
-        <v>275.78</v>
+        <v>870.9</v>
       </c>
       <c r="G77" t="n">
-        <v>275.78</v>
+        <v>870.9</v>
       </c>
     </row>
     <row r="78">
@@ -3204,24 +3218,24 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20051700286</v>
+        <v>19713000208</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F78" t="n">
-        <v>158</v>
+        <v>529</v>
       </c>
       <c r="G78" t="n">
-        <v>158</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79">
@@ -3229,24 +3243,24 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20041700287</v>
+        <v>19703000209</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F79" t="n">
-        <v>746.015</v>
+        <v>303.2</v>
       </c>
       <c r="G79" t="n">
-        <v>746.015</v>
+        <v>303.2</v>
       </c>
     </row>
     <row r="80">
@@ -3254,24 +3268,24 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20031700288</v>
+        <v>19693000210</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F80" t="n">
-        <v>163.9</v>
+        <v>111.4</v>
       </c>
       <c r="G80" t="n">
-        <v>163.9</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="81">
@@ -3279,24 +3293,24 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20021700289</v>
+        <v>20072800211</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F81" t="n">
-        <v>126.7</v>
+        <v>1572</v>
       </c>
       <c r="G81" t="n">
-        <v>126.7</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="82">
@@ -3304,24 +3318,24 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20011700290</v>
+        <v>19603000212</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F82" t="n">
-        <v>110.55</v>
+        <v>90</v>
       </c>
       <c r="G82" t="n">
-        <v>110.55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
@@ -3329,23 +3343,1798 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>20052800213</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F83" t="n">
+        <v>350</v>
+      </c>
+      <c r="G83" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20042800214</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F84" t="n">
+        <v>336</v>
+      </c>
+      <c r="G84" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20032800216</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F85" t="n">
+        <v>822</v>
+      </c>
+      <c r="G85" t="n">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20012800217</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F86" t="n">
+        <v>690</v>
+      </c>
+      <c r="G86" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>19982800218</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F87" t="n">
+        <v>123</v>
+      </c>
+      <c r="G87" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19922800219</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1127.4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1127.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19912800220</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F89" t="n">
+        <v>889</v>
+      </c>
+      <c r="G89" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>19902800221</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F90" t="n">
+        <v>561.7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>561.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19892800222</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F91" t="n">
+        <v>332.7</v>
+      </c>
+      <c r="G91" t="n">
+        <v>332.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>19882800223</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F92" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>19872800224</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F93" t="n">
+        <v>762.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>762.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19862800225</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F94" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>713.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>19852800227</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1157</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>19832800228</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F96" t="n">
+        <v>380</v>
+      </c>
+      <c r="G96" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>19822800229</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F97" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19812800230</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F98" t="n">
+        <v>794.4</v>
+      </c>
+      <c r="G98" t="n">
+        <v>794.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19802800231</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F99" t="n">
+        <v>666.4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>666.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19792800232</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F100" t="n">
+        <v>717</v>
+      </c>
+      <c r="G100" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>19772800233</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F101" t="n">
+        <v>303</v>
+      </c>
+      <c r="G101" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>19742800234</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1412.6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>19692800235</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F103" t="n">
+        <v>190.35</v>
+      </c>
+      <c r="G103" t="n">
+        <v>190.35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>19672800236</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F104" t="n">
+        <v>345</v>
+      </c>
+      <c r="G104" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>19662800238</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F105" t="n">
+        <v>385</v>
+      </c>
+      <c r="G105" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>19602800239</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F106" t="n">
+        <v>129</v>
+      </c>
+      <c r="G106" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>19382800240</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F107" t="n">
+        <v>188.32</v>
+      </c>
+      <c r="G107" t="n">
+        <v>188.32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20180300241</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F108" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20140300242</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1117.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1117.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20130300243</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F110" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>296.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20110300244</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2110.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2110.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20100300245</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3470</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20090300246</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F113" t="n">
+        <v>639</v>
+      </c>
+      <c r="G113" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20080300247</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4269.5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4269.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20070300249</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F115" t="n">
+        <v>196</v>
+      </c>
+      <c r="G115" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20060300250</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20050300251</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1517</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20030300252</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1207.759</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1207.759</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20020300253</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1375.4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20010300254</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F120" t="n">
+        <v>245.46</v>
+      </c>
+      <c r="G120" t="n">
+        <v>245.46</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>19990300255</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F121" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>19980300256</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1239.2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1239.2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>19970300257</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F123" t="n">
+        <v>778.6</v>
+      </c>
+      <c r="G123" t="n">
+        <v>778.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>19960300258</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F124" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="G124" t="n">
+        <v>799.6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>19950300260</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>19940300261</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>19930300262</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F127" t="n">
+        <v>834</v>
+      </c>
+      <c r="G127" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>19920300263</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F128" t="n">
+        <v>519</v>
+      </c>
+      <c r="G128" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>19910300264</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F129" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>84.51000000000001</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>19880300265</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F130" t="n">
+        <v>225</v>
+      </c>
+      <c r="G130" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>19850300266</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F131" t="n">
+        <v>169</v>
+      </c>
+      <c r="G131" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>19830300267</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F132" t="n">
+        <v>103</v>
+      </c>
+      <c r="G132" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>19810300268</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>19790300269</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F134" t="n">
+        <v>125</v>
+      </c>
+      <c r="G134" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>19780300271</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F135" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>316.7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>19760300272</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F136" t="n">
+        <v>695</v>
+      </c>
+      <c r="G136" t="n">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>19740300273</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>19730300274</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F138" t="n">
+        <v>332</v>
+      </c>
+      <c r="G138" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>19720300275</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F139" t="n">
+        <v>475</v>
+      </c>
+      <c r="G139" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>19710300276</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1698</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>18990300277</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F141" t="n">
+        <v>137</v>
+      </c>
+      <c r="G141" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>20171700278</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F142" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>535.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>20161700279</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F143" t="n">
+        <v>167.451</v>
+      </c>
+      <c r="G143" t="n">
+        <v>167.451</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>20151700280</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F144" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>20141700282</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F145" t="n">
+        <v>574.3099999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>574.3099999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>20121700283</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F146" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="G146" t="n">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>20111700284</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F147" t="n">
+        <v>454.24</v>
+      </c>
+      <c r="G147" t="n">
+        <v>454.24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>20101700285</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F148" t="n">
+        <v>275.78</v>
+      </c>
+      <c r="G148" t="n">
+        <v>275.78</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20051700286</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F149" t="n">
+        <v>158</v>
+      </c>
+      <c r="G149" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>20041700287</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F150" t="n">
+        <v>746.015</v>
+      </c>
+      <c r="G150" t="n">
+        <v>746.015</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20031700288</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F151" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>20021700289</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F152" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="G152" t="n">
+        <v>126.7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>20011700290</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F153" t="n">
+        <v>110.55</v>
+      </c>
+      <c r="G153" t="n">
+        <v>110.55</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>20001700291</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D154" t="n">
         <v>4.5</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E154" t="n">
         <v>0.43</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F154" t="n">
         <v>124.5</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G154" t="n">
         <v>124.5</v>
       </c>
     </row>
@@ -3397,7 +5186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3959,17 +5748,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20202400092</v>
+        <v>19681200062</v>
       </c>
       <c r="C15" t="n">
-        <v>400</v>
+        <v>121.1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3998,17 +5787,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20192400093</v>
+        <v>19651200063</v>
       </c>
       <c r="C16" t="n">
-        <v>554.6</v>
+        <v>108.9</v>
       </c>
       <c r="D16" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4037,17 +5826,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20182400094</v>
+        <v>19641200064</v>
       </c>
       <c r="C17" t="n">
-        <v>577</v>
+        <v>441.7</v>
       </c>
       <c r="D17" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4076,17 +5865,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20172400095</v>
+        <v>19631200065</v>
       </c>
       <c r="C18" t="n">
-        <v>888.5916000000008</v>
+        <v>465.7</v>
       </c>
       <c r="D18" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4115,17 +5904,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20162400096</v>
+        <v>19621200066</v>
       </c>
       <c r="C19" t="n">
-        <v>4593.90489999998</v>
+        <v>340</v>
       </c>
       <c r="D19" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4154,17 +5943,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20152400097</v>
+        <v>19601200068</v>
       </c>
       <c r="C20" t="n">
-        <v>5251.351200000026</v>
+        <v>62.8</v>
       </c>
       <c r="D20" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4193,17 +5982,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20142400098</v>
+        <v>19581200069</v>
       </c>
       <c r="C21" t="n">
-        <v>3907.871117000042</v>
+        <v>95.7</v>
       </c>
       <c r="D21" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4232,17 +6021,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20132400099</v>
+        <v>19571200070</v>
       </c>
       <c r="C22" t="n">
-        <v>3468.728360000041</v>
+        <v>70.3</v>
       </c>
       <c r="D22" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4271,17 +6060,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20122400101</v>
+        <v>19561200071</v>
       </c>
       <c r="C23" t="n">
-        <v>3969.104243000032</v>
+        <v>390.7</v>
       </c>
       <c r="D23" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4310,17 +6099,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20112400102</v>
+        <v>19531200072</v>
       </c>
       <c r="C24" t="n">
-        <v>2785.43162000001</v>
+        <v>339.2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4349,17 +6138,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20102400103</v>
+        <v>19521200073</v>
       </c>
       <c r="C25" t="n">
-        <v>2104.219086999985</v>
+        <v>57.4</v>
       </c>
       <c r="D25" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4388,17 +6177,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20092400104</v>
+        <v>19511200074</v>
       </c>
       <c r="C26" t="n">
-        <v>1734.347213999992</v>
+        <v>111.5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4427,17 +6216,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20082400105</v>
+        <v>19491200075</v>
       </c>
       <c r="C27" t="n">
-        <v>1087.143895999995</v>
+        <v>244.1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4466,17 +6255,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20072400106</v>
+        <v>19461200076</v>
       </c>
       <c r="C28" t="n">
-        <v>2049.836699999993</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4505,17 +6294,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20062400107</v>
+        <v>19421200077</v>
       </c>
       <c r="C29" t="n">
-        <v>751.4120000000005</v>
+        <v>84</v>
       </c>
       <c r="D29" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4544,17 +6333,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20052400108</v>
+        <v>19411200079</v>
       </c>
       <c r="C30" t="n">
-        <v>1340.202199999995</v>
+        <v>220</v>
       </c>
       <c r="D30" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4583,17 +6372,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20042400109</v>
+        <v>19401200080</v>
       </c>
       <c r="C31" t="n">
-        <v>1659.914999999992</v>
+        <v>91.5</v>
       </c>
       <c r="D31" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4622,17 +6411,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20032400110</v>
+        <v>19361200081</v>
       </c>
       <c r="C32" t="n">
-        <v>1287.459599999997</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4661,17 +6450,17 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20022400112</v>
+        <v>19301200082</v>
       </c>
       <c r="C33" t="n">
-        <v>1434.670999999991</v>
+        <v>104.8</v>
       </c>
       <c r="D33" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4700,17 +6489,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20012400113</v>
+        <v>19251200083</v>
       </c>
       <c r="C34" t="n">
-        <v>1773.431999999988</v>
+        <v>130</v>
       </c>
       <c r="D34" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4739,17 +6528,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20002400114</v>
+        <v>19221200084</v>
       </c>
       <c r="C35" t="n">
-        <v>1975.231089999979</v>
+        <v>164</v>
       </c>
       <c r="D35" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4778,17 +6567,17 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19992400115</v>
+        <v>19201200085</v>
       </c>
       <c r="C36" t="n">
-        <v>1648.599299999983</v>
+        <v>183.55</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4817,10 +6606,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19982400116</v>
+        <v>20202400092</v>
       </c>
       <c r="C37" t="n">
-        <v>853.3870000000011</v>
+        <v>400</v>
       </c>
       <c r="D37" t="n">
         <v>1.35</v>
@@ -4856,10 +6645,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19972400117</v>
+        <v>20192400093</v>
       </c>
       <c r="C38" t="n">
-        <v>564.2280000000012</v>
+        <v>554.6</v>
       </c>
       <c r="D38" t="n">
         <v>1.35</v>
@@ -4895,10 +6684,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19962400118</v>
+        <v>20182400094</v>
       </c>
       <c r="C39" t="n">
-        <v>251.9353999999998</v>
+        <v>577</v>
       </c>
       <c r="D39" t="n">
         <v>1.35</v>
@@ -4934,10 +6723,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19952400119</v>
+        <v>20172400095</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8699999999997</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D40" t="n">
         <v>1.35</v>
@@ -4973,10 +6762,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19942400120</v>
+        <v>20162400096</v>
       </c>
       <c r="C41" t="n">
-        <v>157.8950399999997</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D41" t="n">
         <v>1.35</v>
@@ -5012,10 +6801,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19932400121</v>
+        <v>20152400097</v>
       </c>
       <c r="C42" t="n">
-        <v>172.6729999999995</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D42" t="n">
         <v>1.35</v>
@@ -5051,10 +6840,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19922400123</v>
+        <v>20142400098</v>
       </c>
       <c r="C43" t="n">
-        <v>133.46792</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D43" t="n">
         <v>1.35</v>
@@ -5090,17 +6879,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20192300124</v>
+        <v>20132400099</v>
       </c>
       <c r="C44" t="n">
-        <v>1130.5</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D44" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5129,17 +6918,17 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20182300125</v>
+        <v>20122400101</v>
       </c>
       <c r="C45" t="n">
-        <v>952</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D45" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5168,17 +6957,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20172300126</v>
+        <v>20112400102</v>
       </c>
       <c r="C46" t="n">
-        <v>1455</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D46" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5207,17 +6996,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20162300127</v>
+        <v>20102400103</v>
       </c>
       <c r="C47" t="n">
-        <v>735</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D47" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5246,17 +7035,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20152300128</v>
+        <v>20092400104</v>
       </c>
       <c r="C48" t="n">
-        <v>1622</v>
+        <v>1734.347213999992</v>
       </c>
       <c r="D48" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5285,17 +7074,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20142300129</v>
+        <v>20082400105</v>
       </c>
       <c r="C49" t="n">
-        <v>726</v>
+        <v>1087.143895999995</v>
       </c>
       <c r="D49" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5324,17 +7113,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20132300130</v>
+        <v>20072400106</v>
       </c>
       <c r="C50" t="n">
-        <v>2502</v>
+        <v>2049.836699999993</v>
       </c>
       <c r="D50" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5363,17 +7152,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20122300131</v>
+        <v>20062400107</v>
       </c>
       <c r="C51" t="n">
-        <v>401</v>
+        <v>751.4120000000005</v>
       </c>
       <c r="D51" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5402,17 +7191,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20112300132</v>
+        <v>20052400108</v>
       </c>
       <c r="C52" t="n">
-        <v>400</v>
+        <v>1340.202199999995</v>
       </c>
       <c r="D52" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5441,17 +7230,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20082300135</v>
+        <v>20042400109</v>
       </c>
       <c r="C53" t="n">
-        <v>108.3</v>
+        <v>1659.914999999992</v>
       </c>
       <c r="D53" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5480,17 +7269,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20062300136</v>
+        <v>20032400110</v>
       </c>
       <c r="C54" t="n">
-        <v>240</v>
+        <v>1287.459599999997</v>
       </c>
       <c r="D54" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5519,15 +7308,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20202100137</v>
+        <v>20022400112</v>
       </c>
       <c r="C55" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>1434.670999999991</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5556,15 +7347,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20192100138</v>
+        <v>20012400113</v>
       </c>
       <c r="C56" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>1773.431999999988</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5593,15 +7386,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20182100139</v>
+        <v>20002400114</v>
       </c>
       <c r="C57" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>1975.231089999979</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5630,15 +7425,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20172100140</v>
+        <v>19992400115</v>
       </c>
       <c r="C58" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>1648.599299999983</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5667,15 +7464,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20162100141</v>
+        <v>19982400116</v>
       </c>
       <c r="C59" t="n">
-        <v>6222.270852000401</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>853.3870000000011</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5704,15 +7503,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20152100142</v>
+        <v>19972400117</v>
       </c>
       <c r="C60" t="n">
-        <v>1688.32281700176</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>564.2280000000012</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5741,15 +7542,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20142100143</v>
+        <v>19962400118</v>
       </c>
       <c r="C61" t="n">
-        <v>1467.604103002783</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>251.9353999999998</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5778,15 +7581,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20132100144</v>
+        <v>19952400119</v>
       </c>
       <c r="C62" t="n">
-        <v>1387.194197003628</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>170.8699999999997</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5815,15 +7620,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20122100146</v>
+        <v>19942400120</v>
       </c>
       <c r="C63" t="n">
-        <v>1732.597611001665</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>157.8950399999997</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5852,15 +7659,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20112100147</v>
+        <v>19932400121</v>
       </c>
       <c r="C64" t="n">
-        <v>3084.73933250188</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>172.6729999999995</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5889,15 +7698,17 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20102100148</v>
+        <v>19922400123</v>
       </c>
       <c r="C65" t="n">
-        <v>6784.098386973769</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>133.46792</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5926,15 +7737,17 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20092100149</v>
+        <v>20192300124</v>
       </c>
       <c r="C66" t="n">
-        <v>9295.344562513454</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>1130.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5963,15 +7776,17 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20082100150</v>
+        <v>20182300125</v>
       </c>
       <c r="C67" t="n">
-        <v>7475.485288501332</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6000,15 +7815,17 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20072100151</v>
+        <v>20172300126</v>
       </c>
       <c r="C68" t="n">
-        <v>4341.280789791133</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>1455</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6037,15 +7854,17 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20062100152</v>
+        <v>20162300127</v>
       </c>
       <c r="C69" t="n">
-        <v>1924.091949500588</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6074,15 +7893,17 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20052100153</v>
+        <v>20152300128</v>
       </c>
       <c r="C70" t="n">
-        <v>1221.046400499492</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>1622</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6111,15 +7932,17 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20042100154</v>
+        <v>20142300129</v>
       </c>
       <c r="C71" t="n">
-        <v>829.7290730002117</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>726</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6148,15 +7971,17 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20032100155</v>
+        <v>20132300130</v>
       </c>
       <c r="C72" t="n">
-        <v>907.4490049999474</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>2502</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6185,15 +8010,17 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20022100157</v>
+        <v>20122300131</v>
       </c>
       <c r="C73" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6222,15 +8049,17 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20012100158</v>
+        <v>20112300132</v>
       </c>
       <c r="C74" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6259,15 +8088,17 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20002100159</v>
+        <v>20082300135</v>
       </c>
       <c r="C75" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>108.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6296,33 +8127,849 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>20062300136</v>
+      </c>
+      <c r="C76" t="n">
+        <v>240</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20202100137</v>
+      </c>
+      <c r="C77" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20192100138</v>
+      </c>
+      <c r="C78" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20182100139</v>
+      </c>
+      <c r="C79" t="n">
+        <v>414.723</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20172100140</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20162100141</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6222.270852000401</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20152100142</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1688.32281700176</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20142100143</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1467.604103002783</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20132100144</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1387.194197003628</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20122100146</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1732.597611001665</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20112100147</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3084.73933250188</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20102100148</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6784.098386973769</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20092100149</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9295.344562513454</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20082100150</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7475.485288501332</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20072100151</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4341.280789791133</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20062100152</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1924.091949500588</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20052100153</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1221.046400499492</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20042100154</v>
+      </c>
+      <c r="C93" t="n">
+        <v>829.7290730002117</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20032100155</v>
+      </c>
+      <c r="C94" t="n">
+        <v>907.4490049999474</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20022100157</v>
+      </c>
+      <c r="C95" t="n">
+        <v>633.0435090000258</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20012100158</v>
+      </c>
+      <c r="C96" t="n">
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20002100159</v>
+      </c>
+      <c r="C97" t="n">
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
         <v>19992100160</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C98" t="n">
         <v>171.9239930052555</v>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>OtherPV</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6413,7 +9060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6741,10 +9388,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20120100133</v>
+        <v>19960100078</v>
       </c>
       <c r="C9" t="n">
-        <v>89.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>1.9</v>
@@ -6780,10 +9427,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20100100215</v>
+        <v>19950100089</v>
       </c>
       <c r="C10" t="n">
-        <v>89.05</v>
+        <v>117.9</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -6819,10 +9466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20080100226</v>
+        <v>19890100100</v>
       </c>
       <c r="C11" t="n">
-        <v>127.8</v>
+        <v>171</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -6858,10 +9505,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20070100237</v>
+        <v>19820100111</v>
       </c>
       <c r="C12" t="n">
-        <v>217.8</v>
+        <v>123.5</v>
       </c>
       <c r="D12" t="n">
         <v>1.9</v>
@@ -6897,10 +9544,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20060100248</v>
+        <v>19800100122</v>
       </c>
       <c r="C13" t="n">
-        <v>91.5</v>
+        <v>252.61</v>
       </c>
       <c r="D13" t="n">
         <v>1.9</v>
@@ -6936,10 +9583,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20050100259</v>
+        <v>20120100133</v>
       </c>
       <c r="C14" t="n">
-        <v>66.78</v>
+        <v>89.8</v>
       </c>
       <c r="D14" t="n">
         <v>1.9</v>
@@ -6975,10 +9622,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20040100270</v>
+        <v>19710100134</v>
       </c>
       <c r="C15" t="n">
-        <v>166.92</v>
+        <v>280.2</v>
       </c>
       <c r="D15" t="n">
         <v>1.9</v>
@@ -7014,10 +9661,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20030100281</v>
+        <v>20100100215</v>
       </c>
       <c r="C16" t="n">
-        <v>206.65</v>
+        <v>89.05</v>
       </c>
       <c r="D16" t="n">
         <v>1.9</v>
@@ -7043,6 +9690,240 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20080100226</v>
+      </c>
+      <c r="C17" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20070100237</v>
+      </c>
+      <c r="C18" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20060100248</v>
+      </c>
+      <c r="C19" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20050100259</v>
+      </c>
+      <c r="C20" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20040100270</v>
+      </c>
+      <c r="C21" t="n">
+        <v>166.92</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20030100281</v>
+      </c>
+      <c r="C22" t="n">
+        <v>206.65</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>44561.99861111111</v>
+        <v>43830.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44925.99861111111</v>
+        <v>44195.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,12 +1161,6 @@
       <c r="B1" s="6" t="n">
         <v>2020</v>
       </c>
-      <c r="C1" s="6" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="6" t="n">
-        <v>2022</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1175,10 +1169,8 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>20.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1187,10 +1179,8 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.72005544141844</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>1.69</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1199,10 +1189,8 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.992378573732889</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>3.96</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1211,10 +1199,8 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.22465034587424</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1223,10 +1209,8 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.7241289622243</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>20.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1235,10 +1219,8 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.52482993942063</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>46.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1247,16 +1229,6 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1273,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,24 +1365,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19951700027</v>
+        <v>19871400086</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>183.72</v>
+        <v>1795</v>
       </c>
       <c r="G5" t="n">
-        <v>183.72</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="6">
@@ -1418,24 +1390,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19941700028</v>
+        <v>19861400087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F6" t="n">
-        <v>352.5</v>
+        <v>2746</v>
       </c>
       <c r="G6" t="n">
-        <v>352.5</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="7">
@@ -1443,24 +1415,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19931700029</v>
+        <v>19841400088</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F7" t="n">
-        <v>65.59999999999999</v>
+        <v>1410</v>
       </c>
       <c r="G7" t="n">
-        <v>65.59999999999999</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="8">
@@ -1468,24 +1440,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19921700030</v>
+        <v>19831400090</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F8" t="n">
-        <v>261.1</v>
+        <v>1360</v>
       </c>
       <c r="G8" t="n">
-        <v>261.1</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="9">
@@ -1493,24 +1465,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19911700031</v>
+        <v>19821400091</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F9" t="n">
-        <v>163</v>
+        <v>1288</v>
       </c>
       <c r="G9" t="n">
-        <v>163</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="10">
@@ -1518,24 +1490,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19901700032</v>
+        <v>20132800145</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F10" t="n">
-        <v>97.07900000000001</v>
+        <v>4734</v>
       </c>
       <c r="G10" t="n">
-        <v>97.07900000000001</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="11">
@@ -1543,24 +1515,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19871700033</v>
+        <v>20122800156</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F11" t="n">
-        <v>120.4</v>
+        <v>1597.7</v>
       </c>
       <c r="G11" t="n">
-        <v>120.4</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="12">
@@ -1568,24 +1540,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19861700035</v>
+        <v>20102900161</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F12" t="n">
-        <v>60.491</v>
+        <v>2780.3</v>
       </c>
       <c r="G12" t="n">
-        <v>60.491</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="13">
@@ -1593,24 +1565,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19851700036</v>
+        <v>20082900162</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F13" t="n">
-        <v>521</v>
+        <v>94.8</v>
       </c>
       <c r="G13" t="n">
-        <v>521</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="14">
@@ -1618,24 +1590,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19821700037</v>
+        <v>20072900163</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F14" t="n">
-        <v>156.5</v>
+        <v>648</v>
       </c>
       <c r="G14" t="n">
-        <v>156.5</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15">
@@ -1643,24 +1615,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19771700038</v>
+        <v>20062900164</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F15" t="n">
-        <v>100.78</v>
+        <v>628</v>
       </c>
       <c r="G15" t="n">
-        <v>100.78</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16">
@@ -1668,24 +1640,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19751700039</v>
+        <v>20002900165</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F16" t="n">
-        <v>619.4</v>
+        <v>967.22</v>
       </c>
       <c r="G16" t="n">
-        <v>619.4</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="17">
@@ -1693,24 +1665,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19731700040</v>
+        <v>19982900166</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F17" t="n">
-        <v>639.7</v>
+        <v>1732</v>
       </c>
       <c r="G17" t="n">
-        <v>639.7</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="18">
@@ -1718,24 +1690,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19721700041</v>
+        <v>20112800167</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F18" t="n">
-        <v>77.7</v>
+        <v>1909</v>
       </c>
       <c r="G18" t="n">
-        <v>77.7</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="19">
@@ -1743,24 +1715,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19711700042</v>
+        <v>19972900168</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F19" t="n">
-        <v>183</v>
+        <v>949</v>
       </c>
       <c r="G19" t="n">
-        <v>183</v>
+        <v>949</v>
       </c>
     </row>
     <row r="20">
@@ -1768,24 +1740,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19691700043</v>
+        <v>19962900169</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F20" t="n">
-        <v>173.2865</v>
+        <v>750</v>
       </c>
       <c r="G20" t="n">
-        <v>173.2865</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21">
@@ -1793,24 +1765,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19591700044</v>
+        <v>19952900170</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F21" t="n">
-        <v>149</v>
+        <v>750</v>
       </c>
       <c r="G21" t="n">
-        <v>149</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22">
@@ -1818,24 +1790,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19521700046</v>
+        <v>19942900171</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F22" t="n">
-        <v>94.59999999999999</v>
+        <v>2780</v>
       </c>
       <c r="G22" t="n">
-        <v>94.59999999999999</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="23">
@@ -1843,24 +1815,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19461700047</v>
+        <v>19922900172</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5</v>
+        <v>496</v>
       </c>
       <c r="G23" t="n">
-        <v>135.5</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24">
@@ -1868,24 +1840,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19871400086</v>
+        <v>19912900173</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E24" t="n">
         <v>0.33</v>
       </c>
       <c r="F24" t="n">
-        <v>1795</v>
+        <v>488.3</v>
       </c>
       <c r="G24" t="n">
-        <v>1795</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="25">
@@ -1893,24 +1865,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19861400087</v>
+        <v>19882900174</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E25" t="n">
         <v>0.33</v>
       </c>
       <c r="F25" t="n">
-        <v>2746</v>
+        <v>652.8</v>
       </c>
       <c r="G25" t="n">
-        <v>2746</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="26">
@@ -1918,24 +1890,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19841400088</v>
+        <v>19872900175</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E26" t="n">
         <v>0.33</v>
       </c>
       <c r="F26" t="n">
-        <v>1410</v>
+        <v>498.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1410</v>
+        <v>498.5</v>
       </c>
     </row>
     <row r="27">
@@ -1943,24 +1915,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19831400090</v>
+        <v>19862900176</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E27" t="n">
         <v>0.33</v>
       </c>
       <c r="F27" t="n">
-        <v>1360</v>
+        <v>232.8</v>
       </c>
       <c r="G27" t="n">
-        <v>1360</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="28">
@@ -1968,24 +1940,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19821400091</v>
+        <v>19852900177</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E28" t="n">
         <v>0.33</v>
       </c>
       <c r="F28" t="n">
-        <v>1288</v>
+        <v>465</v>
       </c>
       <c r="G28" t="n">
-        <v>1288</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29">
@@ -1993,7 +1965,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20132800145</v>
+        <v>20102800178</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2001,16 +1973,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E29" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F29" t="n">
-        <v>4734</v>
+        <v>433</v>
       </c>
       <c r="G29" t="n">
-        <v>4734</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30">
@@ -2018,24 +1990,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20122800156</v>
+        <v>19832900179</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F30" t="n">
-        <v>1597.7</v>
+        <v>361.3</v>
       </c>
       <c r="G30" t="n">
-        <v>1597.7</v>
+        <v>361.3</v>
       </c>
     </row>
     <row r="31">
@@ -2043,24 +2015,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20102900161</v>
+        <v>20092800189</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F31" t="n">
-        <v>2780.3</v>
+        <v>716</v>
       </c>
       <c r="G31" t="n">
-        <v>2780.3</v>
+        <v>716</v>
       </c>
     </row>
     <row r="32">
@@ -2068,24 +2040,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20082900162</v>
+        <v>20093000194</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F32" t="n">
-        <v>94.8</v>
+        <v>83.8</v>
       </c>
       <c r="G32" t="n">
-        <v>94.8</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="33">
@@ -2093,24 +2065,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20072900163</v>
+        <v>20063000195</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F33" t="n">
-        <v>648</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>648</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -2118,24 +2090,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20062900164</v>
+        <v>20023000196</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F34" t="n">
-        <v>628</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>628</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2143,24 +2115,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20002900165</v>
+        <v>19963000197</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F35" t="n">
-        <v>967.22</v>
+        <v>212</v>
       </c>
       <c r="G35" t="n">
-        <v>967.22</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
@@ -2168,24 +2140,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19982900166</v>
+        <v>20082800200</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F36" t="n">
-        <v>1732</v>
+        <v>250</v>
       </c>
       <c r="G36" t="n">
-        <v>1732</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
@@ -2193,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20112800167</v>
+        <v>20072800211</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2201,16 +2173,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F37" t="n">
-        <v>1909</v>
+        <v>1572</v>
       </c>
       <c r="G37" t="n">
-        <v>1909</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="38">
@@ -2218,24 +2190,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19972900168</v>
+        <v>20052800213</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E38" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F38" t="n">
-        <v>949</v>
+        <v>350</v>
       </c>
       <c r="G38" t="n">
-        <v>949</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -2243,24 +2215,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19962900169</v>
+        <v>20042800214</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F39" t="n">
-        <v>750</v>
+        <v>336</v>
       </c>
       <c r="G39" t="n">
-        <v>750</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
@@ -2268,24 +2240,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19952900170</v>
+        <v>20032800216</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F40" t="n">
-        <v>750</v>
+        <v>822</v>
       </c>
       <c r="G40" t="n">
-        <v>750</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41">
@@ -2293,24 +2265,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19942900171</v>
+        <v>20012800217</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F41" t="n">
-        <v>2780</v>
+        <v>690</v>
       </c>
       <c r="G41" t="n">
-        <v>2780</v>
+        <v>690</v>
       </c>
     </row>
     <row r="42">
@@ -2318,24 +2290,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19922900172</v>
+        <v>19982800218</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F42" t="n">
-        <v>496</v>
+        <v>123</v>
       </c>
       <c r="G42" t="n">
-        <v>496</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
@@ -2343,24 +2315,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19912900173</v>
+        <v>19922800219</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F43" t="n">
-        <v>488.3</v>
+        <v>1127.4</v>
       </c>
       <c r="G43" t="n">
-        <v>488.3</v>
+        <v>1127.4</v>
       </c>
     </row>
     <row r="44">
@@ -2368,24 +2340,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19882900174</v>
+        <v>19912800220</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E44" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F44" t="n">
-        <v>652.8</v>
+        <v>889</v>
       </c>
       <c r="G44" t="n">
-        <v>652.8</v>
+        <v>889</v>
       </c>
     </row>
     <row r="45">
@@ -2393,24 +2365,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19872900175</v>
+        <v>19902800221</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F45" t="n">
-        <v>498.5</v>
+        <v>561.7</v>
       </c>
       <c r="G45" t="n">
-        <v>498.5</v>
+        <v>561.7</v>
       </c>
     </row>
     <row r="46">
@@ -2418,24 +2390,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19862900176</v>
+        <v>19892800222</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F46" t="n">
-        <v>232.8</v>
+        <v>332.7</v>
       </c>
       <c r="G46" t="n">
-        <v>232.8</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="47">
@@ -2443,24 +2415,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19852900177</v>
+        <v>19882800223</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F47" t="n">
-        <v>465</v>
+        <v>169.9</v>
       </c>
       <c r="G47" t="n">
-        <v>465</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="48">
@@ -2468,7 +2440,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20102800178</v>
+        <v>19872800224</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2476,16 +2448,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F48" t="n">
-        <v>433</v>
+        <v>762.5</v>
       </c>
       <c r="G48" t="n">
-        <v>433</v>
+        <v>762.5</v>
       </c>
     </row>
     <row r="49">
@@ -2493,24 +2465,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19832900179</v>
+        <v>19862800225</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E49" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F49" t="n">
-        <v>361.3</v>
+        <v>713.5</v>
       </c>
       <c r="G49" t="n">
-        <v>361.3</v>
+        <v>713.5</v>
       </c>
     </row>
     <row r="50">
@@ -2518,24 +2490,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19772900180</v>
+        <v>19852800227</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F50" t="n">
-        <v>59.5</v>
+        <v>1157</v>
       </c>
       <c r="G50" t="n">
-        <v>59.5</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="51">
@@ -2543,24 +2515,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19742900181</v>
+        <v>19832800228</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F51" t="n">
-        <v>604</v>
+        <v>380</v>
       </c>
       <c r="G51" t="n">
-        <v>604</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52">
@@ -2568,24 +2540,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19732900182</v>
+        <v>19822800229</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F52" t="n">
-        <v>1263</v>
+        <v>88.3</v>
       </c>
       <c r="G52" t="n">
-        <v>1263</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="53">
@@ -2593,24 +2565,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19722900183</v>
+        <v>19812800230</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F53" t="n">
-        <v>663</v>
+        <v>794.4</v>
       </c>
       <c r="G53" t="n">
-        <v>663</v>
+        <v>794.4</v>
       </c>
     </row>
     <row r="54">
@@ -2618,24 +2590,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19712900184</v>
+        <v>20180300241</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E54" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F54" t="n">
-        <v>292</v>
+        <v>140.5</v>
       </c>
       <c r="G54" t="n">
-        <v>292</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="55">
@@ -2643,24 +2615,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19702900185</v>
+        <v>20140300242</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E55" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F55" t="n">
-        <v>588</v>
+        <v>1117.5</v>
       </c>
       <c r="G55" t="n">
-        <v>588</v>
+        <v>1117.5</v>
       </c>
     </row>
     <row r="56">
@@ -2668,24 +2640,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19692900186</v>
+        <v>20130300243</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E56" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F56" t="n">
-        <v>299</v>
+        <v>296.3</v>
       </c>
       <c r="G56" t="n">
-        <v>299</v>
+        <v>296.3</v>
       </c>
     </row>
     <row r="57">
@@ -2693,24 +2665,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19682900187</v>
+        <v>20110300244</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E57" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F57" t="n">
-        <v>295</v>
+        <v>2110.5</v>
       </c>
       <c r="G57" t="n">
-        <v>295</v>
+        <v>2110.5</v>
       </c>
     </row>
     <row r="58">
@@ -2718,24 +2690,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19662900188</v>
+        <v>20100300245</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E58" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F58" t="n">
-        <v>297</v>
+        <v>3470</v>
       </c>
       <c r="G58" t="n">
-        <v>297</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="59">
@@ -2743,24 +2715,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20092800189</v>
+        <v>20090300246</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E59" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F59" t="n">
-        <v>716</v>
+        <v>639</v>
       </c>
       <c r="G59" t="n">
-        <v>716</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60">
@@ -2768,24 +2740,24 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19652900190</v>
+        <v>20080300247</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E60" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F60" t="n">
-        <v>321</v>
+        <v>4269.5</v>
       </c>
       <c r="G60" t="n">
-        <v>321</v>
+        <v>4269.5</v>
       </c>
     </row>
     <row r="61">
@@ -2793,24 +2765,24 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19632900191</v>
+        <v>20070300249</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E61" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F61" t="n">
-        <v>643.5</v>
+        <v>196</v>
       </c>
       <c r="G61" t="n">
-        <v>643.5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62">
@@ -2818,24 +2790,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19342900192</v>
+        <v>20060300250</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E62" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F62" t="n">
-        <v>82</v>
+        <v>1569</v>
       </c>
       <c r="G62" t="n">
-        <v>82</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="63">
@@ -2843,24 +2815,24 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19152900193</v>
+        <v>20050300251</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E63" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F63" t="n">
-        <v>98</v>
+        <v>1517</v>
       </c>
       <c r="G63" t="n">
-        <v>98</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="64">
@@ -2868,24 +2840,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20093000194</v>
+        <v>20030300252</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E64" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F64" t="n">
-        <v>83.8</v>
+        <v>1207.759</v>
       </c>
       <c r="G64" t="n">
-        <v>83.8</v>
+        <v>1207.759</v>
       </c>
     </row>
     <row r="65">
@@ -2893,24 +2865,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20063000195</v>
+        <v>20020300253</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E65" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F65" t="n">
-        <v>60</v>
+        <v>1375.4</v>
       </c>
       <c r="G65" t="n">
-        <v>60</v>
+        <v>1375.4</v>
       </c>
     </row>
     <row r="66">
@@ -2918,24 +2890,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20023000196</v>
+        <v>20010300254</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E66" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F66" t="n">
-        <v>97.09999999999999</v>
+        <v>245.46</v>
       </c>
       <c r="G66" t="n">
-        <v>97.09999999999999</v>
+        <v>245.46</v>
       </c>
     </row>
     <row r="67">
@@ -2943,24 +2915,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19963000197</v>
+        <v>19990300255</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E67" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F67" t="n">
-        <v>212</v>
+        <v>135.8</v>
       </c>
       <c r="G67" t="n">
-        <v>212</v>
+        <v>135.8</v>
       </c>
     </row>
     <row r="68">
@@ -2968,24 +2940,24 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19953000198</v>
+        <v>19980300256</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E68" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F68" t="n">
-        <v>97.3</v>
+        <v>1239.2</v>
       </c>
       <c r="G68" t="n">
-        <v>97.3</v>
+        <v>1239.2</v>
       </c>
     </row>
     <row r="69">
@@ -2993,24 +2965,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19933000199</v>
+        <v>19970300257</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E69" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F69" t="n">
-        <v>87.8</v>
+        <v>778.6</v>
       </c>
       <c r="G69" t="n">
-        <v>87.8</v>
+        <v>778.6</v>
       </c>
     </row>
     <row r="70">
@@ -3018,24 +2990,24 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20082800200</v>
+        <v>19960300258</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E70" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>799.6</v>
       </c>
       <c r="G70" t="n">
-        <v>250</v>
+        <v>799.6</v>
       </c>
     </row>
     <row r="71">
@@ -3043,24 +3015,24 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19923000201</v>
+        <v>20171700278</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E71" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F71" t="n">
-        <v>190.4</v>
+        <v>535.2</v>
       </c>
       <c r="G71" t="n">
-        <v>190.4</v>
+        <v>535.2</v>
       </c>
     </row>
     <row r="72">
@@ -3068,24 +3040,24 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19803000202</v>
+        <v>20161700279</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E72" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F72" t="n">
-        <v>93.59999999999999</v>
+        <v>167.451</v>
       </c>
       <c r="G72" t="n">
-        <v>93.59999999999999</v>
+        <v>167.451</v>
       </c>
     </row>
     <row r="73">
@@ -3093,24 +3065,24 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19793000203</v>
+        <v>20151700280</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E73" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F73" t="n">
-        <v>136</v>
+        <v>220.2</v>
       </c>
       <c r="G73" t="n">
-        <v>136</v>
+        <v>220.2</v>
       </c>
     </row>
     <row r="74">
@@ -3118,24 +3090,24 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19753000204</v>
+        <v>20141700282</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E74" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F74" t="n">
-        <v>205.9</v>
+        <v>574.3099999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>205.9</v>
+        <v>574.3099999999999</v>
       </c>
     </row>
     <row r="75">
@@ -3143,24 +3115,24 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19743000205</v>
+        <v>20121700283</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E75" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F75" t="n">
-        <v>50</v>
+        <v>141.6</v>
       </c>
       <c r="G75" t="n">
-        <v>50</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="76">
@@ -3168,24 +3140,24 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19733000206</v>
+        <v>20111700284</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E76" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F76" t="n">
-        <v>434.5</v>
+        <v>454.24</v>
       </c>
       <c r="G76" t="n">
-        <v>434.5</v>
+        <v>454.24</v>
       </c>
     </row>
     <row r="77">
@@ -3193,24 +3165,24 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19723000207</v>
+        <v>20101700285</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E77" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F77" t="n">
-        <v>870.9</v>
+        <v>275.78</v>
       </c>
       <c r="G77" t="n">
-        <v>870.9</v>
+        <v>275.78</v>
       </c>
     </row>
     <row r="78">
@@ -3218,24 +3190,24 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19713000208</v>
+        <v>20051700286</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E78" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F78" t="n">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="G78" t="n">
-        <v>529</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79">
@@ -3243,24 +3215,24 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19703000209</v>
+        <v>20041700287</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E79" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F79" t="n">
-        <v>303.2</v>
+        <v>746.015</v>
       </c>
       <c r="G79" t="n">
-        <v>303.2</v>
+        <v>746.015</v>
       </c>
     </row>
     <row r="80">
@@ -3268,24 +3240,24 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19693000210</v>
+        <v>20031700288</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E80" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F80" t="n">
-        <v>111.4</v>
+        <v>163.9</v>
       </c>
       <c r="G80" t="n">
-        <v>111.4</v>
+        <v>163.9</v>
       </c>
     </row>
     <row r="81">
@@ -3293,24 +3265,24 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20072800211</v>
+        <v>20021700289</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E81" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F81" t="n">
-        <v>1572</v>
+        <v>126.7</v>
       </c>
       <c r="G81" t="n">
-        <v>1572</v>
+        <v>126.7</v>
       </c>
     </row>
     <row r="82">
@@ -3318,24 +3290,24 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19603000212</v>
+        <v>20011700290</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E82" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F82" t="n">
-        <v>90</v>
+        <v>110.55</v>
       </c>
       <c r="G82" t="n">
-        <v>90</v>
+        <v>110.55</v>
       </c>
     </row>
     <row r="83">
@@ -3343,1798 +3315,23 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20052800213</v>
+        <v>20001700291</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E83" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F83" t="n">
-        <v>350</v>
+        <v>124.5</v>
       </c>
       <c r="G83" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>20042800214</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F84" t="n">
-        <v>336</v>
-      </c>
-      <c r="G84" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>20032800216</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F85" t="n">
-        <v>822</v>
-      </c>
-      <c r="G85" t="n">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>20012800217</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F86" t="n">
-        <v>690</v>
-      </c>
-      <c r="G86" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>19982800218</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F87" t="n">
-        <v>123</v>
-      </c>
-      <c r="G87" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>19922800219</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1127.4</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1127.4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>19912800220</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F89" t="n">
-        <v>889</v>
-      </c>
-      <c r="G89" t="n">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>19902800221</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F90" t="n">
-        <v>561.7</v>
-      </c>
-      <c r="G90" t="n">
-        <v>561.7</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>19892800222</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F91" t="n">
-        <v>332.7</v>
-      </c>
-      <c r="G91" t="n">
-        <v>332.7</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>19882800223</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F92" t="n">
-        <v>169.9</v>
-      </c>
-      <c r="G92" t="n">
-        <v>169.9</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>19872800224</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F93" t="n">
-        <v>762.5</v>
-      </c>
-      <c r="G93" t="n">
-        <v>762.5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>19862800225</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F94" t="n">
-        <v>713.5</v>
-      </c>
-      <c r="G94" t="n">
-        <v>713.5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>19852800227</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1157</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>19832800228</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F96" t="n">
-        <v>380</v>
-      </c>
-      <c r="G96" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>19822800229</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F97" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="G97" t="n">
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>19812800230</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F98" t="n">
-        <v>794.4</v>
-      </c>
-      <c r="G98" t="n">
-        <v>794.4</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="6" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>19802800231</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F99" t="n">
-        <v>666.4</v>
-      </c>
-      <c r="G99" t="n">
-        <v>666.4</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="6" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>19792800232</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F100" t="n">
-        <v>717</v>
-      </c>
-      <c r="G100" t="n">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="6" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>19772800233</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F101" t="n">
-        <v>303</v>
-      </c>
-      <c r="G101" t="n">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>19742800234</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1412.6</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1412.6</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="6" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>19692800235</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F103" t="n">
-        <v>190.35</v>
-      </c>
-      <c r="G103" t="n">
-        <v>190.35</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="6" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>19672800236</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F104" t="n">
-        <v>345</v>
-      </c>
-      <c r="G104" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="6" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>19662800238</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F105" t="n">
-        <v>385</v>
-      </c>
-      <c r="G105" t="n">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="6" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>19602800239</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F106" t="n">
-        <v>129</v>
-      </c>
-      <c r="G106" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="6" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>19382800240</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F107" t="n">
-        <v>188.32</v>
-      </c>
-      <c r="G107" t="n">
-        <v>188.32</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="6" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>20180300241</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F108" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="G108" t="n">
-        <v>140.5</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="6" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>20140300242</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1117.5</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1117.5</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="6" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>20130300243</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F110" t="n">
-        <v>296.3</v>
-      </c>
-      <c r="G110" t="n">
-        <v>296.3</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="6" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>20110300244</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2110.5</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2110.5</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="6" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>20100300245</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3470</v>
-      </c>
-      <c r="G112" t="n">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="6" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>20090300246</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F113" t="n">
-        <v>639</v>
-      </c>
-      <c r="G113" t="n">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="6" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>20080300247</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4269.5</v>
-      </c>
-      <c r="G114" t="n">
-        <v>4269.5</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="6" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>20070300249</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F115" t="n">
-        <v>196</v>
-      </c>
-      <c r="G115" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="6" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>20060300250</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1569</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="6" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>20050300251</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1517</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="6" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>20030300252</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1207.759</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1207.759</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="6" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>20020300253</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1375.4</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1375.4</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="6" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>20010300254</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F120" t="n">
-        <v>245.46</v>
-      </c>
-      <c r="G120" t="n">
-        <v>245.46</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="6" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>19990300255</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F121" t="n">
-        <v>135.8</v>
-      </c>
-      <c r="G121" t="n">
-        <v>135.8</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="6" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>19980300256</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1239.2</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1239.2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="6" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>19970300257</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F123" t="n">
-        <v>778.6</v>
-      </c>
-      <c r="G123" t="n">
-        <v>778.6</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="6" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>19960300258</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F124" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="G124" t="n">
-        <v>799.6</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="6" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>19950300260</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1597</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="6" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>19940300261</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1784</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="6" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>19930300262</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F127" t="n">
-        <v>834</v>
-      </c>
-      <c r="G127" t="n">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="6" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>19920300263</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F128" t="n">
-        <v>519</v>
-      </c>
-      <c r="G128" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="6" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>19910300264</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F129" t="n">
-        <v>84.51000000000001</v>
-      </c>
-      <c r="G129" t="n">
-        <v>84.51000000000001</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="6" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>19880300265</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F130" t="n">
-        <v>225</v>
-      </c>
-      <c r="G130" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="6" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>19850300266</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F131" t="n">
-        <v>169</v>
-      </c>
-      <c r="G131" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="6" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>19830300267</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F132" t="n">
-        <v>103</v>
-      </c>
-      <c r="G132" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="6" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>19810300268</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F133" t="n">
-        <v>50</v>
-      </c>
-      <c r="G133" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="6" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>19790300269</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F134" t="n">
-        <v>125</v>
-      </c>
-      <c r="G134" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="6" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>19780300271</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F135" t="n">
-        <v>316.7</v>
-      </c>
-      <c r="G135" t="n">
-        <v>316.7</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="6" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>19760300272</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F136" t="n">
-        <v>695</v>
-      </c>
-      <c r="G136" t="n">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="6" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>19740300273</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1107</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="6" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>19730300274</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F138" t="n">
-        <v>332</v>
-      </c>
-      <c r="G138" t="n">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="6" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>19720300275</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F139" t="n">
-        <v>475</v>
-      </c>
-      <c r="G139" t="n">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="6" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>19710300276</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1698</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="6" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>18990300277</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F141" t="n">
-        <v>137</v>
-      </c>
-      <c r="G141" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="6" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>20171700278</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F142" t="n">
-        <v>535.2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>535.2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="6" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>20161700279</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F143" t="n">
-        <v>167.451</v>
-      </c>
-      <c r="G143" t="n">
-        <v>167.451</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="6" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>20151700280</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F144" t="n">
-        <v>220.2</v>
-      </c>
-      <c r="G144" t="n">
-        <v>220.2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="6" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>20141700282</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F145" t="n">
-        <v>574.3099999999999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>574.3099999999999</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="6" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>20121700283</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F146" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="G146" t="n">
-        <v>141.6</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="6" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>20111700284</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F147" t="n">
-        <v>454.24</v>
-      </c>
-      <c r="G147" t="n">
-        <v>454.24</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="6" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>20101700285</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F148" t="n">
-        <v>275.78</v>
-      </c>
-      <c r="G148" t="n">
-        <v>275.78</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="6" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20051700286</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F149" t="n">
-        <v>158</v>
-      </c>
-      <c r="G149" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="6" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>20041700287</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F150" t="n">
-        <v>746.015</v>
-      </c>
-      <c r="G150" t="n">
-        <v>746.015</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="6" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>20031700288</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F151" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="G151" t="n">
-        <v>163.9</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>20021700289</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F152" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="G152" t="n">
-        <v>126.7</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="6" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>20011700290</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F153" t="n">
-        <v>110.55</v>
-      </c>
-      <c r="G153" t="n">
-        <v>110.55</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="6" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>20001700291</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F154" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="G154" t="n">
         <v>124.5</v>
       </c>
     </row>
@@ -5186,7 +3383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5943,17 +4140,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19601200068</v>
+        <v>20202400092</v>
       </c>
       <c r="C20" t="n">
-        <v>62.8</v>
+        <v>400</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5982,17 +4179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19581200069</v>
+        <v>20192400093</v>
       </c>
       <c r="C21" t="n">
-        <v>95.7</v>
+        <v>554.6</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -6021,17 +4218,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19571200070</v>
+        <v>20182400094</v>
       </c>
       <c r="C22" t="n">
-        <v>70.3</v>
+        <v>577</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -6060,17 +4257,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19561200071</v>
+        <v>20172400095</v>
       </c>
       <c r="C23" t="n">
-        <v>390.7</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6099,17 +4296,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19531200072</v>
+        <v>20162400096</v>
       </c>
       <c r="C24" t="n">
-        <v>339.2</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6138,17 +4335,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19521200073</v>
+        <v>20152400097</v>
       </c>
       <c r="C25" t="n">
-        <v>57.4</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6177,17 +4374,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19511200074</v>
+        <v>20142400098</v>
       </c>
       <c r="C26" t="n">
-        <v>111.5</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6216,17 +4413,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19491200075</v>
+        <v>20132400099</v>
       </c>
       <c r="C27" t="n">
-        <v>244.1</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6255,17 +4452,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19461200076</v>
+        <v>20122400101</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6294,17 +4491,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19421200077</v>
+        <v>20112400102</v>
       </c>
       <c r="C29" t="n">
-        <v>84</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6333,17 +4530,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19411200079</v>
+        <v>20102400103</v>
       </c>
       <c r="C30" t="n">
-        <v>220</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6372,17 +4569,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19401200080</v>
+        <v>20092400104</v>
       </c>
       <c r="C31" t="n">
-        <v>91.5</v>
+        <v>1734.347213999992</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -6411,17 +4608,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19361200081</v>
+        <v>20082400105</v>
       </c>
       <c r="C32" t="n">
-        <v>88.09999999999999</v>
+        <v>1087.143895999995</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6450,17 +4647,17 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19301200082</v>
+        <v>20072400106</v>
       </c>
       <c r="C33" t="n">
-        <v>104.8</v>
+        <v>2049.836699999993</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6489,17 +4686,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19251200083</v>
+        <v>20062400107</v>
       </c>
       <c r="C34" t="n">
-        <v>130</v>
+        <v>751.4120000000005</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6528,17 +4725,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19221200084</v>
+        <v>20052400108</v>
       </c>
       <c r="C35" t="n">
-        <v>164</v>
+        <v>1340.202199999995</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6567,17 +4764,17 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19201200085</v>
+        <v>20042400109</v>
       </c>
       <c r="C36" t="n">
-        <v>183.55</v>
+        <v>1659.914999999992</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6606,10 +4803,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20202400092</v>
+        <v>20032400110</v>
       </c>
       <c r="C37" t="n">
-        <v>400</v>
+        <v>1287.459599999997</v>
       </c>
       <c r="D37" t="n">
         <v>1.35</v>
@@ -6645,10 +4842,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20192400093</v>
+        <v>20022400112</v>
       </c>
       <c r="C38" t="n">
-        <v>554.6</v>
+        <v>1434.670999999991</v>
       </c>
       <c r="D38" t="n">
         <v>1.35</v>
@@ -6684,10 +4881,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20182400094</v>
+        <v>20012400113</v>
       </c>
       <c r="C39" t="n">
-        <v>577</v>
+        <v>1773.431999999988</v>
       </c>
       <c r="D39" t="n">
         <v>1.35</v>
@@ -6723,10 +4920,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20172400095</v>
+        <v>20002400114</v>
       </c>
       <c r="C40" t="n">
-        <v>888.5916000000008</v>
+        <v>1975.231089999979</v>
       </c>
       <c r="D40" t="n">
         <v>1.35</v>
@@ -6762,10 +4959,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20162400096</v>
+        <v>19992400115</v>
       </c>
       <c r="C41" t="n">
-        <v>4593.90489999998</v>
+        <v>1648.599299999983</v>
       </c>
       <c r="D41" t="n">
         <v>1.35</v>
@@ -6801,10 +4998,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20152400097</v>
+        <v>19982400116</v>
       </c>
       <c r="C42" t="n">
-        <v>5251.351200000026</v>
+        <v>853.3870000000011</v>
       </c>
       <c r="D42" t="n">
         <v>1.35</v>
@@ -6840,10 +5037,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20142400098</v>
+        <v>19972400117</v>
       </c>
       <c r="C43" t="n">
-        <v>3907.871117000042</v>
+        <v>564.2280000000012</v>
       </c>
       <c r="D43" t="n">
         <v>1.35</v>
@@ -6879,10 +5076,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20132400099</v>
+        <v>19962400118</v>
       </c>
       <c r="C44" t="n">
-        <v>3468.728360000041</v>
+        <v>251.9353999999998</v>
       </c>
       <c r="D44" t="n">
         <v>1.35</v>
@@ -6918,10 +5115,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20122400101</v>
+        <v>19952400119</v>
       </c>
       <c r="C45" t="n">
-        <v>3969.104243000032</v>
+        <v>170.8699999999997</v>
       </c>
       <c r="D45" t="n">
         <v>1.35</v>
@@ -6957,10 +5154,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20112400102</v>
+        <v>19942400120</v>
       </c>
       <c r="C46" t="n">
-        <v>2785.43162000001</v>
+        <v>157.8950399999997</v>
       </c>
       <c r="D46" t="n">
         <v>1.35</v>
@@ -6996,10 +5193,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20102400103</v>
+        <v>19932400121</v>
       </c>
       <c r="C47" t="n">
-        <v>2104.219086999985</v>
+        <v>172.6729999999995</v>
       </c>
       <c r="D47" t="n">
         <v>1.35</v>
@@ -7035,10 +5232,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20092400104</v>
+        <v>19922400123</v>
       </c>
       <c r="C48" t="n">
-        <v>1734.347213999992</v>
+        <v>133.46792</v>
       </c>
       <c r="D48" t="n">
         <v>1.35</v>
@@ -7074,17 +5271,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20082400105</v>
+        <v>20192300124</v>
       </c>
       <c r="C49" t="n">
-        <v>1087.143895999995</v>
+        <v>1130.5</v>
       </c>
       <c r="D49" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7113,17 +5310,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20072400106</v>
+        <v>20182300125</v>
       </c>
       <c r="C50" t="n">
-        <v>2049.836699999993</v>
+        <v>952</v>
       </c>
       <c r="D50" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7152,17 +5349,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20062400107</v>
+        <v>20172300126</v>
       </c>
       <c r="C51" t="n">
-        <v>751.4120000000005</v>
+        <v>1455</v>
       </c>
       <c r="D51" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7191,17 +5388,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20052400108</v>
+        <v>20162300127</v>
       </c>
       <c r="C52" t="n">
-        <v>1340.202199999995</v>
+        <v>735</v>
       </c>
       <c r="D52" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7230,17 +5427,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20042400109</v>
+        <v>20152300128</v>
       </c>
       <c r="C53" t="n">
-        <v>1659.914999999992</v>
+        <v>1622</v>
       </c>
       <c r="D53" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7269,17 +5466,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20032400110</v>
+        <v>20142300129</v>
       </c>
       <c r="C54" t="n">
-        <v>1287.459599999997</v>
+        <v>726</v>
       </c>
       <c r="D54" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7308,17 +5505,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20022400112</v>
+        <v>20132300130</v>
       </c>
       <c r="C55" t="n">
-        <v>1434.670999999991</v>
+        <v>2502</v>
       </c>
       <c r="D55" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7347,17 +5544,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20012400113</v>
+        <v>20122300131</v>
       </c>
       <c r="C56" t="n">
-        <v>1773.431999999988</v>
+        <v>401</v>
       </c>
       <c r="D56" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7386,17 +5583,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20002400114</v>
+        <v>20112300132</v>
       </c>
       <c r="C57" t="n">
-        <v>1975.231089999979</v>
+        <v>400</v>
       </c>
       <c r="D57" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7425,17 +5622,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19992400115</v>
+        <v>20082300135</v>
       </c>
       <c r="C58" t="n">
-        <v>1648.599299999983</v>
+        <v>108.3</v>
       </c>
       <c r="D58" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7464,17 +5661,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19982400116</v>
+        <v>20062300136</v>
       </c>
       <c r="C59" t="n">
-        <v>853.3870000000011</v>
+        <v>240</v>
       </c>
       <c r="D59" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7503,17 +5700,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19972400117</v>
+        <v>20202100137</v>
       </c>
       <c r="C60" t="n">
-        <v>564.2280000000012</v>
+        <v>251.8</v>
       </c>
       <c r="D60" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7542,17 +5739,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19962400118</v>
+        <v>20192100138</v>
       </c>
       <c r="C61" t="n">
-        <v>251.9353999999998</v>
+        <v>195.4</v>
       </c>
       <c r="D61" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7581,17 +5778,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19952400119</v>
+        <v>20182100139</v>
       </c>
       <c r="C62" t="n">
-        <v>170.8699999999997</v>
+        <v>414.723</v>
       </c>
       <c r="D62" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7620,17 +5817,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19942400120</v>
+        <v>20172100140</v>
       </c>
       <c r="C63" t="n">
-        <v>157.8950399999997</v>
+        <v>3311.82512350009</v>
       </c>
       <c r="D63" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7659,17 +5856,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19932400121</v>
+        <v>20162100141</v>
       </c>
       <c r="C64" t="n">
-        <v>172.6729999999995</v>
+        <v>6222.270852000401</v>
       </c>
       <c r="D64" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7698,17 +5895,17 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19922400123</v>
+        <v>20152100142</v>
       </c>
       <c r="C65" t="n">
-        <v>133.46792</v>
+        <v>1688.32281700176</v>
       </c>
       <c r="D65" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7737,17 +5934,17 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20192300124</v>
+        <v>20142100143</v>
       </c>
       <c r="C66" t="n">
-        <v>1130.5</v>
+        <v>1467.604103002783</v>
       </c>
       <c r="D66" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7776,17 +5973,17 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20182300125</v>
+        <v>20132100144</v>
       </c>
       <c r="C67" t="n">
-        <v>952</v>
+        <v>1387.194197003628</v>
       </c>
       <c r="D67" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7815,17 +6012,17 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20172300126</v>
+        <v>20122100146</v>
       </c>
       <c r="C68" t="n">
-        <v>1455</v>
+        <v>1732.597611001665</v>
       </c>
       <c r="D68" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7854,17 +6051,17 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20162300127</v>
+        <v>20112100147</v>
       </c>
       <c r="C69" t="n">
-        <v>735</v>
+        <v>3084.73933250188</v>
       </c>
       <c r="D69" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7893,17 +6090,17 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20152300128</v>
+        <v>20102100148</v>
       </c>
       <c r="C70" t="n">
-        <v>1622</v>
+        <v>6784.098386973769</v>
       </c>
       <c r="D70" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7932,17 +6129,17 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20142300129</v>
+        <v>20092100149</v>
       </c>
       <c r="C71" t="n">
-        <v>726</v>
+        <v>9295.344562513454</v>
       </c>
       <c r="D71" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7971,17 +6168,17 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20132300130</v>
+        <v>20082100150</v>
       </c>
       <c r="C72" t="n">
-        <v>2502</v>
+        <v>7475.485288501332</v>
       </c>
       <c r="D72" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8010,17 +6207,17 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20122300131</v>
+        <v>20072100151</v>
       </c>
       <c r="C73" t="n">
-        <v>401</v>
+        <v>4341.280789791133</v>
       </c>
       <c r="D73" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8049,17 +6246,17 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20112300132</v>
+        <v>20062100152</v>
       </c>
       <c r="C74" t="n">
-        <v>400</v>
+        <v>1924.091949500588</v>
       </c>
       <c r="D74" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8088,17 +6285,17 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20082300135</v>
+        <v>20052100153</v>
       </c>
       <c r="C75" t="n">
-        <v>108.3</v>
+        <v>1221.046400499492</v>
       </c>
       <c r="D75" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8127,17 +6324,17 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20062300136</v>
+        <v>20042100154</v>
       </c>
       <c r="C76" t="n">
-        <v>240</v>
+        <v>829.7290730002117</v>
       </c>
       <c r="D76" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8166,12 +6363,14 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20202100137</v>
+        <v>20032100155</v>
       </c>
       <c r="C77" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>907.4490049999474</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>OtherPV</t>
@@ -8203,12 +6402,14 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20192100138</v>
+        <v>20022100157</v>
       </c>
       <c r="C78" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>633.0435090000258</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>OtherPV</t>
@@ -8240,12 +6441,14 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20182100139</v>
+        <v>20012100158</v>
       </c>
       <c r="C79" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>OtherPV</t>
@@ -8277,12 +6480,14 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20172100140</v>
+        <v>20002100159</v>
       </c>
       <c r="C80" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>OtherPV</t>
@@ -8314,12 +6519,14 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20162100141</v>
+        <v>19992100160</v>
       </c>
       <c r="C81" t="n">
-        <v>6222.270852000401</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>171.9239930052555</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>OtherPV</t>
@@ -8341,635 +6548,6 @@
         </is>
       </c>
       <c r="I81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>20152100142</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1688.32281700176</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>20142100143</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1467.604103002783</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>20132100144</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1387.194197003628</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>20122100146</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1732.597611001665</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>20112100147</v>
-      </c>
-      <c r="C86" t="n">
-        <v>3084.73933250188</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>20102100148</v>
-      </c>
-      <c r="C87" t="n">
-        <v>6784.098386973769</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>20092100149</v>
-      </c>
-      <c r="C88" t="n">
-        <v>9295.344562513454</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>20082100150</v>
-      </c>
-      <c r="C89" t="n">
-        <v>7475.485288501332</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>20072100151</v>
-      </c>
-      <c r="C90" t="n">
-        <v>4341.280789791133</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>20062100152</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1924.091949500588</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>20052100153</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1221.046400499492</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>20042100154</v>
-      </c>
-      <c r="C93" t="n">
-        <v>829.7290730002117</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>20032100155</v>
-      </c>
-      <c r="C94" t="n">
-        <v>907.4490049999474</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>20022100157</v>
-      </c>
-      <c r="C95" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>20012100158</v>
-      </c>
-      <c r="C96" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>20002100159</v>
-      </c>
-      <c r="C97" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>19992100160</v>
-      </c>
-      <c r="C98" t="n">
-        <v>171.9239930052555</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9060,7 +6638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9427,10 +7005,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19950100089</v>
+        <v>20120100133</v>
       </c>
       <c r="C10" t="n">
-        <v>117.9</v>
+        <v>89.8</v>
       </c>
       <c r="D10" t="n">
         <v>1.9</v>
@@ -9466,10 +7044,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19890100100</v>
+        <v>20100100215</v>
       </c>
       <c r="C11" t="n">
-        <v>171</v>
+        <v>89.05</v>
       </c>
       <c r="D11" t="n">
         <v>1.9</v>
@@ -9505,10 +7083,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19820100111</v>
+        <v>20080100226</v>
       </c>
       <c r="C12" t="n">
-        <v>123.5</v>
+        <v>127.8</v>
       </c>
       <c r="D12" t="n">
         <v>1.9</v>
@@ -9544,10 +7122,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19800100122</v>
+        <v>20070100237</v>
       </c>
       <c r="C13" t="n">
-        <v>252.61</v>
+        <v>217.8</v>
       </c>
       <c r="D13" t="n">
         <v>1.9</v>
@@ -9583,10 +7161,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20120100133</v>
+        <v>20060100248</v>
       </c>
       <c r="C14" t="n">
-        <v>89.8</v>
+        <v>91.5</v>
       </c>
       <c r="D14" t="n">
         <v>1.9</v>
@@ -9622,10 +7200,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19710100134</v>
+        <v>20050100259</v>
       </c>
       <c r="C15" t="n">
-        <v>280.2</v>
+        <v>66.78</v>
       </c>
       <c r="D15" t="n">
         <v>1.9</v>
@@ -9661,10 +7239,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20100100215</v>
+        <v>20040100270</v>
       </c>
       <c r="C16" t="n">
-        <v>89.05</v>
+        <v>166.92</v>
       </c>
       <c r="D16" t="n">
         <v>1.9</v>
@@ -9700,10 +7278,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20080100226</v>
+        <v>20030100281</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8</v>
+        <v>206.65</v>
       </c>
       <c r="D17" t="n">
         <v>1.9</v>
@@ -9729,201 +7307,6 @@
         </is>
       </c>
       <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20070100237</v>
-      </c>
-      <c r="C18" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20060100248</v>
-      </c>
-      <c r="C19" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20050100259</v>
-      </c>
-      <c r="C20" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20040100270</v>
-      </c>
-      <c r="C21" t="n">
-        <v>166.92</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20030100281</v>
-      </c>
-      <c r="C22" t="n">
-        <v>206.65</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>50040.99861111111</v>
+        <v>45657.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>50404.99861111111</v>
+        <v>46021.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,37 +1159,10 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="C1" s="6" t="n">
-        <v>2028</v>
-      </c>
-      <c r="D1" s="6" t="n">
-        <v>2029</v>
-      </c>
-      <c r="E1" s="6" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F1" s="6" t="n">
-        <v>2031</v>
-      </c>
-      <c r="G1" s="6" t="n">
-        <v>2032</v>
-      </c>
-      <c r="H1" s="6" t="n">
-        <v>2033</v>
-      </c>
-      <c r="I1" s="6" t="n">
-        <v>2034</v>
-      </c>
-      <c r="J1" s="6" t="n">
-        <v>2035</v>
-      </c>
-      <c r="K1" s="6" t="n">
-        <v>2036</v>
-      </c>
-      <c r="L1" s="6" t="n">
-        <v>2037</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2">
@@ -1199,18 +1172,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.06</v>
+        <v>40.3</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1222,15 +1186,6 @@
         <v>1.69</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1242,15 +1197,6 @@
         <v>3.96</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1259,18 +1205,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.76800000000003</v>
+        <v>14.32</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1279,18 +1216,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.39599999999996</v>
+        <v>21.7</v>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1299,18 +1227,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.89799999999923</v>
+        <v>54.81</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1324,51 +1243,6 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1673,7 +1547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,17 +2187,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20222100086</v>
+        <v>20151200026</v>
       </c>
       <c r="C17" t="n">
-        <v>1000</v>
+        <v>8858.749999999998</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2352,10 +2226,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20222100087</v>
+        <v>20152100030</v>
       </c>
       <c r="C18" t="n">
-        <v>1000</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2391,17 +2265,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20222100089</v>
+        <v>20152300031</v>
       </c>
       <c r="C19" t="n">
-        <v>1000</v>
+        <v>10271.8</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2420,786 +2294,6 @@
         </is>
       </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20222100092</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20222100096</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20222100101</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>20222100107</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>20222100114</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>20222100122</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>20222100131</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>20222100141</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>20232100141</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>20232100142</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>20232100144</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>20232100147</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>20232100151</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>20232100156</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>20232100162</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>20232100169</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>20232100177</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>20151200026</v>
-      </c>
-      <c r="C37" t="n">
-        <v>8858.749999999998</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>RunOfRiver</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>20152100030</v>
-      </c>
-      <c r="C38" t="n">
-        <v>53555.51607579708</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>20152300031</v>
-      </c>
-      <c r="C39" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45657.99861111111</v>
+        <v>49674.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>46021.99861111111</v>
+        <v>50039.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1159,34 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="C1" s="6" t="n">
-        <v>2025</v>
+        <v>2028</v>
+      </c>
+      <c r="D1" s="6" t="n">
+        <v>2029</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>2031</v>
+      </c>
+      <c r="G1" s="6" t="n">
+        <v>2032</v>
+      </c>
+      <c r="H1" s="6" t="n">
+        <v>2033</v>
+      </c>
+      <c r="I1" s="6" t="n">
+        <v>2034</v>
+      </c>
+      <c r="J1" s="6" t="n">
+        <v>2035</v>
+      </c>
+      <c r="K1" s="6" t="n">
+        <v>2036</v>
       </c>
     </row>
     <row r="2">
@@ -1172,9 +1196,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.3</v>
+        <v>84.07999999999998</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1186,6 +1218,14 @@
         <v>1.69</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1197,6 +1237,14 @@
         <v>3.96</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1205,9 +1253,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.32</v>
+        <v>22.06400000000008</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1216,9 +1272,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.7</v>
+        <v>25.08799999999997</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1227,9 +1291,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.81</v>
+        <v>73.22399999999925</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1243,6 +1315,46 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1259,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,199 +1416,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>20132800050</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>1560</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>99990300008</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>20150300022</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F4" t="n">
-        <v>31358.329</v>
-      </c>
-      <c r="G4" t="n">
-        <v>31358.329</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20152800024</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24845.77</v>
-      </c>
-      <c r="G5" t="n">
-        <v>24845.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20153000025</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3652.9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3652.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20152900027</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20779.02</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20779.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20151400028</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NUCLEAR</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8599</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8599</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20151700029</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8194.3025</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8194.3025</v>
+        <v>1560</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,17 +1578,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992400003</v>
+        <v>20212100098</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1680,17 +1617,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99992300007</v>
+        <v>20212100101</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1719,17 +1656,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152400023</v>
+        <v>20222100101</v>
       </c>
       <c r="C5" t="n">
-        <v>47547.50848700004</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1758,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20212100031</v>
+        <v>20222100107</v>
       </c>
       <c r="C6" t="n">
         <v>1000</v>
@@ -1797,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20212100032</v>
+        <v>20232100107</v>
       </c>
       <c r="C7" t="n">
         <v>1000</v>
@@ -1836,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20212100034</v>
+        <v>20232100108</v>
       </c>
       <c r="C8" t="n">
         <v>1000</v>
@@ -1875,7 +1812,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20212100037</v>
+        <v>20242100109</v>
       </c>
       <c r="C9" t="n">
         <v>1000</v>
@@ -1914,7 +1851,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20212100041</v>
+        <v>20242100111</v>
       </c>
       <c r="C10" t="n">
         <v>1000</v>
@@ -1953,17 +1890,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20212100046</v>
+        <v>20242300102</v>
       </c>
       <c r="C11" t="n">
         <v>1000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1992,17 +1929,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20212100052</v>
+        <v>20242300104</v>
       </c>
       <c r="C12" t="n">
         <v>1000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2031,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20212100059</v>
+        <v>20252100117</v>
       </c>
       <c r="C13" t="n">
         <v>1000</v>
@@ -2070,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20212100067</v>
+        <v>20252100121</v>
       </c>
       <c r="C14" t="n">
         <v>1000</v>
@@ -2109,17 +2046,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20212100076</v>
+        <v>20252400108</v>
       </c>
       <c r="C15" t="n">
         <v>1000</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2148,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20212100086</v>
+        <v>20262100122</v>
       </c>
       <c r="C16" t="n">
         <v>1000</v>
@@ -2187,17 +2124,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20151200026</v>
+        <v>20262100131</v>
       </c>
       <c r="C17" t="n">
-        <v>8858.749999999998</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2226,17 +2163,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20152100030</v>
+        <v>20262400114</v>
       </c>
       <c r="C18" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2265,35 +2202,1751 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20152300031</v>
+        <v>20272100132</v>
       </c>
       <c r="C19" t="n">
-        <v>10271.8</v>
+        <v>1000</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20272100134</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20272400121</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20282100135</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20282100137</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20282300124</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D24" t="n">
         <v>2.7</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20282300127</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20282400131</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20292100143</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20292100147</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20292400134</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20302100148</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20302100157</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20302400140</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20312400147</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20322300150</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20322300153</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20161200052</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20061200053</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19881200054</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19861200056</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20202100062</v>
+      </c>
+      <c r="C40" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20192100063</v>
+      </c>
+      <c r="C41" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20182100064</v>
+      </c>
+      <c r="C42" t="n">
+        <v>414.723</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20172100065</v>
+      </c>
+      <c r="C43" t="n">
+        <v>266.003</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20162100067</v>
+      </c>
+      <c r="C44" t="n">
+        <v>476.7309999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20152100068</v>
+      </c>
+      <c r="C45" t="n">
+        <v>56.78</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20142100069</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20132100070</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20102100071</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20092100072</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20022100073</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20192300074</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1130.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20182300075</v>
+      </c>
+      <c r="C52" t="n">
+        <v>752</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20152300076</v>
+      </c>
+      <c r="C53" t="n">
+        <v>600</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20142300078</v>
+      </c>
+      <c r="C54" t="n">
+        <v>144</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20132300079</v>
+      </c>
+      <c r="C55" t="n">
+        <v>129</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20202400081</v>
+      </c>
+      <c r="C56" t="n">
+        <v>400</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20192400082</v>
+      </c>
+      <c r="C57" t="n">
+        <v>554.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20182400083</v>
+      </c>
+      <c r="C58" t="n">
+        <v>577</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20172400084</v>
+      </c>
+      <c r="C59" t="n">
+        <v>102</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20162400085</v>
+      </c>
+      <c r="C60" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20152400086</v>
+      </c>
+      <c r="C61" t="n">
+        <v>429</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20132400087</v>
+      </c>
+      <c r="C62" t="n">
+        <v>63</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20112400089</v>
+      </c>
+      <c r="C63" t="n">
+        <v>122</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2310,7 +3963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2353,34 +4006,6 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99992600009</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>STORAGE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +4037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>20150100021</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2506,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20150100021</v>
+        <v>20140100022</v>
       </c>
       <c r="C3" t="n">
-        <v>4644.4034</v>
+        <v>1071.6</v>
       </c>
       <c r="D3" t="n">
         <v>1.9</v>
@@ -2535,6 +4160,318 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20130100033</v>
+      </c>
+      <c r="C4" t="n">
+        <v>731</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20240100095</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20240100096</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20280100111</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20280100112</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20320100137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20320100138</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20120100044</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45657.99861111111</v>
+        <v>43830.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>46021.99861111111</v>
+        <v>44195.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C1" s="6" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2">
@@ -1172,9 +1169,8 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>20.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1185,7 +1181,6 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1196,7 +1191,6 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1205,9 +1199,8 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1216,9 +1209,8 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>20.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1227,9 +1219,8 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>46.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1238,11 +1229,6 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1259,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,24 +1290,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>22051</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>22051</v>
       </c>
     </row>
     <row r="3">
@@ -1329,24 +1315,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99990300008</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3747</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="4">
@@ -1354,24 +1340,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20150300022</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F4" t="n">
-        <v>31358.329</v>
+        <v>18049</v>
       </c>
       <c r="G4" t="n">
-        <v>31358.329</v>
+        <v>18049</v>
       </c>
     </row>
     <row r="5">
@@ -1379,11 +1365,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152800024</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1393,10 +1379,10 @@
         <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>24845.77</v>
+        <v>9516</v>
       </c>
       <c r="G5" t="n">
-        <v>24845.77</v>
+        <v>9516</v>
       </c>
     </row>
     <row r="6">
@@ -1404,24 +1390,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20153000025</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>3652.9</v>
+        <v>7820.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3652.9</v>
+        <v>7820.6</v>
       </c>
     </row>
     <row r="7">
@@ -1429,74 +1415,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20152900027</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
-        <v>20779.02</v>
+        <v>16062.2</v>
       </c>
       <c r="G7" t="n">
-        <v>20779.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20151400028</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NUCLEAR</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8599</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8599</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20151700029</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8194.3025</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8194.3025</v>
+        <v>16062.2</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1602,17 +1538,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992100002</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2328</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1641,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992400003</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>50617</v>
       </c>
       <c r="D3" t="n">
         <v>1.35</v>
@@ -1680,10 +1616,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99992300007</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2859</v>
       </c>
       <c r="D4" t="n">
         <v>2.7</v>
@@ -1719,17 +1655,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152400023</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>47547.50848700004</v>
+        <v>4644</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1758,17 +1694,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20212100031</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>5317</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1797,10 +1733,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20212100032</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>14504</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1836,10 +1772,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20212100034</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1000</v>
+        <v>30932</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1865,435 +1801,6 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20212100037</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20212100041</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20212100046</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20212100052</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20212100059</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20212100067</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20212100076</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>20212100086</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20151200026</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8858.749999999998</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>RunOfRiver</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20152100030</v>
-      </c>
-      <c r="C18" t="n">
-        <v>53555.51607579708</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20152300031</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2360,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992600009</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2368,19 +1875,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +1919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>7908</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2496,45 +2003,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20150100021</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4644.4034</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>43830.99861111111</v>
+        <v>45291.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44195.99861111111</v>
+        <v>45656.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.4</v>
+        <v>36.31999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>13.616</v>
       </c>
     </row>
     <row r="6">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
+        <v>21.392</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.44</v>
+        <v>53.136</v>
       </c>
     </row>
     <row r="8">
@@ -1245,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,20 +1294,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22051</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>22051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1319,20 +1319,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3747</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1344,20 +1344,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>18049</v>
+        <v>22051</v>
       </c>
       <c r="G4" t="n">
-        <v>18049</v>
+        <v>22051</v>
       </c>
     </row>
     <row r="5">
@@ -1369,20 +1369,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F5" t="n">
-        <v>9516</v>
+        <v>3747</v>
       </c>
       <c r="G5" t="n">
-        <v>9516</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="6">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
-        <v>7820.6</v>
+        <v>18049</v>
       </c>
       <c r="G6" t="n">
-        <v>7820.6</v>
+        <v>18049</v>
       </c>
     </row>
     <row r="7">
@@ -1419,19 +1419,69 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>NUCLEAR</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9516</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7820.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7820.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>4.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>16062.2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>16062.2</v>
       </c>
     </row>
@@ -1483,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,14 +1591,14 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2328</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1580,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>50617</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1.35</v>
@@ -1619,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2859</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>2.7</v>
@@ -1658,14 +1708,14 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4644</v>
+        <v>2328</v>
       </c>
       <c r="D5" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1697,14 +1747,14 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5317</v>
+        <v>50617</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1736,14 +1786,14 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14504</v>
+        <v>2859</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1775,32 +1825,149 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>4644</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5317</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14504</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>30932</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>OtherPV</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1817,7 +1984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,18 +2042,46 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>STORAGE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>0.89</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>0.89</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>30000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>8000</v>
       </c>
     </row>
@@ -1919,7 +2114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7908</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2003,6 +2198,45 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7908</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>20122800022</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20123000028</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20122900030</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20121400031</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>20120300032</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>20121700033</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>99992100002</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>99992400003</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1666,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>99992300007</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20122400023</v>
       </c>
       <c r="C5" t="n">
         <v>2328</v>
@@ -1744,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20122400024</v>
       </c>
       <c r="C6" t="n">
         <v>50617</v>
@@ -1783,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20122300025</v>
       </c>
       <c r="C7" t="n">
         <v>2859</v>
@@ -1822,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>20122300026</v>
       </c>
       <c r="C8" t="n">
         <v>4644</v>
@@ -1861,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>20121000027</v>
       </c>
       <c r="C9" t="n">
         <v>5317</v>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>20122100034</v>
       </c>
       <c r="C10" t="n">
         <v>14504</v>
@@ -1939,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>20122100035</v>
       </c>
       <c r="C11" t="n">
         <v>30932</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>99992600009</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20122700029</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20120100021</v>
       </c>
       <c r="C3" t="n">
         <v>7908</v>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45291.99861111111</v>
+        <v>44196.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>45656.99861111111</v>
+        <v>44560.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1159,10 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2024</v>
+        <v>2020</v>
+      </c>
+      <c r="C1" s="6" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="2">
@@ -1169,8 +1172,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.31999999999999</v>
-      </c>
+        <v>24.38</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1181,6 +1185,7 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1191,6 +1196,7 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1199,8 +1205,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.616</v>
-      </c>
+        <v>11.504</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1209,8 +1216,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.392</v>
-      </c>
+        <v>20.468</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1219,8 +1227,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.136</v>
-      </c>
+        <v>48.114</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1229,6 +1238,11 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1245,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,24 +1304,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>20122800022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>22051</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>22051</v>
       </c>
     </row>
     <row r="3">
@@ -1315,24 +1329,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99990300008</v>
+        <v>20123000028</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3747</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="4">
@@ -1340,24 +1354,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20122800022</v>
+        <v>20122900030</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F4" t="n">
-        <v>22051</v>
+        <v>18049</v>
       </c>
       <c r="G4" t="n">
-        <v>22051</v>
+        <v>18049</v>
       </c>
     </row>
     <row r="5">
@@ -1365,24 +1379,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20123000028</v>
+        <v>20121400031</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>3747</v>
+        <v>9516</v>
       </c>
       <c r="G5" t="n">
-        <v>3747</v>
+        <v>9516</v>
       </c>
     </row>
     <row r="6">
@@ -1390,24 +1404,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20122900030</v>
+        <v>20120300032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>18049</v>
+        <v>7820.6</v>
       </c>
       <c r="G6" t="n">
-        <v>18049</v>
+        <v>7820.6</v>
       </c>
     </row>
     <row r="7">
@@ -1415,73 +1429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20121400031</v>
+        <v>20121700033</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
-        <v>9516</v>
+        <v>16062.2</v>
       </c>
       <c r="G7" t="n">
-        <v>9516</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20120300032</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7820.6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7820.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20121700033</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16062.2</v>
-      </c>
-      <c r="G9" t="n">
         <v>16062.2</v>
       </c>
     </row>
@@ -1533,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,17 +1552,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992100002</v>
+        <v>20122400023</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2328</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1627,10 +1591,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992400003</v>
+        <v>20122400024</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>50617</v>
       </c>
       <c r="D3" t="n">
         <v>1.35</v>
@@ -1666,10 +1630,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99992300007</v>
+        <v>20122300025</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2859</v>
       </c>
       <c r="D4" t="n">
         <v>2.7</v>
@@ -1705,17 +1669,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20122400023</v>
+        <v>20122300026</v>
       </c>
       <c r="C5" t="n">
-        <v>2328</v>
+        <v>4644</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1744,17 +1708,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20122400024</v>
+        <v>20121000027</v>
       </c>
       <c r="C6" t="n">
-        <v>50617</v>
+        <v>5317</v>
       </c>
       <c r="D6" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1783,17 +1747,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20122300025</v>
+        <v>20122100034</v>
       </c>
       <c r="C7" t="n">
-        <v>2859</v>
+        <v>14504</v>
       </c>
       <c r="D7" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1822,17 +1786,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20122300026</v>
+        <v>20122100035</v>
       </c>
       <c r="C8" t="n">
-        <v>4644</v>
+        <v>30932</v>
       </c>
       <c r="D8" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1851,123 +1815,6 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20121000027</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5317</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>RunOfRiver</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20122100034</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14504</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20122100035</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30932</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1984,7 +1831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2034,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992600009</v>
+        <v>20122700029</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2042,46 +1889,18 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20122700029</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>STORAGE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H3" t="n">
         <v>8000</v>
       </c>
     </row>
@@ -2114,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>20120100021</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>7908</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2198,45 +2017,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20120100021</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7908</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>44196.99861111111</v>
+        <v>45291.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44560.99861111111</v>
+        <v>45656.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="6" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2">
@@ -1172,9 +1169,8 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.38</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>36.31999999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1185,7 +1181,6 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1196,7 +1191,6 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1205,9 +1199,8 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.504</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>13.616</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1216,9 +1209,8 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.468</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>21.392</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1227,9 +1219,8 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.114</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>53.136</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1238,11 +1229,6 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1259,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,24 +1290,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20122800022</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22051</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>22051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1329,24 +1315,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20123000028</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3747</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1354,24 +1340,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20122900030</v>
+        <v>20122800022</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>18049</v>
+        <v>22051</v>
       </c>
       <c r="G4" t="n">
-        <v>18049</v>
+        <v>22051</v>
       </c>
     </row>
     <row r="5">
@@ -1379,24 +1365,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20121400031</v>
+        <v>20123000028</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F5" t="n">
-        <v>9516</v>
+        <v>3747</v>
       </c>
       <c r="G5" t="n">
-        <v>9516</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="6">
@@ -1404,24 +1390,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20120300032</v>
+        <v>20122900030</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
-        <v>7820.6</v>
+        <v>18049</v>
       </c>
       <c r="G6" t="n">
-        <v>7820.6</v>
+        <v>18049</v>
       </c>
     </row>
     <row r="7">
@@ -1429,23 +1415,73 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>20121400031</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NUCLEAR</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9516</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20120300032</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7820.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7820.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>20121700033</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>4.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>16062.2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>16062.2</v>
       </c>
     </row>
@@ -1497,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,17 +1588,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20122400023</v>
+        <v>99992100002</v>
       </c>
       <c r="C2" t="n">
-        <v>2328</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1591,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20122400024</v>
+        <v>99992400003</v>
       </c>
       <c r="C3" t="n">
-        <v>50617</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1.35</v>
@@ -1630,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20122300025</v>
+        <v>99992300007</v>
       </c>
       <c r="C4" t="n">
-        <v>2859</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>2.7</v>
@@ -1669,17 +1705,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20122300026</v>
+        <v>20122400023</v>
       </c>
       <c r="C5" t="n">
-        <v>4644</v>
+        <v>2328</v>
       </c>
       <c r="D5" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1708,17 +1744,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20121000027</v>
+        <v>20122400024</v>
       </c>
       <c r="C6" t="n">
-        <v>5317</v>
+        <v>50617</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1747,17 +1783,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20122100034</v>
+        <v>20122300025</v>
       </c>
       <c r="C7" t="n">
-        <v>14504</v>
+        <v>2859</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1786,35 +1822,152 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>20122300026</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4644</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20121000027</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5317</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20122100034</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14504</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>20122100035</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C11" t="n">
         <v>30932</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>OtherPV</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1831,7 +1984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,26 +2034,54 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>99992600009</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>STORAGE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>20122700029</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>STORAGE</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>0.89</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>0.89</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>30000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>8000</v>
       </c>
     </row>
@@ -1933,7 +2114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20120100021</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
-        <v>7908</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2017,6 +2198,45 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20120100021</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7908</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45291.99861111111</v>
+        <v>48579.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>45656.99861111111</v>
+        <v>48943.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,6 +1161,33 @@
       <c r="B1" s="6" t="n">
         <v>2024</v>
       </c>
+      <c r="C1" s="6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D1" s="6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>2028</v>
+      </c>
+      <c r="G1" s="6" t="n">
+        <v>2029</v>
+      </c>
+      <c r="H1" s="6" t="n">
+        <v>2030</v>
+      </c>
+      <c r="I1" s="6" t="n">
+        <v>2031</v>
+      </c>
+      <c r="J1" s="6" t="n">
+        <v>2032</v>
+      </c>
+      <c r="K1" s="6" t="n">
+        <v>2033</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1169,8 +1196,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.31999999999999</v>
-      </c>
+        <v>72.13999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1181,6 +1217,15 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1191,6 +1236,15 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1199,8 +1253,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.616</v>
-      </c>
+        <v>19.95199999999977</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1209,8 +1272,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.392</v>
-      </c>
+        <v>24.16399999999999</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1219,8 +1291,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.136</v>
-      </c>
+        <v>68.20199999999977</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1229,6 +1310,51 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>48579.99861111111</v>
+        <v>43830.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>48943.99861111111</v>
+        <v>44195.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,34 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C1" s="6" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D1" s="6" t="n">
-        <v>2026</v>
-      </c>
-      <c r="E1" s="6" t="n">
-        <v>2027</v>
-      </c>
-      <c r="F1" s="6" t="n">
-        <v>2028</v>
-      </c>
-      <c r="G1" s="6" t="n">
-        <v>2029</v>
-      </c>
-      <c r="H1" s="6" t="n">
-        <v>2030</v>
-      </c>
-      <c r="I1" s="6" t="n">
-        <v>2031</v>
-      </c>
-      <c r="J1" s="6" t="n">
-        <v>2032</v>
-      </c>
-      <c r="K1" s="6" t="n">
-        <v>2033</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2">
@@ -1196,17 +1169,8 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.13999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>20.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1217,15 +1181,6 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1236,15 +1191,6 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1253,17 +1199,8 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.95199999999977</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1272,17 +1209,8 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.16399999999999</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>20.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1291,17 +1219,8 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.20199999999977</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>46.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1310,51 +1229,6 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1371,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1416,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>20150300022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1424,16 +1298,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5382609560151593</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>31358.329</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>31358.329</v>
       </c>
     </row>
     <row r="3">
@@ -1441,24 +1315,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99990300008</v>
+        <v>20152800024</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.40383904661803</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>24845.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="4">
@@ -1466,24 +1340,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20122800022</v>
+        <v>20153000025</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4</v>
+        <v>0.3539907794712127</v>
       </c>
       <c r="F4" t="n">
-        <v>22051</v>
+        <v>3652.9</v>
       </c>
       <c r="G4" t="n">
-        <v>22051</v>
+        <v>3652.9</v>
       </c>
     </row>
     <row r="5">
@@ -1491,24 +1365,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20123000028</v>
+        <v>20152900027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.35</v>
+        <v>0.360040798965821</v>
       </c>
       <c r="F5" t="n">
-        <v>3747</v>
+        <v>20779.02</v>
       </c>
       <c r="G5" t="n">
-        <v>3747</v>
+        <v>20779.02</v>
       </c>
     </row>
     <row r="6">
@@ -1516,24 +1390,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20122900030</v>
+        <v>20151400028</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F6" t="n">
-        <v>18049</v>
+        <v>8599</v>
       </c>
       <c r="G6" t="n">
-        <v>18049</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="7">
@@ -1541,74 +1415,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20121400031</v>
+        <v>20151700029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.3741421697393409</v>
       </c>
       <c r="F7" t="n">
-        <v>9516</v>
+        <v>8194.3025</v>
       </c>
       <c r="G7" t="n">
-        <v>9516</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20120300032</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7820.6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7820.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20121700033</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16062.2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16062.2</v>
+        <v>8194.3025</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1714,17 +1538,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992100002</v>
+        <v>20152400023</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>47547.50848700004</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1753,17 +1577,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992400003</v>
+        <v>20151200026</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>8858.749999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1792,17 +1616,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99992300007</v>
+        <v>20152100030</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1831,17 +1655,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20122400023</v>
+        <v>20152300031</v>
       </c>
       <c r="C5" t="n">
-        <v>2328</v>
+        <v>10271.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1860,240 +1684,6 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20122400024</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50617</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>WindOn</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20122300025</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2859</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20122300026</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4644</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20121000027</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5317</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>RunOfRiver</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20122100034</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14504</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20122100035</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30932</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2110,7 +1700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2153,62 +1743,6 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99992600009</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>STORAGE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20122700029</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>STORAGE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -2240,7 +1774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2295,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>20150100021</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4644.4034</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2324,45 +1858,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20120100021</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7908</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>43830.99861111111</v>
+        <v>45291.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44195.99861111111</v>
+        <v>45656.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.4</v>
+        <v>36.31999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>13.616</v>
       </c>
     </row>
     <row r="6">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
+        <v>21.392</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.44</v>
+        <v>53.136</v>
       </c>
     </row>
     <row r="8">
@@ -1245,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150300022</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5382609560151593</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>31358.329</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>31358.329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1315,24 +1315,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20152800024</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.40383904661803</v>
+        <v>0.61</v>
       </c>
       <c r="F3" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1340,24 +1340,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20153000025</v>
+        <v>20150300022</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3539907794712127</v>
+        <v>0.61</v>
       </c>
       <c r="F4" t="n">
-        <v>3652.9</v>
+        <v>31358.329</v>
       </c>
       <c r="G4" t="n">
-        <v>3652.9</v>
+        <v>31358.329</v>
       </c>
     </row>
     <row r="5">
@@ -1365,24 +1365,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152900027</v>
+        <v>20152800024</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.360040798965821</v>
+        <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>20779.02</v>
+        <v>24845.77</v>
       </c>
       <c r="G5" t="n">
-        <v>20779.02</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="6">
@@ -1390,24 +1390,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20151400028</v>
+        <v>20153000025</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
-        <v>8599</v>
+        <v>3652.9</v>
       </c>
       <c r="G6" t="n">
-        <v>8599</v>
+        <v>3652.9</v>
       </c>
     </row>
     <row r="7">
@@ -1415,23 +1415,73 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>20152900027</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGNITE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20779.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20151400028</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NUCLEAR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8599</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8599</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>20151700029</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>4.5</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.3741421697393409</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E9" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F9" t="n">
         <v>8194.3025</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>8194.3025</v>
       </c>
     </row>
@@ -1483,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,17 +1588,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20152400023</v>
+        <v>99992100002</v>
       </c>
       <c r="C2" t="n">
-        <v>47547.50848700004</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1577,17 +1627,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20151200026</v>
+        <v>99992400003</v>
       </c>
       <c r="C3" t="n">
-        <v>8858.749999999998</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1616,17 +1666,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20152100030</v>
+        <v>99992300007</v>
       </c>
       <c r="C4" t="n">
-        <v>53555.51607579708</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1655,35 +1705,152 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>20152400023</v>
+      </c>
+      <c r="C5" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20151200026</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20152100030</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>20152300031</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C8" t="n">
         <v>10271.8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D8" t="n">
         <v>2.7</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1700,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,6 +1910,34 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99992600009</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>STORAGE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150100021</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
-        <v>4644.4034</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -1858,6 +2053,45 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20150100021</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45291.99861111111</v>
+        <v>44196.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>45656.99861111111</v>
+        <v>44560.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1159,10 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2024</v>
+        <v>2020</v>
+      </c>
+      <c r="C1" s="6" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="2">
@@ -1169,8 +1172,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.31999999999999</v>
-      </c>
+        <v>24.38</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1181,6 +1185,7 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1191,6 +1196,7 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1199,8 +1205,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.616</v>
-      </c>
+        <v>11.504</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1209,8 +1216,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.392</v>
-      </c>
+        <v>20.468</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1219,8 +1227,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.136</v>
-      </c>
+        <v>48.114</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1229,6 +1238,11 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1245,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>20150300022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1298,16 +1312,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>31358.329</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>31358.329</v>
       </c>
     </row>
     <row r="3">
@@ -1315,24 +1329,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99990300008</v>
+        <v>20152800024</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>24845.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="4">
@@ -1340,24 +1354,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20150300022</v>
+        <v>20153000025</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F4" t="n">
-        <v>31358.329</v>
+        <v>3652.9</v>
       </c>
       <c r="G4" t="n">
-        <v>31358.329</v>
+        <v>3652.9</v>
       </c>
     </row>
     <row r="5">
@@ -1365,11 +1379,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152800024</v>
+        <v>20152900027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1379,10 +1393,10 @@
         <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>24845.77</v>
+        <v>20779.02</v>
       </c>
       <c r="G5" t="n">
-        <v>24845.77</v>
+        <v>20779.02</v>
       </c>
     </row>
     <row r="6">
@@ -1390,24 +1404,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20153000025</v>
+        <v>20151400028</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F6" t="n">
-        <v>3652.9</v>
+        <v>8599</v>
       </c>
       <c r="G6" t="n">
-        <v>3652.9</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="7">
@@ -1415,73 +1429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20152900027</v>
+        <v>20151700029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F7" t="n">
-        <v>20779.02</v>
+        <v>8194.3025</v>
       </c>
       <c r="G7" t="n">
-        <v>20779.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20151400028</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NUCLEAR</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8599</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8599</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20151700029</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8194.3025</v>
-      </c>
-      <c r="G9" t="n">
         <v>8194.3025</v>
       </c>
     </row>
@@ -1533,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,17 +1552,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992100002</v>
+        <v>20152400023</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>47547.50848700004</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1627,17 +1591,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992400003</v>
+        <v>20212100031</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1666,17 +1630,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99992300007</v>
+        <v>20212100032</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1705,17 +1669,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152400023</v>
+        <v>20212100034</v>
       </c>
       <c r="C5" t="n">
-        <v>47547.50848700004</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1744,17 +1708,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20151200026</v>
+        <v>20212100037</v>
       </c>
       <c r="C6" t="n">
-        <v>8858.749999999998</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1783,10 +1747,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20152100030</v>
+        <v>20212100041</v>
       </c>
       <c r="C7" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1822,35 +1786,308 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>20212100046</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20212100052</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20212100059</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20212100067</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20212100076</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20151200026</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20152100030</v>
+      </c>
+      <c r="C14" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>20152300031</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C15" t="n">
         <v>10271.8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D15" t="n">
         <v>2.7</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1867,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1910,34 +2147,6 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99992600009</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>STORAGE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2024,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>20150100021</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4644.4034</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2053,45 +2262,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20150100021</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4644.4034</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>44196.99861111111</v>
+        <v>43830.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44560.99861111111</v>
+        <v>44195.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,9 +1161,6 @@
       <c r="B1" s="6" t="n">
         <v>2020</v>
       </c>
-      <c r="C1" s="6" t="n">
-        <v>2021</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1172,9 +1169,8 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.38</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>20.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1185,7 +1181,6 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1196,7 +1191,6 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1205,9 +1199,8 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.504</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1216,9 +1209,8 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.468</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>20.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1227,9 +1219,8 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.114</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>46.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1238,11 +1229,6 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1497,7 +1483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,17 +1577,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20212100031</v>
+        <v>20151200026</v>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>8858.749999999998</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1630,10 +1616,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20212100032</v>
+        <v>20152100030</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1669,17 +1655,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20212100034</v>
+        <v>20152300031</v>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>10271.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1698,396 +1684,6 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20212100037</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20212100041</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20212100046</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20212100052</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20212100059</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20212100067</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20212100076</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20151200026</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8858.749999999998</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>RunOfRiver</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20152100030</v>
-      </c>
-      <c r="C14" t="n">
-        <v>53555.51607579708</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20152300031</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>43830.99861111111</v>
+        <v>45657.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44195.99861111111</v>
+        <v>46021.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1159,10 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2020</v>
+        <v>2024</v>
+      </c>
+      <c r="C1" s="6" t="n">
+        <v>2025</v>
       </c>
     </row>
     <row r="2">
@@ -1169,8 +1172,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.4</v>
-      </c>
+        <v>40.3</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1181,6 +1185,7 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1191,6 +1196,7 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1199,8 +1205,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
-      </c>
+        <v>14.32</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1209,8 +1216,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
-      </c>
+        <v>21.7</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1219,8 +1227,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.44</v>
-      </c>
+        <v>54.81</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1229,6 +1238,11 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1483,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,17 +1552,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20152400023</v>
+        <v>99992100002</v>
       </c>
       <c r="C2" t="n">
-        <v>47547.50848700004</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1577,17 +1591,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20151200026</v>
+        <v>20152400023</v>
       </c>
       <c r="C3" t="n">
-        <v>8858.749999999998</v>
+        <v>47547.50848700004</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1616,10 +1630,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20152100030</v>
+        <v>20212100031</v>
       </c>
       <c r="C4" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1655,35 +1669,893 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>20212100032</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20212100034</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20212100037</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20212100041</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20212100046</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20212100052</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20212100059</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20212100067</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20212100076</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20212100086</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20222100086</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20222100087</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20222100089</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20222100092</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20222100096</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20222100101</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20222100107</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20222100114</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20222100122</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20222100131</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20151200026</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20152100030</v>
+      </c>
+      <c r="C26" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>20152300031</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C27" t="n">
         <v>10271.8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D27" t="n">
         <v>2.7</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45657.99861111111</v>
+        <v>43830.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>46021.99861111111</v>
+        <v>44195.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C1" s="6" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2">
@@ -1172,9 +1169,8 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>20.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1185,7 +1181,6 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1196,7 +1191,6 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1205,9 +1199,8 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1216,9 +1209,8 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>20.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1227,9 +1219,8 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>46.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1238,11 +1229,6 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>./timeseries/demand/load.csv</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1497,7 +1483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,17 +1538,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992100002</v>
+        <v>20152400023</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>47547.50848700004</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1591,17 +1577,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20152400023</v>
+        <v>20151200026</v>
       </c>
       <c r="C3" t="n">
-        <v>47547.50848700004</v>
+        <v>8858.749999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1630,10 +1616,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20212100031</v>
+        <v>20152100030</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1669,17 +1655,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20212100032</v>
+        <v>20152300031</v>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>10271.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1698,864 +1684,6 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20212100034</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20212100037</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20212100041</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20212100046</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20212100052</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20212100059</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20212100067</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20212100076</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20212100086</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20222100086</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>20222100087</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20222100089</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20222100092</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20222100096</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20222100101</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20222100107</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20222100114</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>20222100122</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>20222100131</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>20151200026</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8858.749999999998</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>RunOfRiver</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>20152100030</v>
-      </c>
-      <c r="C26" t="n">
-        <v>53555.51607579708</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>20152300031</v>
-      </c>
-      <c r="C27" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>43830.99861111111</v>
+        <v>45291.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44195.99861111111</v>
+        <v>45656.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.4</v>
+        <v>36.31999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>13.616</v>
       </c>
     </row>
     <row r="6">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
+        <v>21.392</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.44</v>
+        <v>53.136</v>
       </c>
     </row>
     <row r="8">
@@ -1245,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150300022</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>31358.329</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>31358.329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1315,24 +1315,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20152800024</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F3" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1340,24 +1340,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20153000025</v>
+        <v>20150300022</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F4" t="n">
-        <v>3652.9</v>
+        <v>31358.329</v>
       </c>
       <c r="G4" t="n">
-        <v>3652.9</v>
+        <v>31358.329</v>
       </c>
     </row>
     <row r="5">
@@ -1365,11 +1365,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152900027</v>
+        <v>20152800024</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1379,10 +1379,10 @@
         <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>20779.02</v>
+        <v>24845.77</v>
       </c>
       <c r="G5" t="n">
-        <v>20779.02</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="6">
@@ -1390,24 +1390,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20151400028</v>
+        <v>20153000025</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
-        <v>8599</v>
+        <v>3652.9</v>
       </c>
       <c r="G6" t="n">
-        <v>8599</v>
+        <v>3652.9</v>
       </c>
     </row>
     <row r="7">
@@ -1415,23 +1415,73 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>20152900027</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGNITE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20779.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20151400028</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NUCLEAR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8599</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8599</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>20151700029</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>4.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.43</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>8194.3025</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>8194.3025</v>
       </c>
     </row>
@@ -1483,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,17 +1588,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20152400023</v>
+        <v>99992100002</v>
       </c>
       <c r="C2" t="n">
-        <v>47547.50848700004</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1577,17 +1627,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20151200026</v>
+        <v>99992400003</v>
       </c>
       <c r="C3" t="n">
-        <v>8858.749999999998</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1616,17 +1666,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20152100030</v>
+        <v>99992300007</v>
       </c>
       <c r="C4" t="n">
-        <v>53555.51607579708</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1655,35 +1705,152 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>20152400023</v>
+      </c>
+      <c r="C5" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20151200026</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20152100030</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>20152300031</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C8" t="n">
         <v>10271.8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D8" t="n">
         <v>2.7</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1700,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,6 +1910,34 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99992600009</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>STORAGE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150100021</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
-        <v>4644.4034</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -1858,6 +2053,45 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20150100021</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45291.99861111111</v>
+        <v>45657.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>45656.99861111111</v>
+        <v>46021.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,6 +1161,9 @@
       <c r="B1" s="6" t="n">
         <v>2024</v>
       </c>
+      <c r="C1" s="6" t="n">
+        <v>2025</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1169,8 +1172,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.31999999999999</v>
-      </c>
+        <v>40.3</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1181,6 +1185,7 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1191,6 +1196,7 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1199,8 +1205,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.616</v>
-      </c>
+        <v>14.32</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1209,8 +1216,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.392</v>
-      </c>
+        <v>21.7</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1219,8 +1227,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.136</v>
-      </c>
+        <v>54.81</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1229,6 +1238,11 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1245,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>20150300022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1298,16 +1312,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>31358.329</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>31358.329</v>
       </c>
     </row>
     <row r="3">
@@ -1315,24 +1329,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99990300008</v>
+        <v>20152800024</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>24845.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="4">
@@ -1340,24 +1354,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20150300022</v>
+        <v>20153000025</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="F4" t="n">
-        <v>31358.329</v>
+        <v>3652.9</v>
       </c>
       <c r="G4" t="n">
-        <v>31358.329</v>
+        <v>3652.9</v>
       </c>
     </row>
     <row r="5">
@@ -1365,11 +1379,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152800024</v>
+        <v>20152900027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1379,10 +1393,10 @@
         <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>24845.77</v>
+        <v>20779.02</v>
       </c>
       <c r="G5" t="n">
-        <v>24845.77</v>
+        <v>20779.02</v>
       </c>
     </row>
     <row r="6">
@@ -1390,24 +1404,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20153000025</v>
+        <v>20151400028</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F6" t="n">
-        <v>3652.9</v>
+        <v>8599</v>
       </c>
       <c r="G6" t="n">
-        <v>3652.9</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="7">
@@ -1415,73 +1429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20152900027</v>
+        <v>20151700029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F7" t="n">
-        <v>20779.02</v>
+        <v>8194.3025</v>
       </c>
       <c r="G7" t="n">
-        <v>20779.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20151400028</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NUCLEAR</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8599</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8599</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20151700029</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8194.3025</v>
-      </c>
-      <c r="G9" t="n">
         <v>8194.3025</v>
       </c>
     </row>
@@ -1533,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1627,10 +1591,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992400003</v>
+        <v>20152400023</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>47547.50848700004</v>
       </c>
       <c r="D3" t="n">
         <v>1.35</v>
@@ -1666,17 +1630,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99992300007</v>
+        <v>20212100031</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1705,17 +1669,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152400023</v>
+        <v>20212100032</v>
       </c>
       <c r="C5" t="n">
-        <v>47547.50848700004</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1744,17 +1708,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20151200026</v>
+        <v>20212100034</v>
       </c>
       <c r="C6" t="n">
-        <v>8858.749999999998</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1783,10 +1747,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20152100030</v>
+        <v>20212100037</v>
       </c>
       <c r="C7" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1822,35 +1786,815 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>20212100041</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20212100046</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20212100052</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20212100059</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20212100067</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20212100076</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20212100086</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20222100086</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20222100087</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20222100089</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20222100092</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20222100096</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20222100101</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20222100107</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20222100114</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20222100122</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20222100131</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20222100141</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20151200026</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RunOfRiver</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20152100030</v>
+      </c>
+      <c r="C27" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>20152300031</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C28" t="n">
         <v>10271.8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D28" t="n">
         <v>2.7</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1867,7 +2611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1910,34 +2654,6 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99992600009</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>STORAGE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +2685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2024,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>20150100021</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4644.4034</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2053,45 +2769,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20150100021</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4644.4034</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45657.99861111111</v>
+        <v>46752.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>46021.99861111111</v>
+        <v>47117.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,6 +1164,15 @@
       <c r="C1" s="6" t="n">
         <v>2025</v>
       </c>
+      <c r="D1" s="6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>2028</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1172,9 +1181,12 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.3</v>
+        <v>52.23999999999999</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1186,6 +1198,9 @@
         <v>1.69</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1197,6 +1212,9 @@
         <v>3.96</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1205,9 +1223,12 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.32</v>
+        <v>16.432</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1216,9 +1237,12 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.7</v>
+        <v>22.624</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1227,9 +1251,12 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.81</v>
+        <v>59.832</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1243,6 +1270,21 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1259,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150300022</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1312,16 +1354,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>31358.329</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>31358.329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1329,24 +1371,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20152800024</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F3" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1354,24 +1396,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20153000025</v>
+        <v>19892800024</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>3652.9</v>
+        <v>24845.77</v>
       </c>
       <c r="G4" t="n">
-        <v>3652.9</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="5">
@@ -1379,24 +1421,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152900027</v>
+        <v>20230300031</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F5" t="n">
-        <v>20779.02</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>20779.02</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1404,24 +1446,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20151400028</v>
+        <v>20230300032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F6" t="n">
-        <v>8599</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>8599</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1429,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20151700029</v>
+        <v>20230300034</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1437,16 +1479,1016 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20230300037</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20230300041</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20230300046</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20230300052</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20230300059</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20230300067</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20230300076</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20230300086</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20231700097</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>4.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E16" t="n">
         <v>0.43</v>
       </c>
-      <c r="F7" t="n">
-        <v>8194.3025</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8194.3025</v>
+      <c r="F16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20231700109</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20231700122</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20231700136</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20231700151</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20231700167</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20231700184</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20231700202</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20231700221</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20231700241</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20231700262</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20260301984</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20260301988</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20260301993</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20260301999</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20260302006</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20260302014</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20260302023</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20260302033</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20260302044</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20260302056</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20260302069</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20261701981</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20261702083</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20261702098</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20261702114</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20261702131</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20261702149</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20261702168</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20261702188</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20261702209</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20261702231</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +2539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20152400023</v>
+        <v>99992400003</v>
       </c>
       <c r="C3" t="n">
-        <v>47547.50848700004</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1.35</v>
@@ -1630,17 +2672,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20212100031</v>
+        <v>99992300007</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1669,17 +2711,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20212100032</v>
+        <v>20062400023</v>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>47547.50848700004</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1708,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20212100034</v>
+        <v>20212101021</v>
       </c>
       <c r="C6" t="n">
         <v>1000</v>
@@ -1747,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20212100037</v>
+        <v>20212101066</v>
       </c>
       <c r="C7" t="n">
         <v>1000</v>
@@ -1786,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20212100041</v>
+        <v>20212101112</v>
       </c>
       <c r="C8" t="n">
         <v>1000</v>
@@ -1825,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20212100046</v>
+        <v>20212101159</v>
       </c>
       <c r="C9" t="n">
         <v>1000</v>
@@ -1864,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20212100052</v>
+        <v>20212101207</v>
       </c>
       <c r="C10" t="n">
         <v>1000</v>
@@ -1903,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20212100059</v>
+        <v>20212101256</v>
       </c>
       <c r="C11" t="n">
         <v>1000</v>
@@ -1942,7 +2984,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20212100067</v>
+        <v>20212101306</v>
       </c>
       <c r="C12" t="n">
         <v>1000</v>
@@ -1981,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20212100076</v>
+        <v>20212101357</v>
       </c>
       <c r="C13" t="n">
         <v>1000</v>
@@ -2020,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20212100086</v>
+        <v>20212101409</v>
       </c>
       <c r="C14" t="n">
         <v>1000</v>
@@ -2059,7 +3101,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20222100086</v>
+        <v>20212101462</v>
       </c>
       <c r="C15" t="n">
         <v>1000</v>
@@ -2098,7 +3140,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20222100087</v>
+        <v>20212101516</v>
       </c>
       <c r="C16" t="n">
         <v>1000</v>
@@ -2137,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20222100089</v>
+        <v>20222101516</v>
       </c>
       <c r="C17" t="n">
         <v>1000</v>
@@ -2176,7 +3218,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20222100092</v>
+        <v>20222101517</v>
       </c>
       <c r="C18" t="n">
         <v>1000</v>
@@ -2215,7 +3257,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20222100096</v>
+        <v>20222101519</v>
       </c>
       <c r="C19" t="n">
         <v>1000</v>
@@ -2254,7 +3296,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20222100101</v>
+        <v>20222101621</v>
       </c>
       <c r="C20" t="n">
         <v>1000</v>
@@ -2293,7 +3335,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20222100107</v>
+        <v>20222101636</v>
       </c>
       <c r="C21" t="n">
         <v>1000</v>
@@ -2332,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20222100114</v>
+        <v>20222101652</v>
       </c>
       <c r="C22" t="n">
         <v>1000</v>
@@ -2371,7 +3413,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20222100122</v>
+        <v>20222101669</v>
       </c>
       <c r="C23" t="n">
         <v>1000</v>
@@ -2410,7 +3452,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20222100131</v>
+        <v>20222101687</v>
       </c>
       <c r="C24" t="n">
         <v>1000</v>
@@ -2449,7 +3491,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20222100141</v>
+        <v>20222101706</v>
       </c>
       <c r="C25" t="n">
         <v>1000</v>
@@ -2488,17 +3530,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20151200026</v>
+        <v>20222101726</v>
       </c>
       <c r="C26" t="n">
-        <v>8858.749999999998</v>
+        <v>1000</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2527,10 +3569,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20152100030</v>
+        <v>20222101747</v>
       </c>
       <c r="C27" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2566,35 +3608,1985 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20152300031</v>
+        <v>20222400592</v>
       </c>
       <c r="C28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20222400626</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20222400661</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20222400697</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20222400734</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20222400772</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20222400811</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20222400851</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20222400892</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20222400934</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20222400977</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20232101813</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20232101825</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20232101838</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20232101852</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20232101867</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20232101883</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20232101900</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20232101918</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20232101937</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20232101957</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20232101978</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20242101978</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20242101979</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20242102254</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20242102278</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20242102303</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20242301522</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20242301526</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20242301531</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20242301537</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20242301544</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20242301552</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20242301561</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20242301571</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20242301582</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20242301594</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20242301607</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20242401747</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20242401748</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20242401750</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20242401753</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20242401757</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20242401762</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20242401768</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20242401775</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20242401783</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20242401792</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20242401802</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20102100030</v>
+      </c>
+      <c r="C77" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20142300031</v>
+      </c>
+      <c r="C78" t="n">
         <v>10271.8</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D78" t="n">
         <v>2.7</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2611,7 +5603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2654,6 +5646,34 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99992600009</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>STORAGE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +5705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2740,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150100021</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
-        <v>4644.4034</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2769,6 +5789,435 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20240100284</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20240100307</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20240100331</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20240100356</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20240100382</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20240100409</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20240100437</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20240100466</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20240100496</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20240100527</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20240100559</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45657.99861111111</v>
+        <v>46752.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>46021.99861111111</v>
+        <v>47117.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,6 +1164,15 @@
       <c r="C1" s="6" t="n">
         <v>2025</v>
       </c>
+      <c r="D1" s="6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>2028</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1172,9 +1181,12 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.3</v>
+        <v>52.23999999999999</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1186,6 +1198,9 @@
         <v>1.69</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1197,6 +1212,9 @@
         <v>3.96</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1205,9 +1223,12 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.32</v>
+        <v>16.432</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1216,9 +1237,12 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.7</v>
+        <v>22.624</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1227,9 +1251,12 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.81</v>
+        <v>59.832</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1243,6 +1270,21 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1259,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150300022</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1312,16 +1354,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>31358.329</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>31358.329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1329,24 +1371,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20152800024</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F3" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1354,24 +1396,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20153000025</v>
+        <v>19892800024</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>3652.9</v>
+        <v>24845.77</v>
       </c>
       <c r="G4" t="n">
-        <v>3652.9</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="5">
@@ -1379,24 +1421,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20152900027</v>
+        <v>20230300031</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F5" t="n">
-        <v>20779.02</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>20779.02</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1404,24 +1446,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20151400028</v>
+        <v>20230300032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F6" t="n">
-        <v>8599</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>8599</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1429,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20151700029</v>
+        <v>20230300034</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1437,16 +1479,1016 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20230300037</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20230300041</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20230300046</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20230300052</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20230300059</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20230300067</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20230300076</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20230300086</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20231700097</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>4.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E16" t="n">
         <v>0.43</v>
       </c>
-      <c r="F7" t="n">
-        <v>8194.3025</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8194.3025</v>
+      <c r="F16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20231700109</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20231700122</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20231700136</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20231700151</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20231700167</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20231700184</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20231700202</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20231700221</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20231700241</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20231700262</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20260301984</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20260301988</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20260301993</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20260301999</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20260302006</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20260302014</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20260302023</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20260302033</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20260302044</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20260302056</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20260302069</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20261701981</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20261702083</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20261702098</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20261702114</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20261702131</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20261702149</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20261702168</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20261702188</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20261702209</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20261702231</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +2539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20152400023</v>
+        <v>99992400003</v>
       </c>
       <c r="C3" t="n">
-        <v>47547.50848700004</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1.35</v>
@@ -1630,17 +2672,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20212100031</v>
+        <v>99992300007</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1669,17 +2711,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20212100032</v>
+        <v>20062400023</v>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>47547.50848700004</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1708,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20212100034</v>
+        <v>20212101021</v>
       </c>
       <c r="C6" t="n">
         <v>1000</v>
@@ -1747,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20212100037</v>
+        <v>20212101066</v>
       </c>
       <c r="C7" t="n">
         <v>1000</v>
@@ -1786,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20212100041</v>
+        <v>20212101112</v>
       </c>
       <c r="C8" t="n">
         <v>1000</v>
@@ -1825,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20212100046</v>
+        <v>20212101159</v>
       </c>
       <c r="C9" t="n">
         <v>1000</v>
@@ -1864,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20212100052</v>
+        <v>20212101207</v>
       </c>
       <c r="C10" t="n">
         <v>1000</v>
@@ -1903,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20212100059</v>
+        <v>20212101256</v>
       </c>
       <c r="C11" t="n">
         <v>1000</v>
@@ -1942,7 +2984,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20212100067</v>
+        <v>20212101306</v>
       </c>
       <c r="C12" t="n">
         <v>1000</v>
@@ -1981,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20212100076</v>
+        <v>20212101357</v>
       </c>
       <c r="C13" t="n">
         <v>1000</v>
@@ -2020,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20212100086</v>
+        <v>20212101409</v>
       </c>
       <c r="C14" t="n">
         <v>1000</v>
@@ -2059,7 +3101,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20222100086</v>
+        <v>20212101462</v>
       </c>
       <c r="C15" t="n">
         <v>1000</v>
@@ -2098,7 +3140,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20222100087</v>
+        <v>20212101516</v>
       </c>
       <c r="C16" t="n">
         <v>1000</v>
@@ -2137,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20222100089</v>
+        <v>20222101516</v>
       </c>
       <c r="C17" t="n">
         <v>1000</v>
@@ -2176,7 +3218,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20222100092</v>
+        <v>20222101517</v>
       </c>
       <c r="C18" t="n">
         <v>1000</v>
@@ -2215,7 +3257,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20222100096</v>
+        <v>20222101519</v>
       </c>
       <c r="C19" t="n">
         <v>1000</v>
@@ -2254,7 +3296,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20222100101</v>
+        <v>20222101621</v>
       </c>
       <c r="C20" t="n">
         <v>1000</v>
@@ -2293,7 +3335,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20222100107</v>
+        <v>20222101636</v>
       </c>
       <c r="C21" t="n">
         <v>1000</v>
@@ -2332,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20222100114</v>
+        <v>20222101652</v>
       </c>
       <c r="C22" t="n">
         <v>1000</v>
@@ -2371,7 +3413,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20222100122</v>
+        <v>20222101669</v>
       </c>
       <c r="C23" t="n">
         <v>1000</v>
@@ -2410,7 +3452,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20222100131</v>
+        <v>20222101687</v>
       </c>
       <c r="C24" t="n">
         <v>1000</v>
@@ -2449,17 +3491,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20151200026</v>
+        <v>20222101706</v>
       </c>
       <c r="C25" t="n">
-        <v>8858.749999999998</v>
+        <v>1000</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2488,10 +3530,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20152100030</v>
+        <v>20222101726</v>
       </c>
       <c r="C26" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2527,35 +3569,2024 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20152300031</v>
+        <v>20222101747</v>
       </c>
       <c r="C27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20222400592</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20222400626</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20222400661</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20222400697</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20222400734</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20222400772</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20222400811</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20222400851</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20222400892</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20222400934</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20222400977</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20232101813</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20232101825</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20232101838</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20232101852</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20232101867</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20232101883</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20232101900</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20232101918</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20232101937</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20232101957</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20232101978</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20242101978</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20242101979</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20242102254</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20242102278</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20242102303</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20242301522</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20242301526</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20242301531</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20242301537</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20242301544</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20242301552</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20242301561</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20242301571</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20242301582</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20242301594</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20242301607</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20242401747</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20242401748</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20242401750</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20242401753</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20242401757</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20242401762</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20242401768</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20242401775</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20242401783</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20242401792</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20242401802</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20102100030</v>
+      </c>
+      <c r="C77" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20142300031</v>
+      </c>
+      <c r="C78" t="n">
         <v>10271.8</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D78" t="n">
         <v>2.7</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2572,7 +5603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2615,6 +5646,34 @@
         <is>
           <t>InstalledPowerInMW</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99992600009</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>STORAGE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2646,7 +5705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150100021</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
-        <v>4644.4034</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2730,6 +5789,435 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20240100284</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20240100307</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20240100331</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20240100356</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20240100382</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20240100409</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20240100437</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20240100466</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20240100496</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20240100527</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20240100559</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>46752.99861111111</v>
+        <v>48579.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>47117.99861111111</v>
+        <v>48943.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1173,6 +1173,21 @@
       <c r="F1" s="6" t="n">
         <v>2028</v>
       </c>
+      <c r="G1" s="6" t="n">
+        <v>2029</v>
+      </c>
+      <c r="H1" s="6" t="n">
+        <v>2030</v>
+      </c>
+      <c r="I1" s="6" t="n">
+        <v>2031</v>
+      </c>
+      <c r="J1" s="6" t="n">
+        <v>2032</v>
+      </c>
+      <c r="K1" s="6" t="n">
+        <v>2033</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1181,12 +1196,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.23999999999999</v>
+        <v>72.13999999999999</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1201,6 +1221,11 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1215,6 +1240,11 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1223,12 +1253,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.432</v>
+        <v>19.952</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1237,12 +1272,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.624</v>
+        <v>24.164</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1251,12 +1291,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.832</v>
+        <v>68.202</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1285,6 +1330,31 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1301,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,24 +1466,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19892800024</v>
+        <v>20230300031</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F4" t="n">
-        <v>24845.77</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>24845.77</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1421,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20230300031</v>
+        <v>20230300032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1446,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20230300032</v>
+        <v>20230300034</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1471,7 +1541,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20230300034</v>
+        <v>20230300037</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1496,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20230300037</v>
+        <v>20230300041</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1521,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20230300041</v>
+        <v>20230300046</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1546,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20230300046</v>
+        <v>20230300052</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1571,7 +1641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20230300052</v>
+        <v>20230300059</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1596,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20230300059</v>
+        <v>20230300067</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1621,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20230300067</v>
+        <v>20230300076</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1646,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20230300076</v>
+        <v>20230300086</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1671,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20230300086</v>
+        <v>20231700097</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1679,10 +1749,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F15" t="n">
         <v>1000</v>
@@ -1696,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20231700097</v>
+        <v>20231700109</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1721,7 +1791,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20231700109</v>
+        <v>20231700122</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1746,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20231700122</v>
+        <v>20231700136</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1771,7 +1841,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20231700136</v>
+        <v>20231700151</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1796,7 +1866,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20231700151</v>
+        <v>20231700167</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1821,7 +1891,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20231700167</v>
+        <v>20231700184</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1846,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20231700184</v>
+        <v>20231700202</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1871,7 +1941,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20231700202</v>
+        <v>20231700221</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1896,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20231700221</v>
+        <v>20231700241</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1921,7 +1991,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20231700241</v>
+        <v>20231700262</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1946,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20231700262</v>
+        <v>20260301984</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1954,10 +2024,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E26" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="F26" t="n">
         <v>1000</v>
@@ -1971,7 +2041,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20260301984</v>
+        <v>20260301988</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1996,7 +2066,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20260301988</v>
+        <v>20260301993</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2021,7 +2091,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20260301993</v>
+        <v>20260301999</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2046,7 +2116,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20260301999</v>
+        <v>20260302006</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2071,7 +2141,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20260302006</v>
+        <v>20260302014</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2096,7 +2166,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20260302014</v>
+        <v>20260302023</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2121,7 +2191,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20260302023</v>
+        <v>20260302033</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2146,7 +2216,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20260302033</v>
+        <v>20260302044</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2171,7 +2241,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20260302044</v>
+        <v>20260302056</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2196,7 +2266,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20260302056</v>
+        <v>20260302069</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2221,7 +2291,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20260302069</v>
+        <v>20261701981</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2229,10 +2299,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F37" t="n">
         <v>1000</v>
@@ -2246,7 +2316,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20261701981</v>
+        <v>20261702083</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2271,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20261702083</v>
+        <v>20261702098</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2296,7 +2366,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20261702098</v>
+        <v>20261702114</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2321,7 +2391,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20261702114</v>
+        <v>20261702131</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2346,7 +2416,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20261702131</v>
+        <v>20261702149</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2371,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20261702149</v>
+        <v>20261702168</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2396,7 +2466,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20261702168</v>
+        <v>20261702188</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2421,7 +2491,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20261702188</v>
+        <v>20261702209</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2446,7 +2516,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20261702209</v>
+        <v>20261702231</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2471,7 +2541,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20261702231</v>
+        <v>20281702303</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2488,6 +2558,406 @@
         <v>1000</v>
       </c>
       <c r="G47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20290302867</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20290302870</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20290302874</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20290302879</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20290302885</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20290302892</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20290302900</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20290302909</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20290302919</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20291702930</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20291702942</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20291702955</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20291702969</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20291702984</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20291703000</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20291703017</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G63" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -2539,7 +3009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,10 +5989,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20102100030</v>
+        <v>20262102579</v>
       </c>
       <c r="C77" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -5558,35 +6028,971 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>20262102603</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20262102628</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20262102654</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20262102681</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20262102709</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20262102738</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20262102768</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20262102799</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20262102831</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20262102864</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20272102864</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20272102865</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20272402381</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20272402394</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20272402408</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20272402423</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20272402439</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20272402456</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20272402474</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20272402493</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>20272402513</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20272402534</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20272402556</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>20102100030</v>
+      </c>
+      <c r="C101" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
         <v>20142300031</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C102" t="n">
         <v>10271.8</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D102" t="n">
         <v>2.7</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>WindOff</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5705,7 +7111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6223,6 +7629,435 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20290102304</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20290102306</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20290102309</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20290102313</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20290102318</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20290102324</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20290102331</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20290102339</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20290102348</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20290102358</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20290102369</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1245,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,24 +1290,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19892800024</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>24845.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20230300031</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1329,10 +1329,10 @@
         <v>0.61</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1340,24 +1340,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20230300032</v>
+        <v>19892800024</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>24845.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="5">
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20230300034</v>
+        <v>20230300031</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20230300037</v>
+        <v>20230300032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20230300041</v>
+        <v>20230300034</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20230300046</v>
+        <v>20230300037</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20230300052</v>
+        <v>20230300041</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20230300059</v>
+        <v>20230300046</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20230300067</v>
+        <v>20230300052</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1540,348 +1540,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20230300076</v>
+        <v>19851400028</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>8599</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20230300086</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20231700097</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20231700109</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>20231700122</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20231700136</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20231700151</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20231700167</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20231700184</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20231700202</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20231700221</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>20231700241</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>20231700262</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>19851400028</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>NUCLEAR</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F25" t="n">
-        <v>8599</v>
-      </c>
-      <c r="G25" t="n">
         <v>8599</v>
       </c>
     </row>
@@ -1933,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,17 +1780,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20222400592</v>
+        <v>20102100030</v>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2144,17 +1819,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20222400626</v>
+        <v>20142300031</v>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>10271.8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2173,123 +1848,6 @@
         </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20222400661</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>WindOn</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20102100030</v>
-      </c>
-      <c r="C8" t="n">
-        <v>53555.51607579708</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>OtherPV</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20142300031</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2380,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2435,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20000100021</v>
+        <v>99990100004</v>
       </c>
       <c r="C2" t="n">
-        <v>4644.4034</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2474,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20240100284</v>
+        <v>20000100021</v>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>4644.4034</v>
       </c>
       <c r="D3" t="n">
         <v>1.9</v>
@@ -2503,396 +2061,6 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>20240100307</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20240100331</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20240100356</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20240100382</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20240100409</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20240100437</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20240100466</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20240100496</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20240100527</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20240100559</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45291.99861111111</v>
+        <v>43830.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>45656.99861111111</v>
+        <v>44195.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1159,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.31999999999999</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="3">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.616</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="6">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.392</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.136</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="8">
@@ -1245,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99991700006</v>
+        <v>19920300022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>31358.329</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>31358.329</v>
       </c>
     </row>
     <row r="3">
@@ -1315,24 +1315,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99990300008</v>
+        <v>19892800024</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>24845.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>24845.77</v>
       </c>
     </row>
     <row r="4">
@@ -1340,24 +1340,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19892800024</v>
+        <v>19843000025</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F4" t="n">
-        <v>24845.77</v>
+        <v>3652.9</v>
       </c>
       <c r="G4" t="n">
-        <v>24845.77</v>
+        <v>3652.9</v>
       </c>
     </row>
     <row r="5">
@@ -1365,24 +1365,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20230300031</v>
+        <v>19822900027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>20779.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>20779.02</v>
       </c>
     </row>
     <row r="6">
@@ -1390,24 +1390,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20230300032</v>
+        <v>19851400028</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>8599</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="7">
@@ -1415,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20230300034</v>
+        <v>19921700029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1423,141 +1423,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>8194.3025</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20230300037</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20230300041</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20230300046</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20230300052</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>19851400028</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NUCLEAR</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8599</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8599</v>
+        <v>8194.3025</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,17 +1538,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992100002</v>
+        <v>20062400023</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>47547.50848700004</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1702,17 +1577,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99992400003</v>
+        <v>19641200026</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>8858.749999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1741,17 +1616,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20062400023</v>
+        <v>20102100030</v>
       </c>
       <c r="C4" t="n">
-        <v>47547.50848700004</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="D4" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1780,17 +1655,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20102100030</v>
+        <v>20142300031</v>
       </c>
       <c r="C5" t="n">
-        <v>53555.51607579708</v>
+        <v>10271.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1809,45 +1684,6 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20142300031</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>WindOff</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1938,7 +1774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99990100004</v>
+        <v>20000100021</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4644.4034</v>
       </c>
       <c r="D2" t="n">
         <v>1.9</v>
@@ -2022,45 +1858,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20000100021</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4644.4034</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/amiris_workflow/amiris_data_structure.xlsx
+++ b/amiris_workflow/amiris_data_structure.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>43830.99861111111</v>
+        <v>47118.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44195.99861111111</v>
+        <v>47482.99861111111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,6 +1161,33 @@
       <c r="B1" s="6" t="n">
         <v>2020</v>
       </c>
+      <c r="C1" s="6" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="6" t="n">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="6" t="n">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="6" t="n">
+        <v>2029</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1169,8 +1196,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.4</v>
-      </c>
+        <v>56.21999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1181,6 +1217,15 @@
       <c r="B3" t="n">
         <v>1.69</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1191,6 +1236,15 @@
       <c r="B4" t="n">
         <v>3.96</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1199,8 +1253,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
-      </c>
+        <v>17.136</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1209,8 +1272,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
-      </c>
+        <v>22.932</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1219,8 +1291,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.44</v>
-      </c>
+        <v>61.506</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1229,6 +1310,51 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>./timeseries/demand/load.csv</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
@@ -1245,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1340,24 +1466,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19843000025</v>
+        <v>20230300031</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F4" t="n">
-        <v>3652.9</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>3652.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1365,24 +1491,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19822900027</v>
+        <v>20230300032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F5" t="n">
-        <v>20779.02</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>20779.02</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1390,24 +1516,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19851400028</v>
+        <v>20230300034</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F6" t="n">
-        <v>8599</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>8599</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1415,23 +1541,1523 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>20230300037</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20230300041</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20230300046</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20230300052</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20230300059</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20230300067</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20230300076</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20230300086</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20231700097</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20231700109</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20231700122</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20231700136</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20231700151</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20231700167</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20231700184</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20231700202</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20231700221</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20231700241</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20231700262</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20260301984</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20260301988</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20260301993</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20260301999</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20260302006</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20260302014</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20260302023</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20260302033</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20260302044</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20260302056</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20260302069</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20261701981</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20261702083</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20261702098</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20261702114</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20261702131</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20261702149</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20261702168</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20261702188</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20261702209</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20261702231</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20281702303</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20290302867</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20290302870</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20290302874</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20290302879</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20290302885</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20290302892</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20290302900</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20290302909</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20290302919</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20291702930</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20291702942</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20291702955</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20291702969</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20291702984</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20291703000</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20291703017</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19843000025</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3652.9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19822900027</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>LIGNITE</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F65" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="G65" t="n">
+        <v>20779.02</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>19851400028</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NUCLEAR</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8599</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8599</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>19921700029</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D67" t="n">
         <v>4.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E67" t="n">
         <v>0.43</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F67" t="n">
         <v>8194.3025</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G67" t="n">
         <v>8194.3025</v>
       </c>
     </row>
@@ -1483,7 +3109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,17 +3203,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19641200026</v>
+        <v>20212101021</v>
       </c>
       <c r="C3" t="n">
-        <v>8858.749999999998</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RunOfRiver</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1616,10 +3242,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20102100030</v>
+        <v>20212101066</v>
       </c>
       <c r="C4" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1655,35 +3281,3740 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>20212101112</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20212101159</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20212101207</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20212101256</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20212101306</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20212101357</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20212101409</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20212101462</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20212101516</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20222101516</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20222101517</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20222101519</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20222101621</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20222101636</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20222101652</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20222101669</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20222101687</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20222101706</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20222101726</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20222101747</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20222400592</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20222400626</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20222400661</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20222400697</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20222400734</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20222400772</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20222400811</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20222400851</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20222400892</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20222400934</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20222400977</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20232101813</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20232101825</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20232101838</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20232101852</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20232101867</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20232101883</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20232101900</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20232101918</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20232101937</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20232101957</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20232101978</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20242101978</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20242101979</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20242102254</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20242102278</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20242102303</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20242301522</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20242301526</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20242301531</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20242301537</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20242301544</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20242301552</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20242301561</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20242301571</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20242301582</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20242301594</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20242301607</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20242401747</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20242401748</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20242401750</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20242401753</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20242401757</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20242401762</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20242401768</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20242401775</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20242401783</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20242401792</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20242401802</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>WindOn</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20262102579</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20262102603</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20262102628</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20262102654</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20262102681</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20262102709</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20262102738</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20262102768</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20262102799</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20262102831</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+ 